--- a/fund/Jelly_model.xlsx
+++ b/fund/Jelly_model.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="350">
   <si>
     <t>编号</t>
   </si>
@@ -972,6 +972,9 @@
   </si>
   <si>
     <t>影响程度(-10~10)</t>
+  </si>
+  <si>
+    <t>影响分析</t>
   </si>
   <si>
     <t>信息描述</t>
@@ -1072,13 +1075,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1100,14 +1103,110 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1122,63 +1221,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1190,61 +1245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,7 +1304,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,37 +1460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,73 +1472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,55 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,15 +1528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1553,7 +1547,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1573,17 +1567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1595,6 +1578,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,8 +1609,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,148 +1630,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="6">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,26 +1795,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1834,7 +1837,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11494,19 +11497,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667"/>
-    <col min="5" max="5" width="17.3333333333333" customWidth="1"/>
+    <col min="5" max="6" width="17.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>313</v>
       </c>
@@ -11525,45 +11528,48 @@
       <c r="F1" t="s">
         <v>318</v>
       </c>
+      <c r="G1" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>20191011</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>322</v>
+      <c r="G2" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>20191211</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>326</v>
+      <c r="G3" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -11585,119 +11591,119 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/fund/Jelly_model.xlsx
+++ b/fund/Jelly_model.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="360">
   <si>
     <t>编号</t>
   </si>
@@ -887,6 +887,9 @@
     <t>20191211 22:28:01</t>
   </si>
   <si>
+    <t>投资日期</t>
+  </si>
+  <si>
     <t>状态</t>
   </si>
   <si>
@@ -896,7 +899,7 @@
     <t>指数</t>
   </si>
   <si>
-    <t>投资日期</t>
+    <t>总投资</t>
   </si>
   <si>
     <t>恒生指数组合</t>
@@ -1104,11 +1107,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="23">
@@ -1130,6 +1133,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1145,31 +1178,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1182,7 +1193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,30 +1201,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1228,8 +1215,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,23 +1271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,7 +1323,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1365,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,85 +1461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,19 +1491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,43 +1503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,7 +1566,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,6 +1586,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1598,22 +1610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,17 +1640,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1661,148 +1664,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1840,24 +1843,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1874,7 +1877,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10262,7 +10265,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10281,32 +10284,35 @@
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>289</v>
+      </c>
       <c r="C1" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -10314,7 +10320,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D2">
         <v>501016</v>
@@ -10335,25 +10341,25 @@
         <v>284</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>241</v>
       </c>
       <c r="O2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>238</v>
       </c>
       <c r="Q2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>214</v>
       </c>
       <c r="S2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10374,7 +10380,7 @@
         <v>20190909</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5">
         <v>20000</v>
@@ -10438,7 +10444,7 @@
         <v>20191008</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L7">
         <v>10000</v>
@@ -10478,7 +10484,7 @@
         <v>171</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L9">
         <v>-31575.22</v>
@@ -10510,25 +10516,22 @@
         <v>10</v>
       </c>
       <c r="L10" s="14">
-        <f>SUM(F22,H22)</f>
-        <v>0</v>
+        <v>1448.08</v>
       </c>
       <c r="M10" s="13">
-        <f>L10/300</f>
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="N10" s="14">
-        <f>SUM(F24,H24)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O10" s="13">
-        <v>-2.035</v>
+        <v>1.53</v>
       </c>
       <c r="P10" s="13">
-        <v>39.3957703927492</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="13">
-        <v>0.302114803625378</v>
+        <v>1.53</v>
       </c>
       <c r="R10" s="13">
         <v>-152.116402116402</v>
@@ -10545,7 +10548,7 @@
         <v>277</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L11">
         <v>14298</v>
@@ -10577,7 +10580,7 @@
         <v>229</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D13">
         <v>13000</v>
@@ -10603,7 +10606,7 @@
         <v>230</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H15">
         <v>3000</v>
@@ -10621,10 +10624,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="J17">
         <v>3000</v>
@@ -11031,28 +11034,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11063,22 +11066,22 @@
         <v>20191011</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11089,48 +11092,48 @@
         <v>20191211</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11152,99 +11155,99 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C22" s="6"/>
       <c r="F22" s="3"/>
@@ -11252,77 +11255,77 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/fund/Jelly_model.xlsx
+++ b/fund/Jelly_model.xlsx
@@ -540,6 +540,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -547,61 +548,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyAlignment="1">
@@ -610,13 +611,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyAlignment="1">
@@ -628,10 +629,10 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
@@ -640,58 +641,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1680,8 +1681,10 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>105</v>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="I2" s="41" t="n">
         <v>2.1742</v>
@@ -1820,8 +1823,10 @@
           <t>1.142, 1.124, 1.081, 1.027, 1.04, 1.016, 0.998, 1.014, 1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>105</v>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="I3" s="41" t="n">
         <v>1.264</v>
@@ -2253,8 +2258,10 @@
           <t>有机会</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>105</v>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="I6" s="41" t="n">
         <v>2.196</v>
@@ -3451,8 +3458,10 @@
           <t>11月大幅下降，是因为分红,盘子太大</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>104</v>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
       </c>
       <c r="I14" s="41" t="n">
         <v>4.8361</v>
@@ -3757,8 +3766,10 @@
           <t>少</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>105</v>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="I16" s="41" t="n">
         <v>1.712</v>
@@ -4654,8 +4665,10 @@
           <t>2.473, 2.472, 2.439, 2.467, 2.458, 2.43, 2.451, 2.407, 2.433, 2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>103</v>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
       </c>
       <c r="I22" s="43" t="n">
         <v>2.688</v>
@@ -5732,8 +5745,10 @@
           <t>1.7582, 1.7673, 1.7644, 1.7642, 1.7661, 1.7506, 1.7709, 1.7667, 1.7823, 1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065</t>
         </is>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>100</v>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="I30" s="47" t="n">
         <v>1.8065</v>
@@ -5996,8 +6011,10 @@
           <t>0.861, 0.86, 0.824, 0.792, 0.819, 0.799, 0.773, 0.785, 0.817, 0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991</t>
         </is>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>100</v>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="I32" s="47" t="n">
         <v>0.991</v>
@@ -6656,8 +6673,10 @@
           <t>1.126, 1.13, 1.095, 1.058, 1.078, 1.053, 1.04, 1.047, 1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224</t>
         </is>
       </c>
-      <c r="H37" s="0" t="n">
-        <v>100</v>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="I37" s="47" t="n">
         <v>1.224</v>

--- a/fund/Jelly_model.xlsx
+++ b/fund/Jelly_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8555"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="432">
   <si>
     <t>编号</t>
   </si>
@@ -221,7 +221,7 @@
     <t>广发双擎升级混合</t>
   </si>
   <si>
-    <t>1.7918, 1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792, 2.2168</t>
+    <t>1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792, 2.2168, 2.203</t>
   </si>
   <si>
     <t>回撤时买</t>
@@ -230,274 +230,274 @@
     <t>中</t>
   </si>
   <si>
+    <t>2020-01-03</t>
+  </si>
+  <si>
+    <t>20191120</t>
+  </si>
+  <si>
+    <t>诺安成长混合</t>
+  </si>
+  <si>
+    <t>1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243, 1.275, 1.253</t>
+  </si>
+  <si>
+    <t>20191021</t>
+  </si>
+  <si>
+    <t>20191119</t>
+  </si>
+  <si>
+    <t>银河创新成长混合</t>
+  </si>
+  <si>
+    <t>3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288, 4.2087, 4.2386</t>
+  </si>
+  <si>
+    <t>20191018</t>
+  </si>
+  <si>
+    <t>003745</t>
+  </si>
+  <si>
+    <t>广发多元新兴股票</t>
+  </si>
+  <si>
+    <t>1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628, 1.592, 1.5822</t>
+  </si>
+  <si>
+    <t>银华内需精选混合(LOF)</t>
+  </si>
+  <si>
+    <t>1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196, 2.251, 2.243</t>
+  </si>
+  <si>
+    <t>有机会</t>
+  </si>
+  <si>
+    <t>20191016</t>
+  </si>
+  <si>
+    <t>华宝中证医疗指数分级</t>
+  </si>
+  <si>
+    <t>中证医疗指数</t>
+  </si>
+  <si>
+    <t>1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022, 1.1038, 1.0981</t>
+  </si>
+  <si>
+    <t>本次回撤结束就买，同类前4，指数到8700左右时买</t>
+  </si>
+  <si>
+    <t>20191024</t>
+  </si>
+  <si>
+    <t>006113</t>
+  </si>
+  <si>
+    <t>汇添富创新医药混合</t>
+  </si>
+  <si>
+    <t>1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971, 1.5973, 1.5803</t>
+  </si>
+  <si>
+    <t>1808成立</t>
+  </si>
+  <si>
+    <t>001480</t>
+  </si>
+  <si>
+    <t>财通成长优选混合</t>
+  </si>
+  <si>
+    <t>1.226, 1.25, 1.213, 1.203, 1.218, 1.193, 1.19, 1.207, 1.209, 1.209, 1.227, 1.248, 1.222, 1.22, 1.201, 1.21, 1.235, 1.241, 1.226, 1.219, 1.226, 1.205, 1.2, 1.212, 1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272, 1.238, 1.238, 1.252, 1.3, 1.313</t>
+  </si>
+  <si>
+    <t>最近涨了不少</t>
+  </si>
+  <si>
+    <t>20191008</t>
+  </si>
+  <si>
+    <t>20191114</t>
+  </si>
+  <si>
+    <t>006879</t>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+  </si>
+  <si>
+    <t>1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206, 1.6645, 1.6935</t>
+  </si>
+  <si>
+    <t>1905成立</t>
+  </si>
+  <si>
+    <t>20191023</t>
+  </si>
+  <si>
+    <t>007873</t>
+  </si>
+  <si>
+    <t>华宝科技ETF联接A</t>
+  </si>
+  <si>
+    <t>1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035, 1.1274, 1.1289</t>
+  </si>
+  <si>
+    <t>1908成立</t>
+  </si>
+  <si>
+    <t>007490</t>
+  </si>
+  <si>
+    <t>南方信息创新混合A</t>
+  </si>
+  <si>
+    <t>1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001, 1.544, 1.548</t>
+  </si>
+  <si>
+    <t>1906成立</t>
+  </si>
+  <si>
+    <t>050026</t>
+  </si>
+  <si>
+    <t>博时医疗保健行业混合A</t>
+  </si>
+  <si>
+    <t>2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281, 2.289, 2.288</t>
+  </si>
+  <si>
+    <t>易方达中小盘混合</t>
+  </si>
+  <si>
+    <t>5.3538, 5.3447, 5.3919, 5.3639, 5.3725, 5.3144, 5.2869, 5.3027, 5.25, 5.184, 5.2546, 5.3053, 5.2848, 5.2823, 5.3217, 5.4348, 5.4667, 5.4931, 5.4546, 5.4822, 5.4775, 5.4148, 5.4479, 5.5077, 5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552, 4.8483, 4.9114, 4.9607, 4.9348, 4.8767</t>
+  </si>
+  <si>
+    <t>11月大幅下降，是因为分红,盘子太大</t>
+  </si>
+  <si>
+    <t>招商中证白酒指数分级</t>
+  </si>
+  <si>
+    <t>中证白酒指数</t>
+  </si>
+  <si>
+    <t>0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073, 0.9966, 0.9857</t>
+  </si>
+  <si>
+    <t>当前估值太高，近三月表现不佳</t>
+  </si>
+  <si>
+    <t>003096</t>
+  </si>
+  <si>
+    <t>中欧医疗健康混合C</t>
+  </si>
+  <si>
+    <t>1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733, 1.727, 1.715</t>
+  </si>
+  <si>
+    <t>回撤时可买少量</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>004851</t>
+  </si>
+  <si>
+    <t>广发医疗保健股票</t>
+  </si>
+  <si>
+    <t>1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051, 1.7031, 1.6944</t>
+  </si>
+  <si>
+    <t>似乎回撤结束</t>
+  </si>
+  <si>
+    <t>000913</t>
+  </si>
+  <si>
+    <t>农银医疗保健股票</t>
+  </si>
+  <si>
+    <t>1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693, 1.5706, 1.5547</t>
+  </si>
+  <si>
+    <t>似乎回撤结束，盈利空间太小</t>
+  </si>
+  <si>
+    <t>招商中证银行指数分级</t>
+  </si>
+  <si>
+    <t>1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261, 1.143, 1.1458</t>
+  </si>
+  <si>
+    <t>盈利空间太小</t>
+  </si>
+  <si>
+    <t>20191030</t>
+  </si>
+  <si>
+    <t>20191106</t>
+  </si>
+  <si>
+    <t>001071</t>
+  </si>
+  <si>
+    <t>华安媒体互联网混合</t>
+  </si>
+  <si>
+    <t>1.696, 1.738, 1.709, 1.693, 1.705, 1.667, 1.67, 1.696, 1.672, 1.672, 1.696, 1.74, 1.708, 1.726, 1.714, 1.727, 1.769, 1.815, 1.806, 1.798, 1.805, 1.773, 1.772, 1.794, 1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984, 1.987, 1.994, 2.002, 2.017, 2.072, 2.111</t>
+  </si>
+  <si>
+    <t>在高点</t>
+  </si>
+  <si>
+    <t>20191111</t>
+  </si>
+  <si>
+    <t>004070</t>
+  </si>
+  <si>
+    <t>南方中证全指证券ETF联接C</t>
+  </si>
+  <si>
+    <t>0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333, 1.0395, 1.0382</t>
+  </si>
+  <si>
+    <t>20190815</t>
+  </si>
+  <si>
+    <t>20190911</t>
+  </si>
+  <si>
+    <t>040046</t>
+  </si>
+  <si>
+    <t>华安纳斯达克100指数</t>
+  </si>
+  <si>
+    <t>宽基</t>
+  </si>
+  <si>
+    <t>2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709, 2.708, 2.722, 2.723, 2.703, 2.709, 2.744</t>
+  </si>
+  <si>
     <t>2020-01-02</t>
   </si>
   <si>
-    <t>20191120</t>
-  </si>
-  <si>
-    <t>诺安成长混合</t>
-  </si>
-  <si>
-    <t>1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243, 1.275</t>
-  </si>
-  <si>
-    <t>20191021</t>
-  </si>
-  <si>
-    <t>20191119</t>
-  </si>
-  <si>
-    <t>银河创新成长混合</t>
-  </si>
-  <si>
-    <t>3.4228, 3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288, 4.2087</t>
-  </si>
-  <si>
-    <t>20191018</t>
-  </si>
-  <si>
-    <t>003745</t>
-  </si>
-  <si>
-    <t>广发多元新兴股票</t>
-  </si>
-  <si>
-    <t>1.2833, 1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628, 1.592</t>
-  </si>
-  <si>
-    <t>银华内需精选混合(LOF)</t>
-  </si>
-  <si>
-    <t>1.957, 1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196, 2.251</t>
-  </si>
-  <si>
-    <t>有机会</t>
-  </si>
-  <si>
-    <t>20191016</t>
-  </si>
-  <si>
-    <t>华宝中证医疗指数分级</t>
-  </si>
-  <si>
-    <t>中证医疗指数</t>
-  </si>
-  <si>
-    <t>1.1078, 1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022, 1.1038</t>
-  </si>
-  <si>
-    <t>本次回撤结束就买，同类前4，指数到8700左右时买</t>
-  </si>
-  <si>
-    <t>20191024</t>
-  </si>
-  <si>
-    <t>006113</t>
-  </si>
-  <si>
-    <t>汇添富创新医药混合</t>
-  </si>
-  <si>
-    <t>1.5779, 1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971, 1.5973</t>
-  </si>
-  <si>
-    <t>1808成立</t>
-  </si>
-  <si>
-    <t>001480</t>
-  </si>
-  <si>
-    <t>财通成长优选混合</t>
-  </si>
-  <si>
-    <t>1.217, 1.226, 1.25, 1.213, 1.203, 1.218, 1.193, 1.19, 1.207, 1.209, 1.209, 1.227, 1.248, 1.222, 1.22, 1.201, 1.21, 1.235, 1.241, 1.226, 1.219, 1.226, 1.205, 1.2, 1.212, 1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272, 1.238, 1.238, 1.252, 1.3</t>
-  </si>
-  <si>
-    <t>最近涨了不少</t>
-  </si>
-  <si>
-    <t>20191008</t>
-  </si>
-  <si>
-    <t>20191114</t>
-  </si>
-  <si>
-    <t>006879</t>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-  </si>
-  <si>
-    <t>1.3906, 1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206, 1.6645</t>
-  </si>
-  <si>
-    <t>1905成立</t>
-  </si>
-  <si>
-    <t>20191023</t>
-  </si>
-  <si>
-    <t>007873</t>
-  </si>
-  <si>
-    <t>华宝科技ETF联接A</t>
-  </si>
-  <si>
-    <t>1.015, 1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035, 1.1274</t>
-  </si>
-  <si>
-    <t>1908成立</t>
-  </si>
-  <si>
-    <t>007490</t>
-  </si>
-  <si>
-    <t>南方信息创新混合A</t>
-  </si>
-  <si>
-    <t>1.2495, 1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001, 1.544</t>
-  </si>
-  <si>
-    <t>1906成立</t>
-  </si>
-  <si>
-    <t>050026</t>
-  </si>
-  <si>
-    <t>博时医疗保健行业混合A</t>
-  </si>
-  <si>
-    <t>2.295, 2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281, 2.289</t>
-  </si>
-  <si>
-    <t>易方达中小盘混合</t>
-  </si>
-  <si>
-    <t>5.3328, 5.3538, 5.3447, 5.3919, 5.3639, 5.3725, 5.3144, 5.2869, 5.3027, 5.25, 5.184, 5.2546, 5.3053, 5.2848, 5.2823, 5.3217, 5.4348, 5.4667, 5.4931, 5.4546, 5.4822, 5.4775, 5.4148, 5.4479, 5.5077, 5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552, 4.8483, 4.9114, 4.9607, 4.9348</t>
-  </si>
-  <si>
-    <t>11月大幅下降，是因为分红,盘子太大</t>
-  </si>
-  <si>
-    <t>招商中证白酒指数分级</t>
-  </si>
-  <si>
-    <t>中证白酒指数</t>
-  </si>
-  <si>
-    <t>0.9912, 0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073, 0.9966</t>
-  </si>
-  <si>
-    <t>当前估值太高，近三月表现不佳</t>
-  </si>
-  <si>
-    <t>003096</t>
-  </si>
-  <si>
-    <t>中欧医疗健康混合C</t>
-  </si>
-  <si>
-    <t>1.714, 1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733, 1.727</t>
-  </si>
-  <si>
-    <t>回撤时可买少量</t>
-  </si>
-  <si>
-    <t>少</t>
-  </si>
-  <si>
-    <t>004851</t>
-  </si>
-  <si>
-    <t>广发医疗保健股票</t>
-  </si>
-  <si>
-    <t>1.6789, 1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051, 1.7031</t>
-  </si>
-  <si>
-    <t>似乎回撤结束</t>
-  </si>
-  <si>
-    <t>000913</t>
-  </si>
-  <si>
-    <t>农银医疗保健股票</t>
-  </si>
-  <si>
-    <t>1.5456, 1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693, 1.5706</t>
-  </si>
-  <si>
-    <t>似乎回撤结束，盈利空间太小</t>
-  </si>
-  <si>
-    <t>招商中证银行指数分级</t>
-  </si>
-  <si>
-    <t>1.0939, 1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261, 1.143</t>
-  </si>
-  <si>
-    <t>盈利空间太小</t>
-  </si>
-  <si>
-    <t>20191030</t>
-  </si>
-  <si>
-    <t>20191106</t>
-  </si>
-  <si>
-    <t>001071</t>
-  </si>
-  <si>
-    <t>华安媒体互联网混合</t>
-  </si>
-  <si>
-    <t>1.712, 1.696, 1.738, 1.709, 1.693, 1.705, 1.667, 1.67, 1.696, 1.672, 1.672, 1.696, 1.74, 1.708, 1.726, 1.714, 1.727, 1.769, 1.815, 1.806, 1.798, 1.805, 1.773, 1.772, 1.794, 1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984, 1.987, 1.994, 2.002, 2.017, 2.072</t>
-  </si>
-  <si>
-    <t>在高点</t>
-  </si>
-  <si>
-    <t>20191111</t>
-  </si>
-  <si>
-    <t>004070</t>
-  </si>
-  <si>
-    <t>南方中证全指证券ETF联接C</t>
-  </si>
-  <si>
-    <t>0.9402, 0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333, 1.0395</t>
-  </si>
-  <si>
-    <t>20190815</t>
-  </si>
-  <si>
-    <t>20190911</t>
-  </si>
-  <si>
-    <t>040046</t>
-  </si>
-  <si>
-    <t>华安纳斯达克100指数</t>
-  </si>
-  <si>
-    <t>宽基</t>
-  </si>
-  <si>
-    <t>2.433, 2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709, 2.708, 2.722, 2.723, 2.703, 2.709</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>20191128</t>
   </si>
   <si>
     <t>国泰中证申万证券行业指数</t>
   </si>
   <si>
-    <t>1.0052, 1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105, 1.1178</t>
+    <t>1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105, 1.1178, 1.1158</t>
   </si>
   <si>
     <t>20190807</t>
@@ -512,7 +512,7 @@
     <t>交银成长30混合</t>
   </si>
   <si>
-    <t>1.447, 1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609, 1.642</t>
+    <t>1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609, 1.642, 1.634</t>
   </si>
   <si>
     <t>20191212</t>
@@ -527,7 +527,7 @@
     <t>广发创新升级混合</t>
   </si>
   <si>
-    <t>1.5389, 1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454, 1.8824</t>
+    <t>1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454, 1.8824, 1.8705</t>
   </si>
   <si>
     <t>20191211</t>
@@ -539,7 +539,7 @@
     <t>信达澳银新能源产业股票</t>
   </si>
   <si>
-    <t>1.952, 1.951, 1.994, 1.936, 1.925, 1.921, 1.89, 1.879, 1.92, 1.909, 1.903, 1.927, 1.998, 1.957, 1.96, 1.941, 1.958, 1.979, 2.008, 1.992, 1.996, 1.996, 1.956, 1.943, 1.974, 2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35, 2.298, 2.312, 2.308, 2.383</t>
+    <t>1.951, 1.994, 1.936, 1.925, 1.921, 1.89, 1.879, 1.92, 1.909, 1.903, 1.927, 1.998, 1.957, 1.96, 1.941, 1.958, 1.979, 2.008, 1.992, 1.996, 1.996, 1.956, 1.943, 1.974, 2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35, 2.298, 2.312, 2.308, 2.383, 2.398</t>
   </si>
   <si>
     <t>20191218</t>
@@ -551,7 +551,7 @@
     <t>南方希元转债</t>
   </si>
   <si>
-    <t>1.0994, 1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982, 1.2174</t>
+    <t>1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982, 1.2174, 1.2225</t>
   </si>
   <si>
     <t>20191129</t>
@@ -563,7 +563,7 @@
     <t>招商中证全指证券公司分级B</t>
   </si>
   <si>
-    <t>1.0352, 1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154, 1.2283</t>
+    <t>1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154, 1.2283, 1.2258</t>
   </si>
   <si>
     <t>161028</t>
@@ -572,7 +572,7 @@
     <t>富国中证新能源汽车指数分级</t>
   </si>
   <si>
-    <t>0.985, 0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206, 1.219</t>
+    <t>0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206, 1.219, 1.231</t>
   </si>
   <si>
     <t/>
@@ -584,7 +584,7 @@
     <t>易方达上证50指数A</t>
   </si>
   <si>
-    <t>1.7823, 1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778, 1.7856, 1.802, 1.808, 1.8266</t>
+    <t>1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778, 1.7856, 1.802, 1.808, 1.8266, 1.8226</t>
   </si>
   <si>
     <t>270042</t>
@@ -593,7 +593,7 @@
     <t>广发纳斯达克100指数A</t>
   </si>
   <si>
-    <t>2.4582, 2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424, 2.7479</t>
+    <t>2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424, 2.7479, 2.7864</t>
   </si>
   <si>
     <t>519005</t>
@@ -602,7 +602,7 @@
     <t>海富通股票混合</t>
   </si>
   <si>
-    <t>0.817, 0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988, 0.957, 0.96, 0.957, 0.976</t>
+    <t>0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988, 0.957, 0.96, 0.957, 0.976, 0.965</t>
   </si>
   <si>
     <t>20191125</t>
@@ -614,7 +614,7 @@
     <t>广发小盘成长混合(LOF)</t>
   </si>
   <si>
-    <t>1.7313, 1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031, 2.0743</t>
+    <t>1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031, 2.0743, 2.0578</t>
   </si>
   <si>
     <t>007300</t>
@@ -623,7 +623,7 @@
     <t>国联安中证半导体ETF联接A</t>
   </si>
   <si>
-    <t>1.2367, 1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379, 1.4891</t>
+    <t>1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379, 1.4891, 1.487</t>
   </si>
   <si>
     <t>161613</t>
@@ -632,7 +632,7 @@
     <t>融通创业板指数A</t>
   </si>
   <si>
-    <t>0.807, 0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869, 0.885</t>
+    <t>0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869, 0.885, 0.885</t>
   </si>
   <si>
     <t>161128</t>
@@ -641,7 +641,7 @@
     <t>易标普信息科技人民币</t>
   </si>
   <si>
-    <t>1.6342, 1.644, 1.6671, 1.6653, 1.6822, 1.6718, 1.669, 1.6524, 1.6686, 1.6467, 1.6505, 1.673, 1.6923, 1.7127, 1.6944, 1.7035, 1.7004, 1.7179, 1.7254, 1.7231, 1.716, 1.7262, 1.7343, 1.7348, 1.7407, 1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837, 1.8425, 1.8447, 1.8326, 1.8375</t>
+    <t>1.644, 1.6671, 1.6653, 1.6822, 1.6718, 1.669, 1.6524, 1.6686, 1.6467, 1.6505, 1.673, 1.6923, 1.7127, 1.6944, 1.7035, 1.7004, 1.7179, 1.7254, 1.7231, 1.716, 1.7262, 1.7343, 1.7348, 1.7407, 1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837, 1.8425, 1.8447, 1.8326, 1.8375, 1.8636</t>
   </si>
   <si>
     <t>161033</t>
@@ -650,13 +650,16 @@
     <t>富国中证智能汽车(LOF)</t>
   </si>
   <si>
-    <t>1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24, 1.262</t>
+    <t>1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24, 1.262, 1.262</t>
   </si>
   <si>
     <t>007301</t>
   </si>
   <si>
-    <t>10</t>
+    <t>国联安中证半导体ETF联接C</t>
+  </si>
+  <si>
+    <t>1.2124, 1.2472, 1.2074, 1.1946, 1.1921, 1.1669, 1.168, 1.1904, 1.1804, 1.1722, 1.1898, 1.2266, 1.1974, 1.2241, 1.2174, 1.2281, 1.2417, 1.2547, 1.2216, 1.2286, 1.2382, 1.2064, 1.1994, 1.2439, 1.2768, 1.2664, 1.2711, 1.2911, 1.2738, 1.2717, 1.2449, 1.2015, 1.2146, 1.2514, 1.2488, 1.255, 1.2803, 1.3085, 1.317, 1.3394, 1.3687, 1.3842, 1.426, 1.4116, 1.4482, 1.4473, 1.4782, 1.4708, 1.4711, 1.4363, 1.4251, 1.3799, 1.4175, 1.4822, 1.47, 1.4293, 1.4365, 1.4326, 1.4836, 1.4815</t>
   </si>
   <si>
     <t>20191231</t>
@@ -665,6 +668,9 @@
     <t>20191225</t>
   </si>
   <si>
+    <t>恒生指数(人民币，建行可买)</t>
+  </si>
+  <si>
     <t xml:space="preserve">香港指数基金，建行可买，完全跟踪恒生指数   </t>
   </si>
   <si>
@@ -764,7 +770,7 @@
     <t>参考</t>
   </si>
   <si>
-    <t>20200102 22:19:19</t>
+    <t>20200104 14:23:45</t>
   </si>
   <si>
     <t>000016.SH</t>
@@ -779,199 +785,208 @@
     <t>沪深300</t>
   </si>
   <si>
+    <t>20200104 14:23:46</t>
+  </si>
+  <si>
     <t>000922.CSI</t>
   </si>
   <si>
     <t xml:space="preserve">中证红利 </t>
   </si>
   <si>
+    <t>20200103</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>000942.CSI</t>
+  </si>
+  <si>
+    <t>内地消费</t>
+  </si>
+  <si>
+    <t>000932.SH</t>
+  </si>
+  <si>
+    <t>中证主要消费</t>
+  </si>
+  <si>
+    <t>20200104 14:23:47</t>
+  </si>
+  <si>
+    <t>000991.SH</t>
+  </si>
+  <si>
+    <t>全指医药卫生</t>
+  </si>
+  <si>
+    <t>000913.SH</t>
+  </si>
+  <si>
+    <t>沪深300医药</t>
+  </si>
+  <si>
+    <t>类全指医药</t>
+  </si>
+  <si>
+    <t>399975.SZ</t>
+  </si>
+  <si>
+    <t>证券公司指数</t>
+  </si>
+  <si>
+    <t>招商中证银行，据说银行类涨势差</t>
+  </si>
+  <si>
+    <t>399006.SZ</t>
+  </si>
+  <si>
+    <t>创业版指</t>
+  </si>
+  <si>
+    <t>20200104 14:23:48</t>
+  </si>
+  <si>
+    <t>399986.CSI</t>
+  </si>
+  <si>
+    <t>中证银行</t>
+  </si>
+  <si>
+    <t>399989.CSI</t>
+  </si>
+  <si>
+    <t>中证医疗</t>
+  </si>
+  <si>
+    <t>华宝中证医疗指数分级(162412)</t>
+  </si>
+  <si>
+    <t>000170.SH</t>
+  </si>
+  <si>
+    <t>50AH优选</t>
+  </si>
+  <si>
+    <t>100.HSI</t>
+  </si>
+  <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>20200104 14:23:49</t>
+  </si>
+  <si>
+    <t>NDX</t>
+  </si>
+  <si>
+    <t>纳斯达克100</t>
+  </si>
+  <si>
+    <t>投资日期</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>基金</t>
+  </si>
+  <si>
+    <t>指数</t>
+  </si>
+  <si>
+    <t>总投资</t>
+  </si>
+  <si>
+    <t>161810</t>
+  </si>
+  <si>
+    <t>320007</t>
+  </si>
+  <si>
+    <t>恒生指数组合</t>
+  </si>
+  <si>
+    <t>红利指数组合</t>
+  </si>
+  <si>
+    <t>沪深300指数组合</t>
+  </si>
+  <si>
+    <t>睿定投</t>
+  </si>
+  <si>
+    <t>已赎回</t>
+  </si>
+  <si>
+    <t>赎回</t>
+  </si>
+  <si>
+    <t>20191118</t>
+  </si>
+  <si>
+    <t>20191204</t>
+  </si>
+  <si>
+    <t>20191205</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20191216</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20191219</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>5010</t>
+  </si>
+  <si>
+    <t>26217</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>20200102</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>20200102 22:19:20</t>
-  </si>
-  <si>
-    <t>000942.CSI</t>
-  </si>
-  <si>
-    <t>内地消费</t>
-  </si>
-  <si>
-    <t>000932.SH</t>
-  </si>
-  <si>
-    <t>中证主要消费</t>
-  </si>
-  <si>
-    <t>000991.SH</t>
-  </si>
-  <si>
-    <t>全指医药卫生</t>
-  </si>
-  <si>
-    <t>000913.SH</t>
-  </si>
-  <si>
-    <t>沪深300医药</t>
-  </si>
-  <si>
-    <t>类全指医药</t>
-  </si>
-  <si>
-    <t>399975.SZ</t>
-  </si>
-  <si>
-    <t>证券公司指数</t>
-  </si>
-  <si>
-    <t>招商中证银行，据说银行类涨势差</t>
-  </si>
-  <si>
-    <t>399006.SZ</t>
-  </si>
-  <si>
-    <t>创业版指</t>
-  </si>
-  <si>
-    <t>399986.CSI</t>
-  </si>
-  <si>
-    <t>中证银行</t>
-  </si>
-  <si>
-    <t>20200102 22:19:21</t>
-  </si>
-  <si>
-    <t>399989.CSI</t>
-  </si>
-  <si>
-    <t>中证医疗</t>
-  </si>
-  <si>
-    <t>华宝中证医疗指数分级(162412)</t>
-  </si>
-  <si>
-    <t>000170.SH</t>
-  </si>
-  <si>
-    <t>50AH优选</t>
-  </si>
-  <si>
-    <t>100.HSI</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>NDX</t>
-  </si>
-  <si>
-    <t>纳斯达克100</t>
-  </si>
-  <si>
-    <t>投资日期</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>基金</t>
-  </si>
-  <si>
-    <t>指数</t>
-  </si>
-  <si>
-    <t>总投资</t>
-  </si>
-  <si>
-    <t>161810</t>
-  </si>
-  <si>
-    <t>320007</t>
-  </si>
-  <si>
-    <t>恒生指数组合</t>
-  </si>
-  <si>
-    <t>红利指数组合</t>
-  </si>
-  <si>
-    <t>沪深300指数组合</t>
-  </si>
-  <si>
-    <t>睿定投</t>
-  </si>
-  <si>
-    <t>已赎回</t>
-  </si>
-  <si>
-    <t>赎回</t>
-  </si>
-  <si>
-    <t>20191118</t>
-  </si>
-  <si>
-    <t>20191204</t>
-  </si>
-  <si>
-    <t>20191205</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20191216</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20191219</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>5010</t>
-  </si>
-  <si>
-    <t>26217</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>26</t>
   </si>
   <si>
     <t>赎回(86308)</t>
@@ -1154,6 +1169,9 @@
   </si>
   <si>
     <t>前期科技涨太多，又到年底，已经赚钱的有兑现需求，所以股票马上会跌。</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>元旦降准0.5个百分点，节后第一天跳空大涨。根据之前信息，科技卖残了，很多基在CA签协议时过于乐观，再加上当时有钱，想投出去，追高了不少基。
@@ -1321,12 +1339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
@@ -1362,9 +1380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,6 +1394,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1386,7 +1450,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,28 +1495,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1445,57 +1510,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1538,7 +1556,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,13 +1646,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,19 +1676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,13 +1700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,55 +1718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,55 +1736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,41 +1761,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1814,9 +1797,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,15 +1862,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1852,10 +1870,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
@@ -1864,7 +1882,7 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
@@ -1873,124 +1891,124 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="8">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2522,10 +2540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CK39"/>
+  <dimension ref="A1:CV39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2779,7 +2797,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" ht="15.15" customHeight="1" spans="1:89">
+    <row r="2" ht="15.15" customHeight="1" spans="1:100">
       <c r="A2" s="32" t="s">
         <v>65</v>
       </c>
@@ -2799,26 +2817,26 @@
         <v>115</v>
       </c>
       <c r="I2" s="3">
-        <v>2.2168</v>
+        <v>2.203</v>
       </c>
       <c r="J2" s="27">
-        <v>1.72540381791484</v>
+        <v>-0.62251894622881</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>2.10492377136014</v>
+        <v>-0.62251894622881</v>
       </c>
       <c r="M2">
-        <v>2.2168</v>
+        <v>2.203</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O2" s="27">
         <f t="shared" ref="O2:O13" si="0">(P2-I2)/I2*100</f>
-        <v>-22.0904005774089</v>
+        <v>-21.6023604176123</v>
       </c>
       <c r="P2" s="3">
         <v>1.7271</v>
@@ -2828,7 +2846,7 @@
       </c>
       <c r="R2" s="27">
         <f t="shared" ref="R2:R13" si="1">(S2-I2)/I2*100</f>
-        <v>-9.05810176831469</v>
+        <v>-8.48842487517022</v>
       </c>
       <c r="S2" s="3">
         <v>2.016</v>
@@ -2905,8 +2923,19 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
     </row>
-    <row r="3" ht="15.15" customHeight="1" spans="1:89">
+    <row r="3" ht="15.15" customHeight="1" spans="1:100">
       <c r="A3" s="10">
         <v>320007</v>
       </c>
@@ -2920,26 +2949,26 @@
         <v>115</v>
       </c>
       <c r="I3" s="3">
-        <v>1.275</v>
+        <v>1.253</v>
       </c>
       <c r="J3" s="27">
-        <v>2.57441673370875</v>
+        <v>-1.72549019607843</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1.8957345971564</v>
+        <v>-1.27906976744186</v>
       </c>
       <c r="M3">
-        <v>1.72</v>
+        <v>1.698</v>
       </c>
       <c r="N3" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="27">
         <f t="shared" si="0"/>
-        <v>-21.4117647058823</v>
+        <v>-20.0319233838787</v>
       </c>
       <c r="P3" s="3">
         <v>1.002</v>
@@ -2949,7 +2978,7 @@
       </c>
       <c r="R3" s="27">
         <f t="shared" si="1"/>
-        <v>-9.80392156862745</v>
+        <v>-8.22027134876297</v>
       </c>
       <c r="S3" s="3">
         <v>1.15</v>
@@ -3026,8 +3055,19 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
     </row>
-    <row r="4" ht="15.15" customHeight="1" spans="1:89">
+    <row r="4" ht="15.15" customHeight="1" spans="1:100">
       <c r="A4" s="10">
         <v>519674</v>
       </c>
@@ -3041,26 +3081,26 @@
         <v>5</v>
       </c>
       <c r="I4" s="3">
-        <v>4.2087</v>
+        <v>4.2386</v>
       </c>
       <c r="J4" s="27">
-        <v>4.46534948371723</v>
+        <v>0.710433150378967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>4.46534948371723</v>
+        <v>5.2075059571088</v>
       </c>
       <c r="M4">
-        <v>4.2087</v>
+        <v>4.2386</v>
       </c>
       <c r="N4" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O4" s="27">
         <f t="shared" si="0"/>
-        <v>-20.7831396868392</v>
+        <v>-21.3419525314962</v>
       </c>
       <c r="P4" s="3">
         <v>3.334</v>
@@ -3070,7 +3110,7 @@
       </c>
       <c r="R4" s="27">
         <f t="shared" si="1"/>
-        <v>-12.1343882909212</v>
+        <v>-12.7542112961827</v>
       </c>
       <c r="S4" s="3">
         <v>3.698</v>
@@ -3147,8 +3187,19 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
     </row>
-    <row r="5" ht="15.15" customHeight="1" spans="1:89">
+    <row r="5" ht="15.15" customHeight="1" spans="1:100">
       <c r="A5" s="32" t="s">
         <v>79</v>
       </c>
@@ -3162,26 +3213,26 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>1.592</v>
+        <v>1.5822</v>
       </c>
       <c r="J5" s="27">
-        <v>1.86844125927823</v>
+        <v>-0.615577889447238</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>2.55749532951105</v>
+        <v>-0.615577889447238</v>
       </c>
       <c r="M5">
-        <v>1.592</v>
+        <v>1.5822</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O5" s="27">
         <f t="shared" si="0"/>
-        <v>-22.0477386934673</v>
+        <v>-21.5649096195171</v>
       </c>
       <c r="P5" s="3">
         <v>1.241</v>
@@ -3191,7 +3242,7 @@
       </c>
       <c r="R5" s="27">
         <f t="shared" si="1"/>
-        <v>-9.67964824120604</v>
+        <v>-9.12021236253319</v>
       </c>
       <c r="S5" s="3">
         <v>1.4379</v>
@@ -3268,8 +3319,19 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
     </row>
-    <row r="6" ht="15.15" customHeight="1" spans="1:89">
+    <row r="6" ht="15.15" customHeight="1" spans="1:100">
       <c r="A6" s="10">
         <v>161810</v>
       </c>
@@ -3286,26 +3348,26 @@
         <v>115</v>
       </c>
       <c r="I6" s="3">
-        <v>2.251</v>
+        <v>2.243</v>
       </c>
       <c r="J6" s="27">
-        <v>2.50455373406192</v>
+        <v>-0.355397601066193</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>4.03500243072437</v>
+        <v>-0.327102803738323</v>
       </c>
       <c r="M6">
-        <v>2.14</v>
+        <v>2.133</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O6" s="27">
         <f t="shared" si="0"/>
-        <v>-14.0826299422479</v>
+        <v>-13.7761925991975</v>
       </c>
       <c r="P6" s="3">
         <v>1.934</v>
@@ -3315,7 +3377,7 @@
       </c>
       <c r="R6" s="27">
         <f t="shared" si="1"/>
-        <v>-4.75344291426032</v>
+        <v>-4.41373160945162</v>
       </c>
       <c r="S6" s="3">
         <v>2.144</v>
@@ -3392,8 +3454,19 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="1"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="1"/>
+      <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
     </row>
-    <row r="7" ht="15.15" customHeight="1" spans="1:89">
+    <row r="7" ht="15.15" customHeight="1" spans="1:100">
       <c r="A7" s="22">
         <v>162412</v>
       </c>
@@ -3416,26 +3489,26 @@
         <v>5</v>
       </c>
       <c r="I7" s="3">
-        <v>1.1038</v>
+        <v>1.0981</v>
       </c>
       <c r="J7" s="27">
-        <v>0.145164217020488</v>
+        <v>-0.516397898169942</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>2.49668581528943</v>
+        <v>-0.517352877775374</v>
       </c>
       <c r="M7">
-        <v>0.4639</v>
+        <v>0.4615</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O7" s="27">
         <f t="shared" si="0"/>
-        <v>-1.31364377604638</v>
+        <v>-0.801384209088438</v>
       </c>
       <c r="P7" s="3">
         <v>1.0893</v>
@@ -3445,7 +3518,7 @@
       </c>
       <c r="R7" s="27">
         <f t="shared" si="1"/>
-        <v>10.4729117593767</v>
+        <v>11.0463527911848</v>
       </c>
       <c r="S7" s="3">
         <v>1.2194</v>
@@ -3522,8 +3595,19 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
     </row>
-    <row r="8" ht="15.15" customHeight="1" spans="1:89">
+    <row r="8" ht="15.15" customHeight="1" spans="1:100">
       <c r="A8" s="32" t="s">
         <v>91</v>
       </c>
@@ -3540,26 +3624,26 @@
         <v>5</v>
       </c>
       <c r="I8" s="3">
-        <v>1.5973</v>
+        <v>1.5803</v>
       </c>
       <c r="J8" s="27">
-        <v>0.0125226973890162</v>
+        <v>-1.06429599949915</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.71293937850229</v>
+        <v>-1.06429599949915</v>
       </c>
       <c r="M8">
-        <v>1.5973</v>
+        <v>1.5803</v>
       </c>
       <c r="N8" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O8" s="27">
         <f t="shared" si="0"/>
-        <v>-2.64195830463908</v>
+        <v>-1.59463393026641</v>
       </c>
       <c r="P8" s="3">
         <v>1.5551</v>
@@ -3569,7 +3653,7 @@
       </c>
       <c r="R8" s="27">
         <f t="shared" si="1"/>
-        <v>6.71758592625055</v>
+        <v>7.86559514016325</v>
       </c>
       <c r="S8" s="3">
         <v>1.7046</v>
@@ -3646,8 +3730,19 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
     </row>
-    <row r="9" ht="15.15" customHeight="1" spans="1:89">
+    <row r="9" ht="15.15" customHeight="1" spans="1:100">
       <c r="A9" s="33" t="s">
         <v>95</v>
       </c>
@@ -3664,26 +3759,26 @@
         <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>1.3</v>
+        <v>1.313</v>
       </c>
       <c r="J9" s="27">
-        <v>3.83386581469649</v>
+        <v>0.999999999999992</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>5.0080775444265</v>
+        <v>6.05815831987076</v>
       </c>
       <c r="M9">
-        <v>1.3</v>
+        <v>1.313</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O9" s="27">
         <f t="shared" si="0"/>
-        <v>-10.4615384615385</v>
+        <v>-11.3480578827114</v>
       </c>
       <c r="P9" s="3">
         <v>1.164</v>
@@ -3693,7 +3788,7 @@
       </c>
       <c r="R9" s="27">
         <f t="shared" si="1"/>
-        <v>-4.53846153846153</v>
+        <v>-5.48362528560547</v>
       </c>
       <c r="S9" s="3">
         <v>1.241</v>
@@ -3770,8 +3865,19 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
     </row>
-    <row r="10" ht="15.15" customHeight="1" spans="1:89">
+    <row r="10" ht="15.15" customHeight="1" spans="1:100">
       <c r="A10" s="32" t="s">
         <v>101</v>
       </c>
@@ -3791,26 +3897,26 @@
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>1.6645</v>
+        <v>1.6935</v>
       </c>
       <c r="J10" s="27">
-        <v>2.70887325681846</v>
+        <v>1.74226494442775</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>7.70674259091497</v>
+        <v>9.58327940986152</v>
       </c>
       <c r="M10">
-        <v>1.6645</v>
+        <v>1.6935</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O10" s="27">
         <f t="shared" si="0"/>
-        <v>-18.4499849804746</v>
+        <v>-19.8464718039563</v>
       </c>
       <c r="P10" s="3">
         <v>1.3574</v>
@@ -3820,7 +3926,7 @@
       </c>
       <c r="R10" s="27">
         <f t="shared" si="1"/>
-        <v>-9.69059777711024</v>
+        <v>-11.2370829642752</v>
       </c>
       <c r="S10" s="3">
         <v>1.5032</v>
@@ -3897,8 +4003,19 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="1"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="1"/>
+      <c r="CP10" s="1"/>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
     </row>
-    <row r="11" ht="15.15" customHeight="1" spans="1:89">
+    <row r="11" ht="15.15" customHeight="1" spans="1:100">
       <c r="A11" s="32" t="s">
         <v>106</v>
       </c>
@@ -3915,26 +4032,26 @@
         <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>1.1274</v>
+        <v>1.1289</v>
       </c>
       <c r="J11" s="27">
-        <v>2.16583597643861</v>
+        <v>0.133049494411926</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3.79303995580923</v>
+        <v>3.93113607070521</v>
       </c>
       <c r="M11">
-        <v>1.1274</v>
+        <v>1.1289</v>
       </c>
       <c r="N11" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="27">
         <f t="shared" si="0"/>
-        <v>-11.2648571935427</v>
+        <v>-11.3827619806892</v>
       </c>
       <c r="P11" s="3">
         <v>1.0004</v>
@@ -3944,7 +4061,7 @@
       </c>
       <c r="R11" s="27">
         <f t="shared" si="1"/>
-        <v>-3.29962746141564</v>
+        <v>-3.42811586500133</v>
       </c>
       <c r="S11" s="3">
         <v>1.0902</v>
@@ -4021,8 +4138,19 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
     </row>
-    <row r="12" ht="15.15" customHeight="1" spans="1:89">
+    <row r="12" ht="15.15" customHeight="1" spans="1:100">
       <c r="A12" s="32" t="s">
         <v>110</v>
       </c>
@@ -4039,26 +4167,26 @@
         <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>1.544</v>
+        <v>1.548</v>
       </c>
       <c r="J12" s="27">
-        <v>2.9264715685621</v>
+        <v>0.259067357512954</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>3.73555495834454</v>
+        <v>4.00429991937652</v>
       </c>
       <c r="M12">
-        <v>1.544</v>
+        <v>1.548</v>
       </c>
       <c r="N12" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O12" s="27">
         <f t="shared" si="0"/>
-        <v>-22.3834196891192</v>
+        <v>-22.5839793281654</v>
       </c>
       <c r="P12" s="3">
         <v>1.1984</v>
@@ -4068,7 +4196,7 @@
       </c>
       <c r="R12" s="27">
         <f t="shared" si="1"/>
-        <v>-11.4831606217617</v>
+        <v>-11.7118863049096</v>
       </c>
       <c r="S12" s="3">
         <v>1.3667</v>
@@ -4145,8 +4273,19 @@
       <c r="CI12" s="3"/>
       <c r="CJ12" s="3"/>
       <c r="CK12" s="3"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
     </row>
-    <row r="13" ht="15.15" customHeight="1" spans="1:89">
+    <row r="13" ht="15.15" customHeight="1" spans="1:100">
       <c r="A13" s="33" t="s">
         <v>114</v>
       </c>
@@ -4160,26 +4299,26 @@
         <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>2.289</v>
+        <v>2.288</v>
       </c>
       <c r="J13" s="27">
-        <v>0.350723366944323</v>
+        <v>-0.043687199650517</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>2.36087689713322</v>
+        <v>-0.0411861614497483</v>
       </c>
       <c r="M13">
-        <v>2.428</v>
+        <v>2.427</v>
       </c>
       <c r="N13" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O13" s="27">
         <f t="shared" si="0"/>
-        <v>-2.49017038007863</v>
+        <v>-2.44755244755243</v>
       </c>
       <c r="P13" s="3">
         <v>2.232</v>
@@ -4189,7 +4328,7 @@
       </c>
       <c r="R13" s="27">
         <f t="shared" si="1"/>
-        <v>6.29095674967233</v>
+        <v>6.33741258741259</v>
       </c>
       <c r="S13" s="3">
         <v>2.433</v>
@@ -4266,8 +4405,19 @@
       <c r="CI13" s="3"/>
       <c r="CJ13" s="3"/>
       <c r="CK13" s="3"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
     </row>
-    <row r="14" ht="15.15" customHeight="1" spans="1:89">
+    <row r="14" ht="15.15" customHeight="1" spans="1:100">
       <c r="A14" s="10">
         <v>110011</v>
       </c>
@@ -4284,26 +4434,26 @@
         <v>114</v>
       </c>
       <c r="I14" s="3">
-        <v>4.9348</v>
+        <v>4.8767</v>
       </c>
       <c r="J14" s="27">
-        <v>-0.52210373535993</v>
+        <v>-1.1773526789333</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>-0.442682072230674</v>
+        <v>-1.43572563966704</v>
       </c>
       <c r="M14">
-        <v>5.8248</v>
+        <v>5.7667</v>
       </c>
       <c r="N14" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O14" s="27">
         <f>(P14-I14-0.5)/(I14+0.5)*100</f>
-        <v>-4.61470523294325</v>
+        <v>-3.58398274034258</v>
       </c>
       <c r="P14" s="3">
         <v>5.184</v>
@@ -4313,7 +4463,7 @@
       </c>
       <c r="R14" s="27">
         <f>(S14-I14-0.5)/(I14+0.5)*100</f>
-        <v>2.40119231618458</v>
+        <v>3.50772778842041</v>
       </c>
       <c r="S14" s="3">
         <v>5.5653</v>
@@ -4390,8 +4540,19 @@
       <c r="CI14" s="3"/>
       <c r="CJ14" s="3"/>
       <c r="CK14" s="3"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
     </row>
-    <row r="15" ht="15.15" customHeight="1" spans="1:89">
+    <row r="15" ht="15.15" customHeight="1" spans="1:100">
       <c r="A15" s="10">
         <v>161725</v>
       </c>
@@ -4411,26 +4572,26 @@
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>0.9966</v>
+        <v>0.9857</v>
       </c>
       <c r="J15" s="27">
-        <v>-1.0622456070684</v>
+        <v>-1.09371864338752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>-0.501546826661664</v>
+        <v>-1.01246836036373</v>
       </c>
       <c r="M15">
-        <v>2.1227</v>
+        <v>2.1118</v>
       </c>
       <c r="N15" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="27">
         <f t="shared" ref="O15:O39" si="2">(P15-I15)/I15*100</f>
-        <v>-4.60565924142084</v>
+        <v>-3.55077609820432</v>
       </c>
       <c r="P15" s="3">
         <v>0.9507</v>
@@ -4440,7 +4601,7 @@
       </c>
       <c r="R15" s="27">
         <f t="shared" ref="R15:R39" si="3">(S15-I15)/I15*100</f>
-        <v>2.18743728677503</v>
+        <v>3.31743938317946</v>
       </c>
       <c r="S15" s="3">
         <v>1.0184</v>
@@ -4517,8 +4678,19 @@
       <c r="CI15" s="3"/>
       <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
     </row>
-    <row r="16" ht="15.15" customHeight="1" spans="1:89">
+    <row r="16" ht="15.15" customHeight="1" spans="1:100">
       <c r="A16" s="34" t="s">
         <v>124</v>
       </c>
@@ -4538,26 +4710,26 @@
         <v>115</v>
       </c>
       <c r="I16" s="3">
-        <v>1.727</v>
+        <v>1.715</v>
       </c>
       <c r="J16" s="27">
-        <v>-0.346220427005194</v>
+        <v>-0.694846554719167</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>-0.331858407079646</v>
+        <v>-0.995575221238939</v>
       </c>
       <c r="M16">
-        <v>1.802</v>
+        <v>1.79</v>
       </c>
       <c r="N16" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O16" s="27">
         <f t="shared" si="2"/>
-        <v>-1.38969310943833</v>
+        <v>-0.699708454810496</v>
       </c>
       <c r="P16" s="3">
         <v>1.703</v>
@@ -4567,7 +4739,7 @@
       </c>
       <c r="R16" s="27">
         <f t="shared" si="3"/>
-        <v>10.5964099594673</v>
+        <v>11.3702623906705</v>
       </c>
       <c r="S16" s="3">
         <v>1.91</v>
@@ -4644,8 +4816,19 @@
       <c r="CI16" s="3"/>
       <c r="CJ16" s="3"/>
       <c r="CK16" s="3"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1"/>
+      <c r="CO16" s="1"/>
+      <c r="CP16" s="1"/>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
     </row>
-    <row r="17" ht="15.15" customHeight="1" spans="1:89">
+    <row r="17" ht="15.15" customHeight="1" spans="1:100">
       <c r="A17" s="34" t="s">
         <v>129</v>
       </c>
@@ -4665,26 +4848,26 @@
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1.7031</v>
+        <v>1.6944</v>
       </c>
       <c r="J17" s="27">
-        <v>-0.117295173303619</v>
+        <v>-0.510833186542197</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>-0.117295173303619</v>
+        <v>-0.627529177174368</v>
       </c>
       <c r="M17">
-        <v>1.7031</v>
+        <v>1.6944</v>
       </c>
       <c r="N17" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O17" s="27">
         <f t="shared" si="2"/>
-        <v>-3.18243203569961</v>
+        <v>-2.68531633616619</v>
       </c>
       <c r="P17" s="3">
         <v>1.6489</v>
@@ -4694,7 +4877,7 @@
       </c>
       <c r="R17" s="27">
         <f t="shared" si="3"/>
-        <v>9.69408725265692</v>
+        <v>10.2573182247403</v>
       </c>
       <c r="S17" s="3">
         <v>1.8682</v>
@@ -4771,8 +4954,19 @@
       <c r="CI17" s="3"/>
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
     </row>
-    <row r="18" ht="15.15" customHeight="1" spans="1:89">
+    <row r="18" ht="15.15" customHeight="1" spans="1:100">
       <c r="A18" s="33" t="s">
         <v>133</v>
       </c>
@@ -4792,26 +4986,26 @@
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>1.5706</v>
+        <v>1.5547</v>
       </c>
       <c r="J18" s="27">
-        <v>0.0828394825718523</v>
+        <v>-1.012351967401</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1.77553136340073</v>
+        <v>-1.012351967401</v>
       </c>
       <c r="M18">
-        <v>1.5706</v>
+        <v>1.5547</v>
       </c>
       <c r="N18" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O18" s="27">
         <f t="shared" si="2"/>
-        <v>-2.90334903858399</v>
+        <v>-1.91033639930534</v>
       </c>
       <c r="P18" s="3">
         <v>1.525</v>
@@ -4821,7 +5015,7 @@
       </c>
       <c r="R18" s="27">
         <f t="shared" si="3"/>
-        <v>8.6591111677066</v>
+        <v>9.77037370553804</v>
       </c>
       <c r="S18" s="3">
         <v>1.7066</v>
@@ -4898,8 +5092,19 @@
       <c r="CI18" s="3"/>
       <c r="CJ18" s="3"/>
       <c r="CK18" s="3"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
     </row>
-    <row r="19" ht="15.15" customHeight="1" spans="1:50">
+    <row r="19" ht="15.15" customHeight="1" spans="1:100">
       <c r="A19" s="10">
         <v>161723</v>
       </c>
@@ -4916,26 +5121,26 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>1.143</v>
+        <v>1.1458</v>
       </c>
       <c r="J19" s="11">
-        <v>1.50075481751176</v>
+        <v>0.244969378827639</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1.37253309510273</v>
+        <v>1.59993502801915</v>
       </c>
       <c r="M19">
-        <v>1.2482</v>
+        <v>1.251</v>
       </c>
       <c r="N19" t="s">
         <v>70</v>
       </c>
       <c r="O19" s="27">
         <f t="shared" si="2"/>
-        <v>-1.96850393700787</v>
+        <v>-2.20806423459591</v>
       </c>
       <c r="P19">
         <v>1.1205</v>
@@ -4945,7 +5150,7 @@
       </c>
       <c r="R19" s="27">
         <f t="shared" si="3"/>
-        <v>1.48731408573927</v>
+        <v>1.23930877989178</v>
       </c>
       <c r="S19">
         <v>1.16</v>
@@ -4983,8 +5188,50 @@
       <c r="AV19" s="11"/>
       <c r="AW19"/>
       <c r="AX19"/>
+      <c r="AY19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
     </row>
-    <row r="20" ht="15.15" customHeight="1" spans="1:60">
+    <row r="20" ht="15.15" customHeight="1" spans="1:100">
       <c r="A20" s="35" t="s">
         <v>142</v>
       </c>
@@ -5001,26 +5248,26 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>2.072</v>
+        <v>2.111</v>
       </c>
       <c r="J20" s="11">
-        <v>2.72682201289044</v>
+        <v>1.88223938223939</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>8.02919708029198</v>
+        <v>10.0625651720542</v>
       </c>
       <c r="M20">
-        <v>2.072</v>
+        <v>2.111</v>
       </c>
       <c r="N20" t="s">
         <v>70</v>
       </c>
       <c r="O20" s="27">
         <f t="shared" si="2"/>
-        <v>-14.4305019305019</v>
+        <v>-16.0113690194221</v>
       </c>
       <c r="P20">
         <v>1.773</v>
@@ -5030,7 +5277,7 @@
       </c>
       <c r="R20" s="27">
         <f t="shared" si="3"/>
-        <v>-8.97683397683398</v>
+        <v>-10.6584557081952</v>
       </c>
       <c r="S20">
         <v>1.886</v>
@@ -5076,8 +5323,46 @@
       <c r="BD20"/>
       <c r="BE20" s="11"/>
       <c r="BH20" s="11"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
     </row>
-    <row r="21" ht="15.15" customHeight="1" spans="1:62">
+    <row r="21" ht="15.15" customHeight="1" spans="1:100">
       <c r="A21" s="36" t="s">
         <v>147</v>
       </c>
@@ -5091,26 +5376,26 @@
         <v>104</v>
       </c>
       <c r="I21">
-        <v>1.0395</v>
+        <v>1.0382</v>
       </c>
       <c r="J21" s="11">
-        <v>0.600019355463078</v>
+        <v>-0.125060125060133</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.600019355463078</v>
+        <v>-0.125060125060133</v>
       </c>
       <c r="M21">
-        <v>1.0395</v>
+        <v>1.0382</v>
       </c>
       <c r="N21" t="s">
         <v>70</v>
       </c>
       <c r="O21" s="27">
         <f t="shared" si="2"/>
-        <v>-14.1317941317941</v>
+        <v>-14.0242727798112</v>
       </c>
       <c r="P21">
         <v>0.8926</v>
@@ -5120,7 +5405,7 @@
       </c>
       <c r="R21" s="27">
         <f t="shared" si="3"/>
-        <v>-2.36652236652238</v>
+        <v>-2.24426892698903</v>
       </c>
       <c r="S21">
         <v>1.0149</v>
@@ -5170,8 +5455,46 @@
       <c r="BH21" s="11"/>
       <c r="BI21"/>
       <c r="BJ21"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
     </row>
-    <row r="22" ht="15.15" customHeight="1" spans="1:56">
+    <row r="22" ht="15.15" customHeight="1" spans="1:100">
       <c r="A22" s="35" t="s">
         <v>152</v>
       </c>
@@ -5188,26 +5511,26 @@
         <v>113</v>
       </c>
       <c r="I22">
-        <v>2.709</v>
+        <v>2.744</v>
       </c>
       <c r="J22" s="11">
-        <v>0.221975582685913</v>
+        <v>1.29198966408269</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.221975582685913</v>
+        <v>1.51683314835369</v>
       </c>
       <c r="M22">
-        <v>2.709</v>
+        <v>2.744</v>
       </c>
       <c r="N22" t="s">
         <v>156</v>
       </c>
       <c r="O22" s="27">
         <f t="shared" si="2"/>
-        <v>-11.1480251015135</v>
+        <v>-12.2813411078717</v>
       </c>
       <c r="P22" s="3">
         <v>2.407</v>
@@ -5217,7 +5540,7 @@
       </c>
       <c r="R22" s="27">
         <f t="shared" si="3"/>
-        <v>-2.43632336655593</v>
+        <v>-3.68075801749273</v>
       </c>
       <c r="S22" s="3">
         <v>2.643</v>
@@ -5261,8 +5584,48 @@
       <c r="BB22" s="11"/>
       <c r="BC22"/>
       <c r="BD22"/>
+      <c r="BE22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
     </row>
-    <row r="23" ht="15.15" customHeight="1" spans="1:62">
+    <row r="23" ht="15.15" customHeight="1" spans="1:100">
       <c r="A23" s="10">
         <v>501016</v>
       </c>
@@ -5276,26 +5639,26 @@
         <v>104</v>
       </c>
       <c r="I23">
-        <v>1.1178</v>
+        <v>1.1158</v>
       </c>
       <c r="J23" s="11">
-        <v>0.657361548851856</v>
+        <v>-0.178922884236894</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.657361548851856</v>
+        <v>-0.178922884236894</v>
       </c>
       <c r="M23">
-        <v>1.1178</v>
+        <v>1.1158</v>
       </c>
       <c r="N23" t="s">
         <v>70</v>
       </c>
       <c r="O23" s="27">
         <f t="shared" si="2"/>
-        <v>-15.8346752549651</v>
+        <v>-15.6838143036386</v>
       </c>
       <c r="P23" s="3">
         <v>0.9408</v>
@@ -5305,7 +5668,7 @@
       </c>
       <c r="R23" s="27">
         <f t="shared" si="3"/>
-        <v>-1.78028269815708</v>
+        <v>-1.60423014877216</v>
       </c>
       <c r="S23" s="3">
         <v>1.0979</v>
@@ -5355,8 +5718,46 @@
       <c r="BH23" s="11"/>
       <c r="BI23"/>
       <c r="BJ23"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
     </row>
-    <row r="24" ht="15.15" customHeight="1" spans="1:20">
+    <row r="24" ht="15.15" customHeight="1" spans="1:100">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5370,26 +5771,26 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.642</v>
+        <v>1.634</v>
       </c>
       <c r="J24" s="11">
-        <v>2.05096333126165</v>
+        <v>-0.487210718635811</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>3.0392156862745</v>
+        <v>-0.38058991436727</v>
       </c>
       <c r="M24">
-        <v>2.102</v>
+        <v>2.094</v>
       </c>
       <c r="N24" t="s">
         <v>70</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>-3.71498172959805</v>
+        <v>-3.24357405140758</v>
       </c>
       <c r="P24">
         <v>1.581</v>
@@ -5399,7 +5800,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="3"/>
-        <v>1.70523751522534</v>
+        <v>2.20318237454101</v>
       </c>
       <c r="S24">
         <v>1.67</v>
@@ -5407,8 +5808,64 @@
       <c r="T24" t="s">
         <v>166</v>
       </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
     </row>
-    <row r="25" ht="15.15" customHeight="1" spans="1:20">
+    <row r="25" ht="15.15" customHeight="1" spans="1:100">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -5422,26 +5879,26 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.8824</v>
+        <v>1.8705</v>
       </c>
       <c r="J25" s="11">
-        <v>2.00498536902569</v>
+        <v>-0.632171695707608</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>2.75082631410599</v>
+        <v>-0.617412057694304</v>
       </c>
       <c r="M25">
-        <v>1.9274</v>
+        <v>1.9155</v>
       </c>
       <c r="N25" t="s">
         <v>70</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>-2.73586910327242</v>
+        <v>-2.11708099438653</v>
       </c>
       <c r="P25">
         <v>1.8309</v>
@@ -5451,7 +5908,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>0.37717807054823</v>
+        <v>1.01577118417535</v>
       </c>
       <c r="S25">
         <v>1.8895</v>
@@ -5459,8 +5916,64 @@
       <c r="T25" t="s">
         <v>166</v>
       </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
     </row>
-    <row r="26" ht="15.15" customHeight="1" spans="1:20">
+    <row r="26" ht="15.15" customHeight="1" spans="1:100">
       <c r="A26" t="s">
         <v>171</v>
       </c>
@@ -5474,26 +5987,26 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2.383</v>
+        <v>2.398</v>
       </c>
       <c r="J26" s="11">
-        <v>3.24956672443675</v>
+        <v>0.629458665547634</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3.1645569620253</v>
+        <v>3.79746835443037</v>
       </c>
       <c r="M26">
-        <v>2.445</v>
+        <v>2.46</v>
       </c>
       <c r="N26" t="s">
         <v>70</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>-6.42047838858582</v>
+        <v>-7.00583819849875</v>
       </c>
       <c r="P26">
         <v>2.23</v>
@@ -5503,7 +6016,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
-        <v>-1.13302559798574</v>
+        <v>-1.7514595496247</v>
       </c>
       <c r="S26">
         <v>2.356</v>
@@ -5511,8 +6024,64 @@
       <c r="T26" t="s">
         <v>174</v>
       </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:100">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -5526,26 +6095,26 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1.2174</v>
+        <v>1.2225</v>
       </c>
       <c r="J27" s="11">
-        <v>1.60240360540812</v>
+        <v>0.418925579102997</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>3.28327818783405</v>
+        <v>3.71595825909899</v>
       </c>
       <c r="M27">
-        <v>1.2174</v>
+        <v>1.2225</v>
       </c>
       <c r="N27" t="s">
         <v>70</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>-8.93707902086414</v>
+        <v>-9.31697341513292</v>
       </c>
       <c r="P27">
         <v>1.1086</v>
@@ -5555,7 +6124,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="3"/>
-        <v>-2.85855101034992</v>
+        <v>-3.26380368098158</v>
       </c>
       <c r="S27">
         <v>1.1826</v>
@@ -5563,8 +6132,64 @@
       <c r="T27" t="s">
         <v>166</v>
       </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
+      <c r="CV27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:100">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -5578,16 +6203,16 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1.2283</v>
+        <v>1.2258</v>
       </c>
       <c r="J28" s="11">
-        <v>1.06137896988645</v>
+        <v>-0.203533338760885</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0.222551928783379</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0.1351</v>
@@ -5597,7 +6222,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>-14.7195310591875</v>
+        <v>-14.5456028715941</v>
       </c>
       <c r="P28">
         <v>1.0475</v>
@@ -5607,7 +6232,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="3"/>
-        <v>-8.45884555890254</v>
+        <v>-8.27214880078316</v>
       </c>
       <c r="S28">
         <v>1.1244</v>
@@ -5615,8 +6240,64 @@
       <c r="T28" t="s">
         <v>174</v>
       </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:100">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -5630,19 +6311,19 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1.219</v>
+        <v>1.231</v>
       </c>
       <c r="J29" s="11">
-        <v>1.07794361525706</v>
+        <v>0.984413453650534</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>2.44798041615667</v>
+        <v>3.42717258261934</v>
       </c>
       <c r="M29">
-        <v>0.837</v>
+        <v>0.845</v>
       </c>
       <c r="N29" t="s">
         <v>70</v>
@@ -5667,8 +6348,64 @@
       <c r="T29" t="s">
         <v>185</v>
       </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1"/>
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:100">
       <c r="A30" t="s">
         <v>186</v>
       </c>
@@ -5682,26 +6419,26 @@
         <v>110</v>
       </c>
       <c r="I30">
-        <v>1.8266</v>
+        <v>1.8226</v>
       </c>
       <c r="J30" s="11">
-        <v>1.0287610619469</v>
+        <v>-0.218986094383007</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1.70573947217598</v>
+        <v>-0.10733644609027</v>
       </c>
       <c r="M30">
-        <v>3.7266</v>
+        <v>3.7226</v>
       </c>
       <c r="N30" t="s">
         <v>70</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>-3.96364830833242</v>
+        <v>-3.75288050038407</v>
       </c>
       <c r="P30">
         <v>1.7542</v>
@@ -5711,7 +6448,7 @@
       </c>
       <c r="R30">
         <f t="shared" si="3"/>
-        <v>-0.602211759553263</v>
+        <v>-0.384066717875557</v>
       </c>
       <c r="S30">
         <v>1.8156</v>
@@ -5719,8 +6456,64 @@
       <c r="T30" t="s">
         <v>166</v>
       </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:100">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -5734,19 +6527,19 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2.7479</v>
+        <v>2.7864</v>
       </c>
       <c r="J31" s="11">
-        <v>0.200554259043176</v>
+        <v>1.40106990792969</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.182578674810784</v>
+        <v>1.46062939848626</v>
       </c>
       <c r="M31">
-        <v>3.0179</v>
+        <v>3.0564</v>
       </c>
       <c r="N31" t="s">
         <v>156</v>
@@ -5771,8 +6564,64 @@
       <c r="T31" t="s">
         <v>185</v>
       </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:100">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -5786,26 +6635,26 @@
         <v>110</v>
       </c>
       <c r="I32">
-        <v>0.976</v>
+        <v>0.965</v>
       </c>
       <c r="J32" s="11">
-        <v>1.98537095088819</v>
+        <v>-1.12704918032787</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0.653819683413616</v>
+        <v>-0.376068376068365</v>
       </c>
       <c r="M32">
-        <v>2.925</v>
+        <v>2.914</v>
       </c>
       <c r="N32" t="s">
         <v>70</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>-16.0860655737705</v>
+        <v>-15.1295336787565</v>
       </c>
       <c r="P32">
         <v>0.819</v>
@@ -5815,7 +6664,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="3"/>
-        <v>3.07377049180328</v>
+        <v>4.24870466321244</v>
       </c>
       <c r="S32">
         <v>1.006</v>
@@ -5823,8 +6672,64 @@
       <c r="T32" t="s">
         <v>174</v>
       </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="1"/>
+      <c r="CL32" s="1"/>
+      <c r="CM32" s="1"/>
+      <c r="CN32" s="1"/>
+      <c r="CO32" s="1"/>
+      <c r="CP32" s="1"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="1"/>
+      <c r="CV32" s="1"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:100">
       <c r="A33" t="s">
         <v>196</v>
       </c>
@@ -5838,19 +6743,19 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>2.0743</v>
+        <v>2.0578</v>
       </c>
       <c r="J33" s="11">
-        <v>2.13195470211718</v>
+        <v>-0.795449067155194</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>1.52320471227078</v>
+        <v>-0.373954626838604</v>
       </c>
       <c r="M33">
-        <v>4.4123</v>
+        <v>4.3958</v>
       </c>
       <c r="N33" t="s">
         <v>70</v>
@@ -5875,8 +6780,64 @@
       <c r="T33" t="s">
         <v>185</v>
       </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1"/>
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:100">
       <c r="A34" t="s">
         <v>199</v>
       </c>
@@ -5890,19 +6851,19 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1.4891</v>
+        <v>1.487</v>
       </c>
       <c r="J34" s="12">
-        <v>3.56074831351277</v>
+        <v>-0.141024780068497</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>3.56074831351277</v>
+        <v>-0.141024780068497</v>
       </c>
       <c r="M34">
-        <v>1.4891</v>
+        <v>1.487</v>
       </c>
       <c r="N34" t="s">
         <v>70</v>
@@ -5927,8 +6888,64 @@
       <c r="T34" t="s">
         <v>185</v>
       </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:100">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -5945,13 +6962,13 @@
         <v>0.885</v>
       </c>
       <c r="J35" s="11">
-        <v>1.84119677790564</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1.41843971631205</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>2.145</v>
@@ -5979,8 +6996,64 @@
       <c r="T35" t="s">
         <v>185</v>
       </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1"/>
+      <c r="CP35" s="1"/>
+      <c r="CQ35" s="1"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:100">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -5994,19 +7067,19 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1.8375</v>
+        <v>1.8636</v>
       </c>
       <c r="J36" s="11">
-        <v>0.26737967914438</v>
+        <v>1.42040816326531</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>0.26737967914438</v>
+        <v>1.69158572519917</v>
       </c>
       <c r="M36">
-        <v>1.8375</v>
+        <v>1.8636</v>
       </c>
       <c r="N36" t="s">
         <v>156</v>
@@ -6031,8 +7104,64 @@
       <c r="T36" t="s">
         <v>185</v>
       </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:100">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -6049,13 +7178,13 @@
         <v>1.262</v>
       </c>
       <c r="J37" s="11">
-        <v>1.7741935483871</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>3.35790335790335</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>1.262</v>
@@ -6083,62 +7212,183 @@
       <c r="T37" t="s">
         <v>166</v>
       </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1"/>
+      <c r="CP37" s="1"/>
+      <c r="CQ37" s="1"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:100">
       <c r="A38" s="37" t="s">
         <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H38" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" t="s">
-        <v>185</v>
-      </c>
-      <c r="J38" t="s">
-        <v>185</v>
-      </c>
-      <c r="K38" t="s">
-        <v>185</v>
-      </c>
-      <c r="L38" t="s">
-        <v>185</v>
+        <v>213</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>1.4815</v>
+      </c>
+      <c r="J38" s="12">
+        <v>-0.14154758695066</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>-0.14154758695066</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1.4815</v>
       </c>
       <c r="N38" t="s">
-        <v>185</v>
-      </c>
-      <c r="O38" t="e">
+        <v>70</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-3.30070874114073</v>
+      </c>
+      <c r="P38">
+        <v>1.4326</v>
       </c>
       <c r="Q38" t="s">
-        <v>213</v>
-      </c>
-      <c r="R38" t="e">
+        <v>214</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0.0472494093823775</v>
+      </c>
+      <c r="S38">
+        <v>1.4822</v>
       </c>
       <c r="T38" t="s">
-        <v>214</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:100">
       <c r="A39">
         <v>968029</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H39" t="s">
         <v>185</v>
@@ -6155,6 +7405,7 @@
       <c r="L39" t="s">
         <v>185</v>
       </c>
+      <c r="M39" s="1"/>
       <c r="N39" t="s">
         <v>185</v>
       </c>
@@ -6172,6 +7423,62 @@
       <c r="T39" t="s">
         <v>185</v>
       </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H65536">
@@ -6277,6 +7584,7 @@
     <hyperlink ref="B35" r:id="rId34" display="融通创业板指数A"/>
     <hyperlink ref="B36" r:id="rId35" display="易标普信息科技人民币"/>
     <hyperlink ref="B37" r:id="rId36" display="富国中证智能汽车(LOF)"/>
+    <hyperlink ref="B38" r:id="rId37" display="国联安中证半导体ETF联接C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6356,22 +7664,22 @@
   <sheetData>
     <row r="1" ht="15.15" customHeight="1" spans="1:62">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -6380,37 +7688,37 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O1" t="s">
         <v>17</v>
       </c>
       <c r="P1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T1" t="s">
         <v>22</v>
@@ -6419,7 +7727,7 @@
         <v>23</v>
       </c>
       <c r="V1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="W1" t="s">
         <v>25</v>
@@ -6428,7 +7736,7 @@
         <v>26</v>
       </c>
       <c r="Y1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -6437,7 +7745,7 @@
         <v>29</v>
       </c>
       <c r="AB1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AC1" t="s">
         <v>31</v>
@@ -6446,7 +7754,7 @@
         <v>32</v>
       </c>
       <c r="AE1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF1" t="s">
         <v>34</v>
@@ -6455,7 +7763,7 @@
         <v>35</v>
       </c>
       <c r="AH1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AI1" t="s">
         <v>37</v>
@@ -6464,7 +7772,7 @@
         <v>38</v>
       </c>
       <c r="AK1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL1" t="s">
         <v>40</v>
@@ -6473,7 +7781,7 @@
         <v>41</v>
       </c>
       <c r="AN1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -6482,7 +7790,7 @@
         <v>44</v>
       </c>
       <c r="AQ1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AR1" t="s">
         <v>46</v>
@@ -6491,7 +7799,7 @@
         <v>47</v>
       </c>
       <c r="AT1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -6500,7 +7808,7 @@
         <v>50</v>
       </c>
       <c r="AW1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AX1" t="s">
         <v>52</v>
@@ -6509,7 +7817,7 @@
         <v>53</v>
       </c>
       <c r="AZ1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BA1" t="s">
         <v>55</v>
@@ -6518,7 +7826,7 @@
         <v>56</v>
       </c>
       <c r="BC1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BD1" t="s">
         <v>58</v>
@@ -6527,7 +7835,7 @@
         <v>59</v>
       </c>
       <c r="BF1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -6536,7 +7844,7 @@
         <v>62</v>
       </c>
       <c r="BI1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BJ1" t="s">
         <v>64</v>
@@ -6544,48 +7852,48 @@
     </row>
     <row r="2" ht="15.15" customHeight="1" spans="1:97">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F2" s="12">
-        <v>3085.1976</v>
+        <v>3083.7858</v>
       </c>
       <c r="G2" s="12">
-        <v>1.14990734802914</v>
+        <v>-0.0457604401092448</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="12">
-        <v>2.66759244607926</v>
+        <v>-0.0457604401092448</v>
       </c>
       <c r="J2" s="12">
-        <v>3.271971226</v>
+        <v>2.899917084</v>
       </c>
       <c r="K2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L2" s="13">
         <f t="shared" ref="L2:L17" si="0">(M2-F2)/F2*100</f>
-        <v>-6.97516424879884</v>
+        <v>-6.93257618606325</v>
       </c>
       <c r="M2">
         <v>2870</v>
       </c>
       <c r="O2" s="13">
         <f t="shared" ref="O2:O17" si="1">(P2-F2)/F2*100</f>
-        <v>5.76307981051198</v>
+        <v>5.81149961842356</v>
       </c>
       <c r="P2">
         <v>3263</v>
@@ -6673,39 +7981,39 @@
     </row>
     <row r="3" ht="15.15" customHeight="1" spans="1:97">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3078.2793</v>
+      </c>
+      <c r="G3" s="12">
+        <v>-0.406162338561719</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>-0.406162338561719</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.723467892</v>
+      </c>
+      <c r="K3" t="s">
         <v>250</v>
-      </c>
-      <c r="F3" s="12">
-        <v>3090.8331</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.901473254116006</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="12">
-        <v>3.51069570043384</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0.947737292</v>
-      </c>
-      <c r="K3" t="s">
-        <v>248</v>
       </c>
       <c r="L3" s="13">
         <f t="shared" si="0"/>
-        <v>-11.1242855526557</v>
+        <v>-10.7618337296424</v>
       </c>
       <c r="M3">
         <v>2747</v>
       </c>
       <c r="O3" s="13">
         <f t="shared" si="1"/>
-        <v>-1.57993325488846</v>
+        <v>-1.1785577741435</v>
       </c>
       <c r="P3">
         <v>3042</v>
@@ -6793,39 +8101,39 @@
     </row>
     <row r="4" ht="15.15" customHeight="1" spans="1:97">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F4" s="12">
-        <v>4152.2408</v>
+        <v>4144.9649</v>
       </c>
       <c r="G4" s="12">
-        <v>1.35866189524189</v>
+        <v>-0.175228276741552</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="12">
-        <v>3.23749626991638</v>
+        <v>-0.175228276741552</v>
       </c>
       <c r="J4" s="12">
-        <v>2.70105532</v>
+        <v>2.152162883</v>
       </c>
       <c r="K4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L4" s="13">
         <f t="shared" si="0"/>
-        <v>-12.5050743685193</v>
+        <v>-12.3514893937944</v>
       </c>
       <c r="M4">
         <v>3633</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" si="1"/>
-        <v>-0.776467491962402</v>
+        <v>-0.602294605679289</v>
       </c>
       <c r="P4">
         <v>4120</v>
@@ -6913,39 +8221,39 @@
     </row>
     <row r="5" ht="15.15" customHeight="1" spans="1:97">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F5" s="12">
-        <v>4503.087</v>
+        <v>4501.637</v>
       </c>
       <c r="G5" s="12">
-        <v>1.40735739739208</v>
+        <v>-0.0322001329310477</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="12">
-        <v>3.41102827569864</v>
+        <v>-0.0322001329310477</v>
       </c>
       <c r="J5" s="12">
-        <v>0.481234354</v>
+        <v>0.342078255</v>
       </c>
       <c r="K5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L5" s="13">
         <f t="shared" si="0"/>
-        <v>-9.15121115803449</v>
+        <v>-9.12194830458342</v>
       </c>
       <c r="M5">
         <v>4091</v>
       </c>
       <c r="O5" s="13">
         <f t="shared" si="1"/>
-        <v>12.8115001997518</v>
+        <v>12.8478373533895</v>
       </c>
       <c r="P5">
         <v>5080</v>
@@ -7033,39 +8341,39 @@
     </row>
     <row r="6" ht="15.15" customHeight="1" spans="1:97">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F6" s="12">
-        <v>5366.1375</v>
+        <v>5380.6372</v>
       </c>
       <c r="G6" s="12">
-        <v>1.86943080746522</v>
+        <v>0.270207388461445</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="12">
-        <v>3.60953151600126</v>
+        <v>3.88949212530779</v>
       </c>
       <c r="J6" s="12">
-        <v>1.368137523</v>
+        <v>1.221997255</v>
       </c>
       <c r="K6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L6" s="13">
         <f t="shared" si="0"/>
-        <v>-14.2772618107531</v>
+        <v>-14.5082667904091</v>
       </c>
       <c r="M6">
         <v>4600</v>
       </c>
       <c r="O6" s="13">
         <f t="shared" si="1"/>
-        <v>9.01696052328141</v>
+        <v>8.72318245132751</v>
       </c>
       <c r="P6">
         <v>5850</v>
@@ -7153,39 +8461,39 @@
     </row>
     <row r="7" ht="15.15" customHeight="1" spans="1:97">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F7" s="12">
-        <v>9864.765</v>
+        <v>9749.194</v>
       </c>
       <c r="G7" s="12">
-        <v>1.20961970849088</v>
+        <v>-1.17155350380876</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="12">
-        <v>4.12672540194241</v>
+        <v>-1.17155350380876</v>
       </c>
       <c r="J7" s="12">
-        <v>0.549719154</v>
+        <v>0.45526646</v>
       </c>
       <c r="K7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="0"/>
-        <v>-37.1196374166034</v>
+        <v>-36.3742274489563</v>
       </c>
       <c r="M7">
         <v>6203</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="1"/>
-        <v>-3.98149373046392</v>
+        <v>-2.84325042665065</v>
       </c>
       <c r="P7">
         <v>9472</v>
@@ -7273,32 +8581,32 @@
     </row>
     <row r="8" ht="15.15" customHeight="1" spans="1:97">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F8" s="12">
-        <v>16205.7936</v>
+        <v>16071.9259</v>
       </c>
       <c r="G8" s="12">
-        <v>0.51328732061824</v>
+        <v>-0.826048407774369</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="12">
-        <v>4.77970417014051</v>
+        <v>-0.826048407774369</v>
       </c>
       <c r="J8" s="12">
-        <v>0.399364102</v>
+        <v>0.316745542</v>
       </c>
       <c r="K8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="0"/>
-        <v>-8.61910027041194</v>
+        <v>-7.85796243622552</v>
       </c>
       <c r="M8">
         <v>14809</v>
@@ -7308,7 +8616,7 @@
       </c>
       <c r="O8" s="13">
         <f t="shared" si="1"/>
-        <v>2.53740366037982</v>
+        <v>3.3914672292012</v>
       </c>
       <c r="P8">
         <v>16617</v>
@@ -7399,32 +8707,32 @@
     </row>
     <row r="9" ht="15.15" customHeight="1" spans="1:97">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F9" s="12">
-        <v>10011.7326</v>
+        <v>9985.6603</v>
       </c>
       <c r="G9" s="12">
-        <v>0.296277627431188</v>
+        <v>-0.260417462607819</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="12">
-        <v>2.9417532970568</v>
+        <v>-0.260417462607819</v>
       </c>
       <c r="J9" s="12">
-        <v>0.497540249</v>
+        <v>0.41728385</v>
       </c>
       <c r="K9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>-14.9298094517626</v>
+        <v>-14.707693391092</v>
       </c>
       <c r="M9">
         <v>8517</v>
@@ -7434,7 +8742,7 @@
       </c>
       <c r="O9" s="13">
         <f t="shared" si="1"/>
-        <v>3.39868645712732</v>
+        <v>3.66865774514681</v>
       </c>
       <c r="P9">
         <v>10352</v>
@@ -7525,35 +8833,35 @@
     </row>
     <row r="10" ht="15.15" customHeight="1" spans="1:97">
       <c r="A10" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="12">
+        <v>10868.8665</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-0.331378166570571</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>-0.350099183537399</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.15633092</v>
+      </c>
+      <c r="K10" t="s">
         <v>265</v>
-      </c>
-      <c r="B10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="12">
-        <v>10905.0033</v>
-      </c>
-      <c r="G10" s="12">
-        <v>-0.0187832605913988</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>-0.0187832605913988</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.178080539</v>
-      </c>
-      <c r="K10" t="s">
-        <v>258</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>-16.4878748821653</v>
+        <v>-16.2102138249651</v>
       </c>
       <c r="M10">
         <v>9107</v>
@@ -7563,7 +8871,7 @@
       </c>
       <c r="O10" s="13">
         <f t="shared" si="1"/>
-        <v>6.06140761094497</v>
+        <v>6.41404050735189</v>
       </c>
       <c r="P10">
         <v>11566</v>
@@ -7654,35 +8962,35 @@
     </row>
     <row r="11" ht="15.15" customHeight="1" spans="1:97">
       <c r="A11" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F11" s="12">
-        <v>793.18</v>
+        <v>792.174</v>
       </c>
       <c r="G11" s="12">
-        <v>0.653400691089564</v>
+        <v>-0.126831236289363</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="12">
-        <v>0.653387918319456</v>
+        <v>-0.126856419260092</v>
       </c>
       <c r="J11" s="12">
-        <v>0.602145422</v>
+        <v>0.390446819</v>
       </c>
       <c r="K11" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>-14.6473688191835</v>
+        <v>-14.538977547862</v>
       </c>
       <c r="M11">
         <v>677</v>
@@ -7692,7 +9000,7 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" si="1"/>
-        <v>-1.03129176227337</v>
+        <v>-0.905609121228414</v>
       </c>
       <c r="P11">
         <v>785</v>
@@ -7783,39 +9091,39 @@
     </row>
     <row r="12" ht="15.15" customHeight="1" spans="1:97">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F12" s="12">
-        <v>1832.742</v>
+        <v>1836.012</v>
       </c>
       <c r="G12" s="12">
-        <v>1.9255688447588</v>
+        <v>0.17842118530595</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="12">
-        <v>3.68640365045623</v>
+        <v>3.87140216085049</v>
       </c>
       <c r="J12" s="12">
-        <v>1.400755236</v>
+        <v>1.391250909</v>
       </c>
       <c r="K12" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>-22.7387160876981</v>
+        <v>-22.8763210697969</v>
       </c>
       <c r="M12">
         <v>1416</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="1"/>
-        <v>-3.53252121684339</v>
+        <v>-3.70433308714758</v>
       </c>
       <c r="P12">
         <v>1768</v>
@@ -7903,32 +9211,32 @@
     </row>
     <row r="13" ht="15.15" customHeight="1" spans="1:97">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F13" s="12">
-        <v>6934.355</v>
+        <v>6951.823</v>
       </c>
       <c r="G13" s="12">
-        <v>1.60956610804291</v>
+        <v>0.251905188009566</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="12">
-        <v>1.60956610804291</v>
+        <v>1.86552587658308</v>
       </c>
       <c r="J13" s="12">
-        <v>0.213348017</v>
+        <v>0.136329929</v>
       </c>
       <c r="K13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
-        <v>-8.52790201828432</v>
+        <v>-8.7577459897929</v>
       </c>
       <c r="M13">
         <v>6343</v>
@@ -7938,7 +9246,7 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" si="1"/>
-        <v>-0.0339613417542016</v>
+        <v>-0.285148226587477</v>
       </c>
       <c r="P13">
         <v>6932</v>
@@ -8029,35 +9337,35 @@
     </row>
     <row r="14" ht="15.15" customHeight="1" spans="1:97">
       <c r="A14" s="16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F14" s="11">
-        <v>9119.139</v>
+        <v>9068.611</v>
       </c>
       <c r="G14" s="11">
-        <v>0.155794307143117</v>
+        <v>-0.554087397944021</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11">
-        <v>2.66631120353953</v>
+        <v>-0.554087397944021</v>
       </c>
       <c r="J14" s="11">
-        <v>0.092022481</v>
+        <v>0.088669681</v>
       </c>
       <c r="K14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>-1.99732672130559</v>
+        <v>-1.45128068675568</v>
       </c>
       <c r="M14">
         <v>8937</v>
@@ -8067,7 +9375,7 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" si="1"/>
-        <v>8.54094887686218</v>
+        <v>9.14571150973395</v>
       </c>
       <c r="P14">
         <v>9898</v>
@@ -8158,39 +9466,39 @@
     </row>
     <row r="15" ht="15.15" customHeight="1" spans="1:97">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F15" s="12">
-        <v>5793.2386</v>
+        <v>5776.5939</v>
       </c>
       <c r="G15" s="12">
-        <v>1.09828563181688</v>
+        <v>-0.385677829911278</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" s="12">
-        <v>1.09828563181688</v>
+        <v>-0.250722076160319</v>
       </c>
       <c r="J15" s="12">
-        <v>0.54362904</v>
+        <v>0.459662051</v>
       </c>
       <c r="K15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
-        <v>-25.6374491463203</v>
+        <v>-25.4231806047505</v>
       </c>
       <c r="M15">
         <v>4308</v>
       </c>
       <c r="O15" s="13">
         <f t="shared" si="1"/>
-        <v>-2.93857394376955</v>
+        <v>-2.65890077542061</v>
       </c>
       <c r="P15">
         <v>5623</v>
@@ -8278,32 +9586,32 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F16" s="12">
-        <v>28543.52</v>
+        <v>28451.5</v>
       </c>
       <c r="G16" s="12">
-        <v>1.25</v>
+        <v>-0.32</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
-        <v>-11.3564129441639</v>
+        <v>-11.069715129255</v>
       </c>
       <c r="M16">
         <v>25302</v>
       </c>
       <c r="O16" s="13">
         <f t="shared" si="1"/>
-        <v>5.65270155888272</v>
+        <v>5.99441154244943</v>
       </c>
       <c r="P16">
         <v>30157</v>
@@ -8391,32 +9699,32 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F17" s="12">
-        <v>8872.2188</v>
+        <v>8793.9039</v>
       </c>
       <c r="G17" s="12">
-        <v>1.59</v>
+        <v>-0.88</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>-19.2310270797199</v>
+        <v>-18.5117317463521</v>
       </c>
       <c r="M17">
         <v>7166</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" si="1"/>
-        <v>-9.71818684183037</v>
+        <v>-8.91417405641651</v>
       </c>
       <c r="P17">
         <v>8010</v>
@@ -8611,97 +9919,97 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E1" t="s">
         <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G1" t="s">
         <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I1" t="s">
         <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K1" t="s">
         <v>185</v>
       </c>
       <c r="L1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M1" t="s">
         <v>185</v>
       </c>
       <c r="N1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O1" t="s">
         <v>185</v>
       </c>
       <c r="P1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q1" t="s">
         <v>185</v>
       </c>
       <c r="R1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="S1" t="s">
         <v>185</v>
       </c>
       <c r="T1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="U1" t="s">
         <v>185</v>
       </c>
       <c r="V1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="W1" t="s">
         <v>185</v>
       </c>
       <c r="X1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Y1" t="s">
         <v>185</v>
       </c>
       <c r="Z1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AA1" t="s">
         <v>185</v>
       </c>
       <c r="AB1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AC1" t="s">
         <v>185</v>
       </c>
       <c r="AD1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AE1" t="s">
         <v>185</v>
       </c>
       <c r="AF1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG1" t="s">
         <v>185</v>
@@ -8712,7 +10020,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
         <v>185</v>
@@ -8736,13 +10044,13 @@
         <v>66</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K2" t="s">
         <v>82</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M2" t="s">
         <v>72</v>
@@ -8784,28 +10092,28 @@
         <v>153</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AA2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AB2" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="AC2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>251</v>
-      </c>
       <c r="AE2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -8813,7 +10121,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>89308</v>
+        <v>3000</v>
       </c>
       <c r="C3" t="s">
         <v>185</v>
@@ -8882,7 +10190,7 @@
         <v>3000</v>
       </c>
       <c r="Y3">
-        <v>2.709</v>
+        <v>2.744</v>
       </c>
       <c r="Z3">
         <v>19308</v>
@@ -8914,10 +10222,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11">
-        <v>6622.92100958407</v>
+        <v>154.022988505747</v>
       </c>
       <c r="C4" s="11">
-        <v>7.4158205419269</v>
+        <v>5.13409961685825</v>
       </c>
       <c r="D4" s="11">
         <v>2049.08864954432</v>
@@ -8980,10 +10288,10 @@
         <v>0.523864959254955</v>
       </c>
       <c r="X4" s="12">
-        <v>113.793103448276</v>
+        <v>154.022988505747</v>
       </c>
       <c r="Y4" s="12">
-        <v>3.79310344827587</v>
+        <v>5.13409961685825</v>
       </c>
       <c r="Z4" s="12">
         <v>1442.69205765272</v>
@@ -9015,10 +10323,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11">
-        <v>1055.2508101059</v>
+        <v>38.7596899224808</v>
       </c>
       <c r="C5" s="11">
-        <v>1.18158598345713</v>
+        <v>1.29198966408269</v>
       </c>
       <c r="D5" s="11">
         <v>85.4570013507413</v>
@@ -9081,10 +10389,10 @@
         <v>-0.346220427005194</v>
       </c>
       <c r="X5" s="12">
-        <v>6.65926748057739</v>
+        <v>38.7596899224808</v>
       </c>
       <c r="Y5" s="12">
-        <v>0.221975582685913</v>
+        <v>1.29198966408269</v>
       </c>
       <c r="Z5" s="12">
         <v>241.35</v>
@@ -9119,7 +10427,7 @@
         <v>20190909</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
         <v>185</v>
@@ -9321,7 +10629,7 @@
         <v>20191008</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
         <v>185</v>
@@ -9523,7 +10831,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D10" t="s">
         <v>185</v>
@@ -9722,10 +11030,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
         <v>185</v>
@@ -9927,7 +11235,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D14">
         <v>13000</v>
@@ -10126,10 +11434,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
         <v>185</v>
@@ -10328,10 +11636,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
         <v>185</v>
@@ -10426,7 +11734,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
         <v>185</v>
@@ -10495,10 +11803,10 @@
         <v>185</v>
       </c>
       <c r="X19" s="11">
-        <v>113.793103448276</v>
+        <v>154.022988505747</v>
       </c>
       <c r="Y19" s="11">
-        <v>3.79310344827587</v>
+        <v>5.13409961685825</v>
       </c>
       <c r="Z19" s="12" t="s">
         <v>185</v>
@@ -10527,13 +11835,13 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D20" t="s">
         <v>185</v>
@@ -10548,13 +11856,13 @@
         <v>185</v>
       </c>
       <c r="H20" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I20">
         <v>2.2221</v>
       </c>
       <c r="J20" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K20">
         <v>2.184</v>
@@ -10628,7 +11936,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>185</v>
@@ -10729,13 +12037,13 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
         <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
         <v>185</v>
@@ -10768,19 +12076,19 @@
         <v>185</v>
       </c>
       <c r="N22" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O22">
         <v>1.244</v>
       </c>
       <c r="P22" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q22">
         <v>1.022</v>
       </c>
       <c r="R22" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="S22">
         <v>1.8156</v>
@@ -10830,7 +12138,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B23" t="s">
         <v>185</v>
@@ -10931,13 +12239,13 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
         <v>185</v>
@@ -10964,7 +12272,7 @@
         <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M24">
         <v>1.282</v>
@@ -11133,14 +12441,14 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" t="s">
         <v>300</v>
       </c>
-      <c r="C26" t="s">
-        <v>296</v>
-      </c>
       <c r="D26" t="s">
         <v>185</v>
       </c>
@@ -11208,10 +12516,10 @@
         <v>185</v>
       </c>
       <c r="Z26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AA26" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AB26" t="s">
         <v>185</v>
@@ -11234,7 +12542,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
         <v>185</v>
@@ -11335,13 +12643,13 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D28" s="13">
         <v>13000</v>
@@ -11436,25 +12744,25 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D29">
         <v>2031.05</v>
       </c>
       <c r="E29" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F29" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G29" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H29">
         <v>-19.41</v>
@@ -11466,7 +12774,7 @@
         <v>145.67</v>
       </c>
       <c r="K29" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L29">
         <v>-34.76</v>
@@ -11478,7 +12786,7 @@
         <v>39.75</v>
       </c>
       <c r="O29" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P29">
         <v>-139.32</v>
@@ -11490,19 +12798,19 @@
         <v>42.09</v>
       </c>
       <c r="S29" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="T29">
         <v>24.4</v>
       </c>
       <c r="U29" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="V29">
         <v>15.72</v>
       </c>
       <c r="W29" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="X29" t="s">
         <v>185</v>
@@ -11511,13 +12819,13 @@
         <v>185</v>
       </c>
       <c r="Z29" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AA29">
         <v>3.44</v>
       </c>
       <c r="AB29" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AC29">
         <v>4.79</v>
@@ -11791,6 +13099,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6072" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6089" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6090" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6109" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="6" priority="2045" stopIfTrue="1" operator="greaterThan">
@@ -11943,6 +13263,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6074" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6091" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6092" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6111" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="6" priority="2203" stopIfTrue="1" operator="greaterThan">
@@ -15135,6 +16467,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6036" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6081" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6082" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6101" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" dxfId="6" priority="2009" stopIfTrue="1" operator="greaterThan">
@@ -15287,6 +16631,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6038" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6083" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6084" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6103" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" dxfId="6" priority="2023" stopIfTrue="1" operator="greaterThan">
@@ -16047,6 +17403,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6076" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6093" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6094" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6113" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" dxfId="6" priority="2049" stopIfTrue="1" operator="greaterThan">
@@ -16199,6 +17567,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6078" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6095" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6096" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6115" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" dxfId="6" priority="2205" stopIfTrue="1" operator="greaterThan">
@@ -19391,6 +20771,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6040" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6085" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6086" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6105" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
     <cfRule type="cellIs" dxfId="6" priority="2013" stopIfTrue="1" operator="greaterThan">
@@ -19543,6 +20935,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6042" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6087" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6088" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6107" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
     <cfRule type="cellIs" dxfId="6" priority="2027" stopIfTrue="1" operator="greaterThan">
@@ -21836,13 +23240,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1780" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1895" stopIfTrue="1" operator="greaterThan">
@@ -22117,16 +23521,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1897" stopIfTrue="1" operator="greaterThan">
@@ -22359,16 +23763,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1844" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1991" stopIfTrue="1" operator="greaterThan">
@@ -23005,6 +24409,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6032" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6097" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6098" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" dxfId="6" priority="444" stopIfTrue="1" operator="greaterThan">
@@ -23247,6 +24663,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6034" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6099" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
     <cfRule type="cellIs" dxfId="6" priority="454" stopIfTrue="1" operator="greaterThan">
@@ -23327,16 +24755,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1864" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2019" stopIfTrue="1" operator="greaterThan">
@@ -23345,7 +24773,7 @@
     <cfRule type="cellIs" dxfId="7" priority="2020" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="2188" stopIfTrue="1" operator="lessThan">
@@ -23554,19 +24982,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1866" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2021" stopIfTrue="1" operator="greaterThan">
@@ -24265,22 +25693,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1796" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1919" stopIfTrue="1" operator="greaterThan">
@@ -24507,22 +25935,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1798" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1921" stopIfTrue="1" operator="greaterThan">
@@ -24743,22 +26171,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1812" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1943" stopIfTrue="1" operator="greaterThan">
@@ -25469,16 +26897,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1822" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1957" stopIfTrue="1" operator="greaterThan">
@@ -25711,16 +27139,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1828" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1967" stopIfTrue="1" operator="greaterThan">
@@ -25953,16 +27381,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1830" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1969" stopIfTrue="1" operator="greaterThan">
@@ -26192,19 +27620,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1836" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1979" stopIfTrue="1" operator="greaterThan">
@@ -26431,22 +27859,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1838" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1981" stopIfTrue="1" operator="greaterThan">
@@ -26673,22 +28101,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1804" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1931" stopIfTrue="1" operator="greaterThan">
@@ -26915,22 +28343,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1806" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1933" stopIfTrue="1" operator="greaterThan">
@@ -28449,10 +29877,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1808" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28651,16 +30079,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1816" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28770,13 +30198,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1818" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28865,10 +30293,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1824" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28960,7 +30388,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1826" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29046,13 +30474,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1832" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29138,13 +30566,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1834" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29227,16 +30655,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1840" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29316,19 +30744,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1842" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29969,10 +31397,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1876" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30064,7 +31492,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1878" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30132,28 +31560,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -30164,13 +31592,13 @@
         <v>20191011</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -30179,7 +31607,7 @@
         <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -30190,13 +31618,13 @@
         <v>20191211</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -30205,67 +31633,67 @@
         <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
         <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G5" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
         <v>185</v>
@@ -30283,24 +31711,24 @@
         <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" ht="201.6" customHeight="1" spans="1:8">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
         <v>185</v>
@@ -30309,7 +31737,7 @@
         <v>185</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" ht="43.2" customHeight="1" spans="1:8">
@@ -30320,13 +31748,13 @@
         <v>20191222</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
         <v>185</v>
@@ -30335,15 +31763,15 @@
         <v>185</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
         <v>185</v>
@@ -30361,15 +31789,15 @@
         <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
         <v>185</v>
@@ -30387,15 +31815,15 @@
         <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
         <v>185</v>
@@ -30413,15 +31841,15 @@
         <v>185</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
         <v>185</v>
@@ -30439,15 +31867,15 @@
         <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>185</v>
@@ -30465,7 +31893,7 @@
         <v>185</v>
       </c>
       <c r="H13" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -30493,100 +31921,100 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="4" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G21" s="5"/>
       <c r="J21" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -30594,7 +32022,7 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="6" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C22" s="7"/>
       <c r="F22" s="4"/>
@@ -30603,120 +32031,120 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="6" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="6" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="6" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="6" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M25" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="6" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M26" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/fund/Jelly_model.xlsx
+++ b/fund/Jelly_model.xlsx
@@ -418,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -537,6 +537,12 @@
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -689,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +803,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -849,7 +870,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -929,6 +950,28 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF006100"/>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="00AA110D"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00AA110D"/>
+          <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="00006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00006100"/>
+          <bgColor rgb="00C6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1641,20 +1684,26 @@
         </is>
       </c>
       <c r="H2" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>2.2001</v>
-      </c>
-      <c r="J2" s="27" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="K2" s="0" t="inlineStr"/>
-      <c r="L2" s="0" t="inlineStr"/>
-      <c r="M2" s="0" t="n"/>
-      <c r="N2" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>15</v>
+      </c>
+      <c r="I2" s="45" t="n">
+        <v>2.203</v>
+      </c>
+      <c r="J2" s="46" t="n">
+        <v>-0.6225189462288099</v>
+      </c>
+      <c r="K2" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="47" t="n">
+        <v>-0.6225189462288099</v>
+      </c>
+      <c r="M2" s="47" t="n">
+        <v>2.203</v>
+      </c>
+      <c r="N2" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O2" s="27">
@@ -1679,75 +1728,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="U2" s="27" t="n"/>
-      <c r="V2" s="0" t="n"/>
-      <c r="W2" s="42" t="n"/>
-      <c r="X2" s="27" t="n"/>
-      <c r="Y2" s="0" t="n"/>
-      <c r="Z2" s="42" t="n"/>
-      <c r="AA2" s="27" t="n"/>
-      <c r="AB2" s="0" t="n"/>
-      <c r="AC2" s="42" t="n"/>
-      <c r="AD2" s="27" t="n"/>
-      <c r="AE2" s="3" t="n"/>
-      <c r="AF2" s="42" t="n"/>
-      <c r="AG2" s="27" t="n"/>
-      <c r="AH2" s="3" t="n"/>
-      <c r="AI2" s="42" t="n"/>
-      <c r="AJ2" s="27" t="n"/>
-      <c r="AK2" s="3" t="n"/>
-      <c r="AL2" s="42" t="n"/>
-      <c r="AM2" s="27" t="n"/>
-      <c r="AN2" s="3" t="n"/>
-      <c r="AO2" s="42" t="n"/>
-      <c r="AP2" s="27" t="n"/>
-      <c r="AQ2" s="3" t="n"/>
-      <c r="AR2" s="42" t="n"/>
-      <c r="AS2" s="27" t="n"/>
-      <c r="AT2" s="3" t="n"/>
-      <c r="AU2" s="42" t="n"/>
-      <c r="AV2" s="27" t="n"/>
-      <c r="AW2" s="3" t="n"/>
-      <c r="AX2" s="42" t="n"/>
-      <c r="AY2" s="27" t="n"/>
-      <c r="AZ2" s="3" t="n"/>
-      <c r="BA2" s="42" t="n"/>
-      <c r="BB2" s="27" t="n"/>
-      <c r="BC2" s="3" t="n"/>
-      <c r="BD2" s="42" t="n"/>
-      <c r="BE2" s="11" t="n"/>
-      <c r="BF2" s="3" t="n"/>
-      <c r="BG2" s="42" t="n"/>
-      <c r="BH2" s="31" t="n"/>
-      <c r="BI2" s="3" t="n"/>
-      <c r="BJ2" s="3" t="n"/>
-      <c r="BK2" s="31" t="n"/>
-      <c r="BL2" s="3" t="n"/>
-      <c r="BM2" s="3" t="n"/>
-      <c r="BN2" s="3" t="n"/>
-      <c r="BO2" s="3" t="n"/>
-      <c r="BP2" s="3" t="n"/>
-      <c r="BQ2" s="3" t="n"/>
-      <c r="BR2" s="3" t="n"/>
-      <c r="BS2" s="3" t="n"/>
-      <c r="BT2" s="3" t="n"/>
-      <c r="BU2" s="3" t="n"/>
-      <c r="BV2" s="3" t="n"/>
-      <c r="BW2" s="3" t="n"/>
-      <c r="BX2" s="3" t="n"/>
-      <c r="BY2" s="3" t="n"/>
-      <c r="BZ2" s="3" t="n"/>
-      <c r="CA2" s="3" t="n"/>
-      <c r="CB2" s="3" t="n"/>
-      <c r="CC2" s="3" t="n"/>
-      <c r="CD2" s="3" t="n"/>
-      <c r="CE2" s="3" t="n"/>
-      <c r="CF2" s="3" t="n"/>
-      <c r="CG2" s="3" t="n"/>
-      <c r="CH2" s="3" t="n"/>
-      <c r="CI2" s="3" t="n"/>
-      <c r="CJ2" s="3" t="n"/>
-      <c r="CK2" s="3" t="n"/>
+      <c r="U2" s="46" t="n"/>
+      <c r="V2" s="47" t="n"/>
+      <c r="W2" s="48" t="n"/>
+      <c r="X2" s="46" t="n"/>
+      <c r="Y2" s="47" t="n"/>
+      <c r="Z2" s="48" t="n"/>
+      <c r="AA2" s="46" t="n"/>
+      <c r="AB2" s="47" t="n"/>
+      <c r="AC2" s="48" t="n"/>
+      <c r="AD2" s="46" t="n"/>
+      <c r="AE2" s="45" t="n"/>
+      <c r="AF2" s="48" t="n"/>
+      <c r="AG2" s="46" t="n"/>
+      <c r="AH2" s="45" t="n"/>
+      <c r="AI2" s="48" t="n"/>
+      <c r="AJ2" s="46" t="n"/>
+      <c r="AK2" s="45" t="n"/>
+      <c r="AL2" s="48" t="n"/>
+      <c r="AM2" s="46" t="n"/>
+      <c r="AN2" s="45" t="n"/>
+      <c r="AO2" s="48" t="n"/>
+      <c r="AP2" s="46" t="n"/>
+      <c r="AQ2" s="45" t="n"/>
+      <c r="AR2" s="48" t="n"/>
+      <c r="AS2" s="46" t="n"/>
+      <c r="AT2" s="45" t="n"/>
+      <c r="AU2" s="48" t="n"/>
+      <c r="AV2" s="46" t="n"/>
+      <c r="AW2" s="45" t="n"/>
+      <c r="AX2" s="48" t="n"/>
+      <c r="AY2" s="46" t="n"/>
+      <c r="AZ2" s="45" t="n"/>
+      <c r="BA2" s="48" t="n"/>
+      <c r="BB2" s="46" t="n"/>
+      <c r="BC2" s="45" t="n"/>
+      <c r="BD2" s="48" t="n"/>
+      <c r="BE2" s="49" t="n"/>
+      <c r="BF2" s="45" t="n"/>
+      <c r="BG2" s="48" t="n"/>
+      <c r="BH2" s="50" t="n"/>
+      <c r="BI2" s="45" t="n"/>
+      <c r="BJ2" s="45" t="n"/>
+      <c r="BK2" s="50" t="n"/>
+      <c r="BL2" s="45" t="n"/>
+      <c r="BM2" s="45" t="n"/>
+      <c r="BN2" s="45" t="n"/>
+      <c r="BO2" s="45" t="n"/>
+      <c r="BP2" s="45" t="n"/>
+      <c r="BQ2" s="45" t="n"/>
+      <c r="BR2" s="45" t="n"/>
+      <c r="BS2" s="45" t="n"/>
+      <c r="BT2" s="45" t="n"/>
+      <c r="BU2" s="45" t="n"/>
+      <c r="BV2" s="45" t="n"/>
+      <c r="BW2" s="45" t="n"/>
+      <c r="BX2" s="45" t="n"/>
+      <c r="BY2" s="45" t="n"/>
+      <c r="BZ2" s="45" t="n"/>
+      <c r="CA2" s="45" t="n"/>
+      <c r="CB2" s="45" t="n"/>
+      <c r="CC2" s="45" t="n"/>
+      <c r="CD2" s="45" t="n"/>
+      <c r="CE2" s="45" t="n"/>
+      <c r="CF2" s="45" t="n"/>
+      <c r="CG2" s="45" t="n"/>
+      <c r="CH2" s="45" t="n"/>
+      <c r="CI2" s="45" t="n"/>
+      <c r="CJ2" s="45" t="n"/>
+      <c r="CK2" s="45" t="n"/>
+      <c r="CL2" s="51" t="n"/>
+      <c r="CM2" s="51" t="n"/>
+      <c r="CN2" s="51" t="n"/>
+      <c r="CO2" s="51" t="n"/>
+      <c r="CP2" s="51" t="n"/>
+      <c r="CQ2" s="51" t="n"/>
+      <c r="CR2" s="51" t="n"/>
+      <c r="CS2" s="51" t="n"/>
+      <c r="CT2" s="51" t="n"/>
+      <c r="CU2" s="51" t="n"/>
+      <c r="CV2" s="51" t="n"/>
     </row>
     <row r="3" ht="15.15" customHeight="1" s="1">
       <c r="A3" s="10" t="n">
@@ -1764,20 +1824,26 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1.2659</v>
-      </c>
-      <c r="J3" s="27" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="K3" s="0" t="inlineStr"/>
-      <c r="L3" s="0" t="inlineStr"/>
-      <c r="M3" s="0" t="n"/>
-      <c r="N3" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>15</v>
+      </c>
+      <c r="I3" s="45" t="n">
+        <v>1.253</v>
+      </c>
+      <c r="J3" s="46" t="n">
+        <v>-1.725490196078433</v>
+      </c>
+      <c r="K3" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="47" t="n">
+        <v>-1.279069767441862</v>
+      </c>
+      <c r="M3" s="47" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="N3" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O3" s="27">
@@ -1804,75 +1870,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U3" s="27" t="n"/>
-      <c r="V3" s="0" t="n"/>
-      <c r="W3" s="42" t="n"/>
-      <c r="X3" s="27" t="n"/>
-      <c r="Y3" s="0" t="n"/>
-      <c r="Z3" s="42" t="n"/>
-      <c r="AA3" s="27" t="n"/>
-      <c r="AB3" s="0" t="n"/>
-      <c r="AC3" s="42" t="n"/>
-      <c r="AD3" s="27" t="n"/>
-      <c r="AE3" s="3" t="n"/>
-      <c r="AF3" s="42" t="n"/>
-      <c r="AG3" s="27" t="n"/>
-      <c r="AH3" s="3" t="n"/>
-      <c r="AI3" s="42" t="n"/>
-      <c r="AJ3" s="27" t="n"/>
-      <c r="AK3" s="3" t="n"/>
-      <c r="AL3" s="42" t="n"/>
-      <c r="AM3" s="27" t="n"/>
-      <c r="AN3" s="3" t="n"/>
-      <c r="AO3" s="42" t="n"/>
-      <c r="AP3" s="27" t="n"/>
-      <c r="AQ3" s="3" t="n"/>
-      <c r="AR3" s="42" t="n"/>
-      <c r="AS3" s="27" t="n"/>
-      <c r="AT3" s="3" t="n"/>
-      <c r="AU3" s="42" t="n"/>
-      <c r="AV3" s="27" t="n"/>
-      <c r="AW3" s="3" t="n"/>
-      <c r="AX3" s="42" t="n"/>
-      <c r="AY3" s="27" t="n"/>
-      <c r="AZ3" s="3" t="n"/>
-      <c r="BA3" s="42" t="n"/>
-      <c r="BB3" s="27" t="n"/>
-      <c r="BC3" s="3" t="n"/>
-      <c r="BD3" s="42" t="n"/>
-      <c r="BE3" s="11" t="n"/>
-      <c r="BF3" s="3" t="n"/>
-      <c r="BG3" s="42" t="n"/>
-      <c r="BH3" s="31" t="n"/>
-      <c r="BI3" s="3" t="n"/>
-      <c r="BJ3" s="3" t="n"/>
-      <c r="BK3" s="31" t="n"/>
-      <c r="BL3" s="3" t="n"/>
-      <c r="BM3" s="3" t="n"/>
-      <c r="BN3" s="3" t="n"/>
-      <c r="BO3" s="3" t="n"/>
-      <c r="BP3" s="3" t="n"/>
-      <c r="BQ3" s="3" t="n"/>
-      <c r="BR3" s="3" t="n"/>
-      <c r="BS3" s="3" t="n"/>
-      <c r="BT3" s="3" t="n"/>
-      <c r="BU3" s="3" t="n"/>
-      <c r="BV3" s="3" t="n"/>
-      <c r="BW3" s="3" t="n"/>
-      <c r="BX3" s="3" t="n"/>
-      <c r="BY3" s="3" t="n"/>
-      <c r="BZ3" s="3" t="n"/>
-      <c r="CA3" s="3" t="n"/>
-      <c r="CB3" s="3" t="n"/>
-      <c r="CC3" s="3" t="n"/>
-      <c r="CD3" s="3" t="n"/>
-      <c r="CE3" s="3" t="n"/>
-      <c r="CF3" s="3" t="n"/>
-      <c r="CG3" s="3" t="n"/>
-      <c r="CH3" s="3" t="n"/>
-      <c r="CI3" s="3" t="n"/>
-      <c r="CJ3" s="3" t="n"/>
-      <c r="CK3" s="3" t="n"/>
+      <c r="U3" s="46" t="n"/>
+      <c r="V3" s="47" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="46" t="n"/>
+      <c r="Y3" s="47" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="46" t="n"/>
+      <c r="AB3" s="47" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="46" t="n"/>
+      <c r="AE3" s="45" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="46" t="n"/>
+      <c r="AH3" s="45" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="46" t="n"/>
+      <c r="AK3" s="45" t="n"/>
+      <c r="AL3" s="48" t="n"/>
+      <c r="AM3" s="46" t="n"/>
+      <c r="AN3" s="45" t="n"/>
+      <c r="AO3" s="48" t="n"/>
+      <c r="AP3" s="46" t="n"/>
+      <c r="AQ3" s="45" t="n"/>
+      <c r="AR3" s="48" t="n"/>
+      <c r="AS3" s="46" t="n"/>
+      <c r="AT3" s="45" t="n"/>
+      <c r="AU3" s="48" t="n"/>
+      <c r="AV3" s="46" t="n"/>
+      <c r="AW3" s="45" t="n"/>
+      <c r="AX3" s="48" t="n"/>
+      <c r="AY3" s="46" t="n"/>
+      <c r="AZ3" s="45" t="n"/>
+      <c r="BA3" s="48" t="n"/>
+      <c r="BB3" s="46" t="n"/>
+      <c r="BC3" s="45" t="n"/>
+      <c r="BD3" s="48" t="n"/>
+      <c r="BE3" s="49" t="n"/>
+      <c r="BF3" s="45" t="n"/>
+      <c r="BG3" s="48" t="n"/>
+      <c r="BH3" s="50" t="n"/>
+      <c r="BI3" s="45" t="n"/>
+      <c r="BJ3" s="45" t="n"/>
+      <c r="BK3" s="50" t="n"/>
+      <c r="BL3" s="45" t="n"/>
+      <c r="BM3" s="45" t="n"/>
+      <c r="BN3" s="45" t="n"/>
+      <c r="BO3" s="45" t="n"/>
+      <c r="BP3" s="45" t="n"/>
+      <c r="BQ3" s="45" t="n"/>
+      <c r="BR3" s="45" t="n"/>
+      <c r="BS3" s="45" t="n"/>
+      <c r="BT3" s="45" t="n"/>
+      <c r="BU3" s="45" t="n"/>
+      <c r="BV3" s="45" t="n"/>
+      <c r="BW3" s="45" t="n"/>
+      <c r="BX3" s="45" t="n"/>
+      <c r="BY3" s="45" t="n"/>
+      <c r="BZ3" s="45" t="n"/>
+      <c r="CA3" s="45" t="n"/>
+      <c r="CB3" s="45" t="n"/>
+      <c r="CC3" s="45" t="n"/>
+      <c r="CD3" s="45" t="n"/>
+      <c r="CE3" s="45" t="n"/>
+      <c r="CF3" s="45" t="n"/>
+      <c r="CG3" s="45" t="n"/>
+      <c r="CH3" s="45" t="n"/>
+      <c r="CI3" s="45" t="n"/>
+      <c r="CJ3" s="45" t="n"/>
+      <c r="CK3" s="45" t="n"/>
+      <c r="CL3" s="51" t="n"/>
+      <c r="CM3" s="51" t="n"/>
+      <c r="CN3" s="51" t="n"/>
+      <c r="CO3" s="51" t="n"/>
+      <c r="CP3" s="51" t="n"/>
+      <c r="CQ3" s="51" t="n"/>
+      <c r="CR3" s="51" t="n"/>
+      <c r="CS3" s="51" t="n"/>
+      <c r="CT3" s="51" t="n"/>
+      <c r="CU3" s="51" t="n"/>
+      <c r="CV3" s="51" t="n"/>
     </row>
     <row r="4" ht="15.15" customHeight="1" s="1">
       <c r="A4" s="10" t="n">
@@ -1891,18 +1968,24 @@
       <c r="H4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>4.2161</v>
-      </c>
-      <c r="J4" s="27" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K4" s="0" t="inlineStr"/>
-      <c r="L4" s="0" t="inlineStr"/>
-      <c r="M4" s="0" t="n"/>
-      <c r="N4" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I4" s="45" t="n">
+        <v>4.2386</v>
+      </c>
+      <c r="J4" s="46" t="n">
+        <v>0.7104331503789671</v>
+      </c>
+      <c r="K4" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="47" t="n">
+        <v>5.207505957108804</v>
+      </c>
+      <c r="M4" s="47" t="n">
+        <v>4.2386</v>
+      </c>
+      <c r="N4" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O4" s="27">
@@ -1929,75 +2012,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U4" s="27" t="n"/>
-      <c r="V4" s="0" t="n"/>
-      <c r="W4" s="0" t="n"/>
-      <c r="X4" s="27" t="n"/>
-      <c r="Y4" s="0" t="n"/>
-      <c r="Z4" s="3" t="n"/>
-      <c r="AA4" s="27" t="n"/>
-      <c r="AB4" s="0" t="n"/>
-      <c r="AC4" s="3" t="n"/>
-      <c r="AD4" s="27" t="n"/>
-      <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="3" t="n"/>
-      <c r="AG4" s="27" t="n"/>
-      <c r="AH4" s="3" t="n"/>
-      <c r="AI4" s="3" t="n"/>
-      <c r="AJ4" s="27" t="n"/>
-      <c r="AK4" s="3" t="n"/>
-      <c r="AL4" s="3" t="n"/>
-      <c r="AM4" s="27" t="n"/>
-      <c r="AN4" s="3" t="n"/>
-      <c r="AO4" s="3" t="n"/>
-      <c r="AP4" s="27" t="n"/>
-      <c r="AQ4" s="3" t="n"/>
-      <c r="AR4" s="3" t="n"/>
-      <c r="AS4" s="27" t="n"/>
-      <c r="AT4" s="3" t="n"/>
-      <c r="AU4" s="3" t="n"/>
-      <c r="AV4" s="27" t="n"/>
-      <c r="AW4" s="3" t="n"/>
-      <c r="AX4" s="3" t="n"/>
-      <c r="AY4" s="27" t="n"/>
-      <c r="AZ4" s="3" t="n"/>
-      <c r="BA4" s="3" t="n"/>
-      <c r="BB4" s="27" t="n"/>
-      <c r="BC4" s="3" t="n"/>
-      <c r="BD4" s="3" t="n"/>
-      <c r="BE4" s="31" t="n"/>
-      <c r="BF4" s="3" t="n"/>
-      <c r="BG4" s="3" t="n"/>
-      <c r="BH4" s="31" t="n"/>
-      <c r="BI4" s="3" t="n"/>
-      <c r="BJ4" s="3" t="n"/>
-      <c r="BK4" s="31" t="n"/>
-      <c r="BL4" s="3" t="n"/>
-      <c r="BM4" s="3" t="n"/>
-      <c r="BN4" s="3" t="n"/>
-      <c r="BO4" s="3" t="n"/>
-      <c r="BP4" s="3" t="n"/>
-      <c r="BQ4" s="3" t="n"/>
-      <c r="BR4" s="3" t="n"/>
-      <c r="BS4" s="3" t="n"/>
-      <c r="BT4" s="3" t="n"/>
-      <c r="BU4" s="3" t="n"/>
-      <c r="BV4" s="3" t="n"/>
-      <c r="BW4" s="3" t="n"/>
-      <c r="BX4" s="3" t="n"/>
-      <c r="BY4" s="3" t="n"/>
-      <c r="BZ4" s="3" t="n"/>
-      <c r="CA4" s="3" t="n"/>
-      <c r="CB4" s="3" t="n"/>
-      <c r="CC4" s="3" t="n"/>
-      <c r="CD4" s="3" t="n"/>
-      <c r="CE4" s="3" t="n"/>
-      <c r="CF4" s="3" t="n"/>
-      <c r="CG4" s="3" t="n"/>
-      <c r="CH4" s="3" t="n"/>
-      <c r="CI4" s="3" t="n"/>
-      <c r="CJ4" s="3" t="n"/>
-      <c r="CK4" s="3" t="n"/>
+      <c r="U4" s="46" t="n"/>
+      <c r="V4" s="47" t="n"/>
+      <c r="W4" s="47" t="n"/>
+      <c r="X4" s="46" t="n"/>
+      <c r="Y4" s="47" t="n"/>
+      <c r="Z4" s="45" t="n"/>
+      <c r="AA4" s="46" t="n"/>
+      <c r="AB4" s="47" t="n"/>
+      <c r="AC4" s="45" t="n"/>
+      <c r="AD4" s="46" t="n"/>
+      <c r="AE4" s="45" t="n"/>
+      <c r="AF4" s="45" t="n"/>
+      <c r="AG4" s="46" t="n"/>
+      <c r="AH4" s="45" t="n"/>
+      <c r="AI4" s="45" t="n"/>
+      <c r="AJ4" s="46" t="n"/>
+      <c r="AK4" s="45" t="n"/>
+      <c r="AL4" s="45" t="n"/>
+      <c r="AM4" s="46" t="n"/>
+      <c r="AN4" s="45" t="n"/>
+      <c r="AO4" s="45" t="n"/>
+      <c r="AP4" s="46" t="n"/>
+      <c r="AQ4" s="45" t="n"/>
+      <c r="AR4" s="45" t="n"/>
+      <c r="AS4" s="46" t="n"/>
+      <c r="AT4" s="45" t="n"/>
+      <c r="AU4" s="45" t="n"/>
+      <c r="AV4" s="46" t="n"/>
+      <c r="AW4" s="45" t="n"/>
+      <c r="AX4" s="45" t="n"/>
+      <c r="AY4" s="46" t="n"/>
+      <c r="AZ4" s="45" t="n"/>
+      <c r="BA4" s="45" t="n"/>
+      <c r="BB4" s="46" t="n"/>
+      <c r="BC4" s="45" t="n"/>
+      <c r="BD4" s="45" t="n"/>
+      <c r="BE4" s="50" t="n"/>
+      <c r="BF4" s="45" t="n"/>
+      <c r="BG4" s="45" t="n"/>
+      <c r="BH4" s="50" t="n"/>
+      <c r="BI4" s="45" t="n"/>
+      <c r="BJ4" s="45" t="n"/>
+      <c r="BK4" s="50" t="n"/>
+      <c r="BL4" s="45" t="n"/>
+      <c r="BM4" s="45" t="n"/>
+      <c r="BN4" s="45" t="n"/>
+      <c r="BO4" s="45" t="n"/>
+      <c r="BP4" s="45" t="n"/>
+      <c r="BQ4" s="45" t="n"/>
+      <c r="BR4" s="45" t="n"/>
+      <c r="BS4" s="45" t="n"/>
+      <c r="BT4" s="45" t="n"/>
+      <c r="BU4" s="45" t="n"/>
+      <c r="BV4" s="45" t="n"/>
+      <c r="BW4" s="45" t="n"/>
+      <c r="BX4" s="45" t="n"/>
+      <c r="BY4" s="45" t="n"/>
+      <c r="BZ4" s="45" t="n"/>
+      <c r="CA4" s="45" t="n"/>
+      <c r="CB4" s="45" t="n"/>
+      <c r="CC4" s="45" t="n"/>
+      <c r="CD4" s="45" t="n"/>
+      <c r="CE4" s="45" t="n"/>
+      <c r="CF4" s="45" t="n"/>
+      <c r="CG4" s="45" t="n"/>
+      <c r="CH4" s="45" t="n"/>
+      <c r="CI4" s="45" t="n"/>
+      <c r="CJ4" s="45" t="n"/>
+      <c r="CK4" s="45" t="n"/>
+      <c r="CL4" s="51" t="n"/>
+      <c r="CM4" s="51" t="n"/>
+      <c r="CN4" s="51" t="n"/>
+      <c r="CO4" s="51" t="n"/>
+      <c r="CP4" s="51" t="n"/>
+      <c r="CQ4" s="51" t="n"/>
+      <c r="CR4" s="51" t="n"/>
+      <c r="CS4" s="51" t="n"/>
+      <c r="CT4" s="51" t="n"/>
+      <c r="CU4" s="51" t="n"/>
+      <c r="CV4" s="51" t="n"/>
     </row>
     <row r="5" ht="15.15" customHeight="1" s="1">
       <c r="A5" s="32" t="inlineStr">
@@ -2018,18 +2112,24 @@
       <c r="H5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>1.5798</v>
-      </c>
-      <c r="J5" s="27" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="K5" s="0" t="inlineStr"/>
-      <c r="L5" s="0" t="inlineStr"/>
-      <c r="M5" s="0" t="n"/>
-      <c r="N5" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I5" s="45" t="n">
+        <v>1.5822</v>
+      </c>
+      <c r="J5" s="46" t="n">
+        <v>-0.615577889447238</v>
+      </c>
+      <c r="K5" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="47" t="n">
+        <v>-0.615577889447238</v>
+      </c>
+      <c r="M5" s="47" t="n">
+        <v>1.5822</v>
+      </c>
+      <c r="N5" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O5" s="27">
@@ -2056,75 +2156,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U5" s="27" t="n"/>
-      <c r="V5" s="0" t="n"/>
-      <c r="W5" s="0" t="n"/>
-      <c r="X5" s="27" t="n"/>
-      <c r="Y5" s="0" t="n"/>
-      <c r="Z5" s="3" t="n"/>
-      <c r="AA5" s="27" t="n"/>
-      <c r="AB5" s="0" t="n"/>
-      <c r="AC5" s="3" t="n"/>
-      <c r="AD5" s="27" t="n"/>
-      <c r="AE5" s="3" t="n"/>
-      <c r="AF5" s="3" t="n"/>
-      <c r="AG5" s="27" t="n"/>
-      <c r="AH5" s="3" t="n"/>
-      <c r="AI5" s="3" t="n"/>
-      <c r="AJ5" s="27" t="n"/>
-      <c r="AK5" s="3" t="n"/>
-      <c r="AL5" s="3" t="n"/>
-      <c r="AM5" s="27" t="n"/>
-      <c r="AN5" s="3" t="n"/>
-      <c r="AO5" s="3" t="n"/>
-      <c r="AP5" s="27" t="n"/>
-      <c r="AQ5" s="3" t="n"/>
-      <c r="AR5" s="3" t="n"/>
-      <c r="AS5" s="27" t="n"/>
-      <c r="AT5" s="3" t="n"/>
-      <c r="AU5" s="3" t="n"/>
-      <c r="AV5" s="27" t="n"/>
-      <c r="AW5" s="3" t="n"/>
-      <c r="AX5" s="3" t="n"/>
-      <c r="AY5" s="27" t="n"/>
-      <c r="AZ5" s="3" t="n"/>
-      <c r="BA5" s="3" t="n"/>
-      <c r="BB5" s="27" t="n"/>
-      <c r="BC5" s="3" t="n"/>
-      <c r="BD5" s="3" t="n"/>
-      <c r="BE5" s="31" t="n"/>
-      <c r="BF5" s="3" t="n"/>
-      <c r="BG5" s="3" t="n"/>
-      <c r="BH5" s="31" t="n"/>
-      <c r="BI5" s="3" t="n"/>
-      <c r="BJ5" s="3" t="n"/>
-      <c r="BK5" s="31" t="n"/>
-      <c r="BL5" s="3" t="n"/>
-      <c r="BM5" s="3" t="n"/>
-      <c r="BN5" s="3" t="n"/>
-      <c r="BO5" s="3" t="n"/>
-      <c r="BP5" s="3" t="n"/>
-      <c r="BQ5" s="3" t="n"/>
-      <c r="BR5" s="3" t="n"/>
-      <c r="BS5" s="3" t="n"/>
-      <c r="BT5" s="3" t="n"/>
-      <c r="BU5" s="3" t="n"/>
-      <c r="BV5" s="3" t="n"/>
-      <c r="BW5" s="3" t="n"/>
-      <c r="BX5" s="3" t="n"/>
-      <c r="BY5" s="3" t="n"/>
-      <c r="BZ5" s="3" t="n"/>
-      <c r="CA5" s="3" t="n"/>
-      <c r="CB5" s="3" t="n"/>
-      <c r="CC5" s="3" t="n"/>
-      <c r="CD5" s="3" t="n"/>
-      <c r="CE5" s="3" t="n"/>
-      <c r="CF5" s="3" t="n"/>
-      <c r="CG5" s="3" t="n"/>
-      <c r="CH5" s="3" t="n"/>
-      <c r="CI5" s="3" t="n"/>
-      <c r="CJ5" s="3" t="n"/>
-      <c r="CK5" s="3" t="n"/>
+      <c r="U5" s="46" t="n"/>
+      <c r="V5" s="47" t="n"/>
+      <c r="W5" s="47" t="n"/>
+      <c r="X5" s="46" t="n"/>
+      <c r="Y5" s="47" t="n"/>
+      <c r="Z5" s="45" t="n"/>
+      <c r="AA5" s="46" t="n"/>
+      <c r="AB5" s="47" t="n"/>
+      <c r="AC5" s="45" t="n"/>
+      <c r="AD5" s="46" t="n"/>
+      <c r="AE5" s="45" t="n"/>
+      <c r="AF5" s="45" t="n"/>
+      <c r="AG5" s="46" t="n"/>
+      <c r="AH5" s="45" t="n"/>
+      <c r="AI5" s="45" t="n"/>
+      <c r="AJ5" s="46" t="n"/>
+      <c r="AK5" s="45" t="n"/>
+      <c r="AL5" s="45" t="n"/>
+      <c r="AM5" s="46" t="n"/>
+      <c r="AN5" s="45" t="n"/>
+      <c r="AO5" s="45" t="n"/>
+      <c r="AP5" s="46" t="n"/>
+      <c r="AQ5" s="45" t="n"/>
+      <c r="AR5" s="45" t="n"/>
+      <c r="AS5" s="46" t="n"/>
+      <c r="AT5" s="45" t="n"/>
+      <c r="AU5" s="45" t="n"/>
+      <c r="AV5" s="46" t="n"/>
+      <c r="AW5" s="45" t="n"/>
+      <c r="AX5" s="45" t="n"/>
+      <c r="AY5" s="46" t="n"/>
+      <c r="AZ5" s="45" t="n"/>
+      <c r="BA5" s="45" t="n"/>
+      <c r="BB5" s="46" t="n"/>
+      <c r="BC5" s="45" t="n"/>
+      <c r="BD5" s="45" t="n"/>
+      <c r="BE5" s="50" t="n"/>
+      <c r="BF5" s="45" t="n"/>
+      <c r="BG5" s="45" t="n"/>
+      <c r="BH5" s="50" t="n"/>
+      <c r="BI5" s="45" t="n"/>
+      <c r="BJ5" s="45" t="n"/>
+      <c r="BK5" s="50" t="n"/>
+      <c r="BL5" s="45" t="n"/>
+      <c r="BM5" s="45" t="n"/>
+      <c r="BN5" s="45" t="n"/>
+      <c r="BO5" s="45" t="n"/>
+      <c r="BP5" s="45" t="n"/>
+      <c r="BQ5" s="45" t="n"/>
+      <c r="BR5" s="45" t="n"/>
+      <c r="BS5" s="45" t="n"/>
+      <c r="BT5" s="45" t="n"/>
+      <c r="BU5" s="45" t="n"/>
+      <c r="BV5" s="45" t="n"/>
+      <c r="BW5" s="45" t="n"/>
+      <c r="BX5" s="45" t="n"/>
+      <c r="BY5" s="45" t="n"/>
+      <c r="BZ5" s="45" t="n"/>
+      <c r="CA5" s="45" t="n"/>
+      <c r="CB5" s="45" t="n"/>
+      <c r="CC5" s="45" t="n"/>
+      <c r="CD5" s="45" t="n"/>
+      <c r="CE5" s="45" t="n"/>
+      <c r="CF5" s="45" t="n"/>
+      <c r="CG5" s="45" t="n"/>
+      <c r="CH5" s="45" t="n"/>
+      <c r="CI5" s="45" t="n"/>
+      <c r="CJ5" s="45" t="n"/>
+      <c r="CK5" s="45" t="n"/>
+      <c r="CL5" s="51" t="n"/>
+      <c r="CM5" s="51" t="n"/>
+      <c r="CN5" s="51" t="n"/>
+      <c r="CO5" s="51" t="n"/>
+      <c r="CP5" s="51" t="n"/>
+      <c r="CQ5" s="51" t="n"/>
+      <c r="CR5" s="51" t="n"/>
+      <c r="CS5" s="51" t="n"/>
+      <c r="CT5" s="51" t="n"/>
+      <c r="CU5" s="51" t="n"/>
+      <c r="CV5" s="51" t="n"/>
     </row>
     <row r="6" ht="15.15" customHeight="1" s="1">
       <c r="A6" s="10" t="n">
@@ -2146,20 +2257,26 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>2.2498</v>
-      </c>
-      <c r="J6" s="27" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="K6" s="0" t="inlineStr"/>
-      <c r="L6" s="0" t="inlineStr"/>
-      <c r="M6" s="0" t="n"/>
-      <c r="N6" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>15</v>
+      </c>
+      <c r="I6" s="45" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="J6" s="46" t="n">
+        <v>-0.3553976010661931</v>
+      </c>
+      <c r="K6" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="47" t="n">
+        <v>-0.3271028037383232</v>
+      </c>
+      <c r="M6" s="47" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="N6" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O6" s="27">
@@ -2186,75 +2303,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U6" s="27" t="n"/>
-      <c r="V6" s="0" t="n"/>
-      <c r="W6" s="0" t="n"/>
-      <c r="X6" s="27" t="n"/>
-      <c r="Y6" s="0" t="n"/>
-      <c r="Z6" s="3" t="n"/>
-      <c r="AA6" s="27" t="n"/>
-      <c r="AB6" s="0" t="n"/>
-      <c r="AC6" s="3" t="n"/>
-      <c r="AD6" s="27" t="n"/>
-      <c r="AE6" s="3" t="n"/>
-      <c r="AF6" s="3" t="n"/>
-      <c r="AG6" s="27" t="n"/>
-      <c r="AH6" s="3" t="n"/>
-      <c r="AI6" s="3" t="n"/>
-      <c r="AJ6" s="27" t="n"/>
-      <c r="AK6" s="3" t="n"/>
-      <c r="AL6" s="3" t="n"/>
-      <c r="AM6" s="27" t="n"/>
-      <c r="AN6" s="3" t="n"/>
-      <c r="AO6" s="3" t="n"/>
-      <c r="AP6" s="27" t="n"/>
-      <c r="AQ6" s="3" t="n"/>
-      <c r="AR6" s="3" t="n"/>
-      <c r="AS6" s="11" t="n"/>
-      <c r="AT6" s="3" t="n"/>
-      <c r="AU6" s="3" t="n"/>
-      <c r="AV6" s="11" t="n"/>
-      <c r="AW6" s="3" t="n"/>
-      <c r="AX6" s="3" t="n"/>
-      <c r="AY6" s="31" t="n"/>
-      <c r="AZ6" s="3" t="n"/>
-      <c r="BA6" s="3" t="n"/>
-      <c r="BB6" s="31" t="n"/>
-      <c r="BC6" s="3" t="n"/>
-      <c r="BD6" s="3" t="n"/>
-      <c r="BE6" s="31" t="n"/>
-      <c r="BF6" s="3" t="n"/>
-      <c r="BG6" s="3" t="n"/>
-      <c r="BH6" s="31" t="n"/>
-      <c r="BI6" s="3" t="n"/>
-      <c r="BJ6" s="3" t="n"/>
-      <c r="BK6" s="3" t="n"/>
-      <c r="BL6" s="3" t="n"/>
-      <c r="BM6" s="3" t="n"/>
-      <c r="BN6" s="3" t="n"/>
-      <c r="BO6" s="3" t="n"/>
-      <c r="BP6" s="3" t="n"/>
-      <c r="BQ6" s="3" t="n"/>
-      <c r="BR6" s="3" t="n"/>
-      <c r="BS6" s="3" t="n"/>
-      <c r="BT6" s="3" t="n"/>
-      <c r="BU6" s="3" t="n"/>
-      <c r="BV6" s="3" t="n"/>
-      <c r="BW6" s="3" t="n"/>
-      <c r="BX6" s="3" t="n"/>
-      <c r="BY6" s="3" t="n"/>
-      <c r="BZ6" s="3" t="n"/>
-      <c r="CA6" s="3" t="n"/>
-      <c r="CB6" s="3" t="n"/>
-      <c r="CC6" s="3" t="n"/>
-      <c r="CD6" s="3" t="n"/>
-      <c r="CE6" s="3" t="n"/>
-      <c r="CF6" s="3" t="n"/>
-      <c r="CG6" s="3" t="n"/>
-      <c r="CH6" s="3" t="n"/>
-      <c r="CI6" s="3" t="n"/>
-      <c r="CJ6" s="3" t="n"/>
-      <c r="CK6" s="3" t="n"/>
+      <c r="U6" s="46" t="n"/>
+      <c r="V6" s="47" t="n"/>
+      <c r="W6" s="47" t="n"/>
+      <c r="X6" s="46" t="n"/>
+      <c r="Y6" s="47" t="n"/>
+      <c r="Z6" s="45" t="n"/>
+      <c r="AA6" s="46" t="n"/>
+      <c r="AB6" s="47" t="n"/>
+      <c r="AC6" s="45" t="n"/>
+      <c r="AD6" s="46" t="n"/>
+      <c r="AE6" s="45" t="n"/>
+      <c r="AF6" s="45" t="n"/>
+      <c r="AG6" s="46" t="n"/>
+      <c r="AH6" s="45" t="n"/>
+      <c r="AI6" s="45" t="n"/>
+      <c r="AJ6" s="46" t="n"/>
+      <c r="AK6" s="45" t="n"/>
+      <c r="AL6" s="45" t="n"/>
+      <c r="AM6" s="46" t="n"/>
+      <c r="AN6" s="45" t="n"/>
+      <c r="AO6" s="45" t="n"/>
+      <c r="AP6" s="46" t="n"/>
+      <c r="AQ6" s="45" t="n"/>
+      <c r="AR6" s="45" t="n"/>
+      <c r="AS6" s="49" t="n"/>
+      <c r="AT6" s="45" t="n"/>
+      <c r="AU6" s="45" t="n"/>
+      <c r="AV6" s="49" t="n"/>
+      <c r="AW6" s="45" t="n"/>
+      <c r="AX6" s="45" t="n"/>
+      <c r="AY6" s="50" t="n"/>
+      <c r="AZ6" s="45" t="n"/>
+      <c r="BA6" s="45" t="n"/>
+      <c r="BB6" s="50" t="n"/>
+      <c r="BC6" s="45" t="n"/>
+      <c r="BD6" s="45" t="n"/>
+      <c r="BE6" s="50" t="n"/>
+      <c r="BF6" s="45" t="n"/>
+      <c r="BG6" s="45" t="n"/>
+      <c r="BH6" s="50" t="n"/>
+      <c r="BI6" s="45" t="n"/>
+      <c r="BJ6" s="45" t="n"/>
+      <c r="BK6" s="45" t="n"/>
+      <c r="BL6" s="45" t="n"/>
+      <c r="BM6" s="45" t="n"/>
+      <c r="BN6" s="45" t="n"/>
+      <c r="BO6" s="45" t="n"/>
+      <c r="BP6" s="45" t="n"/>
+      <c r="BQ6" s="45" t="n"/>
+      <c r="BR6" s="45" t="n"/>
+      <c r="BS6" s="45" t="n"/>
+      <c r="BT6" s="45" t="n"/>
+      <c r="BU6" s="45" t="n"/>
+      <c r="BV6" s="45" t="n"/>
+      <c r="BW6" s="45" t="n"/>
+      <c r="BX6" s="45" t="n"/>
+      <c r="BY6" s="45" t="n"/>
+      <c r="BZ6" s="45" t="n"/>
+      <c r="CA6" s="45" t="n"/>
+      <c r="CB6" s="45" t="n"/>
+      <c r="CC6" s="45" t="n"/>
+      <c r="CD6" s="45" t="n"/>
+      <c r="CE6" s="45" t="n"/>
+      <c r="CF6" s="45" t="n"/>
+      <c r="CG6" s="45" t="n"/>
+      <c r="CH6" s="45" t="n"/>
+      <c r="CI6" s="45" t="n"/>
+      <c r="CJ6" s="45" t="n"/>
+      <c r="CK6" s="45" t="n"/>
+      <c r="CL6" s="51" t="n"/>
+      <c r="CM6" s="51" t="n"/>
+      <c r="CN6" s="51" t="n"/>
+      <c r="CO6" s="51" t="n"/>
+      <c r="CP6" s="51" t="n"/>
+      <c r="CQ6" s="51" t="n"/>
+      <c r="CR6" s="51" t="n"/>
+      <c r="CS6" s="51" t="n"/>
+      <c r="CT6" s="51" t="n"/>
+      <c r="CU6" s="51" t="n"/>
+      <c r="CV6" s="51" t="n"/>
     </row>
     <row r="7" ht="15.15" customHeight="1" s="1">
       <c r="A7" s="22" t="n">
@@ -2288,18 +2416,24 @@
       <c r="H7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>1.098</v>
-      </c>
-      <c r="J7" s="27" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="K7" s="0" t="inlineStr"/>
-      <c r="L7" s="0" t="inlineStr"/>
-      <c r="M7" s="0" t="n"/>
-      <c r="N7" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I7" s="45" t="n">
+        <v>1.0981</v>
+      </c>
+      <c r="J7" s="46" t="n">
+        <v>-0.5163978981699417</v>
+      </c>
+      <c r="K7" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="47" t="n">
+        <v>-0.5173528777753735</v>
+      </c>
+      <c r="M7" s="47" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="N7" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O7" s="27">
@@ -2326,75 +2460,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="U7" s="27" t="n"/>
-      <c r="V7" s="0" t="n"/>
-      <c r="W7" s="0" t="n"/>
-      <c r="X7" s="27" t="n"/>
-      <c r="Y7" s="0" t="n"/>
-      <c r="Z7" s="3" t="n"/>
-      <c r="AA7" s="27" t="n"/>
-      <c r="AB7" s="0" t="n"/>
-      <c r="AC7" s="3" t="n"/>
-      <c r="AD7" s="27" t="n"/>
-      <c r="AE7" s="3" t="n"/>
-      <c r="AF7" s="3" t="n"/>
-      <c r="AG7" s="27" t="n"/>
-      <c r="AH7" s="3" t="n"/>
-      <c r="AI7" s="3" t="n"/>
-      <c r="AJ7" s="27" t="n"/>
-      <c r="AK7" s="3" t="n"/>
-      <c r="AL7" s="3" t="n"/>
-      <c r="AM7" s="27" t="n"/>
-      <c r="AN7" s="3" t="n"/>
-      <c r="AO7" s="3" t="n"/>
-      <c r="AP7" s="27" t="n"/>
-      <c r="AQ7" s="3" t="n"/>
-      <c r="AR7" s="3" t="n"/>
-      <c r="AS7" s="27" t="n"/>
-      <c r="AT7" s="3" t="n"/>
-      <c r="AU7" s="3" t="n"/>
-      <c r="AV7" s="27" t="n"/>
-      <c r="AW7" s="3" t="n"/>
-      <c r="AX7" s="3" t="n"/>
-      <c r="AY7" s="27" t="n"/>
-      <c r="AZ7" s="3" t="n"/>
-      <c r="BA7" s="3" t="n"/>
-      <c r="BB7" s="27" t="n"/>
-      <c r="BC7" s="3" t="n"/>
-      <c r="BD7" s="3" t="n"/>
-      <c r="BE7" s="27" t="n"/>
-      <c r="BF7" s="3" t="n"/>
-      <c r="BG7" s="3" t="n"/>
-      <c r="BH7" s="31" t="n"/>
-      <c r="BI7" s="3" t="n"/>
-      <c r="BJ7" s="3" t="n"/>
-      <c r="BK7" s="31" t="n"/>
-      <c r="BL7" s="3" t="n"/>
-      <c r="BM7" s="3" t="n"/>
-      <c r="BN7" s="3" t="n"/>
-      <c r="BO7" s="3" t="n"/>
-      <c r="BP7" s="3" t="n"/>
-      <c r="BQ7" s="3" t="n"/>
-      <c r="BR7" s="3" t="n"/>
-      <c r="BS7" s="3" t="n"/>
-      <c r="BT7" s="3" t="n"/>
-      <c r="BU7" s="3" t="n"/>
-      <c r="BV7" s="3" t="n"/>
-      <c r="BW7" s="3" t="n"/>
-      <c r="BX7" s="3" t="n"/>
-      <c r="BY7" s="3" t="n"/>
-      <c r="BZ7" s="3" t="n"/>
-      <c r="CA7" s="3" t="n"/>
-      <c r="CB7" s="3" t="n"/>
-      <c r="CC7" s="3" t="n"/>
-      <c r="CD7" s="3" t="n"/>
-      <c r="CE7" s="3" t="n"/>
-      <c r="CF7" s="3" t="n"/>
-      <c r="CG7" s="3" t="n"/>
-      <c r="CH7" s="3" t="n"/>
-      <c r="CI7" s="3" t="n"/>
-      <c r="CJ7" s="3" t="n"/>
-      <c r="CK7" s="3" t="n"/>
+      <c r="U7" s="46" t="n"/>
+      <c r="V7" s="47" t="n"/>
+      <c r="W7" s="47" t="n"/>
+      <c r="X7" s="46" t="n"/>
+      <c r="Y7" s="47" t="n"/>
+      <c r="Z7" s="45" t="n"/>
+      <c r="AA7" s="46" t="n"/>
+      <c r="AB7" s="47" t="n"/>
+      <c r="AC7" s="45" t="n"/>
+      <c r="AD7" s="46" t="n"/>
+      <c r="AE7" s="45" t="n"/>
+      <c r="AF7" s="45" t="n"/>
+      <c r="AG7" s="46" t="n"/>
+      <c r="AH7" s="45" t="n"/>
+      <c r="AI7" s="45" t="n"/>
+      <c r="AJ7" s="46" t="n"/>
+      <c r="AK7" s="45" t="n"/>
+      <c r="AL7" s="45" t="n"/>
+      <c r="AM7" s="46" t="n"/>
+      <c r="AN7" s="45" t="n"/>
+      <c r="AO7" s="45" t="n"/>
+      <c r="AP7" s="46" t="n"/>
+      <c r="AQ7" s="45" t="n"/>
+      <c r="AR7" s="45" t="n"/>
+      <c r="AS7" s="46" t="n"/>
+      <c r="AT7" s="45" t="n"/>
+      <c r="AU7" s="45" t="n"/>
+      <c r="AV7" s="46" t="n"/>
+      <c r="AW7" s="45" t="n"/>
+      <c r="AX7" s="45" t="n"/>
+      <c r="AY7" s="46" t="n"/>
+      <c r="AZ7" s="45" t="n"/>
+      <c r="BA7" s="45" t="n"/>
+      <c r="BB7" s="46" t="n"/>
+      <c r="BC7" s="45" t="n"/>
+      <c r="BD7" s="45" t="n"/>
+      <c r="BE7" s="46" t="n"/>
+      <c r="BF7" s="45" t="n"/>
+      <c r="BG7" s="45" t="n"/>
+      <c r="BH7" s="50" t="n"/>
+      <c r="BI7" s="45" t="n"/>
+      <c r="BJ7" s="45" t="n"/>
+      <c r="BK7" s="50" t="n"/>
+      <c r="BL7" s="45" t="n"/>
+      <c r="BM7" s="45" t="n"/>
+      <c r="BN7" s="45" t="n"/>
+      <c r="BO7" s="45" t="n"/>
+      <c r="BP7" s="45" t="n"/>
+      <c r="BQ7" s="45" t="n"/>
+      <c r="BR7" s="45" t="n"/>
+      <c r="BS7" s="45" t="n"/>
+      <c r="BT7" s="45" t="n"/>
+      <c r="BU7" s="45" t="n"/>
+      <c r="BV7" s="45" t="n"/>
+      <c r="BW7" s="45" t="n"/>
+      <c r="BX7" s="45" t="n"/>
+      <c r="BY7" s="45" t="n"/>
+      <c r="BZ7" s="45" t="n"/>
+      <c r="CA7" s="45" t="n"/>
+      <c r="CB7" s="45" t="n"/>
+      <c r="CC7" s="45" t="n"/>
+      <c r="CD7" s="45" t="n"/>
+      <c r="CE7" s="45" t="n"/>
+      <c r="CF7" s="45" t="n"/>
+      <c r="CG7" s="45" t="n"/>
+      <c r="CH7" s="45" t="n"/>
+      <c r="CI7" s="45" t="n"/>
+      <c r="CJ7" s="45" t="n"/>
+      <c r="CK7" s="45" t="n"/>
+      <c r="CL7" s="51" t="n"/>
+      <c r="CM7" s="51" t="n"/>
+      <c r="CN7" s="51" t="n"/>
+      <c r="CO7" s="51" t="n"/>
+      <c r="CP7" s="51" t="n"/>
+      <c r="CQ7" s="51" t="n"/>
+      <c r="CR7" s="51" t="n"/>
+      <c r="CS7" s="51" t="n"/>
+      <c r="CT7" s="51" t="n"/>
+      <c r="CU7" s="51" t="n"/>
+      <c r="CV7" s="51" t="n"/>
     </row>
     <row r="8" ht="15.15" customHeight="1" s="1">
       <c r="A8" s="32" t="inlineStr">
@@ -2420,18 +2565,24 @@
       <c r="H8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>1.5919</v>
-      </c>
-      <c r="J8" s="27" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="K8" s="0" t="inlineStr"/>
-      <c r="L8" s="0" t="inlineStr"/>
-      <c r="M8" s="0" t="n"/>
-      <c r="N8" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I8" s="45" t="n">
+        <v>1.5803</v>
+      </c>
+      <c r="J8" s="46" t="n">
+        <v>-1.064295999499149</v>
+      </c>
+      <c r="K8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="47" t="n">
+        <v>-1.064295999499149</v>
+      </c>
+      <c r="M8" s="47" t="n">
+        <v>1.5803</v>
+      </c>
+      <c r="N8" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O8" s="27">
@@ -2458,75 +2609,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U8" s="27" t="n"/>
-      <c r="V8" s="0" t="n"/>
-      <c r="W8" s="0" t="n"/>
-      <c r="X8" s="27" t="n"/>
-      <c r="Y8" s="0" t="n"/>
-      <c r="Z8" s="3" t="n"/>
-      <c r="AA8" s="27" t="n"/>
-      <c r="AB8" s="0" t="n"/>
-      <c r="AC8" s="3" t="n"/>
-      <c r="AD8" s="27" t="n"/>
-      <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="3" t="n"/>
-      <c r="AG8" s="27" t="n"/>
-      <c r="AH8" s="3" t="n"/>
-      <c r="AI8" s="3" t="n"/>
-      <c r="AJ8" s="27" t="n"/>
-      <c r="AK8" s="3" t="n"/>
-      <c r="AL8" s="3" t="n"/>
-      <c r="AM8" s="27" t="n"/>
-      <c r="AN8" s="3" t="n"/>
-      <c r="AO8" s="3" t="n"/>
-      <c r="AP8" s="27" t="n"/>
-      <c r="AQ8" s="3" t="n"/>
-      <c r="AR8" s="3" t="n"/>
-      <c r="AS8" s="27" t="n"/>
-      <c r="AT8" s="3" t="n"/>
-      <c r="AU8" s="3" t="n"/>
-      <c r="AV8" s="27" t="n"/>
-      <c r="AW8" s="3" t="n"/>
-      <c r="AX8" s="3" t="n"/>
-      <c r="AY8" s="27" t="n"/>
-      <c r="AZ8" s="3" t="n"/>
-      <c r="BA8" s="3" t="n"/>
-      <c r="BB8" s="27" t="n"/>
-      <c r="BC8" s="3" t="n"/>
-      <c r="BD8" s="3" t="n"/>
-      <c r="BE8" s="11" t="n"/>
-      <c r="BF8" s="3" t="n"/>
-      <c r="BG8" s="3" t="n"/>
-      <c r="BH8" s="31" t="n"/>
-      <c r="BI8" s="3" t="n"/>
-      <c r="BJ8" s="3" t="n"/>
-      <c r="BK8" s="3" t="n"/>
-      <c r="BL8" s="3" t="n"/>
-      <c r="BM8" s="3" t="n"/>
-      <c r="BN8" s="3" t="n"/>
-      <c r="BO8" s="3" t="n"/>
-      <c r="BP8" s="3" t="n"/>
-      <c r="BQ8" s="3" t="n"/>
-      <c r="BR8" s="3" t="n"/>
-      <c r="BS8" s="3" t="n"/>
-      <c r="BT8" s="3" t="n"/>
-      <c r="BU8" s="3" t="n"/>
-      <c r="BV8" s="3" t="n"/>
-      <c r="BW8" s="3" t="n"/>
-      <c r="BX8" s="3" t="n"/>
-      <c r="BY8" s="3" t="n"/>
-      <c r="BZ8" s="3" t="n"/>
-      <c r="CA8" s="3" t="n"/>
-      <c r="CB8" s="3" t="n"/>
-      <c r="CC8" s="3" t="n"/>
-      <c r="CD8" s="3" t="n"/>
-      <c r="CE8" s="3" t="n"/>
-      <c r="CF8" s="3" t="n"/>
-      <c r="CG8" s="3" t="n"/>
-      <c r="CH8" s="3" t="n"/>
-      <c r="CI8" s="3" t="n"/>
-      <c r="CJ8" s="3" t="n"/>
-      <c r="CK8" s="3" t="n"/>
+      <c r="U8" s="46" t="n"/>
+      <c r="V8" s="47" t="n"/>
+      <c r="W8" s="47" t="n"/>
+      <c r="X8" s="46" t="n"/>
+      <c r="Y8" s="47" t="n"/>
+      <c r="Z8" s="45" t="n"/>
+      <c r="AA8" s="46" t="n"/>
+      <c r="AB8" s="47" t="n"/>
+      <c r="AC8" s="45" t="n"/>
+      <c r="AD8" s="46" t="n"/>
+      <c r="AE8" s="45" t="n"/>
+      <c r="AF8" s="45" t="n"/>
+      <c r="AG8" s="46" t="n"/>
+      <c r="AH8" s="45" t="n"/>
+      <c r="AI8" s="45" t="n"/>
+      <c r="AJ8" s="46" t="n"/>
+      <c r="AK8" s="45" t="n"/>
+      <c r="AL8" s="45" t="n"/>
+      <c r="AM8" s="46" t="n"/>
+      <c r="AN8" s="45" t="n"/>
+      <c r="AO8" s="45" t="n"/>
+      <c r="AP8" s="46" t="n"/>
+      <c r="AQ8" s="45" t="n"/>
+      <c r="AR8" s="45" t="n"/>
+      <c r="AS8" s="46" t="n"/>
+      <c r="AT8" s="45" t="n"/>
+      <c r="AU8" s="45" t="n"/>
+      <c r="AV8" s="46" t="n"/>
+      <c r="AW8" s="45" t="n"/>
+      <c r="AX8" s="45" t="n"/>
+      <c r="AY8" s="46" t="n"/>
+      <c r="AZ8" s="45" t="n"/>
+      <c r="BA8" s="45" t="n"/>
+      <c r="BB8" s="46" t="n"/>
+      <c r="BC8" s="45" t="n"/>
+      <c r="BD8" s="45" t="n"/>
+      <c r="BE8" s="49" t="n"/>
+      <c r="BF8" s="45" t="n"/>
+      <c r="BG8" s="45" t="n"/>
+      <c r="BH8" s="50" t="n"/>
+      <c r="BI8" s="45" t="n"/>
+      <c r="BJ8" s="45" t="n"/>
+      <c r="BK8" s="45" t="n"/>
+      <c r="BL8" s="45" t="n"/>
+      <c r="BM8" s="45" t="n"/>
+      <c r="BN8" s="45" t="n"/>
+      <c r="BO8" s="45" t="n"/>
+      <c r="BP8" s="45" t="n"/>
+      <c r="BQ8" s="45" t="n"/>
+      <c r="BR8" s="45" t="n"/>
+      <c r="BS8" s="45" t="n"/>
+      <c r="BT8" s="45" t="n"/>
+      <c r="BU8" s="45" t="n"/>
+      <c r="BV8" s="45" t="n"/>
+      <c r="BW8" s="45" t="n"/>
+      <c r="BX8" s="45" t="n"/>
+      <c r="BY8" s="45" t="n"/>
+      <c r="BZ8" s="45" t="n"/>
+      <c r="CA8" s="45" t="n"/>
+      <c r="CB8" s="45" t="n"/>
+      <c r="CC8" s="45" t="n"/>
+      <c r="CD8" s="45" t="n"/>
+      <c r="CE8" s="45" t="n"/>
+      <c r="CF8" s="45" t="n"/>
+      <c r="CG8" s="45" t="n"/>
+      <c r="CH8" s="45" t="n"/>
+      <c r="CI8" s="45" t="n"/>
+      <c r="CJ8" s="45" t="n"/>
+      <c r="CK8" s="45" t="n"/>
+      <c r="CL8" s="51" t="n"/>
+      <c r="CM8" s="51" t="n"/>
+      <c r="CN8" s="51" t="n"/>
+      <c r="CO8" s="51" t="n"/>
+      <c r="CP8" s="51" t="n"/>
+      <c r="CQ8" s="51" t="n"/>
+      <c r="CR8" s="51" t="n"/>
+      <c r="CS8" s="51" t="n"/>
+      <c r="CT8" s="51" t="n"/>
+      <c r="CU8" s="51" t="n"/>
+      <c r="CV8" s="51" t="n"/>
     </row>
     <row r="9" ht="15.15" customHeight="1" s="1">
       <c r="A9" s="33" t="inlineStr">
@@ -2552,18 +2714,24 @@
       <c r="H9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="n">
-        <v>1.3056</v>
-      </c>
-      <c r="J9" s="27" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K9" s="0" t="inlineStr"/>
-      <c r="L9" s="0" t="inlineStr"/>
-      <c r="M9" s="0" t="n"/>
-      <c r="N9" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I9" s="45" t="n">
+        <v>1.313</v>
+      </c>
+      <c r="J9" s="46" t="n">
+        <v>0.9999999999999923</v>
+      </c>
+      <c r="K9" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" s="47" t="n">
+        <v>6.058158319870756</v>
+      </c>
+      <c r="M9" s="47" t="n">
+        <v>1.313</v>
+      </c>
+      <c r="N9" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O9" s="27">
@@ -2590,75 +2758,86 @@
           <t>20191114</t>
         </is>
       </c>
-      <c r="U9" s="27" t="n"/>
-      <c r="V9" s="0" t="n"/>
-      <c r="W9" s="0" t="n"/>
-      <c r="X9" s="27" t="n"/>
-      <c r="Y9" s="0" t="n"/>
-      <c r="Z9" s="3" t="n"/>
-      <c r="AA9" s="27" t="n"/>
-      <c r="AB9" s="0" t="n"/>
-      <c r="AC9" s="3" t="n"/>
-      <c r="AD9" s="27" t="n"/>
-      <c r="AE9" s="3" t="n"/>
-      <c r="AF9" s="3" t="n"/>
-      <c r="AG9" s="27" t="n"/>
-      <c r="AH9" s="3" t="n"/>
-      <c r="AI9" s="3" t="n"/>
-      <c r="AJ9" s="27" t="n"/>
-      <c r="AK9" s="3" t="n"/>
-      <c r="AL9" s="3" t="n"/>
-      <c r="AM9" s="27" t="n"/>
-      <c r="AN9" s="3" t="n"/>
-      <c r="AO9" s="3" t="n"/>
-      <c r="AP9" s="27" t="n"/>
-      <c r="AQ9" s="3" t="n"/>
-      <c r="AR9" s="3" t="n"/>
-      <c r="AS9" s="27" t="n"/>
-      <c r="AT9" s="3" t="n"/>
-      <c r="AU9" s="3" t="n"/>
-      <c r="AV9" s="27" t="n"/>
-      <c r="AW9" s="3" t="n"/>
-      <c r="AX9" s="3" t="n"/>
-      <c r="AY9" s="27" t="n"/>
-      <c r="AZ9" s="3" t="n"/>
-      <c r="BA9" s="3" t="n"/>
-      <c r="BB9" s="31" t="n"/>
-      <c r="BC9" s="3" t="n"/>
-      <c r="BD9" s="3" t="n"/>
-      <c r="BE9" s="31" t="n"/>
-      <c r="BF9" s="3" t="n"/>
-      <c r="BG9" s="3" t="n"/>
-      <c r="BH9" s="3" t="n"/>
-      <c r="BI9" s="3" t="n"/>
-      <c r="BJ9" s="3" t="n"/>
-      <c r="BK9" s="3" t="n"/>
-      <c r="BL9" s="3" t="n"/>
-      <c r="BM9" s="3" t="n"/>
-      <c r="BN9" s="3" t="n"/>
-      <c r="BO9" s="3" t="n"/>
-      <c r="BP9" s="3" t="n"/>
-      <c r="BQ9" s="3" t="n"/>
-      <c r="BR9" s="3" t="n"/>
-      <c r="BS9" s="3" t="n"/>
-      <c r="BT9" s="3" t="n"/>
-      <c r="BU9" s="3" t="n"/>
-      <c r="BV9" s="3" t="n"/>
-      <c r="BW9" s="3" t="n"/>
-      <c r="BX9" s="3" t="n"/>
-      <c r="BY9" s="3" t="n"/>
-      <c r="BZ9" s="3" t="n"/>
-      <c r="CA9" s="3" t="n"/>
-      <c r="CB9" s="3" t="n"/>
-      <c r="CC9" s="3" t="n"/>
-      <c r="CD9" s="3" t="n"/>
-      <c r="CE9" s="3" t="n"/>
-      <c r="CF9" s="3" t="n"/>
-      <c r="CG9" s="3" t="n"/>
-      <c r="CH9" s="3" t="n"/>
-      <c r="CI9" s="3" t="n"/>
-      <c r="CJ9" s="3" t="n"/>
-      <c r="CK9" s="3" t="n"/>
+      <c r="U9" s="46" t="n"/>
+      <c r="V9" s="47" t="n"/>
+      <c r="W9" s="47" t="n"/>
+      <c r="X9" s="46" t="n"/>
+      <c r="Y9" s="47" t="n"/>
+      <c r="Z9" s="45" t="n"/>
+      <c r="AA9" s="46" t="n"/>
+      <c r="AB9" s="47" t="n"/>
+      <c r="AC9" s="45" t="n"/>
+      <c r="AD9" s="46" t="n"/>
+      <c r="AE9" s="45" t="n"/>
+      <c r="AF9" s="45" t="n"/>
+      <c r="AG9" s="46" t="n"/>
+      <c r="AH9" s="45" t="n"/>
+      <c r="AI9" s="45" t="n"/>
+      <c r="AJ9" s="46" t="n"/>
+      <c r="AK9" s="45" t="n"/>
+      <c r="AL9" s="45" t="n"/>
+      <c r="AM9" s="46" t="n"/>
+      <c r="AN9" s="45" t="n"/>
+      <c r="AO9" s="45" t="n"/>
+      <c r="AP9" s="46" t="n"/>
+      <c r="AQ9" s="45" t="n"/>
+      <c r="AR9" s="45" t="n"/>
+      <c r="AS9" s="46" t="n"/>
+      <c r="AT9" s="45" t="n"/>
+      <c r="AU9" s="45" t="n"/>
+      <c r="AV9" s="46" t="n"/>
+      <c r="AW9" s="45" t="n"/>
+      <c r="AX9" s="45" t="n"/>
+      <c r="AY9" s="46" t="n"/>
+      <c r="AZ9" s="45" t="n"/>
+      <c r="BA9" s="45" t="n"/>
+      <c r="BB9" s="50" t="n"/>
+      <c r="BC9" s="45" t="n"/>
+      <c r="BD9" s="45" t="n"/>
+      <c r="BE9" s="50" t="n"/>
+      <c r="BF9" s="45" t="n"/>
+      <c r="BG9" s="45" t="n"/>
+      <c r="BH9" s="45" t="n"/>
+      <c r="BI9" s="45" t="n"/>
+      <c r="BJ9" s="45" t="n"/>
+      <c r="BK9" s="45" t="n"/>
+      <c r="BL9" s="45" t="n"/>
+      <c r="BM9" s="45" t="n"/>
+      <c r="BN9" s="45" t="n"/>
+      <c r="BO9" s="45" t="n"/>
+      <c r="BP9" s="45" t="n"/>
+      <c r="BQ9" s="45" t="n"/>
+      <c r="BR9" s="45" t="n"/>
+      <c r="BS9" s="45" t="n"/>
+      <c r="BT9" s="45" t="n"/>
+      <c r="BU9" s="45" t="n"/>
+      <c r="BV9" s="45" t="n"/>
+      <c r="BW9" s="45" t="n"/>
+      <c r="BX9" s="45" t="n"/>
+      <c r="BY9" s="45" t="n"/>
+      <c r="BZ9" s="45" t="n"/>
+      <c r="CA9" s="45" t="n"/>
+      <c r="CB9" s="45" t="n"/>
+      <c r="CC9" s="45" t="n"/>
+      <c r="CD9" s="45" t="n"/>
+      <c r="CE9" s="45" t="n"/>
+      <c r="CF9" s="45" t="n"/>
+      <c r="CG9" s="45" t="n"/>
+      <c r="CH9" s="45" t="n"/>
+      <c r="CI9" s="45" t="n"/>
+      <c r="CJ9" s="45" t="n"/>
+      <c r="CK9" s="45" t="n"/>
+      <c r="CL9" s="51" t="n"/>
+      <c r="CM9" s="51" t="n"/>
+      <c r="CN9" s="51" t="n"/>
+      <c r="CO9" s="51" t="n"/>
+      <c r="CP9" s="51" t="n"/>
+      <c r="CQ9" s="51" t="n"/>
+      <c r="CR9" s="51" t="n"/>
+      <c r="CS9" s="51" t="n"/>
+      <c r="CT9" s="51" t="n"/>
+      <c r="CU9" s="51" t="n"/>
+      <c r="CV9" s="51" t="n"/>
     </row>
     <row r="10" ht="15.15" customHeight="1" s="1">
       <c r="A10" s="32" t="inlineStr">
@@ -2689,18 +2868,24 @@
       <c r="H10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>1.6885</v>
-      </c>
-      <c r="J10" s="27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K10" s="0" t="inlineStr"/>
-      <c r="L10" s="0" t="inlineStr"/>
-      <c r="M10" s="0" t="n"/>
-      <c r="N10" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I10" s="45" t="n">
+        <v>1.6935</v>
+      </c>
+      <c r="J10" s="46" t="n">
+        <v>1.742264944427751</v>
+      </c>
+      <c r="K10" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" s="47" t="n">
+        <v>9.583279409861516</v>
+      </c>
+      <c r="M10" s="47" t="n">
+        <v>1.6935</v>
+      </c>
+      <c r="N10" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O10" s="27">
@@ -2727,75 +2912,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U10" s="27" t="n"/>
-      <c r="V10" s="0" t="n"/>
-      <c r="W10" s="0" t="n"/>
-      <c r="X10" s="27" t="n"/>
-      <c r="Y10" s="0" t="n"/>
-      <c r="Z10" s="3" t="n"/>
-      <c r="AA10" s="27" t="n"/>
-      <c r="AB10" s="0" t="n"/>
-      <c r="AC10" s="3" t="n"/>
-      <c r="AD10" s="27" t="n"/>
-      <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="3" t="n"/>
-      <c r="AG10" s="27" t="n"/>
-      <c r="AH10" s="3" t="n"/>
-      <c r="AI10" s="3" t="n"/>
-      <c r="AJ10" s="27" t="n"/>
-      <c r="AK10" s="3" t="n"/>
-      <c r="AL10" s="3" t="n"/>
-      <c r="AM10" s="27" t="n"/>
-      <c r="AN10" s="3" t="n"/>
-      <c r="AO10" s="3" t="n"/>
-      <c r="AP10" s="27" t="n"/>
-      <c r="AQ10" s="3" t="n"/>
-      <c r="AR10" s="3" t="n"/>
-      <c r="AS10" s="27" t="n"/>
-      <c r="AT10" s="3" t="n"/>
-      <c r="AU10" s="3" t="n"/>
-      <c r="AV10" s="27" t="n"/>
-      <c r="AW10" s="3" t="n"/>
-      <c r="AX10" s="3" t="n"/>
-      <c r="AY10" s="27" t="n"/>
-      <c r="AZ10" s="3" t="n"/>
-      <c r="BA10" s="3" t="n"/>
-      <c r="BB10" s="31" t="n"/>
-      <c r="BC10" s="3" t="n"/>
-      <c r="BD10" s="3" t="n"/>
-      <c r="BE10" s="31" t="n"/>
-      <c r="BF10" s="3" t="n"/>
-      <c r="BG10" s="3" t="n"/>
-      <c r="BH10" s="31" t="n"/>
-      <c r="BI10" s="3" t="n"/>
-      <c r="BJ10" s="3" t="n"/>
-      <c r="BK10" s="31" t="n"/>
-      <c r="BL10" s="3" t="n"/>
-      <c r="BM10" s="3" t="n"/>
-      <c r="BN10" s="3" t="n"/>
-      <c r="BO10" s="3" t="n"/>
-      <c r="BP10" s="3" t="n"/>
-      <c r="BQ10" s="3" t="n"/>
-      <c r="BR10" s="3" t="n"/>
-      <c r="BS10" s="3" t="n"/>
-      <c r="BT10" s="3" t="n"/>
-      <c r="BU10" s="3" t="n"/>
-      <c r="BV10" s="3" t="n"/>
-      <c r="BW10" s="3" t="n"/>
-      <c r="BX10" s="3" t="n"/>
-      <c r="BY10" s="3" t="n"/>
-      <c r="BZ10" s="3" t="n"/>
-      <c r="CA10" s="3" t="n"/>
-      <c r="CB10" s="3" t="n"/>
-      <c r="CC10" s="3" t="n"/>
-      <c r="CD10" s="3" t="n"/>
-      <c r="CE10" s="3" t="n"/>
-      <c r="CF10" s="3" t="n"/>
-      <c r="CG10" s="3" t="n"/>
-      <c r="CH10" s="3" t="n"/>
-      <c r="CI10" s="3" t="n"/>
-      <c r="CJ10" s="3" t="n"/>
-      <c r="CK10" s="3" t="n"/>
+      <c r="U10" s="46" t="n"/>
+      <c r="V10" s="47" t="n"/>
+      <c r="W10" s="47" t="n"/>
+      <c r="X10" s="46" t="n"/>
+      <c r="Y10" s="47" t="n"/>
+      <c r="Z10" s="45" t="n"/>
+      <c r="AA10" s="46" t="n"/>
+      <c r="AB10" s="47" t="n"/>
+      <c r="AC10" s="45" t="n"/>
+      <c r="AD10" s="46" t="n"/>
+      <c r="AE10" s="45" t="n"/>
+      <c r="AF10" s="45" t="n"/>
+      <c r="AG10" s="46" t="n"/>
+      <c r="AH10" s="45" t="n"/>
+      <c r="AI10" s="45" t="n"/>
+      <c r="AJ10" s="46" t="n"/>
+      <c r="AK10" s="45" t="n"/>
+      <c r="AL10" s="45" t="n"/>
+      <c r="AM10" s="46" t="n"/>
+      <c r="AN10" s="45" t="n"/>
+      <c r="AO10" s="45" t="n"/>
+      <c r="AP10" s="46" t="n"/>
+      <c r="AQ10" s="45" t="n"/>
+      <c r="AR10" s="45" t="n"/>
+      <c r="AS10" s="46" t="n"/>
+      <c r="AT10" s="45" t="n"/>
+      <c r="AU10" s="45" t="n"/>
+      <c r="AV10" s="46" t="n"/>
+      <c r="AW10" s="45" t="n"/>
+      <c r="AX10" s="45" t="n"/>
+      <c r="AY10" s="46" t="n"/>
+      <c r="AZ10" s="45" t="n"/>
+      <c r="BA10" s="45" t="n"/>
+      <c r="BB10" s="50" t="n"/>
+      <c r="BC10" s="45" t="n"/>
+      <c r="BD10" s="45" t="n"/>
+      <c r="BE10" s="50" t="n"/>
+      <c r="BF10" s="45" t="n"/>
+      <c r="BG10" s="45" t="n"/>
+      <c r="BH10" s="50" t="n"/>
+      <c r="BI10" s="45" t="n"/>
+      <c r="BJ10" s="45" t="n"/>
+      <c r="BK10" s="50" t="n"/>
+      <c r="BL10" s="45" t="n"/>
+      <c r="BM10" s="45" t="n"/>
+      <c r="BN10" s="45" t="n"/>
+      <c r="BO10" s="45" t="n"/>
+      <c r="BP10" s="45" t="n"/>
+      <c r="BQ10" s="45" t="n"/>
+      <c r="BR10" s="45" t="n"/>
+      <c r="BS10" s="45" t="n"/>
+      <c r="BT10" s="45" t="n"/>
+      <c r="BU10" s="45" t="n"/>
+      <c r="BV10" s="45" t="n"/>
+      <c r="BW10" s="45" t="n"/>
+      <c r="BX10" s="45" t="n"/>
+      <c r="BY10" s="45" t="n"/>
+      <c r="BZ10" s="45" t="n"/>
+      <c r="CA10" s="45" t="n"/>
+      <c r="CB10" s="45" t="n"/>
+      <c r="CC10" s="45" t="n"/>
+      <c r="CD10" s="45" t="n"/>
+      <c r="CE10" s="45" t="n"/>
+      <c r="CF10" s="45" t="n"/>
+      <c r="CG10" s="45" t="n"/>
+      <c r="CH10" s="45" t="n"/>
+      <c r="CI10" s="45" t="n"/>
+      <c r="CJ10" s="45" t="n"/>
+      <c r="CK10" s="45" t="n"/>
+      <c r="CL10" s="51" t="n"/>
+      <c r="CM10" s="51" t="n"/>
+      <c r="CN10" s="51" t="n"/>
+      <c r="CO10" s="51" t="n"/>
+      <c r="CP10" s="51" t="n"/>
+      <c r="CQ10" s="51" t="n"/>
+      <c r="CR10" s="51" t="n"/>
+      <c r="CS10" s="51" t="n"/>
+      <c r="CT10" s="51" t="n"/>
+      <c r="CU10" s="51" t="n"/>
+      <c r="CV10" s="51" t="n"/>
     </row>
     <row r="11" ht="15.15" customHeight="1" s="1">
       <c r="A11" s="32" t="inlineStr">
@@ -2821,18 +3017,24 @@
       <c r="H11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="45" t="n">
         <v>1.1289</v>
       </c>
-      <c r="J11" s="27" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K11" s="0" t="inlineStr"/>
-      <c r="L11" s="0" t="inlineStr"/>
-      <c r="M11" s="0" t="n"/>
-      <c r="N11" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="J11" s="46" t="n">
+        <v>0.1330494944119263</v>
+      </c>
+      <c r="K11" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="47" t="n">
+        <v>3.931136070705207</v>
+      </c>
+      <c r="M11" s="47" t="n">
+        <v>1.1289</v>
+      </c>
+      <c r="N11" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O11" s="27">
@@ -2859,75 +3061,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U11" s="27" t="n"/>
-      <c r="V11" s="0" t="n"/>
-      <c r="W11" s="0" t="n"/>
-      <c r="X11" s="27" t="n"/>
-      <c r="Y11" s="0" t="n"/>
-      <c r="Z11" s="3" t="n"/>
-      <c r="AA11" s="27" t="n"/>
-      <c r="AB11" s="0" t="n"/>
-      <c r="AC11" s="3" t="n"/>
-      <c r="AD11" s="27" t="n"/>
-      <c r="AE11" s="3" t="n"/>
-      <c r="AF11" s="3" t="n"/>
-      <c r="AG11" s="27" t="n"/>
-      <c r="AH11" s="3" t="n"/>
-      <c r="AI11" s="3" t="n"/>
-      <c r="AJ11" s="27" t="n"/>
-      <c r="AK11" s="3" t="n"/>
-      <c r="AL11" s="3" t="n"/>
-      <c r="AM11" s="31" t="n"/>
-      <c r="AN11" s="3" t="n"/>
-      <c r="AO11" s="3" t="n"/>
-      <c r="AP11" s="31" t="n"/>
-      <c r="AQ11" s="3" t="n"/>
-      <c r="AR11" s="3" t="n"/>
-      <c r="AS11" s="31" t="n"/>
-      <c r="AT11" s="3" t="n"/>
-      <c r="AU11" s="3" t="n"/>
-      <c r="AV11" s="31" t="n"/>
-      <c r="AW11" s="3" t="n"/>
-      <c r="AX11" s="3" t="n"/>
-      <c r="AY11" s="3" t="n"/>
-      <c r="AZ11" s="3" t="n"/>
-      <c r="BA11" s="3" t="n"/>
-      <c r="BB11" s="39" t="n"/>
-      <c r="BC11" s="3" t="n"/>
-      <c r="BD11" s="3" t="n"/>
-      <c r="BE11" s="39" t="n"/>
-      <c r="BF11" s="3" t="n"/>
-      <c r="BG11" s="3" t="n"/>
-      <c r="BH11" s="3" t="n"/>
-      <c r="BI11" s="3" t="n"/>
-      <c r="BJ11" s="3" t="n"/>
-      <c r="BK11" s="3" t="n"/>
-      <c r="BL11" s="3" t="n"/>
-      <c r="BM11" s="3" t="n"/>
-      <c r="BN11" s="3" t="n"/>
-      <c r="BO11" s="3" t="n"/>
-      <c r="BP11" s="3" t="n"/>
-      <c r="BQ11" s="3" t="n"/>
-      <c r="BR11" s="3" t="n"/>
-      <c r="BS11" s="3" t="n"/>
-      <c r="BT11" s="3" t="n"/>
-      <c r="BU11" s="3" t="n"/>
-      <c r="BV11" s="3" t="n"/>
-      <c r="BW11" s="3" t="n"/>
-      <c r="BX11" s="3" t="n"/>
-      <c r="BY11" s="3" t="n"/>
-      <c r="BZ11" s="3" t="n"/>
-      <c r="CA11" s="3" t="n"/>
-      <c r="CB11" s="3" t="n"/>
-      <c r="CC11" s="3" t="n"/>
-      <c r="CD11" s="3" t="n"/>
-      <c r="CE11" s="3" t="n"/>
-      <c r="CF11" s="3" t="n"/>
-      <c r="CG11" s="3" t="n"/>
-      <c r="CH11" s="3" t="n"/>
-      <c r="CI11" s="3" t="n"/>
-      <c r="CJ11" s="3" t="n"/>
-      <c r="CK11" s="3" t="n"/>
+      <c r="U11" s="46" t="n"/>
+      <c r="V11" s="47" t="n"/>
+      <c r="W11" s="47" t="n"/>
+      <c r="X11" s="46" t="n"/>
+      <c r="Y11" s="47" t="n"/>
+      <c r="Z11" s="45" t="n"/>
+      <c r="AA11" s="46" t="n"/>
+      <c r="AB11" s="47" t="n"/>
+      <c r="AC11" s="45" t="n"/>
+      <c r="AD11" s="46" t="n"/>
+      <c r="AE11" s="45" t="n"/>
+      <c r="AF11" s="45" t="n"/>
+      <c r="AG11" s="46" t="n"/>
+      <c r="AH11" s="45" t="n"/>
+      <c r="AI11" s="45" t="n"/>
+      <c r="AJ11" s="46" t="n"/>
+      <c r="AK11" s="45" t="n"/>
+      <c r="AL11" s="45" t="n"/>
+      <c r="AM11" s="50" t="n"/>
+      <c r="AN11" s="45" t="n"/>
+      <c r="AO11" s="45" t="n"/>
+      <c r="AP11" s="50" t="n"/>
+      <c r="AQ11" s="45" t="n"/>
+      <c r="AR11" s="45" t="n"/>
+      <c r="AS11" s="50" t="n"/>
+      <c r="AT11" s="45" t="n"/>
+      <c r="AU11" s="45" t="n"/>
+      <c r="AV11" s="50" t="n"/>
+      <c r="AW11" s="45" t="n"/>
+      <c r="AX11" s="45" t="n"/>
+      <c r="AY11" s="45" t="n"/>
+      <c r="AZ11" s="45" t="n"/>
+      <c r="BA11" s="45" t="n"/>
+      <c r="BB11" s="52" t="n"/>
+      <c r="BC11" s="45" t="n"/>
+      <c r="BD11" s="45" t="n"/>
+      <c r="BE11" s="52" t="n"/>
+      <c r="BF11" s="45" t="n"/>
+      <c r="BG11" s="45" t="n"/>
+      <c r="BH11" s="45" t="n"/>
+      <c r="BI11" s="45" t="n"/>
+      <c r="BJ11" s="45" t="n"/>
+      <c r="BK11" s="45" t="n"/>
+      <c r="BL11" s="45" t="n"/>
+      <c r="BM11" s="45" t="n"/>
+      <c r="BN11" s="45" t="n"/>
+      <c r="BO11" s="45" t="n"/>
+      <c r="BP11" s="45" t="n"/>
+      <c r="BQ11" s="45" t="n"/>
+      <c r="BR11" s="45" t="n"/>
+      <c r="BS11" s="45" t="n"/>
+      <c r="BT11" s="45" t="n"/>
+      <c r="BU11" s="45" t="n"/>
+      <c r="BV11" s="45" t="n"/>
+      <c r="BW11" s="45" t="n"/>
+      <c r="BX11" s="45" t="n"/>
+      <c r="BY11" s="45" t="n"/>
+      <c r="BZ11" s="45" t="n"/>
+      <c r="CA11" s="45" t="n"/>
+      <c r="CB11" s="45" t="n"/>
+      <c r="CC11" s="45" t="n"/>
+      <c r="CD11" s="45" t="n"/>
+      <c r="CE11" s="45" t="n"/>
+      <c r="CF11" s="45" t="n"/>
+      <c r="CG11" s="45" t="n"/>
+      <c r="CH11" s="45" t="n"/>
+      <c r="CI11" s="45" t="n"/>
+      <c r="CJ11" s="45" t="n"/>
+      <c r="CK11" s="45" t="n"/>
+      <c r="CL11" s="51" t="n"/>
+      <c r="CM11" s="51" t="n"/>
+      <c r="CN11" s="51" t="n"/>
+      <c r="CO11" s="51" t="n"/>
+      <c r="CP11" s="51" t="n"/>
+      <c r="CQ11" s="51" t="n"/>
+      <c r="CR11" s="51" t="n"/>
+      <c r="CS11" s="51" t="n"/>
+      <c r="CT11" s="51" t="n"/>
+      <c r="CU11" s="51" t="n"/>
+      <c r="CV11" s="51" t="n"/>
     </row>
     <row r="12" ht="15.15" customHeight="1" s="1">
       <c r="A12" s="32" t="inlineStr">
@@ -2953,18 +3166,24 @@
       <c r="H12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="n">
-        <v>1.5493</v>
-      </c>
-      <c r="J12" s="27" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K12" s="0" t="inlineStr"/>
-      <c r="L12" s="0" t="inlineStr"/>
-      <c r="M12" s="0" t="n"/>
-      <c r="N12" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I12" s="45" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="J12" s="46" t="n">
+        <v>0.2590673575129536</v>
+      </c>
+      <c r="K12" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="47" t="n">
+        <v>4.004299919376519</v>
+      </c>
+      <c r="M12" s="47" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="N12" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O12" s="27">
@@ -2991,75 +3210,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U12" s="27" t="n"/>
-      <c r="V12" s="0" t="n"/>
-      <c r="W12" s="0" t="n"/>
-      <c r="X12" s="27" t="n"/>
-      <c r="Y12" s="0" t="n"/>
-      <c r="Z12" s="3" t="n"/>
-      <c r="AA12" s="27" t="n"/>
-      <c r="AB12" s="0" t="n"/>
-      <c r="AC12" s="3" t="n"/>
-      <c r="AD12" s="27" t="n"/>
-      <c r="AE12" s="3" t="n"/>
-      <c r="AF12" s="3" t="n"/>
-      <c r="AG12" s="27" t="n"/>
-      <c r="AH12" s="3" t="n"/>
-      <c r="AI12" s="3" t="n"/>
-      <c r="AJ12" s="27" t="n"/>
-      <c r="AK12" s="3" t="n"/>
-      <c r="AL12" s="3" t="n"/>
-      <c r="AM12" s="27" t="n"/>
-      <c r="AN12" s="3" t="n"/>
-      <c r="AO12" s="3" t="n"/>
-      <c r="AP12" s="27" t="n"/>
-      <c r="AQ12" s="3" t="n"/>
-      <c r="AR12" s="3" t="n"/>
-      <c r="AS12" s="27" t="n"/>
-      <c r="AT12" s="3" t="n"/>
-      <c r="AU12" s="3" t="n"/>
-      <c r="AV12" s="27" t="n"/>
-      <c r="AW12" s="3" t="n"/>
-      <c r="AX12" s="3" t="n"/>
-      <c r="AY12" s="27" t="n"/>
-      <c r="AZ12" s="3" t="n"/>
-      <c r="BA12" s="3" t="n"/>
-      <c r="BB12" s="27" t="n"/>
-      <c r="BC12" s="3" t="n"/>
-      <c r="BD12" s="3" t="n"/>
-      <c r="BE12" s="11" t="n"/>
-      <c r="BF12" s="3" t="n"/>
-      <c r="BG12" s="3" t="n"/>
-      <c r="BH12" s="31" t="n"/>
-      <c r="BI12" s="3" t="n"/>
-      <c r="BJ12" s="3" t="n"/>
-      <c r="BK12" s="31" t="n"/>
-      <c r="BL12" s="3" t="n"/>
-      <c r="BM12" s="3" t="n"/>
-      <c r="BN12" s="3" t="n"/>
-      <c r="BO12" s="3" t="n"/>
-      <c r="BP12" s="3" t="n"/>
-      <c r="BQ12" s="3" t="n"/>
-      <c r="BR12" s="3" t="n"/>
-      <c r="BS12" s="3" t="n"/>
-      <c r="BT12" s="3" t="n"/>
-      <c r="BU12" s="3" t="n"/>
-      <c r="BV12" s="3" t="n"/>
-      <c r="BW12" s="3" t="n"/>
-      <c r="BX12" s="3" t="n"/>
-      <c r="BY12" s="3" t="n"/>
-      <c r="BZ12" s="3" t="n"/>
-      <c r="CA12" s="3" t="n"/>
-      <c r="CB12" s="3" t="n"/>
-      <c r="CC12" s="3" t="n"/>
-      <c r="CD12" s="3" t="n"/>
-      <c r="CE12" s="3" t="n"/>
-      <c r="CF12" s="3" t="n"/>
-      <c r="CG12" s="3" t="n"/>
-      <c r="CH12" s="3" t="n"/>
-      <c r="CI12" s="3" t="n"/>
-      <c r="CJ12" s="3" t="n"/>
-      <c r="CK12" s="3" t="n"/>
+      <c r="U12" s="46" t="n"/>
+      <c r="V12" s="47" t="n"/>
+      <c r="W12" s="47" t="n"/>
+      <c r="X12" s="46" t="n"/>
+      <c r="Y12" s="47" t="n"/>
+      <c r="Z12" s="45" t="n"/>
+      <c r="AA12" s="46" t="n"/>
+      <c r="AB12" s="47" t="n"/>
+      <c r="AC12" s="45" t="n"/>
+      <c r="AD12" s="46" t="n"/>
+      <c r="AE12" s="45" t="n"/>
+      <c r="AF12" s="45" t="n"/>
+      <c r="AG12" s="46" t="n"/>
+      <c r="AH12" s="45" t="n"/>
+      <c r="AI12" s="45" t="n"/>
+      <c r="AJ12" s="46" t="n"/>
+      <c r="AK12" s="45" t="n"/>
+      <c r="AL12" s="45" t="n"/>
+      <c r="AM12" s="46" t="n"/>
+      <c r="AN12" s="45" t="n"/>
+      <c r="AO12" s="45" t="n"/>
+      <c r="AP12" s="46" t="n"/>
+      <c r="AQ12" s="45" t="n"/>
+      <c r="AR12" s="45" t="n"/>
+      <c r="AS12" s="46" t="n"/>
+      <c r="AT12" s="45" t="n"/>
+      <c r="AU12" s="45" t="n"/>
+      <c r="AV12" s="46" t="n"/>
+      <c r="AW12" s="45" t="n"/>
+      <c r="AX12" s="45" t="n"/>
+      <c r="AY12" s="46" t="n"/>
+      <c r="AZ12" s="45" t="n"/>
+      <c r="BA12" s="45" t="n"/>
+      <c r="BB12" s="46" t="n"/>
+      <c r="BC12" s="45" t="n"/>
+      <c r="BD12" s="45" t="n"/>
+      <c r="BE12" s="49" t="n"/>
+      <c r="BF12" s="45" t="n"/>
+      <c r="BG12" s="45" t="n"/>
+      <c r="BH12" s="50" t="n"/>
+      <c r="BI12" s="45" t="n"/>
+      <c r="BJ12" s="45" t="n"/>
+      <c r="BK12" s="50" t="n"/>
+      <c r="BL12" s="45" t="n"/>
+      <c r="BM12" s="45" t="n"/>
+      <c r="BN12" s="45" t="n"/>
+      <c r="BO12" s="45" t="n"/>
+      <c r="BP12" s="45" t="n"/>
+      <c r="BQ12" s="45" t="n"/>
+      <c r="BR12" s="45" t="n"/>
+      <c r="BS12" s="45" t="n"/>
+      <c r="BT12" s="45" t="n"/>
+      <c r="BU12" s="45" t="n"/>
+      <c r="BV12" s="45" t="n"/>
+      <c r="BW12" s="45" t="n"/>
+      <c r="BX12" s="45" t="n"/>
+      <c r="BY12" s="45" t="n"/>
+      <c r="BZ12" s="45" t="n"/>
+      <c r="CA12" s="45" t="n"/>
+      <c r="CB12" s="45" t="n"/>
+      <c r="CC12" s="45" t="n"/>
+      <c r="CD12" s="45" t="n"/>
+      <c r="CE12" s="45" t="n"/>
+      <c r="CF12" s="45" t="n"/>
+      <c r="CG12" s="45" t="n"/>
+      <c r="CH12" s="45" t="n"/>
+      <c r="CI12" s="45" t="n"/>
+      <c r="CJ12" s="45" t="n"/>
+      <c r="CK12" s="45" t="n"/>
+      <c r="CL12" s="51" t="n"/>
+      <c r="CM12" s="51" t="n"/>
+      <c r="CN12" s="51" t="n"/>
+      <c r="CO12" s="51" t="n"/>
+      <c r="CP12" s="51" t="n"/>
+      <c r="CQ12" s="51" t="n"/>
+      <c r="CR12" s="51" t="n"/>
+      <c r="CS12" s="51" t="n"/>
+      <c r="CT12" s="51" t="n"/>
+      <c r="CU12" s="51" t="n"/>
+      <c r="CV12" s="51" t="n"/>
     </row>
     <row r="13" ht="15.15" customHeight="1" s="1">
       <c r="A13" s="33" t="inlineStr">
@@ -3080,18 +3310,24 @@
       <c r="H13" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="3" t="n">
-        <v>2.2984</v>
-      </c>
-      <c r="J13" s="27" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K13" s="0" t="inlineStr"/>
-      <c r="L13" s="0" t="inlineStr"/>
-      <c r="M13" s="0" t="n"/>
-      <c r="N13" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I13" s="45" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="J13" s="46" t="n">
+        <v>-0.04368719965051699</v>
+      </c>
+      <c r="K13" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="47" t="n">
+        <v>-0.04118616144974835</v>
+      </c>
+      <c r="M13" s="47" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="N13" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O13" s="27">
@@ -3118,75 +3354,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="U13" s="27" t="n"/>
-      <c r="V13" s="0" t="n"/>
-      <c r="W13" s="0" t="n"/>
-      <c r="X13" s="27" t="n"/>
-      <c r="Y13" s="0" t="n"/>
-      <c r="Z13" s="3" t="n"/>
-      <c r="AA13" s="27" t="n"/>
-      <c r="AB13" s="0" t="n"/>
-      <c r="AC13" s="3" t="n"/>
-      <c r="AD13" s="27" t="n"/>
-      <c r="AE13" s="3" t="n"/>
-      <c r="AF13" s="3" t="n"/>
-      <c r="AG13" s="27" t="n"/>
-      <c r="AH13" s="3" t="n"/>
-      <c r="AI13" s="3" t="n"/>
-      <c r="AJ13" s="27" t="n"/>
-      <c r="AK13" s="3" t="n"/>
-      <c r="AL13" s="3" t="n"/>
-      <c r="AM13" s="27" t="n"/>
-      <c r="AN13" s="3" t="n"/>
-      <c r="AO13" s="3" t="n"/>
-      <c r="AP13" s="27" t="n"/>
-      <c r="AQ13" s="3" t="n"/>
-      <c r="AR13" s="3" t="n"/>
-      <c r="AS13" s="31" t="n"/>
-      <c r="AT13" s="3" t="n"/>
-      <c r="AU13" s="3" t="n"/>
-      <c r="AV13" s="31" t="n"/>
-      <c r="AW13" s="3" t="n"/>
-      <c r="AX13" s="3" t="n"/>
-      <c r="AY13" s="3" t="n"/>
-      <c r="AZ13" s="3" t="n"/>
-      <c r="BA13" s="3" t="n"/>
-      <c r="BB13" s="39" t="n"/>
-      <c r="BC13" s="3" t="n"/>
-      <c r="BD13" s="3" t="n"/>
-      <c r="BE13" s="39" t="n"/>
-      <c r="BF13" s="3" t="n"/>
-      <c r="BG13" s="3" t="n"/>
-      <c r="BH13" s="3" t="n"/>
-      <c r="BI13" s="3" t="n"/>
-      <c r="BJ13" s="3" t="n"/>
-      <c r="BK13" s="3" t="n"/>
-      <c r="BL13" s="3" t="n"/>
-      <c r="BM13" s="3" t="n"/>
-      <c r="BN13" s="3" t="n"/>
-      <c r="BO13" s="3" t="n"/>
-      <c r="BP13" s="3" t="n"/>
-      <c r="BQ13" s="3" t="n"/>
-      <c r="BR13" s="3" t="n"/>
-      <c r="BS13" s="3" t="n"/>
-      <c r="BT13" s="3" t="n"/>
-      <c r="BU13" s="3" t="n"/>
-      <c r="BV13" s="3" t="n"/>
-      <c r="BW13" s="3" t="n"/>
-      <c r="BX13" s="3" t="n"/>
-      <c r="BY13" s="3" t="n"/>
-      <c r="BZ13" s="3" t="n"/>
-      <c r="CA13" s="3" t="n"/>
-      <c r="CB13" s="3" t="n"/>
-      <c r="CC13" s="3" t="n"/>
-      <c r="CD13" s="3" t="n"/>
-      <c r="CE13" s="3" t="n"/>
-      <c r="CF13" s="3" t="n"/>
-      <c r="CG13" s="3" t="n"/>
-      <c r="CH13" s="3" t="n"/>
-      <c r="CI13" s="3" t="n"/>
-      <c r="CJ13" s="3" t="n"/>
-      <c r="CK13" s="3" t="n"/>
+      <c r="U13" s="46" t="n"/>
+      <c r="V13" s="47" t="n"/>
+      <c r="W13" s="47" t="n"/>
+      <c r="X13" s="46" t="n"/>
+      <c r="Y13" s="47" t="n"/>
+      <c r="Z13" s="45" t="n"/>
+      <c r="AA13" s="46" t="n"/>
+      <c r="AB13" s="47" t="n"/>
+      <c r="AC13" s="45" t="n"/>
+      <c r="AD13" s="46" t="n"/>
+      <c r="AE13" s="45" t="n"/>
+      <c r="AF13" s="45" t="n"/>
+      <c r="AG13" s="46" t="n"/>
+      <c r="AH13" s="45" t="n"/>
+      <c r="AI13" s="45" t="n"/>
+      <c r="AJ13" s="46" t="n"/>
+      <c r="AK13" s="45" t="n"/>
+      <c r="AL13" s="45" t="n"/>
+      <c r="AM13" s="46" t="n"/>
+      <c r="AN13" s="45" t="n"/>
+      <c r="AO13" s="45" t="n"/>
+      <c r="AP13" s="46" t="n"/>
+      <c r="AQ13" s="45" t="n"/>
+      <c r="AR13" s="45" t="n"/>
+      <c r="AS13" s="50" t="n"/>
+      <c r="AT13" s="45" t="n"/>
+      <c r="AU13" s="45" t="n"/>
+      <c r="AV13" s="50" t="n"/>
+      <c r="AW13" s="45" t="n"/>
+      <c r="AX13" s="45" t="n"/>
+      <c r="AY13" s="45" t="n"/>
+      <c r="AZ13" s="45" t="n"/>
+      <c r="BA13" s="45" t="n"/>
+      <c r="BB13" s="52" t="n"/>
+      <c r="BC13" s="45" t="n"/>
+      <c r="BD13" s="45" t="n"/>
+      <c r="BE13" s="52" t="n"/>
+      <c r="BF13" s="45" t="n"/>
+      <c r="BG13" s="45" t="n"/>
+      <c r="BH13" s="45" t="n"/>
+      <c r="BI13" s="45" t="n"/>
+      <c r="BJ13" s="45" t="n"/>
+      <c r="BK13" s="45" t="n"/>
+      <c r="BL13" s="45" t="n"/>
+      <c r="BM13" s="45" t="n"/>
+      <c r="BN13" s="45" t="n"/>
+      <c r="BO13" s="45" t="n"/>
+      <c r="BP13" s="45" t="n"/>
+      <c r="BQ13" s="45" t="n"/>
+      <c r="BR13" s="45" t="n"/>
+      <c r="BS13" s="45" t="n"/>
+      <c r="BT13" s="45" t="n"/>
+      <c r="BU13" s="45" t="n"/>
+      <c r="BV13" s="45" t="n"/>
+      <c r="BW13" s="45" t="n"/>
+      <c r="BX13" s="45" t="n"/>
+      <c r="BY13" s="45" t="n"/>
+      <c r="BZ13" s="45" t="n"/>
+      <c r="CA13" s="45" t="n"/>
+      <c r="CB13" s="45" t="n"/>
+      <c r="CC13" s="45" t="n"/>
+      <c r="CD13" s="45" t="n"/>
+      <c r="CE13" s="45" t="n"/>
+      <c r="CF13" s="45" t="n"/>
+      <c r="CG13" s="45" t="n"/>
+      <c r="CH13" s="45" t="n"/>
+      <c r="CI13" s="45" t="n"/>
+      <c r="CJ13" s="45" t="n"/>
+      <c r="CK13" s="45" t="n"/>
+      <c r="CL13" s="51" t="n"/>
+      <c r="CM13" s="51" t="n"/>
+      <c r="CN13" s="51" t="n"/>
+      <c r="CO13" s="51" t="n"/>
+      <c r="CP13" s="51" t="n"/>
+      <c r="CQ13" s="51" t="n"/>
+      <c r="CR13" s="51" t="n"/>
+      <c r="CS13" s="51" t="n"/>
+      <c r="CT13" s="51" t="n"/>
+      <c r="CU13" s="51" t="n"/>
+      <c r="CV13" s="51" t="n"/>
     </row>
     <row r="14" ht="15.15" customHeight="1" s="1">
       <c r="A14" s="10" t="n">
@@ -3208,20 +3455,26 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>114</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>4.8832</v>
-      </c>
-      <c r="J14" s="27" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="K14" s="0" t="inlineStr"/>
-      <c r="L14" s="0" t="inlineStr"/>
-      <c r="M14" s="0" t="n"/>
-      <c r="N14" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>14</v>
+      </c>
+      <c r="I14" s="45" t="n">
+        <v>4.8767</v>
+      </c>
+      <c r="J14" s="46" t="n">
+        <v>-1.1773526789333</v>
+      </c>
+      <c r="K14" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="47" t="n">
+        <v>-1.435725639667042</v>
+      </c>
+      <c r="M14" s="47" t="n">
+        <v>5.7667</v>
+      </c>
+      <c r="N14" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O14" s="27">
@@ -3248,75 +3501,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U14" s="27" t="n"/>
-      <c r="V14" s="0" t="n"/>
-      <c r="W14" s="0" t="n"/>
-      <c r="X14" s="27" t="n"/>
-      <c r="Y14" s="0" t="n"/>
-      <c r="Z14" s="3" t="n"/>
-      <c r="AA14" s="27" t="n"/>
-      <c r="AB14" s="0" t="n"/>
-      <c r="AC14" s="3" t="n"/>
-      <c r="AD14" s="27" t="n"/>
-      <c r="AE14" s="3" t="n"/>
-      <c r="AF14" s="3" t="n"/>
-      <c r="AG14" s="27" t="n"/>
-      <c r="AH14" s="3" t="n"/>
-      <c r="AI14" s="3" t="n"/>
-      <c r="AJ14" s="27" t="n"/>
-      <c r="AK14" s="3" t="n"/>
-      <c r="AL14" s="3" t="n"/>
-      <c r="AM14" s="27" t="n"/>
-      <c r="AN14" s="3" t="n"/>
-      <c r="AO14" s="3" t="n"/>
-      <c r="AP14" s="27" t="n"/>
-      <c r="AQ14" s="3" t="n"/>
-      <c r="AR14" s="3" t="n"/>
-      <c r="AS14" s="27" t="n"/>
-      <c r="AT14" s="3" t="n"/>
-      <c r="AU14" s="3" t="n"/>
-      <c r="AV14" s="31" t="n"/>
-      <c r="AW14" s="3" t="n"/>
-      <c r="AX14" s="3" t="n"/>
-      <c r="AY14" s="31" t="n"/>
-      <c r="AZ14" s="3" t="n"/>
-      <c r="BA14" s="3" t="n"/>
-      <c r="BB14" s="31" t="n"/>
-      <c r="BC14" s="3" t="n"/>
-      <c r="BD14" s="3" t="n"/>
-      <c r="BE14" s="39" t="n"/>
-      <c r="BF14" s="3" t="n"/>
-      <c r="BG14" s="3" t="n"/>
-      <c r="BH14" s="3" t="n"/>
-      <c r="BI14" s="3" t="n"/>
-      <c r="BJ14" s="3" t="n"/>
-      <c r="BK14" s="3" t="n"/>
-      <c r="BL14" s="3" t="n"/>
-      <c r="BM14" s="3" t="n"/>
-      <c r="BN14" s="3" t="n"/>
-      <c r="BO14" s="3" t="n"/>
-      <c r="BP14" s="3" t="n"/>
-      <c r="BQ14" s="3" t="n"/>
-      <c r="BR14" s="3" t="n"/>
-      <c r="BS14" s="3" t="n"/>
-      <c r="BT14" s="3" t="n"/>
-      <c r="BU14" s="3" t="n"/>
-      <c r="BV14" s="3" t="n"/>
-      <c r="BW14" s="3" t="n"/>
-      <c r="BX14" s="3" t="n"/>
-      <c r="BY14" s="3" t="n"/>
-      <c r="BZ14" s="3" t="n"/>
-      <c r="CA14" s="3" t="n"/>
-      <c r="CB14" s="3" t="n"/>
-      <c r="CC14" s="3" t="n"/>
-      <c r="CD14" s="3" t="n"/>
-      <c r="CE14" s="3" t="n"/>
-      <c r="CF14" s="3" t="n"/>
-      <c r="CG14" s="3" t="n"/>
-      <c r="CH14" s="3" t="n"/>
-      <c r="CI14" s="3" t="n"/>
-      <c r="CJ14" s="3" t="n"/>
-      <c r="CK14" s="3" t="n"/>
+      <c r="U14" s="46" t="n"/>
+      <c r="V14" s="47" t="n"/>
+      <c r="W14" s="47" t="n"/>
+      <c r="X14" s="46" t="n"/>
+      <c r="Y14" s="47" t="n"/>
+      <c r="Z14" s="45" t="n"/>
+      <c r="AA14" s="46" t="n"/>
+      <c r="AB14" s="47" t="n"/>
+      <c r="AC14" s="45" t="n"/>
+      <c r="AD14" s="46" t="n"/>
+      <c r="AE14" s="45" t="n"/>
+      <c r="AF14" s="45" t="n"/>
+      <c r="AG14" s="46" t="n"/>
+      <c r="AH14" s="45" t="n"/>
+      <c r="AI14" s="45" t="n"/>
+      <c r="AJ14" s="46" t="n"/>
+      <c r="AK14" s="45" t="n"/>
+      <c r="AL14" s="45" t="n"/>
+      <c r="AM14" s="46" t="n"/>
+      <c r="AN14" s="45" t="n"/>
+      <c r="AO14" s="45" t="n"/>
+      <c r="AP14" s="46" t="n"/>
+      <c r="AQ14" s="45" t="n"/>
+      <c r="AR14" s="45" t="n"/>
+      <c r="AS14" s="46" t="n"/>
+      <c r="AT14" s="45" t="n"/>
+      <c r="AU14" s="45" t="n"/>
+      <c r="AV14" s="50" t="n"/>
+      <c r="AW14" s="45" t="n"/>
+      <c r="AX14" s="45" t="n"/>
+      <c r="AY14" s="50" t="n"/>
+      <c r="AZ14" s="45" t="n"/>
+      <c r="BA14" s="45" t="n"/>
+      <c r="BB14" s="50" t="n"/>
+      <c r="BC14" s="45" t="n"/>
+      <c r="BD14" s="45" t="n"/>
+      <c r="BE14" s="52" t="n"/>
+      <c r="BF14" s="45" t="n"/>
+      <c r="BG14" s="45" t="n"/>
+      <c r="BH14" s="45" t="n"/>
+      <c r="BI14" s="45" t="n"/>
+      <c r="BJ14" s="45" t="n"/>
+      <c r="BK14" s="45" t="n"/>
+      <c r="BL14" s="45" t="n"/>
+      <c r="BM14" s="45" t="n"/>
+      <c r="BN14" s="45" t="n"/>
+      <c r="BO14" s="45" t="n"/>
+      <c r="BP14" s="45" t="n"/>
+      <c r="BQ14" s="45" t="n"/>
+      <c r="BR14" s="45" t="n"/>
+      <c r="BS14" s="45" t="n"/>
+      <c r="BT14" s="45" t="n"/>
+      <c r="BU14" s="45" t="n"/>
+      <c r="BV14" s="45" t="n"/>
+      <c r="BW14" s="45" t="n"/>
+      <c r="BX14" s="45" t="n"/>
+      <c r="BY14" s="45" t="n"/>
+      <c r="BZ14" s="45" t="n"/>
+      <c r="CA14" s="45" t="n"/>
+      <c r="CB14" s="45" t="n"/>
+      <c r="CC14" s="45" t="n"/>
+      <c r="CD14" s="45" t="n"/>
+      <c r="CE14" s="45" t="n"/>
+      <c r="CF14" s="45" t="n"/>
+      <c r="CG14" s="45" t="n"/>
+      <c r="CH14" s="45" t="n"/>
+      <c r="CI14" s="45" t="n"/>
+      <c r="CJ14" s="45" t="n"/>
+      <c r="CK14" s="45" t="n"/>
+      <c r="CL14" s="51" t="n"/>
+      <c r="CM14" s="51" t="n"/>
+      <c r="CN14" s="51" t="n"/>
+      <c r="CO14" s="51" t="n"/>
+      <c r="CP14" s="51" t="n"/>
+      <c r="CQ14" s="51" t="n"/>
+      <c r="CR14" s="51" t="n"/>
+      <c r="CS14" s="51" t="n"/>
+      <c r="CT14" s="51" t="n"/>
+      <c r="CU14" s="51" t="n"/>
+      <c r="CV14" s="51" t="n"/>
     </row>
     <row r="15" ht="15.15" customHeight="1" s="1">
       <c r="A15" s="10" t="n">
@@ -3345,18 +3609,24 @@
       <c r="H15" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="45" t="n">
         <v>0.9857</v>
       </c>
-      <c r="J15" s="27" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="K15" s="0" t="inlineStr"/>
-      <c r="L15" s="0" t="inlineStr"/>
-      <c r="M15" s="0" t="n"/>
-      <c r="N15" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="J15" s="46" t="n">
+        <v>-1.09371864338752</v>
+      </c>
+      <c r="K15" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="47" t="n">
+        <v>-1.012468360363731</v>
+      </c>
+      <c r="M15" s="47" t="n">
+        <v>2.1118</v>
+      </c>
+      <c r="N15" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O15" s="27">
@@ -3383,75 +3653,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="U15" s="27" t="n"/>
-      <c r="V15" s="0" t="n"/>
-      <c r="W15" s="0" t="n"/>
-      <c r="X15" s="27" t="n"/>
-      <c r="Y15" s="0" t="n"/>
-      <c r="Z15" s="3" t="n"/>
-      <c r="AA15" s="27" t="n"/>
-      <c r="AB15" s="0" t="n"/>
-      <c r="AC15" s="3" t="n"/>
-      <c r="AD15" s="27" t="n"/>
-      <c r="AE15" s="3" t="n"/>
-      <c r="AF15" s="3" t="n"/>
-      <c r="AG15" s="31" t="n"/>
-      <c r="AH15" s="3" t="n"/>
-      <c r="AI15" s="3" t="n"/>
-      <c r="AJ15" s="31" t="n"/>
-      <c r="AK15" s="3" t="n"/>
-      <c r="AL15" s="3" t="n"/>
-      <c r="AM15" s="39" t="n"/>
-      <c r="AN15" s="3" t="n"/>
-      <c r="AO15" s="3" t="n"/>
-      <c r="AP15" s="3" t="n"/>
-      <c r="AQ15" s="3" t="n"/>
-      <c r="AR15" s="3" t="n"/>
-      <c r="AS15" s="3" t="n"/>
-      <c r="AT15" s="3" t="n"/>
-      <c r="AU15" s="3" t="n"/>
-      <c r="AV15" s="3" t="n"/>
-      <c r="AW15" s="3" t="n"/>
-      <c r="AX15" s="3" t="n"/>
-      <c r="AY15" s="3" t="n"/>
-      <c r="AZ15" s="3" t="n"/>
-      <c r="BA15" s="3" t="n"/>
-      <c r="BB15" s="39" t="n"/>
-      <c r="BC15" s="3" t="n"/>
-      <c r="BD15" s="3" t="n"/>
-      <c r="BE15" s="39" t="n"/>
-      <c r="BF15" s="3" t="n"/>
-      <c r="BG15" s="3" t="n"/>
-      <c r="BH15" s="3" t="n"/>
-      <c r="BI15" s="3" t="n"/>
-      <c r="BJ15" s="3" t="n"/>
-      <c r="BK15" s="3" t="n"/>
-      <c r="BL15" s="3" t="n"/>
-      <c r="BM15" s="3" t="n"/>
-      <c r="BN15" s="3" t="n"/>
-      <c r="BO15" s="3" t="n"/>
-      <c r="BP15" s="3" t="n"/>
-      <c r="BQ15" s="3" t="n"/>
-      <c r="BR15" s="3" t="n"/>
-      <c r="BS15" s="3" t="n"/>
-      <c r="BT15" s="3" t="n"/>
-      <c r="BU15" s="3" t="n"/>
-      <c r="BV15" s="3" t="n"/>
-      <c r="BW15" s="3" t="n"/>
-      <c r="BX15" s="3" t="n"/>
-      <c r="BY15" s="3" t="n"/>
-      <c r="BZ15" s="3" t="n"/>
-      <c r="CA15" s="3" t="n"/>
-      <c r="CB15" s="3" t="n"/>
-      <c r="CC15" s="3" t="n"/>
-      <c r="CD15" s="3" t="n"/>
-      <c r="CE15" s="3" t="n"/>
-      <c r="CF15" s="3" t="n"/>
-      <c r="CG15" s="3" t="n"/>
-      <c r="CH15" s="3" t="n"/>
-      <c r="CI15" s="3" t="n"/>
-      <c r="CJ15" s="3" t="n"/>
-      <c r="CK15" s="3" t="n"/>
+      <c r="U15" s="46" t="n"/>
+      <c r="V15" s="47" t="n"/>
+      <c r="W15" s="47" t="n"/>
+      <c r="X15" s="46" t="n"/>
+      <c r="Y15" s="47" t="n"/>
+      <c r="Z15" s="45" t="n"/>
+      <c r="AA15" s="46" t="n"/>
+      <c r="AB15" s="47" t="n"/>
+      <c r="AC15" s="45" t="n"/>
+      <c r="AD15" s="46" t="n"/>
+      <c r="AE15" s="45" t="n"/>
+      <c r="AF15" s="45" t="n"/>
+      <c r="AG15" s="50" t="n"/>
+      <c r="AH15" s="45" t="n"/>
+      <c r="AI15" s="45" t="n"/>
+      <c r="AJ15" s="50" t="n"/>
+      <c r="AK15" s="45" t="n"/>
+      <c r="AL15" s="45" t="n"/>
+      <c r="AM15" s="52" t="n"/>
+      <c r="AN15" s="45" t="n"/>
+      <c r="AO15" s="45" t="n"/>
+      <c r="AP15" s="45" t="n"/>
+      <c r="AQ15" s="45" t="n"/>
+      <c r="AR15" s="45" t="n"/>
+      <c r="AS15" s="45" t="n"/>
+      <c r="AT15" s="45" t="n"/>
+      <c r="AU15" s="45" t="n"/>
+      <c r="AV15" s="45" t="n"/>
+      <c r="AW15" s="45" t="n"/>
+      <c r="AX15" s="45" t="n"/>
+      <c r="AY15" s="45" t="n"/>
+      <c r="AZ15" s="45" t="n"/>
+      <c r="BA15" s="45" t="n"/>
+      <c r="BB15" s="52" t="n"/>
+      <c r="BC15" s="45" t="n"/>
+      <c r="BD15" s="45" t="n"/>
+      <c r="BE15" s="52" t="n"/>
+      <c r="BF15" s="45" t="n"/>
+      <c r="BG15" s="45" t="n"/>
+      <c r="BH15" s="45" t="n"/>
+      <c r="BI15" s="45" t="n"/>
+      <c r="BJ15" s="45" t="n"/>
+      <c r="BK15" s="45" t="n"/>
+      <c r="BL15" s="45" t="n"/>
+      <c r="BM15" s="45" t="n"/>
+      <c r="BN15" s="45" t="n"/>
+      <c r="BO15" s="45" t="n"/>
+      <c r="BP15" s="45" t="n"/>
+      <c r="BQ15" s="45" t="n"/>
+      <c r="BR15" s="45" t="n"/>
+      <c r="BS15" s="45" t="n"/>
+      <c r="BT15" s="45" t="n"/>
+      <c r="BU15" s="45" t="n"/>
+      <c r="BV15" s="45" t="n"/>
+      <c r="BW15" s="45" t="n"/>
+      <c r="BX15" s="45" t="n"/>
+      <c r="BY15" s="45" t="n"/>
+      <c r="BZ15" s="45" t="n"/>
+      <c r="CA15" s="45" t="n"/>
+      <c r="CB15" s="45" t="n"/>
+      <c r="CC15" s="45" t="n"/>
+      <c r="CD15" s="45" t="n"/>
+      <c r="CE15" s="45" t="n"/>
+      <c r="CF15" s="45" t="n"/>
+      <c r="CG15" s="45" t="n"/>
+      <c r="CH15" s="45" t="n"/>
+      <c r="CI15" s="45" t="n"/>
+      <c r="CJ15" s="45" t="n"/>
+      <c r="CK15" s="45" t="n"/>
+      <c r="CL15" s="51" t="n"/>
+      <c r="CM15" s="51" t="n"/>
+      <c r="CN15" s="51" t="n"/>
+      <c r="CO15" s="51" t="n"/>
+      <c r="CP15" s="51" t="n"/>
+      <c r="CQ15" s="51" t="n"/>
+      <c r="CR15" s="51" t="n"/>
+      <c r="CS15" s="51" t="n"/>
+      <c r="CT15" s="51" t="n"/>
+      <c r="CU15" s="51" t="n"/>
+      <c r="CV15" s="51" t="n"/>
     </row>
     <row r="16" ht="15.15" customHeight="1" s="1">
       <c r="A16" s="34" t="inlineStr">
@@ -3480,20 +3761,26 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>1.7252</v>
-      </c>
-      <c r="J16" s="27" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="K16" s="0" t="inlineStr"/>
-      <c r="L16" s="0" t="inlineStr"/>
-      <c r="M16" s="0" t="n"/>
-      <c r="N16" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>15</v>
+      </c>
+      <c r="I16" s="45" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="J16" s="46" t="n">
+        <v>-0.6948465547191668</v>
+      </c>
+      <c r="K16" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="47" t="n">
+        <v>-0.9955752212389389</v>
+      </c>
+      <c r="M16" s="47" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="N16" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O16" s="27">
@@ -3520,75 +3807,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="U16" s="27" t="n"/>
-      <c r="V16" s="0" t="n"/>
-      <c r="W16" s="0" t="n"/>
-      <c r="X16" s="27" t="n"/>
-      <c r="Y16" s="0" t="n"/>
-      <c r="Z16" s="3" t="n"/>
-      <c r="AA16" s="27" t="n"/>
-      <c r="AB16" s="0" t="n"/>
-      <c r="AC16" s="3" t="n"/>
-      <c r="AD16" s="27" t="n"/>
-      <c r="AE16" s="3" t="n"/>
-      <c r="AF16" s="3" t="n"/>
-      <c r="AG16" s="27" t="n"/>
-      <c r="AH16" s="3" t="n"/>
-      <c r="AI16" s="3" t="n"/>
-      <c r="AJ16" s="27" t="n"/>
-      <c r="AK16" s="3" t="n"/>
-      <c r="AL16" s="3" t="n"/>
-      <c r="AM16" s="27" t="n"/>
-      <c r="AN16" s="3" t="n"/>
-      <c r="AO16" s="3" t="n"/>
-      <c r="AP16" s="27" t="n"/>
-      <c r="AQ16" s="3" t="n"/>
-      <c r="AR16" s="3" t="n"/>
-      <c r="AS16" s="27" t="n"/>
-      <c r="AT16" s="3" t="n"/>
-      <c r="AU16" s="3" t="n"/>
-      <c r="AV16" s="27" t="n"/>
-      <c r="AW16" s="3" t="n"/>
-      <c r="AX16" s="3" t="n"/>
-      <c r="AY16" s="27" t="n"/>
-      <c r="AZ16" s="3" t="n"/>
-      <c r="BA16" s="3" t="n"/>
-      <c r="BB16" s="27" t="n"/>
-      <c r="BC16" s="3" t="n"/>
-      <c r="BD16" s="3" t="n"/>
-      <c r="BE16" s="27" t="n"/>
-      <c r="BF16" s="3" t="n"/>
-      <c r="BG16" s="3" t="n"/>
-      <c r="BH16" s="31" t="n"/>
-      <c r="BI16" s="3" t="n"/>
-      <c r="BJ16" s="3" t="n"/>
-      <c r="BK16" s="31" t="n"/>
-      <c r="BL16" s="3" t="n"/>
-      <c r="BM16" s="3" t="n"/>
-      <c r="BN16" s="3" t="n"/>
-      <c r="BO16" s="3" t="n"/>
-      <c r="BP16" s="3" t="n"/>
-      <c r="BQ16" s="3" t="n"/>
-      <c r="BR16" s="3" t="n"/>
-      <c r="BS16" s="3" t="n"/>
-      <c r="BT16" s="3" t="n"/>
-      <c r="BU16" s="3" t="n"/>
-      <c r="BV16" s="3" t="n"/>
-      <c r="BW16" s="3" t="n"/>
-      <c r="BX16" s="3" t="n"/>
-      <c r="BY16" s="3" t="n"/>
-      <c r="BZ16" s="3" t="n"/>
-      <c r="CA16" s="3" t="n"/>
-      <c r="CB16" s="3" t="n"/>
-      <c r="CC16" s="3" t="n"/>
-      <c r="CD16" s="3" t="n"/>
-      <c r="CE16" s="3" t="n"/>
-      <c r="CF16" s="3" t="n"/>
-      <c r="CG16" s="3" t="n"/>
-      <c r="CH16" s="3" t="n"/>
-      <c r="CI16" s="3" t="n"/>
-      <c r="CJ16" s="3" t="n"/>
-      <c r="CK16" s="3" t="n"/>
+      <c r="U16" s="46" t="n"/>
+      <c r="V16" s="47" t="n"/>
+      <c r="W16" s="47" t="n"/>
+      <c r="X16" s="46" t="n"/>
+      <c r="Y16" s="47" t="n"/>
+      <c r="Z16" s="45" t="n"/>
+      <c r="AA16" s="46" t="n"/>
+      <c r="AB16" s="47" t="n"/>
+      <c r="AC16" s="45" t="n"/>
+      <c r="AD16" s="46" t="n"/>
+      <c r="AE16" s="45" t="n"/>
+      <c r="AF16" s="45" t="n"/>
+      <c r="AG16" s="46" t="n"/>
+      <c r="AH16" s="45" t="n"/>
+      <c r="AI16" s="45" t="n"/>
+      <c r="AJ16" s="46" t="n"/>
+      <c r="AK16" s="45" t="n"/>
+      <c r="AL16" s="45" t="n"/>
+      <c r="AM16" s="46" t="n"/>
+      <c r="AN16" s="45" t="n"/>
+      <c r="AO16" s="45" t="n"/>
+      <c r="AP16" s="46" t="n"/>
+      <c r="AQ16" s="45" t="n"/>
+      <c r="AR16" s="45" t="n"/>
+      <c r="AS16" s="46" t="n"/>
+      <c r="AT16" s="45" t="n"/>
+      <c r="AU16" s="45" t="n"/>
+      <c r="AV16" s="46" t="n"/>
+      <c r="AW16" s="45" t="n"/>
+      <c r="AX16" s="45" t="n"/>
+      <c r="AY16" s="46" t="n"/>
+      <c r="AZ16" s="45" t="n"/>
+      <c r="BA16" s="45" t="n"/>
+      <c r="BB16" s="46" t="n"/>
+      <c r="BC16" s="45" t="n"/>
+      <c r="BD16" s="45" t="n"/>
+      <c r="BE16" s="46" t="n"/>
+      <c r="BF16" s="45" t="n"/>
+      <c r="BG16" s="45" t="n"/>
+      <c r="BH16" s="50" t="n"/>
+      <c r="BI16" s="45" t="n"/>
+      <c r="BJ16" s="45" t="n"/>
+      <c r="BK16" s="50" t="n"/>
+      <c r="BL16" s="45" t="n"/>
+      <c r="BM16" s="45" t="n"/>
+      <c r="BN16" s="45" t="n"/>
+      <c r="BO16" s="45" t="n"/>
+      <c r="BP16" s="45" t="n"/>
+      <c r="BQ16" s="45" t="n"/>
+      <c r="BR16" s="45" t="n"/>
+      <c r="BS16" s="45" t="n"/>
+      <c r="BT16" s="45" t="n"/>
+      <c r="BU16" s="45" t="n"/>
+      <c r="BV16" s="45" t="n"/>
+      <c r="BW16" s="45" t="n"/>
+      <c r="BX16" s="45" t="n"/>
+      <c r="BY16" s="45" t="n"/>
+      <c r="BZ16" s="45" t="n"/>
+      <c r="CA16" s="45" t="n"/>
+      <c r="CB16" s="45" t="n"/>
+      <c r="CC16" s="45" t="n"/>
+      <c r="CD16" s="45" t="n"/>
+      <c r="CE16" s="45" t="n"/>
+      <c r="CF16" s="45" t="n"/>
+      <c r="CG16" s="45" t="n"/>
+      <c r="CH16" s="45" t="n"/>
+      <c r="CI16" s="45" t="n"/>
+      <c r="CJ16" s="45" t="n"/>
+      <c r="CK16" s="45" t="n"/>
+      <c r="CL16" s="51" t="n"/>
+      <c r="CM16" s="51" t="n"/>
+      <c r="CN16" s="51" t="n"/>
+      <c r="CO16" s="51" t="n"/>
+      <c r="CP16" s="51" t="n"/>
+      <c r="CQ16" s="51" t="n"/>
+      <c r="CR16" s="51" t="n"/>
+      <c r="CS16" s="51" t="n"/>
+      <c r="CT16" s="51" t="n"/>
+      <c r="CU16" s="51" t="n"/>
+      <c r="CV16" s="51" t="n"/>
     </row>
     <row r="17" ht="15.15" customHeight="1" s="1">
       <c r="A17" s="34" t="inlineStr">
@@ -3619,18 +3917,24 @@
       <c r="H17" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="3" t="n">
-        <v>1.7032</v>
-      </c>
-      <c r="J17" s="27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K17" s="0" t="inlineStr"/>
-      <c r="L17" s="0" t="inlineStr"/>
-      <c r="M17" s="0" t="n"/>
-      <c r="N17" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I17" s="45" t="n">
+        <v>1.6944</v>
+      </c>
+      <c r="J17" s="46" t="n">
+        <v>-0.5108331865421967</v>
+      </c>
+      <c r="K17" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="47" t="n">
+        <v>-0.6275291771743683</v>
+      </c>
+      <c r="M17" s="47" t="n">
+        <v>1.6944</v>
+      </c>
+      <c r="N17" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O17" s="27">
@@ -3657,75 +3961,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="U17" s="27" t="n"/>
-      <c r="V17" s="0" t="n"/>
-      <c r="W17" s="0" t="n"/>
-      <c r="X17" s="27" t="n"/>
-      <c r="Y17" s="0" t="n"/>
-      <c r="Z17" s="3" t="n"/>
-      <c r="AA17" s="27" t="n"/>
-      <c r="AB17" s="0" t="n"/>
-      <c r="AC17" s="3" t="n"/>
-      <c r="AD17" s="27" t="n"/>
-      <c r="AE17" s="3" t="n"/>
-      <c r="AF17" s="3" t="n"/>
-      <c r="AG17" s="27" t="n"/>
-      <c r="AH17" s="3" t="n"/>
-      <c r="AI17" s="3" t="n"/>
-      <c r="AJ17" s="27" t="n"/>
-      <c r="AK17" s="3" t="n"/>
-      <c r="AL17" s="3" t="n"/>
-      <c r="AM17" s="27" t="n"/>
-      <c r="AN17" s="3" t="n"/>
-      <c r="AO17" s="3" t="n"/>
-      <c r="AP17" s="27" t="n"/>
-      <c r="AQ17" s="3" t="n"/>
-      <c r="AR17" s="3" t="n"/>
-      <c r="AS17" s="27" t="n"/>
-      <c r="AT17" s="3" t="n"/>
-      <c r="AU17" s="3" t="n"/>
-      <c r="AV17" s="27" t="n"/>
-      <c r="AW17" s="3" t="n"/>
-      <c r="AX17" s="3" t="n"/>
-      <c r="AY17" s="27" t="n"/>
-      <c r="AZ17" s="3" t="n"/>
-      <c r="BA17" s="3" t="n"/>
-      <c r="BB17" s="27" t="n"/>
-      <c r="BC17" s="3" t="n"/>
-      <c r="BD17" s="3" t="n"/>
-      <c r="BE17" s="27" t="n"/>
-      <c r="BF17" s="3" t="n"/>
-      <c r="BG17" s="3" t="n"/>
-      <c r="BH17" s="31" t="n"/>
-      <c r="BI17" s="3" t="n"/>
-      <c r="BJ17" s="3" t="n"/>
-      <c r="BK17" s="31" t="n"/>
-      <c r="BL17" s="3" t="n"/>
-      <c r="BM17" s="3" t="n"/>
-      <c r="BN17" s="3" t="n"/>
-      <c r="BO17" s="3" t="n"/>
-      <c r="BP17" s="3" t="n"/>
-      <c r="BQ17" s="3" t="n"/>
-      <c r="BR17" s="3" t="n"/>
-      <c r="BS17" s="3" t="n"/>
-      <c r="BT17" s="3" t="n"/>
-      <c r="BU17" s="3" t="n"/>
-      <c r="BV17" s="3" t="n"/>
-      <c r="BW17" s="3" t="n"/>
-      <c r="BX17" s="3" t="n"/>
-      <c r="BY17" s="3" t="n"/>
-      <c r="BZ17" s="3" t="n"/>
-      <c r="CA17" s="3" t="n"/>
-      <c r="CB17" s="3" t="n"/>
-      <c r="CC17" s="3" t="n"/>
-      <c r="CD17" s="3" t="n"/>
-      <c r="CE17" s="3" t="n"/>
-      <c r="CF17" s="3" t="n"/>
-      <c r="CG17" s="3" t="n"/>
-      <c r="CH17" s="3" t="n"/>
-      <c r="CI17" s="3" t="n"/>
-      <c r="CJ17" s="3" t="n"/>
-      <c r="CK17" s="3" t="n"/>
+      <c r="U17" s="46" t="n"/>
+      <c r="V17" s="47" t="n"/>
+      <c r="W17" s="47" t="n"/>
+      <c r="X17" s="46" t="n"/>
+      <c r="Y17" s="47" t="n"/>
+      <c r="Z17" s="45" t="n"/>
+      <c r="AA17" s="46" t="n"/>
+      <c r="AB17" s="47" t="n"/>
+      <c r="AC17" s="45" t="n"/>
+      <c r="AD17" s="46" t="n"/>
+      <c r="AE17" s="45" t="n"/>
+      <c r="AF17" s="45" t="n"/>
+      <c r="AG17" s="46" t="n"/>
+      <c r="AH17" s="45" t="n"/>
+      <c r="AI17" s="45" t="n"/>
+      <c r="AJ17" s="46" t="n"/>
+      <c r="AK17" s="45" t="n"/>
+      <c r="AL17" s="45" t="n"/>
+      <c r="AM17" s="46" t="n"/>
+      <c r="AN17" s="45" t="n"/>
+      <c r="AO17" s="45" t="n"/>
+      <c r="AP17" s="46" t="n"/>
+      <c r="AQ17" s="45" t="n"/>
+      <c r="AR17" s="45" t="n"/>
+      <c r="AS17" s="46" t="n"/>
+      <c r="AT17" s="45" t="n"/>
+      <c r="AU17" s="45" t="n"/>
+      <c r="AV17" s="46" t="n"/>
+      <c r="AW17" s="45" t="n"/>
+      <c r="AX17" s="45" t="n"/>
+      <c r="AY17" s="46" t="n"/>
+      <c r="AZ17" s="45" t="n"/>
+      <c r="BA17" s="45" t="n"/>
+      <c r="BB17" s="46" t="n"/>
+      <c r="BC17" s="45" t="n"/>
+      <c r="BD17" s="45" t="n"/>
+      <c r="BE17" s="46" t="n"/>
+      <c r="BF17" s="45" t="n"/>
+      <c r="BG17" s="45" t="n"/>
+      <c r="BH17" s="50" t="n"/>
+      <c r="BI17" s="45" t="n"/>
+      <c r="BJ17" s="45" t="n"/>
+      <c r="BK17" s="50" t="n"/>
+      <c r="BL17" s="45" t="n"/>
+      <c r="BM17" s="45" t="n"/>
+      <c r="BN17" s="45" t="n"/>
+      <c r="BO17" s="45" t="n"/>
+      <c r="BP17" s="45" t="n"/>
+      <c r="BQ17" s="45" t="n"/>
+      <c r="BR17" s="45" t="n"/>
+      <c r="BS17" s="45" t="n"/>
+      <c r="BT17" s="45" t="n"/>
+      <c r="BU17" s="45" t="n"/>
+      <c r="BV17" s="45" t="n"/>
+      <c r="BW17" s="45" t="n"/>
+      <c r="BX17" s="45" t="n"/>
+      <c r="BY17" s="45" t="n"/>
+      <c r="BZ17" s="45" t="n"/>
+      <c r="CA17" s="45" t="n"/>
+      <c r="CB17" s="45" t="n"/>
+      <c r="CC17" s="45" t="n"/>
+      <c r="CD17" s="45" t="n"/>
+      <c r="CE17" s="45" t="n"/>
+      <c r="CF17" s="45" t="n"/>
+      <c r="CG17" s="45" t="n"/>
+      <c r="CH17" s="45" t="n"/>
+      <c r="CI17" s="45" t="n"/>
+      <c r="CJ17" s="45" t="n"/>
+      <c r="CK17" s="45" t="n"/>
+      <c r="CL17" s="51" t="n"/>
+      <c r="CM17" s="51" t="n"/>
+      <c r="CN17" s="51" t="n"/>
+      <c r="CO17" s="51" t="n"/>
+      <c r="CP17" s="51" t="n"/>
+      <c r="CQ17" s="51" t="n"/>
+      <c r="CR17" s="51" t="n"/>
+      <c r="CS17" s="51" t="n"/>
+      <c r="CT17" s="51" t="n"/>
+      <c r="CU17" s="51" t="n"/>
+      <c r="CV17" s="51" t="n"/>
     </row>
     <row r="18" ht="15.15" customHeight="1" s="1">
       <c r="A18" s="33" t="inlineStr">
@@ -3756,18 +4071,24 @@
       <c r="H18" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I18" s="3" t="n">
-        <v>1.5572</v>
-      </c>
-      <c r="J18" s="27" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="K18" s="0" t="inlineStr"/>
-      <c r="L18" s="0" t="inlineStr"/>
-      <c r="M18" s="0" t="n"/>
-      <c r="N18" s="42" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I18" s="45" t="n">
+        <v>1.5547</v>
+      </c>
+      <c r="J18" s="46" t="n">
+        <v>-1.012351967400995</v>
+      </c>
+      <c r="K18" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="47" t="n">
+        <v>-1.012351967400995</v>
+      </c>
+      <c r="M18" s="47" t="n">
+        <v>1.5547</v>
+      </c>
+      <c r="N18" s="48" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O18" s="27">
@@ -3794,75 +4115,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="U18" s="27" t="n"/>
-      <c r="V18" s="0" t="n"/>
-      <c r="W18" s="0" t="n"/>
-      <c r="X18" s="27" t="n"/>
-      <c r="Y18" s="0" t="n"/>
-      <c r="Z18" s="3" t="n"/>
-      <c r="AA18" s="27" t="n"/>
-      <c r="AB18" s="0" t="n"/>
-      <c r="AC18" s="3" t="n"/>
-      <c r="AD18" s="27" t="n"/>
-      <c r="AE18" s="3" t="n"/>
-      <c r="AF18" s="3" t="n"/>
-      <c r="AG18" s="27" t="n"/>
-      <c r="AH18" s="3" t="n"/>
-      <c r="AI18" s="3" t="n"/>
-      <c r="AJ18" s="27" t="n"/>
-      <c r="AK18" s="3" t="n"/>
-      <c r="AL18" s="3" t="n"/>
-      <c r="AM18" s="27" t="n"/>
-      <c r="AN18" s="3" t="n"/>
-      <c r="AO18" s="3" t="n"/>
-      <c r="AP18" s="27" t="n"/>
-      <c r="AQ18" s="3" t="n"/>
-      <c r="AR18" s="3" t="n"/>
-      <c r="AS18" s="27" t="n"/>
-      <c r="AT18" s="3" t="n"/>
-      <c r="AU18" s="3" t="n"/>
-      <c r="AV18" s="27" t="n"/>
-      <c r="AW18" s="3" t="n"/>
-      <c r="AX18" s="3" t="n"/>
-      <c r="AY18" s="27" t="n"/>
-      <c r="AZ18" s="3" t="n"/>
-      <c r="BA18" s="3" t="n"/>
-      <c r="BB18" s="27" t="n"/>
-      <c r="BC18" s="3" t="n"/>
-      <c r="BD18" s="3" t="n"/>
-      <c r="BE18" s="11" t="n"/>
-      <c r="BF18" s="3" t="n"/>
-      <c r="BG18" s="3" t="n"/>
-      <c r="BH18" s="31" t="n"/>
-      <c r="BI18" s="3" t="n"/>
-      <c r="BJ18" s="3" t="n"/>
-      <c r="BK18" s="31" t="n"/>
-      <c r="BL18" s="3" t="n"/>
-      <c r="BM18" s="3" t="n"/>
-      <c r="BN18" s="3" t="n"/>
-      <c r="BO18" s="3" t="n"/>
-      <c r="BP18" s="3" t="n"/>
-      <c r="BQ18" s="3" t="n"/>
-      <c r="BR18" s="3" t="n"/>
-      <c r="BS18" s="3" t="n"/>
-      <c r="BT18" s="3" t="n"/>
-      <c r="BU18" s="3" t="n"/>
-      <c r="BV18" s="3" t="n"/>
-      <c r="BW18" s="3" t="n"/>
-      <c r="BX18" s="3" t="n"/>
-      <c r="BY18" s="3" t="n"/>
-      <c r="BZ18" s="3" t="n"/>
-      <c r="CA18" s="3" t="n"/>
-      <c r="CB18" s="3" t="n"/>
-      <c r="CC18" s="3" t="n"/>
-      <c r="CD18" s="3" t="n"/>
-      <c r="CE18" s="3" t="n"/>
-      <c r="CF18" s="3" t="n"/>
-      <c r="CG18" s="3" t="n"/>
-      <c r="CH18" s="3" t="n"/>
-      <c r="CI18" s="3" t="n"/>
-      <c r="CJ18" s="3" t="n"/>
-      <c r="CK18" s="3" t="n"/>
+      <c r="U18" s="46" t="n"/>
+      <c r="V18" s="47" t="n"/>
+      <c r="W18" s="47" t="n"/>
+      <c r="X18" s="46" t="n"/>
+      <c r="Y18" s="47" t="n"/>
+      <c r="Z18" s="45" t="n"/>
+      <c r="AA18" s="46" t="n"/>
+      <c r="AB18" s="47" t="n"/>
+      <c r="AC18" s="45" t="n"/>
+      <c r="AD18" s="46" t="n"/>
+      <c r="AE18" s="45" t="n"/>
+      <c r="AF18" s="45" t="n"/>
+      <c r="AG18" s="46" t="n"/>
+      <c r="AH18" s="45" t="n"/>
+      <c r="AI18" s="45" t="n"/>
+      <c r="AJ18" s="46" t="n"/>
+      <c r="AK18" s="45" t="n"/>
+      <c r="AL18" s="45" t="n"/>
+      <c r="AM18" s="46" t="n"/>
+      <c r="AN18" s="45" t="n"/>
+      <c r="AO18" s="45" t="n"/>
+      <c r="AP18" s="46" t="n"/>
+      <c r="AQ18" s="45" t="n"/>
+      <c r="AR18" s="45" t="n"/>
+      <c r="AS18" s="46" t="n"/>
+      <c r="AT18" s="45" t="n"/>
+      <c r="AU18" s="45" t="n"/>
+      <c r="AV18" s="46" t="n"/>
+      <c r="AW18" s="45" t="n"/>
+      <c r="AX18" s="45" t="n"/>
+      <c r="AY18" s="46" t="n"/>
+      <c r="AZ18" s="45" t="n"/>
+      <c r="BA18" s="45" t="n"/>
+      <c r="BB18" s="46" t="n"/>
+      <c r="BC18" s="45" t="n"/>
+      <c r="BD18" s="45" t="n"/>
+      <c r="BE18" s="49" t="n"/>
+      <c r="BF18" s="45" t="n"/>
+      <c r="BG18" s="45" t="n"/>
+      <c r="BH18" s="50" t="n"/>
+      <c r="BI18" s="45" t="n"/>
+      <c r="BJ18" s="45" t="n"/>
+      <c r="BK18" s="50" t="n"/>
+      <c r="BL18" s="45" t="n"/>
+      <c r="BM18" s="45" t="n"/>
+      <c r="BN18" s="45" t="n"/>
+      <c r="BO18" s="45" t="n"/>
+      <c r="BP18" s="45" t="n"/>
+      <c r="BQ18" s="45" t="n"/>
+      <c r="BR18" s="45" t="n"/>
+      <c r="BS18" s="45" t="n"/>
+      <c r="BT18" s="45" t="n"/>
+      <c r="BU18" s="45" t="n"/>
+      <c r="BV18" s="45" t="n"/>
+      <c r="BW18" s="45" t="n"/>
+      <c r="BX18" s="45" t="n"/>
+      <c r="BY18" s="45" t="n"/>
+      <c r="BZ18" s="45" t="n"/>
+      <c r="CA18" s="45" t="n"/>
+      <c r="CB18" s="45" t="n"/>
+      <c r="CC18" s="45" t="n"/>
+      <c r="CD18" s="45" t="n"/>
+      <c r="CE18" s="45" t="n"/>
+      <c r="CF18" s="45" t="n"/>
+      <c r="CG18" s="45" t="n"/>
+      <c r="CH18" s="45" t="n"/>
+      <c r="CI18" s="45" t="n"/>
+      <c r="CJ18" s="45" t="n"/>
+      <c r="CK18" s="45" t="n"/>
+      <c r="CL18" s="51" t="n"/>
+      <c r="CM18" s="51" t="n"/>
+      <c r="CN18" s="51" t="n"/>
+      <c r="CO18" s="51" t="n"/>
+      <c r="CP18" s="51" t="n"/>
+      <c r="CQ18" s="51" t="n"/>
+      <c r="CR18" s="51" t="n"/>
+      <c r="CS18" s="51" t="n"/>
+      <c r="CT18" s="51" t="n"/>
+      <c r="CU18" s="51" t="n"/>
+      <c r="CV18" s="51" t="n"/>
     </row>
     <row r="19" ht="15.15" customHeight="1" s="1">
       <c r="A19" s="10" t="n">
@@ -3886,18 +4218,24 @@
       <c r="H19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>1.1457</v>
-      </c>
-      <c r="J19" s="11" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K19" s="0" t="inlineStr"/>
-      <c r="L19" s="0" t="inlineStr"/>
-      <c r="M19" s="0" t="n"/>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I19" s="47" t="n">
+        <v>1.1458</v>
+      </c>
+      <c r="J19" s="49" t="n">
+        <v>0.244969378827639</v>
+      </c>
+      <c r="K19" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="47" t="n">
+        <v>1.599935028019153</v>
+      </c>
+      <c r="M19" s="47" t="n">
+        <v>1.251</v>
+      </c>
+      <c r="N19" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O19" s="27">
@@ -3924,36 +4262,86 @@
           <t>20191106</t>
         </is>
       </c>
-      <c r="U19" s="11" t="n"/>
-      <c r="V19" s="0" t="n"/>
-      <c r="W19" s="0" t="n"/>
-      <c r="X19" s="11" t="n"/>
-      <c r="Y19" s="0" t="n"/>
-      <c r="Z19" s="0" t="n"/>
-      <c r="AA19" s="11" t="n"/>
-      <c r="AB19" s="0" t="n"/>
-      <c r="AC19" s="0" t="n"/>
-      <c r="AD19" s="11" t="n"/>
-      <c r="AE19" s="0" t="n"/>
-      <c r="AF19" s="0" t="n"/>
-      <c r="AG19" s="11" t="n"/>
-      <c r="AH19" s="0" t="n"/>
-      <c r="AI19" s="0" t="n"/>
-      <c r="AJ19" s="11" t="n"/>
-      <c r="AK19" s="0" t="n"/>
-      <c r="AL19" s="0" t="n"/>
-      <c r="AM19" s="11" t="n"/>
-      <c r="AN19" s="0" t="n"/>
-      <c r="AO19" s="0" t="n"/>
-      <c r="AP19" s="11" t="n"/>
-      <c r="AQ19" s="0" t="n"/>
-      <c r="AR19" s="0" t="n"/>
-      <c r="AS19" s="11" t="n"/>
-      <c r="AT19" s="0" t="n"/>
-      <c r="AU19" s="0" t="n"/>
-      <c r="AV19" s="11" t="n"/>
-      <c r="AW19" s="0" t="n"/>
-      <c r="AX19" s="0" t="n"/>
+      <c r="U19" s="49" t="n"/>
+      <c r="V19" s="47" t="n"/>
+      <c r="W19" s="47" t="n"/>
+      <c r="X19" s="49" t="n"/>
+      <c r="Y19" s="47" t="n"/>
+      <c r="Z19" s="47" t="n"/>
+      <c r="AA19" s="49" t="n"/>
+      <c r="AB19" s="47" t="n"/>
+      <c r="AC19" s="47" t="n"/>
+      <c r="AD19" s="49" t="n"/>
+      <c r="AE19" s="47" t="n"/>
+      <c r="AF19" s="47" t="n"/>
+      <c r="AG19" s="49" t="n"/>
+      <c r="AH19" s="47" t="n"/>
+      <c r="AI19" s="47" t="n"/>
+      <c r="AJ19" s="49" t="n"/>
+      <c r="AK19" s="47" t="n"/>
+      <c r="AL19" s="47" t="n"/>
+      <c r="AM19" s="49" t="n"/>
+      <c r="AN19" s="47" t="n"/>
+      <c r="AO19" s="47" t="n"/>
+      <c r="AP19" s="49" t="n"/>
+      <c r="AQ19" s="47" t="n"/>
+      <c r="AR19" s="47" t="n"/>
+      <c r="AS19" s="49" t="n"/>
+      <c r="AT19" s="47" t="n"/>
+      <c r="AU19" s="47" t="n"/>
+      <c r="AV19" s="49" t="n"/>
+      <c r="AW19" s="47" t="n"/>
+      <c r="AX19" s="47" t="n"/>
+      <c r="AY19" s="51" t="n"/>
+      <c r="AZ19" s="51" t="n"/>
+      <c r="BA19" s="51" t="n"/>
+      <c r="BB19" s="51" t="n"/>
+      <c r="BC19" s="51" t="n"/>
+      <c r="BD19" s="51" t="n"/>
+      <c r="BE19" s="51" t="n"/>
+      <c r="BF19" s="51" t="n"/>
+      <c r="BG19" s="51" t="n"/>
+      <c r="BH19" s="51" t="n"/>
+      <c r="BI19" s="51" t="n"/>
+      <c r="BJ19" s="51" t="n"/>
+      <c r="BK19" s="51" t="n"/>
+      <c r="BL19" s="51" t="n"/>
+      <c r="BM19" s="51" t="n"/>
+      <c r="BN19" s="51" t="n"/>
+      <c r="BO19" s="51" t="n"/>
+      <c r="BP19" s="51" t="n"/>
+      <c r="BQ19" s="51" t="n"/>
+      <c r="BR19" s="51" t="n"/>
+      <c r="BS19" s="51" t="n"/>
+      <c r="BT19" s="51" t="n"/>
+      <c r="BU19" s="51" t="n"/>
+      <c r="BV19" s="51" t="n"/>
+      <c r="BW19" s="51" t="n"/>
+      <c r="BX19" s="51" t="n"/>
+      <c r="BY19" s="51" t="n"/>
+      <c r="BZ19" s="51" t="n"/>
+      <c r="CA19" s="51" t="n"/>
+      <c r="CB19" s="51" t="n"/>
+      <c r="CC19" s="51" t="n"/>
+      <c r="CD19" s="51" t="n"/>
+      <c r="CE19" s="51" t="n"/>
+      <c r="CF19" s="51" t="n"/>
+      <c r="CG19" s="51" t="n"/>
+      <c r="CH19" s="51" t="n"/>
+      <c r="CI19" s="51" t="n"/>
+      <c r="CJ19" s="51" t="n"/>
+      <c r="CK19" s="51" t="n"/>
+      <c r="CL19" s="51" t="n"/>
+      <c r="CM19" s="51" t="n"/>
+      <c r="CN19" s="51" t="n"/>
+      <c r="CO19" s="51" t="n"/>
+      <c r="CP19" s="51" t="n"/>
+      <c r="CQ19" s="51" t="n"/>
+      <c r="CR19" s="51" t="n"/>
+      <c r="CS19" s="51" t="n"/>
+      <c r="CT19" s="51" t="n"/>
+      <c r="CU19" s="51" t="n"/>
+      <c r="CV19" s="51" t="n"/>
     </row>
     <row r="20" ht="15.15" customHeight="1" s="1">
       <c r="A20" s="35" t="inlineStr">
@@ -3979,18 +4367,24 @@
       <c r="H20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>2.096</v>
-      </c>
-      <c r="J20" s="11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K20" s="0" t="inlineStr"/>
-      <c r="L20" s="0" t="inlineStr"/>
-      <c r="M20" s="0" t="n"/>
-      <c r="N20" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I20" s="47" t="n">
+        <v>2.111</v>
+      </c>
+      <c r="J20" s="49" t="n">
+        <v>1.882239382239389</v>
+      </c>
+      <c r="K20" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" s="47" t="n">
+        <v>10.06256517205424</v>
+      </c>
+      <c r="M20" s="47" t="n">
+        <v>2.111</v>
+      </c>
+      <c r="N20" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O20" s="27">
@@ -4017,44 +4411,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="U20" s="11" t="n"/>
-      <c r="V20" s="0" t="n"/>
-      <c r="W20" s="0" t="n"/>
-      <c r="X20" s="11" t="n"/>
-      <c r="Y20" s="0" t="n"/>
-      <c r="Z20" s="0" t="n"/>
-      <c r="AA20" s="11" t="n"/>
-      <c r="AB20" s="0" t="n"/>
-      <c r="AC20" s="0" t="n"/>
-      <c r="AD20" s="11" t="n"/>
-      <c r="AE20" s="0" t="n"/>
-      <c r="AF20" s="0" t="n"/>
-      <c r="AG20" s="11" t="n"/>
-      <c r="AH20" s="0" t="n"/>
-      <c r="AI20" s="0" t="n"/>
-      <c r="AJ20" s="11" t="n"/>
-      <c r="AK20" s="0" t="n"/>
-      <c r="AL20" s="0" t="n"/>
-      <c r="AM20" s="11" t="n"/>
-      <c r="AN20" s="0" t="n"/>
-      <c r="AO20" s="0" t="n"/>
-      <c r="AP20" s="11" t="n"/>
-      <c r="AQ20" s="0" t="n"/>
-      <c r="AR20" s="0" t="n"/>
-      <c r="AS20" s="11" t="n"/>
-      <c r="AT20" s="0" t="n"/>
-      <c r="AU20" s="0" t="n"/>
-      <c r="AV20" s="11" t="n"/>
-      <c r="AW20" s="0" t="n"/>
-      <c r="AX20" s="0" t="n"/>
-      <c r="AY20" s="11" t="n"/>
-      <c r="AZ20" s="0" t="n"/>
-      <c r="BA20" s="0" t="n"/>
-      <c r="BB20" s="11" t="n"/>
-      <c r="BC20" s="0" t="n"/>
-      <c r="BD20" s="0" t="n"/>
-      <c r="BE20" s="11" t="n"/>
-      <c r="BH20" s="11" t="n"/>
+      <c r="U20" s="49" t="n"/>
+      <c r="V20" s="47" t="n"/>
+      <c r="W20" s="47" t="n"/>
+      <c r="X20" s="49" t="n"/>
+      <c r="Y20" s="47" t="n"/>
+      <c r="Z20" s="47" t="n"/>
+      <c r="AA20" s="49" t="n"/>
+      <c r="AB20" s="47" t="n"/>
+      <c r="AC20" s="47" t="n"/>
+      <c r="AD20" s="49" t="n"/>
+      <c r="AE20" s="47" t="n"/>
+      <c r="AF20" s="47" t="n"/>
+      <c r="AG20" s="49" t="n"/>
+      <c r="AH20" s="47" t="n"/>
+      <c r="AI20" s="47" t="n"/>
+      <c r="AJ20" s="49" t="n"/>
+      <c r="AK20" s="47" t="n"/>
+      <c r="AL20" s="47" t="n"/>
+      <c r="AM20" s="49" t="n"/>
+      <c r="AN20" s="47" t="n"/>
+      <c r="AO20" s="47" t="n"/>
+      <c r="AP20" s="49" t="n"/>
+      <c r="AQ20" s="47" t="n"/>
+      <c r="AR20" s="47" t="n"/>
+      <c r="AS20" s="49" t="n"/>
+      <c r="AT20" s="47" t="n"/>
+      <c r="AU20" s="47" t="n"/>
+      <c r="AV20" s="49" t="n"/>
+      <c r="AW20" s="47" t="n"/>
+      <c r="AX20" s="47" t="n"/>
+      <c r="AY20" s="49" t="n"/>
+      <c r="AZ20" s="47" t="n"/>
+      <c r="BA20" s="47" t="n"/>
+      <c r="BB20" s="49" t="n"/>
+      <c r="BC20" s="47" t="n"/>
+      <c r="BD20" s="47" t="n"/>
+      <c r="BE20" s="49" t="n"/>
+      <c r="BF20" s="51" t="n"/>
+      <c r="BG20" s="51" t="n"/>
+      <c r="BH20" s="49" t="n"/>
+      <c r="BI20" s="51" t="n"/>
+      <c r="BJ20" s="51" t="n"/>
+      <c r="BK20" s="51" t="n"/>
+      <c r="BL20" s="51" t="n"/>
+      <c r="BM20" s="51" t="n"/>
+      <c r="BN20" s="51" t="n"/>
+      <c r="BO20" s="51" t="n"/>
+      <c r="BP20" s="51" t="n"/>
+      <c r="BQ20" s="51" t="n"/>
+      <c r="BR20" s="51" t="n"/>
+      <c r="BS20" s="51" t="n"/>
+      <c r="BT20" s="51" t="n"/>
+      <c r="BU20" s="51" t="n"/>
+      <c r="BV20" s="51" t="n"/>
+      <c r="BW20" s="51" t="n"/>
+      <c r="BX20" s="51" t="n"/>
+      <c r="BY20" s="51" t="n"/>
+      <c r="BZ20" s="51" t="n"/>
+      <c r="CA20" s="51" t="n"/>
+      <c r="CB20" s="51" t="n"/>
+      <c r="CC20" s="51" t="n"/>
+      <c r="CD20" s="51" t="n"/>
+      <c r="CE20" s="51" t="n"/>
+      <c r="CF20" s="51" t="n"/>
+      <c r="CG20" s="51" t="n"/>
+      <c r="CH20" s="51" t="n"/>
+      <c r="CI20" s="51" t="n"/>
+      <c r="CJ20" s="51" t="n"/>
+      <c r="CK20" s="51" t="n"/>
+      <c r="CL20" s="51" t="n"/>
+      <c r="CM20" s="51" t="n"/>
+      <c r="CN20" s="51" t="n"/>
+      <c r="CO20" s="51" t="n"/>
+      <c r="CP20" s="51" t="n"/>
+      <c r="CQ20" s="51" t="n"/>
+      <c r="CR20" s="51" t="n"/>
+      <c r="CS20" s="51" t="n"/>
+      <c r="CT20" s="51" t="n"/>
+      <c r="CU20" s="51" t="n"/>
+      <c r="CV20" s="51" t="n"/>
     </row>
     <row r="21" ht="15.15" customHeight="1" s="1">
       <c r="A21" s="36" t="inlineStr">
@@ -4073,20 +4509,26 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>104</v>
-      </c>
-      <c r="I21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" s="47" t="n">
         <v>1.0382</v>
       </c>
-      <c r="J21" s="11" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="K21" s="0" t="inlineStr"/>
-      <c r="L21" s="0" t="inlineStr"/>
-      <c r="M21" s="0" t="n"/>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="J21" s="49" t="n">
+        <v>-0.1250601250601326</v>
+      </c>
+      <c r="K21" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="47" t="n">
+        <v>-0.1250601250601326</v>
+      </c>
+      <c r="M21" s="47" t="n">
+        <v>1.0382</v>
+      </c>
+      <c r="N21" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O21" s="27">
@@ -4113,48 +4555,86 @@
           <t>20190911</t>
         </is>
       </c>
-      <c r="U21" s="11" t="n"/>
-      <c r="V21" s="0" t="n"/>
-      <c r="W21" s="0" t="n"/>
-      <c r="X21" s="11" t="n"/>
-      <c r="Y21" s="0" t="n"/>
-      <c r="Z21" s="0" t="n"/>
-      <c r="AA21" s="11" t="n"/>
-      <c r="AB21" s="0" t="n"/>
-      <c r="AC21" s="0" t="n"/>
-      <c r="AD21" s="11" t="n"/>
-      <c r="AE21" s="0" t="n"/>
-      <c r="AF21" s="0" t="n"/>
-      <c r="AG21" s="11" t="n"/>
-      <c r="AH21" s="0" t="n"/>
-      <c r="AI21" s="0" t="n"/>
-      <c r="AJ21" s="11" t="n"/>
-      <c r="AK21" s="0" t="n"/>
-      <c r="AL21" s="0" t="n"/>
-      <c r="AM21" s="11" t="n"/>
-      <c r="AN21" s="0" t="n"/>
-      <c r="AO21" s="0" t="n"/>
-      <c r="AP21" s="11" t="n"/>
-      <c r="AQ21" s="0" t="n"/>
-      <c r="AR21" s="0" t="n"/>
-      <c r="AS21" s="11" t="n"/>
-      <c r="AT21" s="0" t="n"/>
-      <c r="AU21" s="0" t="n"/>
-      <c r="AV21" s="11" t="n"/>
-      <c r="AW21" s="0" t="n"/>
-      <c r="AX21" s="0" t="n"/>
-      <c r="AY21" s="11" t="n"/>
-      <c r="AZ21" s="0" t="n"/>
-      <c r="BA21" s="0" t="n"/>
-      <c r="BB21" s="11" t="n"/>
-      <c r="BC21" s="0" t="n"/>
-      <c r="BD21" s="0" t="n"/>
-      <c r="BE21" s="11" t="n"/>
-      <c r="BF21" s="0" t="n"/>
-      <c r="BG21" s="0" t="n"/>
-      <c r="BH21" s="11" t="n"/>
-      <c r="BI21" s="0" t="n"/>
-      <c r="BJ21" s="0" t="n"/>
+      <c r="U21" s="49" t="n"/>
+      <c r="V21" s="47" t="n"/>
+      <c r="W21" s="47" t="n"/>
+      <c r="X21" s="49" t="n"/>
+      <c r="Y21" s="47" t="n"/>
+      <c r="Z21" s="47" t="n"/>
+      <c r="AA21" s="49" t="n"/>
+      <c r="AB21" s="47" t="n"/>
+      <c r="AC21" s="47" t="n"/>
+      <c r="AD21" s="49" t="n"/>
+      <c r="AE21" s="47" t="n"/>
+      <c r="AF21" s="47" t="n"/>
+      <c r="AG21" s="49" t="n"/>
+      <c r="AH21" s="47" t="n"/>
+      <c r="AI21" s="47" t="n"/>
+      <c r="AJ21" s="49" t="n"/>
+      <c r="AK21" s="47" t="n"/>
+      <c r="AL21" s="47" t="n"/>
+      <c r="AM21" s="49" t="n"/>
+      <c r="AN21" s="47" t="n"/>
+      <c r="AO21" s="47" t="n"/>
+      <c r="AP21" s="49" t="n"/>
+      <c r="AQ21" s="47" t="n"/>
+      <c r="AR21" s="47" t="n"/>
+      <c r="AS21" s="49" t="n"/>
+      <c r="AT21" s="47" t="n"/>
+      <c r="AU21" s="47" t="n"/>
+      <c r="AV21" s="49" t="n"/>
+      <c r="AW21" s="47" t="n"/>
+      <c r="AX21" s="47" t="n"/>
+      <c r="AY21" s="49" t="n"/>
+      <c r="AZ21" s="47" t="n"/>
+      <c r="BA21" s="47" t="n"/>
+      <c r="BB21" s="49" t="n"/>
+      <c r="BC21" s="47" t="n"/>
+      <c r="BD21" s="47" t="n"/>
+      <c r="BE21" s="49" t="n"/>
+      <c r="BF21" s="47" t="n"/>
+      <c r="BG21" s="47" t="n"/>
+      <c r="BH21" s="49" t="n"/>
+      <c r="BI21" s="47" t="n"/>
+      <c r="BJ21" s="47" t="n"/>
+      <c r="BK21" s="51" t="n"/>
+      <c r="BL21" s="51" t="n"/>
+      <c r="BM21" s="51" t="n"/>
+      <c r="BN21" s="51" t="n"/>
+      <c r="BO21" s="51" t="n"/>
+      <c r="BP21" s="51" t="n"/>
+      <c r="BQ21" s="51" t="n"/>
+      <c r="BR21" s="51" t="n"/>
+      <c r="BS21" s="51" t="n"/>
+      <c r="BT21" s="51" t="n"/>
+      <c r="BU21" s="51" t="n"/>
+      <c r="BV21" s="51" t="n"/>
+      <c r="BW21" s="51" t="n"/>
+      <c r="BX21" s="51" t="n"/>
+      <c r="BY21" s="51" t="n"/>
+      <c r="BZ21" s="51" t="n"/>
+      <c r="CA21" s="51" t="n"/>
+      <c r="CB21" s="51" t="n"/>
+      <c r="CC21" s="51" t="n"/>
+      <c r="CD21" s="51" t="n"/>
+      <c r="CE21" s="51" t="n"/>
+      <c r="CF21" s="51" t="n"/>
+      <c r="CG21" s="51" t="n"/>
+      <c r="CH21" s="51" t="n"/>
+      <c r="CI21" s="51" t="n"/>
+      <c r="CJ21" s="51" t="n"/>
+      <c r="CK21" s="51" t="n"/>
+      <c r="CL21" s="51" t="n"/>
+      <c r="CM21" s="51" t="n"/>
+      <c r="CN21" s="51" t="n"/>
+      <c r="CO21" s="51" t="n"/>
+      <c r="CP21" s="51" t="n"/>
+      <c r="CQ21" s="51" t="n"/>
+      <c r="CR21" s="51" t="n"/>
+      <c r="CS21" s="51" t="n"/>
+      <c r="CT21" s="51" t="n"/>
+      <c r="CU21" s="51" t="n"/>
+      <c r="CV21" s="51" t="n"/>
     </row>
     <row r="22" ht="15.15" customHeight="1" s="1">
       <c r="A22" s="35" t="inlineStr">
@@ -4180,18 +4660,24 @@
       <c r="H22" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>2.7235</v>
-      </c>
-      <c r="J22" s="11" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="K22" s="0" t="inlineStr"/>
-      <c r="L22" s="0" t="inlineStr"/>
-      <c r="M22" s="0" t="n"/>
-      <c r="N22" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-04 05:00</t>
+      <c r="I22" s="47" t="n">
+        <v>2.744</v>
+      </c>
+      <c r="J22" s="49" t="n">
+        <v>1.291989664082692</v>
+      </c>
+      <c r="K22" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="47" t="n">
+        <v>1.516833148353695</v>
+      </c>
+      <c r="M22" s="47" t="n">
+        <v>2.744</v>
+      </c>
+      <c r="N22" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="O22" s="27">
@@ -4218,42 +4704,86 @@
           <t>20191128</t>
         </is>
       </c>
-      <c r="U22" s="11" t="n"/>
-      <c r="V22" s="0" t="n"/>
-      <c r="W22" s="0" t="n"/>
-      <c r="X22" s="11" t="n"/>
-      <c r="Y22" s="0" t="n"/>
-      <c r="Z22" s="0" t="n"/>
-      <c r="AA22" s="11" t="n"/>
-      <c r="AB22" s="0" t="n"/>
-      <c r="AC22" s="0" t="n"/>
-      <c r="AD22" s="11" t="n"/>
-      <c r="AE22" s="0" t="n"/>
-      <c r="AF22" s="0" t="n"/>
-      <c r="AG22" s="11" t="n"/>
-      <c r="AH22" s="0" t="n"/>
-      <c r="AI22" s="0" t="n"/>
-      <c r="AJ22" s="11" t="n"/>
-      <c r="AK22" s="0" t="n"/>
-      <c r="AL22" s="0" t="n"/>
-      <c r="AM22" s="11" t="n"/>
-      <c r="AN22" s="0" t="n"/>
-      <c r="AO22" s="0" t="n"/>
-      <c r="AP22" s="11" t="n"/>
-      <c r="AQ22" s="0" t="n"/>
-      <c r="AR22" s="0" t="n"/>
-      <c r="AS22" s="11" t="n"/>
-      <c r="AT22" s="0" t="n"/>
-      <c r="AU22" s="0" t="n"/>
-      <c r="AV22" s="11" t="n"/>
-      <c r="AW22" s="0" t="n"/>
-      <c r="AX22" s="0" t="n"/>
-      <c r="AY22" s="11" t="n"/>
-      <c r="AZ22" s="0" t="n"/>
-      <c r="BA22" s="0" t="n"/>
-      <c r="BB22" s="11" t="n"/>
-      <c r="BC22" s="0" t="n"/>
-      <c r="BD22" s="0" t="n"/>
+      <c r="U22" s="49" t="n"/>
+      <c r="V22" s="47" t="n"/>
+      <c r="W22" s="47" t="n"/>
+      <c r="X22" s="49" t="n"/>
+      <c r="Y22" s="47" t="n"/>
+      <c r="Z22" s="47" t="n"/>
+      <c r="AA22" s="49" t="n"/>
+      <c r="AB22" s="47" t="n"/>
+      <c r="AC22" s="47" t="n"/>
+      <c r="AD22" s="49" t="n"/>
+      <c r="AE22" s="47" t="n"/>
+      <c r="AF22" s="47" t="n"/>
+      <c r="AG22" s="49" t="n"/>
+      <c r="AH22" s="47" t="n"/>
+      <c r="AI22" s="47" t="n"/>
+      <c r="AJ22" s="49" t="n"/>
+      <c r="AK22" s="47" t="n"/>
+      <c r="AL22" s="47" t="n"/>
+      <c r="AM22" s="49" t="n"/>
+      <c r="AN22" s="47" t="n"/>
+      <c r="AO22" s="47" t="n"/>
+      <c r="AP22" s="49" t="n"/>
+      <c r="AQ22" s="47" t="n"/>
+      <c r="AR22" s="47" t="n"/>
+      <c r="AS22" s="49" t="n"/>
+      <c r="AT22" s="47" t="n"/>
+      <c r="AU22" s="47" t="n"/>
+      <c r="AV22" s="49" t="n"/>
+      <c r="AW22" s="47" t="n"/>
+      <c r="AX22" s="47" t="n"/>
+      <c r="AY22" s="49" t="n"/>
+      <c r="AZ22" s="47" t="n"/>
+      <c r="BA22" s="47" t="n"/>
+      <c r="BB22" s="49" t="n"/>
+      <c r="BC22" s="47" t="n"/>
+      <c r="BD22" s="47" t="n"/>
+      <c r="BE22" s="51" t="n"/>
+      <c r="BF22" s="51" t="n"/>
+      <c r="BG22" s="51" t="n"/>
+      <c r="BH22" s="51" t="n"/>
+      <c r="BI22" s="51" t="n"/>
+      <c r="BJ22" s="51" t="n"/>
+      <c r="BK22" s="51" t="n"/>
+      <c r="BL22" s="51" t="n"/>
+      <c r="BM22" s="51" t="n"/>
+      <c r="BN22" s="51" t="n"/>
+      <c r="BO22" s="51" t="n"/>
+      <c r="BP22" s="51" t="n"/>
+      <c r="BQ22" s="51" t="n"/>
+      <c r="BR22" s="51" t="n"/>
+      <c r="BS22" s="51" t="n"/>
+      <c r="BT22" s="51" t="n"/>
+      <c r="BU22" s="51" t="n"/>
+      <c r="BV22" s="51" t="n"/>
+      <c r="BW22" s="51" t="n"/>
+      <c r="BX22" s="51" t="n"/>
+      <c r="BY22" s="51" t="n"/>
+      <c r="BZ22" s="51" t="n"/>
+      <c r="CA22" s="51" t="n"/>
+      <c r="CB22" s="51" t="n"/>
+      <c r="CC22" s="51" t="n"/>
+      <c r="CD22" s="51" t="n"/>
+      <c r="CE22" s="51" t="n"/>
+      <c r="CF22" s="51" t="n"/>
+      <c r="CG22" s="51" t="n"/>
+      <c r="CH22" s="51" t="n"/>
+      <c r="CI22" s="51" t="n"/>
+      <c r="CJ22" s="51" t="n"/>
+      <c r="CK22" s="51" t="n"/>
+      <c r="CL22" s="51" t="n"/>
+      <c r="CM22" s="51" t="n"/>
+      <c r="CN22" s="51" t="n"/>
+      <c r="CO22" s="51" t="n"/>
+      <c r="CP22" s="51" t="n"/>
+      <c r="CQ22" s="51" t="n"/>
+      <c r="CR22" s="51" t="n"/>
+      <c r="CS22" s="51" t="n"/>
+      <c r="CT22" s="51" t="n"/>
+      <c r="CU22" s="51" t="n"/>
+      <c r="CV22" s="51" t="n"/>
     </row>
     <row r="23" ht="15.15" customHeight="1" s="1">
       <c r="A23" s="10" t="n">
@@ -4270,20 +4800,26 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>104</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>1.1157</v>
-      </c>
-      <c r="J23" s="11" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="K23" s="0" t="inlineStr"/>
-      <c r="L23" s="0" t="inlineStr"/>
-      <c r="M23" s="0" t="n"/>
-      <c r="N23" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>4</v>
+      </c>
+      <c r="I23" s="47" t="n">
+        <v>1.1158</v>
+      </c>
+      <c r="J23" s="49" t="n">
+        <v>-0.1789228842368941</v>
+      </c>
+      <c r="K23" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="47" t="n">
+        <v>-0.1789228842368941</v>
+      </c>
+      <c r="M23" s="47" t="n">
+        <v>1.1158</v>
+      </c>
+      <c r="N23" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O23" s="27">
@@ -4310,48 +4846,86 @@
           <t>20190912</t>
         </is>
       </c>
-      <c r="U23" s="11" t="n"/>
-      <c r="V23" s="0" t="n"/>
-      <c r="W23" s="0" t="n"/>
-      <c r="X23" s="11" t="n"/>
-      <c r="Y23" s="0" t="n"/>
-      <c r="Z23" s="0" t="n"/>
-      <c r="AA23" s="11" t="n"/>
-      <c r="AB23" s="0" t="n"/>
-      <c r="AC23" s="0" t="n"/>
-      <c r="AD23" s="11" t="n"/>
-      <c r="AE23" s="0" t="n"/>
-      <c r="AF23" s="0" t="n"/>
-      <c r="AG23" s="11" t="n"/>
-      <c r="AH23" s="0" t="n"/>
-      <c r="AI23" s="0" t="n"/>
-      <c r="AJ23" s="11" t="n"/>
-      <c r="AK23" s="0" t="n"/>
-      <c r="AL23" s="0" t="n"/>
-      <c r="AM23" s="11" t="n"/>
-      <c r="AN23" s="0" t="n"/>
-      <c r="AO23" s="0" t="n"/>
-      <c r="AP23" s="11" t="n"/>
-      <c r="AQ23" s="0" t="n"/>
-      <c r="AR23" s="0" t="n"/>
-      <c r="AS23" s="11" t="n"/>
-      <c r="AT23" s="0" t="n"/>
-      <c r="AU23" s="0" t="n"/>
-      <c r="AV23" s="11" t="n"/>
-      <c r="AW23" s="0" t="n"/>
-      <c r="AX23" s="0" t="n"/>
-      <c r="AY23" s="11" t="n"/>
-      <c r="AZ23" s="0" t="n"/>
-      <c r="BA23" s="0" t="n"/>
-      <c r="BB23" s="11" t="n"/>
-      <c r="BC23" s="0" t="n"/>
-      <c r="BD23" s="0" t="n"/>
-      <c r="BE23" s="11" t="n"/>
-      <c r="BF23" s="0" t="n"/>
-      <c r="BG23" s="0" t="n"/>
-      <c r="BH23" s="11" t="n"/>
-      <c r="BI23" s="0" t="n"/>
-      <c r="BJ23" s="0" t="n"/>
+      <c r="U23" s="49" t="n"/>
+      <c r="V23" s="47" t="n"/>
+      <c r="W23" s="47" t="n"/>
+      <c r="X23" s="49" t="n"/>
+      <c r="Y23" s="47" t="n"/>
+      <c r="Z23" s="47" t="n"/>
+      <c r="AA23" s="49" t="n"/>
+      <c r="AB23" s="47" t="n"/>
+      <c r="AC23" s="47" t="n"/>
+      <c r="AD23" s="49" t="n"/>
+      <c r="AE23" s="47" t="n"/>
+      <c r="AF23" s="47" t="n"/>
+      <c r="AG23" s="49" t="n"/>
+      <c r="AH23" s="47" t="n"/>
+      <c r="AI23" s="47" t="n"/>
+      <c r="AJ23" s="49" t="n"/>
+      <c r="AK23" s="47" t="n"/>
+      <c r="AL23" s="47" t="n"/>
+      <c r="AM23" s="49" t="n"/>
+      <c r="AN23" s="47" t="n"/>
+      <c r="AO23" s="47" t="n"/>
+      <c r="AP23" s="49" t="n"/>
+      <c r="AQ23" s="47" t="n"/>
+      <c r="AR23" s="47" t="n"/>
+      <c r="AS23" s="49" t="n"/>
+      <c r="AT23" s="47" t="n"/>
+      <c r="AU23" s="47" t="n"/>
+      <c r="AV23" s="49" t="n"/>
+      <c r="AW23" s="47" t="n"/>
+      <c r="AX23" s="47" t="n"/>
+      <c r="AY23" s="49" t="n"/>
+      <c r="AZ23" s="47" t="n"/>
+      <c r="BA23" s="47" t="n"/>
+      <c r="BB23" s="49" t="n"/>
+      <c r="BC23" s="47" t="n"/>
+      <c r="BD23" s="47" t="n"/>
+      <c r="BE23" s="49" t="n"/>
+      <c r="BF23" s="47" t="n"/>
+      <c r="BG23" s="47" t="n"/>
+      <c r="BH23" s="49" t="n"/>
+      <c r="BI23" s="47" t="n"/>
+      <c r="BJ23" s="47" t="n"/>
+      <c r="BK23" s="51" t="n"/>
+      <c r="BL23" s="51" t="n"/>
+      <c r="BM23" s="51" t="n"/>
+      <c r="BN23" s="51" t="n"/>
+      <c r="BO23" s="51" t="n"/>
+      <c r="BP23" s="51" t="n"/>
+      <c r="BQ23" s="51" t="n"/>
+      <c r="BR23" s="51" t="n"/>
+      <c r="BS23" s="51" t="n"/>
+      <c r="BT23" s="51" t="n"/>
+      <c r="BU23" s="51" t="n"/>
+      <c r="BV23" s="51" t="n"/>
+      <c r="BW23" s="51" t="n"/>
+      <c r="BX23" s="51" t="n"/>
+      <c r="BY23" s="51" t="n"/>
+      <c r="BZ23" s="51" t="n"/>
+      <c r="CA23" s="51" t="n"/>
+      <c r="CB23" s="51" t="n"/>
+      <c r="CC23" s="51" t="n"/>
+      <c r="CD23" s="51" t="n"/>
+      <c r="CE23" s="51" t="n"/>
+      <c r="CF23" s="51" t="n"/>
+      <c r="CG23" s="51" t="n"/>
+      <c r="CH23" s="51" t="n"/>
+      <c r="CI23" s="51" t="n"/>
+      <c r="CJ23" s="51" t="n"/>
+      <c r="CK23" s="51" t="n"/>
+      <c r="CL23" s="51" t="n"/>
+      <c r="CM23" s="51" t="n"/>
+      <c r="CN23" s="51" t="n"/>
+      <c r="CO23" s="51" t="n"/>
+      <c r="CP23" s="51" t="n"/>
+      <c r="CQ23" s="51" t="n"/>
+      <c r="CR23" s="51" t="n"/>
+      <c r="CS23" s="51" t="n"/>
+      <c r="CT23" s="51" t="n"/>
+      <c r="CU23" s="51" t="n"/>
+      <c r="CV23" s="51" t="n"/>
     </row>
     <row r="24" ht="15.15" customHeight="1" s="1">
       <c r="A24" s="0" t="inlineStr">
@@ -4372,18 +4946,24 @@
       <c r="H24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>1.642</v>
-      </c>
-      <c r="J24" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="0" t="inlineStr"/>
-      <c r="L24" s="0" t="inlineStr"/>
-      <c r="M24" s="0" t="n"/>
-      <c r="N24" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I24" s="47" t="n">
+        <v>1.634</v>
+      </c>
+      <c r="J24" s="49" t="n">
+        <v>-0.4872107186358105</v>
+      </c>
+      <c r="K24" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="47" t="n">
+        <v>-0.3805899143672696</v>
+      </c>
+      <c r="M24" s="47" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="N24" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O24" s="0">
@@ -4410,6 +4990,86 @@
           <t>20191217</t>
         </is>
       </c>
+      <c r="U24" s="51" t="n"/>
+      <c r="V24" s="51" t="n"/>
+      <c r="W24" s="51" t="n"/>
+      <c r="X24" s="51" t="n"/>
+      <c r="Y24" s="51" t="n"/>
+      <c r="Z24" s="51" t="n"/>
+      <c r="AA24" s="51" t="n"/>
+      <c r="AB24" s="51" t="n"/>
+      <c r="AC24" s="51" t="n"/>
+      <c r="AD24" s="51" t="n"/>
+      <c r="AE24" s="51" t="n"/>
+      <c r="AF24" s="51" t="n"/>
+      <c r="AG24" s="51" t="n"/>
+      <c r="AH24" s="51" t="n"/>
+      <c r="AI24" s="51" t="n"/>
+      <c r="AJ24" s="51" t="n"/>
+      <c r="AK24" s="51" t="n"/>
+      <c r="AL24" s="51" t="n"/>
+      <c r="AM24" s="51" t="n"/>
+      <c r="AN24" s="51" t="n"/>
+      <c r="AO24" s="51" t="n"/>
+      <c r="AP24" s="51" t="n"/>
+      <c r="AQ24" s="51" t="n"/>
+      <c r="AR24" s="51" t="n"/>
+      <c r="AS24" s="51" t="n"/>
+      <c r="AT24" s="51" t="n"/>
+      <c r="AU24" s="51" t="n"/>
+      <c r="AV24" s="51" t="n"/>
+      <c r="AW24" s="51" t="n"/>
+      <c r="AX24" s="51" t="n"/>
+      <c r="AY24" s="51" t="n"/>
+      <c r="AZ24" s="51" t="n"/>
+      <c r="BA24" s="51" t="n"/>
+      <c r="BB24" s="51" t="n"/>
+      <c r="BC24" s="51" t="n"/>
+      <c r="BD24" s="51" t="n"/>
+      <c r="BE24" s="51" t="n"/>
+      <c r="BF24" s="51" t="n"/>
+      <c r="BG24" s="51" t="n"/>
+      <c r="BH24" s="51" t="n"/>
+      <c r="BI24" s="51" t="n"/>
+      <c r="BJ24" s="51" t="n"/>
+      <c r="BK24" s="51" t="n"/>
+      <c r="BL24" s="51" t="n"/>
+      <c r="BM24" s="51" t="n"/>
+      <c r="BN24" s="51" t="n"/>
+      <c r="BO24" s="51" t="n"/>
+      <c r="BP24" s="51" t="n"/>
+      <c r="BQ24" s="51" t="n"/>
+      <c r="BR24" s="51" t="n"/>
+      <c r="BS24" s="51" t="n"/>
+      <c r="BT24" s="51" t="n"/>
+      <c r="BU24" s="51" t="n"/>
+      <c r="BV24" s="51" t="n"/>
+      <c r="BW24" s="51" t="n"/>
+      <c r="BX24" s="51" t="n"/>
+      <c r="BY24" s="51" t="n"/>
+      <c r="BZ24" s="51" t="n"/>
+      <c r="CA24" s="51" t="n"/>
+      <c r="CB24" s="51" t="n"/>
+      <c r="CC24" s="51" t="n"/>
+      <c r="CD24" s="51" t="n"/>
+      <c r="CE24" s="51" t="n"/>
+      <c r="CF24" s="51" t="n"/>
+      <c r="CG24" s="51" t="n"/>
+      <c r="CH24" s="51" t="n"/>
+      <c r="CI24" s="51" t="n"/>
+      <c r="CJ24" s="51" t="n"/>
+      <c r="CK24" s="51" t="n"/>
+      <c r="CL24" s="51" t="n"/>
+      <c r="CM24" s="51" t="n"/>
+      <c r="CN24" s="51" t="n"/>
+      <c r="CO24" s="51" t="n"/>
+      <c r="CP24" s="51" t="n"/>
+      <c r="CQ24" s="51" t="n"/>
+      <c r="CR24" s="51" t="n"/>
+      <c r="CS24" s="51" t="n"/>
+      <c r="CT24" s="51" t="n"/>
+      <c r="CU24" s="51" t="n"/>
+      <c r="CV24" s="51" t="n"/>
     </row>
     <row r="25" ht="15.15" customHeight="1" s="1">
       <c r="A25" s="0" t="inlineStr">
@@ -4430,18 +5090,24 @@
       <c r="H25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="J25" s="11" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="K25" s="0" t="inlineStr"/>
-      <c r="L25" s="0" t="inlineStr"/>
-      <c r="M25" s="0" t="n"/>
-      <c r="N25" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I25" s="47" t="n">
+        <v>1.8705</v>
+      </c>
+      <c r="J25" s="49" t="n">
+        <v>-0.6321716957076084</v>
+      </c>
+      <c r="K25" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="47" t="n">
+        <v>-0.6174120576943044</v>
+      </c>
+      <c r="M25" s="47" t="n">
+        <v>1.9155</v>
+      </c>
+      <c r="N25" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O25" s="0">
@@ -4468,6 +5134,86 @@
           <t>20191217</t>
         </is>
       </c>
+      <c r="U25" s="51" t="n"/>
+      <c r="V25" s="51" t="n"/>
+      <c r="W25" s="51" t="n"/>
+      <c r="X25" s="51" t="n"/>
+      <c r="Y25" s="51" t="n"/>
+      <c r="Z25" s="51" t="n"/>
+      <c r="AA25" s="51" t="n"/>
+      <c r="AB25" s="51" t="n"/>
+      <c r="AC25" s="51" t="n"/>
+      <c r="AD25" s="51" t="n"/>
+      <c r="AE25" s="51" t="n"/>
+      <c r="AF25" s="51" t="n"/>
+      <c r="AG25" s="51" t="n"/>
+      <c r="AH25" s="51" t="n"/>
+      <c r="AI25" s="51" t="n"/>
+      <c r="AJ25" s="51" t="n"/>
+      <c r="AK25" s="51" t="n"/>
+      <c r="AL25" s="51" t="n"/>
+      <c r="AM25" s="51" t="n"/>
+      <c r="AN25" s="51" t="n"/>
+      <c r="AO25" s="51" t="n"/>
+      <c r="AP25" s="51" t="n"/>
+      <c r="AQ25" s="51" t="n"/>
+      <c r="AR25" s="51" t="n"/>
+      <c r="AS25" s="51" t="n"/>
+      <c r="AT25" s="51" t="n"/>
+      <c r="AU25" s="51" t="n"/>
+      <c r="AV25" s="51" t="n"/>
+      <c r="AW25" s="51" t="n"/>
+      <c r="AX25" s="51" t="n"/>
+      <c r="AY25" s="51" t="n"/>
+      <c r="AZ25" s="51" t="n"/>
+      <c r="BA25" s="51" t="n"/>
+      <c r="BB25" s="51" t="n"/>
+      <c r="BC25" s="51" t="n"/>
+      <c r="BD25" s="51" t="n"/>
+      <c r="BE25" s="51" t="n"/>
+      <c r="BF25" s="51" t="n"/>
+      <c r="BG25" s="51" t="n"/>
+      <c r="BH25" s="51" t="n"/>
+      <c r="BI25" s="51" t="n"/>
+      <c r="BJ25" s="51" t="n"/>
+      <c r="BK25" s="51" t="n"/>
+      <c r="BL25" s="51" t="n"/>
+      <c r="BM25" s="51" t="n"/>
+      <c r="BN25" s="51" t="n"/>
+      <c r="BO25" s="51" t="n"/>
+      <c r="BP25" s="51" t="n"/>
+      <c r="BQ25" s="51" t="n"/>
+      <c r="BR25" s="51" t="n"/>
+      <c r="BS25" s="51" t="n"/>
+      <c r="BT25" s="51" t="n"/>
+      <c r="BU25" s="51" t="n"/>
+      <c r="BV25" s="51" t="n"/>
+      <c r="BW25" s="51" t="n"/>
+      <c r="BX25" s="51" t="n"/>
+      <c r="BY25" s="51" t="n"/>
+      <c r="BZ25" s="51" t="n"/>
+      <c r="CA25" s="51" t="n"/>
+      <c r="CB25" s="51" t="n"/>
+      <c r="CC25" s="51" t="n"/>
+      <c r="CD25" s="51" t="n"/>
+      <c r="CE25" s="51" t="n"/>
+      <c r="CF25" s="51" t="n"/>
+      <c r="CG25" s="51" t="n"/>
+      <c r="CH25" s="51" t="n"/>
+      <c r="CI25" s="51" t="n"/>
+      <c r="CJ25" s="51" t="n"/>
+      <c r="CK25" s="51" t="n"/>
+      <c r="CL25" s="51" t="n"/>
+      <c r="CM25" s="51" t="n"/>
+      <c r="CN25" s="51" t="n"/>
+      <c r="CO25" s="51" t="n"/>
+      <c r="CP25" s="51" t="n"/>
+      <c r="CQ25" s="51" t="n"/>
+      <c r="CR25" s="51" t="n"/>
+      <c r="CS25" s="51" t="n"/>
+      <c r="CT25" s="51" t="n"/>
+      <c r="CU25" s="51" t="n"/>
+      <c r="CV25" s="51" t="n"/>
     </row>
     <row r="26" ht="15.15" customHeight="1" s="1">
       <c r="A26" s="0" t="inlineStr">
@@ -4488,18 +5234,24 @@
       <c r="H26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>2.3947</v>
-      </c>
-      <c r="J26" s="11" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K26" s="0" t="inlineStr"/>
-      <c r="L26" s="0" t="inlineStr"/>
-      <c r="M26" s="0" t="n"/>
-      <c r="N26" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I26" s="47" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="J26" s="49" t="n">
+        <v>0.6294586655476343</v>
+      </c>
+      <c r="K26" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="47" t="n">
+        <v>3.797468354430374</v>
+      </c>
+      <c r="M26" s="47" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="N26" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O26" s="0">
@@ -4526,6 +5278,86 @@
           <t>20191218</t>
         </is>
       </c>
+      <c r="U26" s="51" t="n"/>
+      <c r="V26" s="51" t="n"/>
+      <c r="W26" s="51" t="n"/>
+      <c r="X26" s="51" t="n"/>
+      <c r="Y26" s="51" t="n"/>
+      <c r="Z26" s="51" t="n"/>
+      <c r="AA26" s="51" t="n"/>
+      <c r="AB26" s="51" t="n"/>
+      <c r="AC26" s="51" t="n"/>
+      <c r="AD26" s="51" t="n"/>
+      <c r="AE26" s="51" t="n"/>
+      <c r="AF26" s="51" t="n"/>
+      <c r="AG26" s="51" t="n"/>
+      <c r="AH26" s="51" t="n"/>
+      <c r="AI26" s="51" t="n"/>
+      <c r="AJ26" s="51" t="n"/>
+      <c r="AK26" s="51" t="n"/>
+      <c r="AL26" s="51" t="n"/>
+      <c r="AM26" s="51" t="n"/>
+      <c r="AN26" s="51" t="n"/>
+      <c r="AO26" s="51" t="n"/>
+      <c r="AP26" s="51" t="n"/>
+      <c r="AQ26" s="51" t="n"/>
+      <c r="AR26" s="51" t="n"/>
+      <c r="AS26" s="51" t="n"/>
+      <c r="AT26" s="51" t="n"/>
+      <c r="AU26" s="51" t="n"/>
+      <c r="AV26" s="51" t="n"/>
+      <c r="AW26" s="51" t="n"/>
+      <c r="AX26" s="51" t="n"/>
+      <c r="AY26" s="51" t="n"/>
+      <c r="AZ26" s="51" t="n"/>
+      <c r="BA26" s="51" t="n"/>
+      <c r="BB26" s="51" t="n"/>
+      <c r="BC26" s="51" t="n"/>
+      <c r="BD26" s="51" t="n"/>
+      <c r="BE26" s="51" t="n"/>
+      <c r="BF26" s="51" t="n"/>
+      <c r="BG26" s="51" t="n"/>
+      <c r="BH26" s="51" t="n"/>
+      <c r="BI26" s="51" t="n"/>
+      <c r="BJ26" s="51" t="n"/>
+      <c r="BK26" s="51" t="n"/>
+      <c r="BL26" s="51" t="n"/>
+      <c r="BM26" s="51" t="n"/>
+      <c r="BN26" s="51" t="n"/>
+      <c r="BO26" s="51" t="n"/>
+      <c r="BP26" s="51" t="n"/>
+      <c r="BQ26" s="51" t="n"/>
+      <c r="BR26" s="51" t="n"/>
+      <c r="BS26" s="51" t="n"/>
+      <c r="BT26" s="51" t="n"/>
+      <c r="BU26" s="51" t="n"/>
+      <c r="BV26" s="51" t="n"/>
+      <c r="BW26" s="51" t="n"/>
+      <c r="BX26" s="51" t="n"/>
+      <c r="BY26" s="51" t="n"/>
+      <c r="BZ26" s="51" t="n"/>
+      <c r="CA26" s="51" t="n"/>
+      <c r="CB26" s="51" t="n"/>
+      <c r="CC26" s="51" t="n"/>
+      <c r="CD26" s="51" t="n"/>
+      <c r="CE26" s="51" t="n"/>
+      <c r="CF26" s="51" t="n"/>
+      <c r="CG26" s="51" t="n"/>
+      <c r="CH26" s="51" t="n"/>
+      <c r="CI26" s="51" t="n"/>
+      <c r="CJ26" s="51" t="n"/>
+      <c r="CK26" s="51" t="n"/>
+      <c r="CL26" s="51" t="n"/>
+      <c r="CM26" s="51" t="n"/>
+      <c r="CN26" s="51" t="n"/>
+      <c r="CO26" s="51" t="n"/>
+      <c r="CP26" s="51" t="n"/>
+      <c r="CQ26" s="51" t="n"/>
+      <c r="CR26" s="51" t="n"/>
+      <c r="CS26" s="51" t="n"/>
+      <c r="CT26" s="51" t="n"/>
+      <c r="CU26" s="51" t="n"/>
+      <c r="CV26" s="51" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -4546,18 +5378,24 @@
       <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>1.2233</v>
-      </c>
-      <c r="J27" s="11" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K27" s="0" t="inlineStr"/>
-      <c r="L27" s="0" t="inlineStr"/>
-      <c r="M27" s="0" t="n"/>
-      <c r="N27" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I27" s="47" t="n">
+        <v>1.2225</v>
+      </c>
+      <c r="J27" s="49" t="n">
+        <v>0.4189255791029968</v>
+      </c>
+      <c r="K27" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" s="47" t="n">
+        <v>3.715958259098993</v>
+      </c>
+      <c r="M27" s="47" t="n">
+        <v>1.2225</v>
+      </c>
+      <c r="N27" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O27" s="0">
@@ -4584,6 +5422,86 @@
           <t>20191217</t>
         </is>
       </c>
+      <c r="U27" s="51" t="n"/>
+      <c r="V27" s="51" t="n"/>
+      <c r="W27" s="51" t="n"/>
+      <c r="X27" s="51" t="n"/>
+      <c r="Y27" s="51" t="n"/>
+      <c r="Z27" s="51" t="n"/>
+      <c r="AA27" s="51" t="n"/>
+      <c r="AB27" s="51" t="n"/>
+      <c r="AC27" s="51" t="n"/>
+      <c r="AD27" s="51" t="n"/>
+      <c r="AE27" s="51" t="n"/>
+      <c r="AF27" s="51" t="n"/>
+      <c r="AG27" s="51" t="n"/>
+      <c r="AH27" s="51" t="n"/>
+      <c r="AI27" s="51" t="n"/>
+      <c r="AJ27" s="51" t="n"/>
+      <c r="AK27" s="51" t="n"/>
+      <c r="AL27" s="51" t="n"/>
+      <c r="AM27" s="51" t="n"/>
+      <c r="AN27" s="51" t="n"/>
+      <c r="AO27" s="51" t="n"/>
+      <c r="AP27" s="51" t="n"/>
+      <c r="AQ27" s="51" t="n"/>
+      <c r="AR27" s="51" t="n"/>
+      <c r="AS27" s="51" t="n"/>
+      <c r="AT27" s="51" t="n"/>
+      <c r="AU27" s="51" t="n"/>
+      <c r="AV27" s="51" t="n"/>
+      <c r="AW27" s="51" t="n"/>
+      <c r="AX27" s="51" t="n"/>
+      <c r="AY27" s="51" t="n"/>
+      <c r="AZ27" s="51" t="n"/>
+      <c r="BA27" s="51" t="n"/>
+      <c r="BB27" s="51" t="n"/>
+      <c r="BC27" s="51" t="n"/>
+      <c r="BD27" s="51" t="n"/>
+      <c r="BE27" s="51" t="n"/>
+      <c r="BF27" s="51" t="n"/>
+      <c r="BG27" s="51" t="n"/>
+      <c r="BH27" s="51" t="n"/>
+      <c r="BI27" s="51" t="n"/>
+      <c r="BJ27" s="51" t="n"/>
+      <c r="BK27" s="51" t="n"/>
+      <c r="BL27" s="51" t="n"/>
+      <c r="BM27" s="51" t="n"/>
+      <c r="BN27" s="51" t="n"/>
+      <c r="BO27" s="51" t="n"/>
+      <c r="BP27" s="51" t="n"/>
+      <c r="BQ27" s="51" t="n"/>
+      <c r="BR27" s="51" t="n"/>
+      <c r="BS27" s="51" t="n"/>
+      <c r="BT27" s="51" t="n"/>
+      <c r="BU27" s="51" t="n"/>
+      <c r="BV27" s="51" t="n"/>
+      <c r="BW27" s="51" t="n"/>
+      <c r="BX27" s="51" t="n"/>
+      <c r="BY27" s="51" t="n"/>
+      <c r="BZ27" s="51" t="n"/>
+      <c r="CA27" s="51" t="n"/>
+      <c r="CB27" s="51" t="n"/>
+      <c r="CC27" s="51" t="n"/>
+      <c r="CD27" s="51" t="n"/>
+      <c r="CE27" s="51" t="n"/>
+      <c r="CF27" s="51" t="n"/>
+      <c r="CG27" s="51" t="n"/>
+      <c r="CH27" s="51" t="n"/>
+      <c r="CI27" s="51" t="n"/>
+      <c r="CJ27" s="51" t="n"/>
+      <c r="CK27" s="51" t="n"/>
+      <c r="CL27" s="51" t="n"/>
+      <c r="CM27" s="51" t="n"/>
+      <c r="CN27" s="51" t="n"/>
+      <c r="CO27" s="51" t="n"/>
+      <c r="CP27" s="51" t="n"/>
+      <c r="CQ27" s="51" t="n"/>
+      <c r="CR27" s="51" t="n"/>
+      <c r="CS27" s="51" t="n"/>
+      <c r="CT27" s="51" t="n"/>
+      <c r="CU27" s="51" t="n"/>
+      <c r="CV27" s="51" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -4604,18 +5522,24 @@
       <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>1.2255</v>
-      </c>
-      <c r="J28" s="11" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="K28" s="0" t="inlineStr"/>
-      <c r="L28" s="0" t="inlineStr"/>
-      <c r="M28" s="0" t="n"/>
-      <c r="N28" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I28" s="47" t="n">
+        <v>1.2258</v>
+      </c>
+      <c r="J28" s="49" t="n">
+        <v>-0.2035333387608847</v>
+      </c>
+      <c r="K28" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="47" t="n">
+        <v>0.1351</v>
+      </c>
+      <c r="N28" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O28" s="0">
@@ -4642,6 +5566,86 @@
           <t>20191218</t>
         </is>
       </c>
+      <c r="U28" s="51" t="n"/>
+      <c r="V28" s="51" t="n"/>
+      <c r="W28" s="51" t="n"/>
+      <c r="X28" s="51" t="n"/>
+      <c r="Y28" s="51" t="n"/>
+      <c r="Z28" s="51" t="n"/>
+      <c r="AA28" s="51" t="n"/>
+      <c r="AB28" s="51" t="n"/>
+      <c r="AC28" s="51" t="n"/>
+      <c r="AD28" s="51" t="n"/>
+      <c r="AE28" s="51" t="n"/>
+      <c r="AF28" s="51" t="n"/>
+      <c r="AG28" s="51" t="n"/>
+      <c r="AH28" s="51" t="n"/>
+      <c r="AI28" s="51" t="n"/>
+      <c r="AJ28" s="51" t="n"/>
+      <c r="AK28" s="51" t="n"/>
+      <c r="AL28" s="51" t="n"/>
+      <c r="AM28" s="51" t="n"/>
+      <c r="AN28" s="51" t="n"/>
+      <c r="AO28" s="51" t="n"/>
+      <c r="AP28" s="51" t="n"/>
+      <c r="AQ28" s="51" t="n"/>
+      <c r="AR28" s="51" t="n"/>
+      <c r="AS28" s="51" t="n"/>
+      <c r="AT28" s="51" t="n"/>
+      <c r="AU28" s="51" t="n"/>
+      <c r="AV28" s="51" t="n"/>
+      <c r="AW28" s="51" t="n"/>
+      <c r="AX28" s="51" t="n"/>
+      <c r="AY28" s="51" t="n"/>
+      <c r="AZ28" s="51" t="n"/>
+      <c r="BA28" s="51" t="n"/>
+      <c r="BB28" s="51" t="n"/>
+      <c r="BC28" s="51" t="n"/>
+      <c r="BD28" s="51" t="n"/>
+      <c r="BE28" s="51" t="n"/>
+      <c r="BF28" s="51" t="n"/>
+      <c r="BG28" s="51" t="n"/>
+      <c r="BH28" s="51" t="n"/>
+      <c r="BI28" s="51" t="n"/>
+      <c r="BJ28" s="51" t="n"/>
+      <c r="BK28" s="51" t="n"/>
+      <c r="BL28" s="51" t="n"/>
+      <c r="BM28" s="51" t="n"/>
+      <c r="BN28" s="51" t="n"/>
+      <c r="BO28" s="51" t="n"/>
+      <c r="BP28" s="51" t="n"/>
+      <c r="BQ28" s="51" t="n"/>
+      <c r="BR28" s="51" t="n"/>
+      <c r="BS28" s="51" t="n"/>
+      <c r="BT28" s="51" t="n"/>
+      <c r="BU28" s="51" t="n"/>
+      <c r="BV28" s="51" t="n"/>
+      <c r="BW28" s="51" t="n"/>
+      <c r="BX28" s="51" t="n"/>
+      <c r="BY28" s="51" t="n"/>
+      <c r="BZ28" s="51" t="n"/>
+      <c r="CA28" s="51" t="n"/>
+      <c r="CB28" s="51" t="n"/>
+      <c r="CC28" s="51" t="n"/>
+      <c r="CD28" s="51" t="n"/>
+      <c r="CE28" s="51" t="n"/>
+      <c r="CF28" s="51" t="n"/>
+      <c r="CG28" s="51" t="n"/>
+      <c r="CH28" s="51" t="n"/>
+      <c r="CI28" s="51" t="n"/>
+      <c r="CJ28" s="51" t="n"/>
+      <c r="CK28" s="51" t="n"/>
+      <c r="CL28" s="51" t="n"/>
+      <c r="CM28" s="51" t="n"/>
+      <c r="CN28" s="51" t="n"/>
+      <c r="CO28" s="51" t="n"/>
+      <c r="CP28" s="51" t="n"/>
+      <c r="CQ28" s="51" t="n"/>
+      <c r="CR28" s="51" t="n"/>
+      <c r="CS28" s="51" t="n"/>
+      <c r="CT28" s="51" t="n"/>
+      <c r="CU28" s="51" t="n"/>
+      <c r="CV28" s="51" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -4662,18 +5666,24 @@
       <c r="H29" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>1.2311</v>
-      </c>
-      <c r="J29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="inlineStr"/>
-      <c r="L29" s="0" t="inlineStr"/>
-      <c r="M29" s="0" t="n"/>
-      <c r="N29" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I29" s="47" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="J29" s="49" t="n">
+        <v>0.9844134536505341</v>
+      </c>
+      <c r="K29" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" s="47" t="n">
+        <v>3.427172582619342</v>
+      </c>
+      <c r="M29" s="47" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="N29" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O29" s="0">
@@ -4688,6 +5698,86 @@
       </c>
       <c r="S29" s="0" t="inlineStr"/>
       <c r="T29" s="0" t="inlineStr"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="51" t="n"/>
+      <c r="AK29" s="51" t="n"/>
+      <c r="AL29" s="51" t="n"/>
+      <c r="AM29" s="51" t="n"/>
+      <c r="AN29" s="51" t="n"/>
+      <c r="AO29" s="51" t="n"/>
+      <c r="AP29" s="51" t="n"/>
+      <c r="AQ29" s="51" t="n"/>
+      <c r="AR29" s="51" t="n"/>
+      <c r="AS29" s="51" t="n"/>
+      <c r="AT29" s="51" t="n"/>
+      <c r="AU29" s="51" t="n"/>
+      <c r="AV29" s="51" t="n"/>
+      <c r="AW29" s="51" t="n"/>
+      <c r="AX29" s="51" t="n"/>
+      <c r="AY29" s="51" t="n"/>
+      <c r="AZ29" s="51" t="n"/>
+      <c r="BA29" s="51" t="n"/>
+      <c r="BB29" s="51" t="n"/>
+      <c r="BC29" s="51" t="n"/>
+      <c r="BD29" s="51" t="n"/>
+      <c r="BE29" s="51" t="n"/>
+      <c r="BF29" s="51" t="n"/>
+      <c r="BG29" s="51" t="n"/>
+      <c r="BH29" s="51" t="n"/>
+      <c r="BI29" s="51" t="n"/>
+      <c r="BJ29" s="51" t="n"/>
+      <c r="BK29" s="51" t="n"/>
+      <c r="BL29" s="51" t="n"/>
+      <c r="BM29" s="51" t="n"/>
+      <c r="BN29" s="51" t="n"/>
+      <c r="BO29" s="51" t="n"/>
+      <c r="BP29" s="51" t="n"/>
+      <c r="BQ29" s="51" t="n"/>
+      <c r="BR29" s="51" t="n"/>
+      <c r="BS29" s="51" t="n"/>
+      <c r="BT29" s="51" t="n"/>
+      <c r="BU29" s="51" t="n"/>
+      <c r="BV29" s="51" t="n"/>
+      <c r="BW29" s="51" t="n"/>
+      <c r="BX29" s="51" t="n"/>
+      <c r="BY29" s="51" t="n"/>
+      <c r="BZ29" s="51" t="n"/>
+      <c r="CA29" s="51" t="n"/>
+      <c r="CB29" s="51" t="n"/>
+      <c r="CC29" s="51" t="n"/>
+      <c r="CD29" s="51" t="n"/>
+      <c r="CE29" s="51" t="n"/>
+      <c r="CF29" s="51" t="n"/>
+      <c r="CG29" s="51" t="n"/>
+      <c r="CH29" s="51" t="n"/>
+      <c r="CI29" s="51" t="n"/>
+      <c r="CJ29" s="51" t="n"/>
+      <c r="CK29" s="51" t="n"/>
+      <c r="CL29" s="51" t="n"/>
+      <c r="CM29" s="51" t="n"/>
+      <c r="CN29" s="51" t="n"/>
+      <c r="CO29" s="51" t="n"/>
+      <c r="CP29" s="51" t="n"/>
+      <c r="CQ29" s="51" t="n"/>
+      <c r="CR29" s="51" t="n"/>
+      <c r="CS29" s="51" t="n"/>
+      <c r="CT29" s="51" t="n"/>
+      <c r="CU29" s="51" t="n"/>
+      <c r="CV29" s="51" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -4706,20 +5796,26 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>1.8195</v>
-      </c>
-      <c r="J30" s="11" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="K30" s="0" t="inlineStr"/>
-      <c r="L30" s="0" t="inlineStr"/>
-      <c r="M30" s="0" t="n"/>
-      <c r="N30" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>10</v>
+      </c>
+      <c r="I30" s="47" t="n">
+        <v>1.8226</v>
+      </c>
+      <c r="J30" s="49" t="n">
+        <v>-0.2189860943830069</v>
+      </c>
+      <c r="K30" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="47" t="n">
+        <v>-0.10733644609027</v>
+      </c>
+      <c r="M30" s="47" t="n">
+        <v>3.7226</v>
+      </c>
+      <c r="N30" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O30" s="0">
@@ -4746,6 +5842,86 @@
           <t>20191217</t>
         </is>
       </c>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="51" t="n"/>
+      <c r="AK30" s="51" t="n"/>
+      <c r="AL30" s="51" t="n"/>
+      <c r="AM30" s="51" t="n"/>
+      <c r="AN30" s="51" t="n"/>
+      <c r="AO30" s="51" t="n"/>
+      <c r="AP30" s="51" t="n"/>
+      <c r="AQ30" s="51" t="n"/>
+      <c r="AR30" s="51" t="n"/>
+      <c r="AS30" s="51" t="n"/>
+      <c r="AT30" s="51" t="n"/>
+      <c r="AU30" s="51" t="n"/>
+      <c r="AV30" s="51" t="n"/>
+      <c r="AW30" s="51" t="n"/>
+      <c r="AX30" s="51" t="n"/>
+      <c r="AY30" s="51" t="n"/>
+      <c r="AZ30" s="51" t="n"/>
+      <c r="BA30" s="51" t="n"/>
+      <c r="BB30" s="51" t="n"/>
+      <c r="BC30" s="51" t="n"/>
+      <c r="BD30" s="51" t="n"/>
+      <c r="BE30" s="51" t="n"/>
+      <c r="BF30" s="51" t="n"/>
+      <c r="BG30" s="51" t="n"/>
+      <c r="BH30" s="51" t="n"/>
+      <c r="BI30" s="51" t="n"/>
+      <c r="BJ30" s="51" t="n"/>
+      <c r="BK30" s="51" t="n"/>
+      <c r="BL30" s="51" t="n"/>
+      <c r="BM30" s="51" t="n"/>
+      <c r="BN30" s="51" t="n"/>
+      <c r="BO30" s="51" t="n"/>
+      <c r="BP30" s="51" t="n"/>
+      <c r="BQ30" s="51" t="n"/>
+      <c r="BR30" s="51" t="n"/>
+      <c r="BS30" s="51" t="n"/>
+      <c r="BT30" s="51" t="n"/>
+      <c r="BU30" s="51" t="n"/>
+      <c r="BV30" s="51" t="n"/>
+      <c r="BW30" s="51" t="n"/>
+      <c r="BX30" s="51" t="n"/>
+      <c r="BY30" s="51" t="n"/>
+      <c r="BZ30" s="51" t="n"/>
+      <c r="CA30" s="51" t="n"/>
+      <c r="CB30" s="51" t="n"/>
+      <c r="CC30" s="51" t="n"/>
+      <c r="CD30" s="51" t="n"/>
+      <c r="CE30" s="51" t="n"/>
+      <c r="CF30" s="51" t="n"/>
+      <c r="CG30" s="51" t="n"/>
+      <c r="CH30" s="51" t="n"/>
+      <c r="CI30" s="51" t="n"/>
+      <c r="CJ30" s="51" t="n"/>
+      <c r="CK30" s="51" t="n"/>
+      <c r="CL30" s="51" t="n"/>
+      <c r="CM30" s="51" t="n"/>
+      <c r="CN30" s="51" t="n"/>
+      <c r="CO30" s="51" t="n"/>
+      <c r="CP30" s="51" t="n"/>
+      <c r="CQ30" s="51" t="n"/>
+      <c r="CR30" s="51" t="n"/>
+      <c r="CS30" s="51" t="n"/>
+      <c r="CT30" s="51" t="n"/>
+      <c r="CU30" s="51" t="n"/>
+      <c r="CV30" s="51" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -4766,18 +5942,24 @@
       <c r="H31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <v>2.7656</v>
-      </c>
-      <c r="J31" s="11" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="K31" s="0" t="inlineStr"/>
-      <c r="L31" s="0" t="inlineStr"/>
-      <c r="M31" s="0" t="n"/>
-      <c r="N31" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-04 05:00</t>
+      <c r="I31" s="47" t="n">
+        <v>2.7864</v>
+      </c>
+      <c r="J31" s="49" t="n">
+        <v>1.401069907929691</v>
+      </c>
+      <c r="K31" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="47" t="n">
+        <v>1.460629398486258</v>
+      </c>
+      <c r="M31" s="47" t="n">
+        <v>3.0564</v>
+      </c>
+      <c r="N31" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="O31" s="0">
@@ -4792,6 +5974,86 @@
       </c>
       <c r="S31" s="0" t="inlineStr"/>
       <c r="T31" s="0" t="inlineStr"/>
+      <c r="U31" s="51" t="n"/>
+      <c r="V31" s="51" t="n"/>
+      <c r="W31" s="51" t="n"/>
+      <c r="X31" s="51" t="n"/>
+      <c r="Y31" s="51" t="n"/>
+      <c r="Z31" s="51" t="n"/>
+      <c r="AA31" s="51" t="n"/>
+      <c r="AB31" s="51" t="n"/>
+      <c r="AC31" s="51" t="n"/>
+      <c r="AD31" s="51" t="n"/>
+      <c r="AE31" s="51" t="n"/>
+      <c r="AF31" s="51" t="n"/>
+      <c r="AG31" s="51" t="n"/>
+      <c r="AH31" s="51" t="n"/>
+      <c r="AI31" s="51" t="n"/>
+      <c r="AJ31" s="51" t="n"/>
+      <c r="AK31" s="51" t="n"/>
+      <c r="AL31" s="51" t="n"/>
+      <c r="AM31" s="51" t="n"/>
+      <c r="AN31" s="51" t="n"/>
+      <c r="AO31" s="51" t="n"/>
+      <c r="AP31" s="51" t="n"/>
+      <c r="AQ31" s="51" t="n"/>
+      <c r="AR31" s="51" t="n"/>
+      <c r="AS31" s="51" t="n"/>
+      <c r="AT31" s="51" t="n"/>
+      <c r="AU31" s="51" t="n"/>
+      <c r="AV31" s="51" t="n"/>
+      <c r="AW31" s="51" t="n"/>
+      <c r="AX31" s="51" t="n"/>
+      <c r="AY31" s="51" t="n"/>
+      <c r="AZ31" s="51" t="n"/>
+      <c r="BA31" s="51" t="n"/>
+      <c r="BB31" s="51" t="n"/>
+      <c r="BC31" s="51" t="n"/>
+      <c r="BD31" s="51" t="n"/>
+      <c r="BE31" s="51" t="n"/>
+      <c r="BF31" s="51" t="n"/>
+      <c r="BG31" s="51" t="n"/>
+      <c r="BH31" s="51" t="n"/>
+      <c r="BI31" s="51" t="n"/>
+      <c r="BJ31" s="51" t="n"/>
+      <c r="BK31" s="51" t="n"/>
+      <c r="BL31" s="51" t="n"/>
+      <c r="BM31" s="51" t="n"/>
+      <c r="BN31" s="51" t="n"/>
+      <c r="BO31" s="51" t="n"/>
+      <c r="BP31" s="51" t="n"/>
+      <c r="BQ31" s="51" t="n"/>
+      <c r="BR31" s="51" t="n"/>
+      <c r="BS31" s="51" t="n"/>
+      <c r="BT31" s="51" t="n"/>
+      <c r="BU31" s="51" t="n"/>
+      <c r="BV31" s="51" t="n"/>
+      <c r="BW31" s="51" t="n"/>
+      <c r="BX31" s="51" t="n"/>
+      <c r="BY31" s="51" t="n"/>
+      <c r="BZ31" s="51" t="n"/>
+      <c r="CA31" s="51" t="n"/>
+      <c r="CB31" s="51" t="n"/>
+      <c r="CC31" s="51" t="n"/>
+      <c r="CD31" s="51" t="n"/>
+      <c r="CE31" s="51" t="n"/>
+      <c r="CF31" s="51" t="n"/>
+      <c r="CG31" s="51" t="n"/>
+      <c r="CH31" s="51" t="n"/>
+      <c r="CI31" s="51" t="n"/>
+      <c r="CJ31" s="51" t="n"/>
+      <c r="CK31" s="51" t="n"/>
+      <c r="CL31" s="51" t="n"/>
+      <c r="CM31" s="51" t="n"/>
+      <c r="CN31" s="51" t="n"/>
+      <c r="CO31" s="51" t="n"/>
+      <c r="CP31" s="51" t="n"/>
+      <c r="CQ31" s="51" t="n"/>
+      <c r="CR31" s="51" t="n"/>
+      <c r="CS31" s="51" t="n"/>
+      <c r="CT31" s="51" t="n"/>
+      <c r="CU31" s="51" t="n"/>
+      <c r="CV31" s="51" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -4810,20 +6072,26 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0.9747</v>
-      </c>
-      <c r="J32" s="11" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="K32" s="0" t="inlineStr"/>
-      <c r="L32" s="0" t="inlineStr"/>
-      <c r="M32" s="0" t="n"/>
-      <c r="N32" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>10</v>
+      </c>
+      <c r="I32" s="47" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="J32" s="49" t="n">
+        <v>-1.12704918032787</v>
+      </c>
+      <c r="K32" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="47" t="n">
+        <v>-0.3760683760683651</v>
+      </c>
+      <c r="M32" s="47" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="N32" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O32" s="0">
@@ -4850,6 +6118,86 @@
           <t>20191218</t>
         </is>
       </c>
+      <c r="U32" s="51" t="n"/>
+      <c r="V32" s="51" t="n"/>
+      <c r="W32" s="51" t="n"/>
+      <c r="X32" s="51" t="n"/>
+      <c r="Y32" s="51" t="n"/>
+      <c r="Z32" s="51" t="n"/>
+      <c r="AA32" s="51" t="n"/>
+      <c r="AB32" s="51" t="n"/>
+      <c r="AC32" s="51" t="n"/>
+      <c r="AD32" s="51" t="n"/>
+      <c r="AE32" s="51" t="n"/>
+      <c r="AF32" s="51" t="n"/>
+      <c r="AG32" s="51" t="n"/>
+      <c r="AH32" s="51" t="n"/>
+      <c r="AI32" s="51" t="n"/>
+      <c r="AJ32" s="51" t="n"/>
+      <c r="AK32" s="51" t="n"/>
+      <c r="AL32" s="51" t="n"/>
+      <c r="AM32" s="51" t="n"/>
+      <c r="AN32" s="51" t="n"/>
+      <c r="AO32" s="51" t="n"/>
+      <c r="AP32" s="51" t="n"/>
+      <c r="AQ32" s="51" t="n"/>
+      <c r="AR32" s="51" t="n"/>
+      <c r="AS32" s="51" t="n"/>
+      <c r="AT32" s="51" t="n"/>
+      <c r="AU32" s="51" t="n"/>
+      <c r="AV32" s="51" t="n"/>
+      <c r="AW32" s="51" t="n"/>
+      <c r="AX32" s="51" t="n"/>
+      <c r="AY32" s="51" t="n"/>
+      <c r="AZ32" s="51" t="n"/>
+      <c r="BA32" s="51" t="n"/>
+      <c r="BB32" s="51" t="n"/>
+      <c r="BC32" s="51" t="n"/>
+      <c r="BD32" s="51" t="n"/>
+      <c r="BE32" s="51" t="n"/>
+      <c r="BF32" s="51" t="n"/>
+      <c r="BG32" s="51" t="n"/>
+      <c r="BH32" s="51" t="n"/>
+      <c r="BI32" s="51" t="n"/>
+      <c r="BJ32" s="51" t="n"/>
+      <c r="BK32" s="51" t="n"/>
+      <c r="BL32" s="51" t="n"/>
+      <c r="BM32" s="51" t="n"/>
+      <c r="BN32" s="51" t="n"/>
+      <c r="BO32" s="51" t="n"/>
+      <c r="BP32" s="51" t="n"/>
+      <c r="BQ32" s="51" t="n"/>
+      <c r="BR32" s="51" t="n"/>
+      <c r="BS32" s="51" t="n"/>
+      <c r="BT32" s="51" t="n"/>
+      <c r="BU32" s="51" t="n"/>
+      <c r="BV32" s="51" t="n"/>
+      <c r="BW32" s="51" t="n"/>
+      <c r="BX32" s="51" t="n"/>
+      <c r="BY32" s="51" t="n"/>
+      <c r="BZ32" s="51" t="n"/>
+      <c r="CA32" s="51" t="n"/>
+      <c r="CB32" s="51" t="n"/>
+      <c r="CC32" s="51" t="n"/>
+      <c r="CD32" s="51" t="n"/>
+      <c r="CE32" s="51" t="n"/>
+      <c r="CF32" s="51" t="n"/>
+      <c r="CG32" s="51" t="n"/>
+      <c r="CH32" s="51" t="n"/>
+      <c r="CI32" s="51" t="n"/>
+      <c r="CJ32" s="51" t="n"/>
+      <c r="CK32" s="51" t="n"/>
+      <c r="CL32" s="51" t="n"/>
+      <c r="CM32" s="51" t="n"/>
+      <c r="CN32" s="51" t="n"/>
+      <c r="CO32" s="51" t="n"/>
+      <c r="CP32" s="51" t="n"/>
+      <c r="CQ32" s="51" t="n"/>
+      <c r="CR32" s="51" t="n"/>
+      <c r="CS32" s="51" t="n"/>
+      <c r="CT32" s="51" t="n"/>
+      <c r="CU32" s="51" t="n"/>
+      <c r="CV32" s="51" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -4870,18 +6218,24 @@
       <c r="H33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="0" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="J33" s="11" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="K33" s="0" t="inlineStr"/>
-      <c r="L33" s="0" t="inlineStr"/>
-      <c r="M33" s="0" t="n"/>
-      <c r="N33" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I33" s="47" t="n">
+        <v>2.0578</v>
+      </c>
+      <c r="J33" s="49" t="n">
+        <v>-0.7954490671551936</v>
+      </c>
+      <c r="K33" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="47" t="n">
+        <v>-0.3739546268386043</v>
+      </c>
+      <c r="M33" s="47" t="n">
+        <v>4.3958</v>
+      </c>
+      <c r="N33" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O33" s="0">
@@ -4896,6 +6250,86 @@
       </c>
       <c r="S33" s="0" t="inlineStr"/>
       <c r="T33" s="0" t="inlineStr"/>
+      <c r="U33" s="51" t="n"/>
+      <c r="V33" s="51" t="n"/>
+      <c r="W33" s="51" t="n"/>
+      <c r="X33" s="51" t="n"/>
+      <c r="Y33" s="51" t="n"/>
+      <c r="Z33" s="51" t="n"/>
+      <c r="AA33" s="51" t="n"/>
+      <c r="AB33" s="51" t="n"/>
+      <c r="AC33" s="51" t="n"/>
+      <c r="AD33" s="51" t="n"/>
+      <c r="AE33" s="51" t="n"/>
+      <c r="AF33" s="51" t="n"/>
+      <c r="AG33" s="51" t="n"/>
+      <c r="AH33" s="51" t="n"/>
+      <c r="AI33" s="51" t="n"/>
+      <c r="AJ33" s="51" t="n"/>
+      <c r="AK33" s="51" t="n"/>
+      <c r="AL33" s="51" t="n"/>
+      <c r="AM33" s="51" t="n"/>
+      <c r="AN33" s="51" t="n"/>
+      <c r="AO33" s="51" t="n"/>
+      <c r="AP33" s="51" t="n"/>
+      <c r="AQ33" s="51" t="n"/>
+      <c r="AR33" s="51" t="n"/>
+      <c r="AS33" s="51" t="n"/>
+      <c r="AT33" s="51" t="n"/>
+      <c r="AU33" s="51" t="n"/>
+      <c r="AV33" s="51" t="n"/>
+      <c r="AW33" s="51" t="n"/>
+      <c r="AX33" s="51" t="n"/>
+      <c r="AY33" s="51" t="n"/>
+      <c r="AZ33" s="51" t="n"/>
+      <c r="BA33" s="51" t="n"/>
+      <c r="BB33" s="51" t="n"/>
+      <c r="BC33" s="51" t="n"/>
+      <c r="BD33" s="51" t="n"/>
+      <c r="BE33" s="51" t="n"/>
+      <c r="BF33" s="51" t="n"/>
+      <c r="BG33" s="51" t="n"/>
+      <c r="BH33" s="51" t="n"/>
+      <c r="BI33" s="51" t="n"/>
+      <c r="BJ33" s="51" t="n"/>
+      <c r="BK33" s="51" t="n"/>
+      <c r="BL33" s="51" t="n"/>
+      <c r="BM33" s="51" t="n"/>
+      <c r="BN33" s="51" t="n"/>
+      <c r="BO33" s="51" t="n"/>
+      <c r="BP33" s="51" t="n"/>
+      <c r="BQ33" s="51" t="n"/>
+      <c r="BR33" s="51" t="n"/>
+      <c r="BS33" s="51" t="n"/>
+      <c r="BT33" s="51" t="n"/>
+      <c r="BU33" s="51" t="n"/>
+      <c r="BV33" s="51" t="n"/>
+      <c r="BW33" s="51" t="n"/>
+      <c r="BX33" s="51" t="n"/>
+      <c r="BY33" s="51" t="n"/>
+      <c r="BZ33" s="51" t="n"/>
+      <c r="CA33" s="51" t="n"/>
+      <c r="CB33" s="51" t="n"/>
+      <c r="CC33" s="51" t="n"/>
+      <c r="CD33" s="51" t="n"/>
+      <c r="CE33" s="51" t="n"/>
+      <c r="CF33" s="51" t="n"/>
+      <c r="CG33" s="51" t="n"/>
+      <c r="CH33" s="51" t="n"/>
+      <c r="CI33" s="51" t="n"/>
+      <c r="CJ33" s="51" t="n"/>
+      <c r="CK33" s="51" t="n"/>
+      <c r="CL33" s="51" t="n"/>
+      <c r="CM33" s="51" t="n"/>
+      <c r="CN33" s="51" t="n"/>
+      <c r="CO33" s="51" t="n"/>
+      <c r="CP33" s="51" t="n"/>
+      <c r="CQ33" s="51" t="n"/>
+      <c r="CR33" s="51" t="n"/>
+      <c r="CS33" s="51" t="n"/>
+      <c r="CT33" s="51" t="n"/>
+      <c r="CU33" s="51" t="n"/>
+      <c r="CV33" s="51" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -4916,22 +6350,22 @@
       <c r="H34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="47" t="n">
         <v>1.487</v>
       </c>
-      <c r="J34" s="12" t="n">
-        <v>-0.141024780068497</v>
-      </c>
-      <c r="K34" s="0" t="n">
+      <c r="J34" s="53" t="n">
+        <v>-0.1410247800684971</v>
+      </c>
+      <c r="K34" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L34" s="0" t="n">
-        <v>-0.141024780068497</v>
-      </c>
-      <c r="M34" s="0" t="n">
+      <c r="L34" s="47" t="n">
+        <v>-0.1410247800684971</v>
+      </c>
+      <c r="M34" s="47" t="n">
         <v>1.487</v>
       </c>
-      <c r="N34" s="0" t="inlineStr">
+      <c r="N34" s="47" t="inlineStr">
         <is>
           <t>2020-01-03</t>
         </is>
@@ -4948,6 +6382,86 @@
       </c>
       <c r="S34" s="0" t="inlineStr"/>
       <c r="T34" s="0" t="inlineStr"/>
+      <c r="U34" s="51" t="n"/>
+      <c r="V34" s="51" t="n"/>
+      <c r="W34" s="51" t="n"/>
+      <c r="X34" s="51" t="n"/>
+      <c r="Y34" s="51" t="n"/>
+      <c r="Z34" s="51" t="n"/>
+      <c r="AA34" s="51" t="n"/>
+      <c r="AB34" s="51" t="n"/>
+      <c r="AC34" s="51" t="n"/>
+      <c r="AD34" s="51" t="n"/>
+      <c r="AE34" s="51" t="n"/>
+      <c r="AF34" s="51" t="n"/>
+      <c r="AG34" s="51" t="n"/>
+      <c r="AH34" s="51" t="n"/>
+      <c r="AI34" s="51" t="n"/>
+      <c r="AJ34" s="51" t="n"/>
+      <c r="AK34" s="51" t="n"/>
+      <c r="AL34" s="51" t="n"/>
+      <c r="AM34" s="51" t="n"/>
+      <c r="AN34" s="51" t="n"/>
+      <c r="AO34" s="51" t="n"/>
+      <c r="AP34" s="51" t="n"/>
+      <c r="AQ34" s="51" t="n"/>
+      <c r="AR34" s="51" t="n"/>
+      <c r="AS34" s="51" t="n"/>
+      <c r="AT34" s="51" t="n"/>
+      <c r="AU34" s="51" t="n"/>
+      <c r="AV34" s="51" t="n"/>
+      <c r="AW34" s="51" t="n"/>
+      <c r="AX34" s="51" t="n"/>
+      <c r="AY34" s="51" t="n"/>
+      <c r="AZ34" s="51" t="n"/>
+      <c r="BA34" s="51" t="n"/>
+      <c r="BB34" s="51" t="n"/>
+      <c r="BC34" s="51" t="n"/>
+      <c r="BD34" s="51" t="n"/>
+      <c r="BE34" s="51" t="n"/>
+      <c r="BF34" s="51" t="n"/>
+      <c r="BG34" s="51" t="n"/>
+      <c r="BH34" s="51" t="n"/>
+      <c r="BI34" s="51" t="n"/>
+      <c r="BJ34" s="51" t="n"/>
+      <c r="BK34" s="51" t="n"/>
+      <c r="BL34" s="51" t="n"/>
+      <c r="BM34" s="51" t="n"/>
+      <c r="BN34" s="51" t="n"/>
+      <c r="BO34" s="51" t="n"/>
+      <c r="BP34" s="51" t="n"/>
+      <c r="BQ34" s="51" t="n"/>
+      <c r="BR34" s="51" t="n"/>
+      <c r="BS34" s="51" t="n"/>
+      <c r="BT34" s="51" t="n"/>
+      <c r="BU34" s="51" t="n"/>
+      <c r="BV34" s="51" t="n"/>
+      <c r="BW34" s="51" t="n"/>
+      <c r="BX34" s="51" t="n"/>
+      <c r="BY34" s="51" t="n"/>
+      <c r="BZ34" s="51" t="n"/>
+      <c r="CA34" s="51" t="n"/>
+      <c r="CB34" s="51" t="n"/>
+      <c r="CC34" s="51" t="n"/>
+      <c r="CD34" s="51" t="n"/>
+      <c r="CE34" s="51" t="n"/>
+      <c r="CF34" s="51" t="n"/>
+      <c r="CG34" s="51" t="n"/>
+      <c r="CH34" s="51" t="n"/>
+      <c r="CI34" s="51" t="n"/>
+      <c r="CJ34" s="51" t="n"/>
+      <c r="CK34" s="51" t="n"/>
+      <c r="CL34" s="51" t="n"/>
+      <c r="CM34" s="51" t="n"/>
+      <c r="CN34" s="51" t="n"/>
+      <c r="CO34" s="51" t="n"/>
+      <c r="CP34" s="51" t="n"/>
+      <c r="CQ34" s="51" t="n"/>
+      <c r="CR34" s="51" t="n"/>
+      <c r="CS34" s="51" t="n"/>
+      <c r="CT34" s="51" t="n"/>
+      <c r="CU34" s="51" t="n"/>
+      <c r="CV34" s="51" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -4968,18 +6482,24 @@
       <c r="H35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="0" t="n">
-        <v>0.8865</v>
-      </c>
-      <c r="J35" s="11" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K35" s="0" t="inlineStr"/>
-      <c r="L35" s="0" t="inlineStr"/>
-      <c r="M35" s="0" t="n"/>
-      <c r="N35" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+      <c r="I35" s="47" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="J35" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="47" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="N35" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O35" s="0">
@@ -4994,6 +6514,86 @@
       </c>
       <c r="S35" s="0" t="inlineStr"/>
       <c r="T35" s="0" t="inlineStr"/>
+      <c r="U35" s="51" t="n"/>
+      <c r="V35" s="51" t="n"/>
+      <c r="W35" s="51" t="n"/>
+      <c r="X35" s="51" t="n"/>
+      <c r="Y35" s="51" t="n"/>
+      <c r="Z35" s="51" t="n"/>
+      <c r="AA35" s="51" t="n"/>
+      <c r="AB35" s="51" t="n"/>
+      <c r="AC35" s="51" t="n"/>
+      <c r="AD35" s="51" t="n"/>
+      <c r="AE35" s="51" t="n"/>
+      <c r="AF35" s="51" t="n"/>
+      <c r="AG35" s="51" t="n"/>
+      <c r="AH35" s="51" t="n"/>
+      <c r="AI35" s="51" t="n"/>
+      <c r="AJ35" s="51" t="n"/>
+      <c r="AK35" s="51" t="n"/>
+      <c r="AL35" s="51" t="n"/>
+      <c r="AM35" s="51" t="n"/>
+      <c r="AN35" s="51" t="n"/>
+      <c r="AO35" s="51" t="n"/>
+      <c r="AP35" s="51" t="n"/>
+      <c r="AQ35" s="51" t="n"/>
+      <c r="AR35" s="51" t="n"/>
+      <c r="AS35" s="51" t="n"/>
+      <c r="AT35" s="51" t="n"/>
+      <c r="AU35" s="51" t="n"/>
+      <c r="AV35" s="51" t="n"/>
+      <c r="AW35" s="51" t="n"/>
+      <c r="AX35" s="51" t="n"/>
+      <c r="AY35" s="51" t="n"/>
+      <c r="AZ35" s="51" t="n"/>
+      <c r="BA35" s="51" t="n"/>
+      <c r="BB35" s="51" t="n"/>
+      <c r="BC35" s="51" t="n"/>
+      <c r="BD35" s="51" t="n"/>
+      <c r="BE35" s="51" t="n"/>
+      <c r="BF35" s="51" t="n"/>
+      <c r="BG35" s="51" t="n"/>
+      <c r="BH35" s="51" t="n"/>
+      <c r="BI35" s="51" t="n"/>
+      <c r="BJ35" s="51" t="n"/>
+      <c r="BK35" s="51" t="n"/>
+      <c r="BL35" s="51" t="n"/>
+      <c r="BM35" s="51" t="n"/>
+      <c r="BN35" s="51" t="n"/>
+      <c r="BO35" s="51" t="n"/>
+      <c r="BP35" s="51" t="n"/>
+      <c r="BQ35" s="51" t="n"/>
+      <c r="BR35" s="51" t="n"/>
+      <c r="BS35" s="51" t="n"/>
+      <c r="BT35" s="51" t="n"/>
+      <c r="BU35" s="51" t="n"/>
+      <c r="BV35" s="51" t="n"/>
+      <c r="BW35" s="51" t="n"/>
+      <c r="BX35" s="51" t="n"/>
+      <c r="BY35" s="51" t="n"/>
+      <c r="BZ35" s="51" t="n"/>
+      <c r="CA35" s="51" t="n"/>
+      <c r="CB35" s="51" t="n"/>
+      <c r="CC35" s="51" t="n"/>
+      <c r="CD35" s="51" t="n"/>
+      <c r="CE35" s="51" t="n"/>
+      <c r="CF35" s="51" t="n"/>
+      <c r="CG35" s="51" t="n"/>
+      <c r="CH35" s="51" t="n"/>
+      <c r="CI35" s="51" t="n"/>
+      <c r="CJ35" s="51" t="n"/>
+      <c r="CK35" s="51" t="n"/>
+      <c r="CL35" s="51" t="n"/>
+      <c r="CM35" s="51" t="n"/>
+      <c r="CN35" s="51" t="n"/>
+      <c r="CO35" s="51" t="n"/>
+      <c r="CP35" s="51" t="n"/>
+      <c r="CQ35" s="51" t="n"/>
+      <c r="CR35" s="51" t="n"/>
+      <c r="CS35" s="51" t="n"/>
+      <c r="CT35" s="51" t="n"/>
+      <c r="CU35" s="51" t="n"/>
+      <c r="CV35" s="51" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -5014,18 +6614,24 @@
       <c r="H36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="0" t="n">
-        <v>1.8497</v>
-      </c>
-      <c r="J36" s="11" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="K36" s="0" t="inlineStr"/>
-      <c r="L36" s="0" t="inlineStr"/>
-      <c r="M36" s="0" t="n"/>
-      <c r="N36" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-04 05:00</t>
+      <c r="I36" s="47" t="n">
+        <v>1.8636</v>
+      </c>
+      <c r="J36" s="49" t="n">
+        <v>1.420408163265307</v>
+      </c>
+      <c r="K36" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" s="47" t="n">
+        <v>1.691585725199166</v>
+      </c>
+      <c r="M36" s="47" t="n">
+        <v>1.8636</v>
+      </c>
+      <c r="N36" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="O36" s="0">
@@ -5040,6 +6646,86 @@
       </c>
       <c r="S36" s="0" t="inlineStr"/>
       <c r="T36" s="0" t="inlineStr"/>
+      <c r="U36" s="51" t="n"/>
+      <c r="V36" s="51" t="n"/>
+      <c r="W36" s="51" t="n"/>
+      <c r="X36" s="51" t="n"/>
+      <c r="Y36" s="51" t="n"/>
+      <c r="Z36" s="51" t="n"/>
+      <c r="AA36" s="51" t="n"/>
+      <c r="AB36" s="51" t="n"/>
+      <c r="AC36" s="51" t="n"/>
+      <c r="AD36" s="51" t="n"/>
+      <c r="AE36" s="51" t="n"/>
+      <c r="AF36" s="51" t="n"/>
+      <c r="AG36" s="51" t="n"/>
+      <c r="AH36" s="51" t="n"/>
+      <c r="AI36" s="51" t="n"/>
+      <c r="AJ36" s="51" t="n"/>
+      <c r="AK36" s="51" t="n"/>
+      <c r="AL36" s="51" t="n"/>
+      <c r="AM36" s="51" t="n"/>
+      <c r="AN36" s="51" t="n"/>
+      <c r="AO36" s="51" t="n"/>
+      <c r="AP36" s="51" t="n"/>
+      <c r="AQ36" s="51" t="n"/>
+      <c r="AR36" s="51" t="n"/>
+      <c r="AS36" s="51" t="n"/>
+      <c r="AT36" s="51" t="n"/>
+      <c r="AU36" s="51" t="n"/>
+      <c r="AV36" s="51" t="n"/>
+      <c r="AW36" s="51" t="n"/>
+      <c r="AX36" s="51" t="n"/>
+      <c r="AY36" s="51" t="n"/>
+      <c r="AZ36" s="51" t="n"/>
+      <c r="BA36" s="51" t="n"/>
+      <c r="BB36" s="51" t="n"/>
+      <c r="BC36" s="51" t="n"/>
+      <c r="BD36" s="51" t="n"/>
+      <c r="BE36" s="51" t="n"/>
+      <c r="BF36" s="51" t="n"/>
+      <c r="BG36" s="51" t="n"/>
+      <c r="BH36" s="51" t="n"/>
+      <c r="BI36" s="51" t="n"/>
+      <c r="BJ36" s="51" t="n"/>
+      <c r="BK36" s="51" t="n"/>
+      <c r="BL36" s="51" t="n"/>
+      <c r="BM36" s="51" t="n"/>
+      <c r="BN36" s="51" t="n"/>
+      <c r="BO36" s="51" t="n"/>
+      <c r="BP36" s="51" t="n"/>
+      <c r="BQ36" s="51" t="n"/>
+      <c r="BR36" s="51" t="n"/>
+      <c r="BS36" s="51" t="n"/>
+      <c r="BT36" s="51" t="n"/>
+      <c r="BU36" s="51" t="n"/>
+      <c r="BV36" s="51" t="n"/>
+      <c r="BW36" s="51" t="n"/>
+      <c r="BX36" s="51" t="n"/>
+      <c r="BY36" s="51" t="n"/>
+      <c r="BZ36" s="51" t="n"/>
+      <c r="CA36" s="51" t="n"/>
+      <c r="CB36" s="51" t="n"/>
+      <c r="CC36" s="51" t="n"/>
+      <c r="CD36" s="51" t="n"/>
+      <c r="CE36" s="51" t="n"/>
+      <c r="CF36" s="51" t="n"/>
+      <c r="CG36" s="51" t="n"/>
+      <c r="CH36" s="51" t="n"/>
+      <c r="CI36" s="51" t="n"/>
+      <c r="CJ36" s="51" t="n"/>
+      <c r="CK36" s="51" t="n"/>
+      <c r="CL36" s="51" t="n"/>
+      <c r="CM36" s="51" t="n"/>
+      <c r="CN36" s="51" t="n"/>
+      <c r="CO36" s="51" t="n"/>
+      <c r="CP36" s="51" t="n"/>
+      <c r="CQ36" s="51" t="n"/>
+      <c r="CR36" s="51" t="n"/>
+      <c r="CS36" s="51" t="n"/>
+      <c r="CT36" s="51" t="n"/>
+      <c r="CU36" s="51" t="n"/>
+      <c r="CV36" s="51" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -5058,20 +6744,26 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>1.2624</v>
-      </c>
-      <c r="J37" s="11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K37" s="0" t="inlineStr"/>
-      <c r="L37" s="0" t="inlineStr"/>
-      <c r="M37" s="0" t="n"/>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>2020-01-03 15:00</t>
+        <v>10</v>
+      </c>
+      <c r="I37" s="47" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="J37" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="47" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="N37" s="47" t="inlineStr">
+        <is>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="O37" s="0">
@@ -5098,6 +6790,86 @@
           <t>20191217</t>
         </is>
       </c>
+      <c r="U37" s="51" t="n"/>
+      <c r="V37" s="51" t="n"/>
+      <c r="W37" s="51" t="n"/>
+      <c r="X37" s="51" t="n"/>
+      <c r="Y37" s="51" t="n"/>
+      <c r="Z37" s="51" t="n"/>
+      <c r="AA37" s="51" t="n"/>
+      <c r="AB37" s="51" t="n"/>
+      <c r="AC37" s="51" t="n"/>
+      <c r="AD37" s="51" t="n"/>
+      <c r="AE37" s="51" t="n"/>
+      <c r="AF37" s="51" t="n"/>
+      <c r="AG37" s="51" t="n"/>
+      <c r="AH37" s="51" t="n"/>
+      <c r="AI37" s="51" t="n"/>
+      <c r="AJ37" s="51" t="n"/>
+      <c r="AK37" s="51" t="n"/>
+      <c r="AL37" s="51" t="n"/>
+      <c r="AM37" s="51" t="n"/>
+      <c r="AN37" s="51" t="n"/>
+      <c r="AO37" s="51" t="n"/>
+      <c r="AP37" s="51" t="n"/>
+      <c r="AQ37" s="51" t="n"/>
+      <c r="AR37" s="51" t="n"/>
+      <c r="AS37" s="51" t="n"/>
+      <c r="AT37" s="51" t="n"/>
+      <c r="AU37" s="51" t="n"/>
+      <c r="AV37" s="51" t="n"/>
+      <c r="AW37" s="51" t="n"/>
+      <c r="AX37" s="51" t="n"/>
+      <c r="AY37" s="51" t="n"/>
+      <c r="AZ37" s="51" t="n"/>
+      <c r="BA37" s="51" t="n"/>
+      <c r="BB37" s="51" t="n"/>
+      <c r="BC37" s="51" t="n"/>
+      <c r="BD37" s="51" t="n"/>
+      <c r="BE37" s="51" t="n"/>
+      <c r="BF37" s="51" t="n"/>
+      <c r="BG37" s="51" t="n"/>
+      <c r="BH37" s="51" t="n"/>
+      <c r="BI37" s="51" t="n"/>
+      <c r="BJ37" s="51" t="n"/>
+      <c r="BK37" s="51" t="n"/>
+      <c r="BL37" s="51" t="n"/>
+      <c r="BM37" s="51" t="n"/>
+      <c r="BN37" s="51" t="n"/>
+      <c r="BO37" s="51" t="n"/>
+      <c r="BP37" s="51" t="n"/>
+      <c r="BQ37" s="51" t="n"/>
+      <c r="BR37" s="51" t="n"/>
+      <c r="BS37" s="51" t="n"/>
+      <c r="BT37" s="51" t="n"/>
+      <c r="BU37" s="51" t="n"/>
+      <c r="BV37" s="51" t="n"/>
+      <c r="BW37" s="51" t="n"/>
+      <c r="BX37" s="51" t="n"/>
+      <c r="BY37" s="51" t="n"/>
+      <c r="BZ37" s="51" t="n"/>
+      <c r="CA37" s="51" t="n"/>
+      <c r="CB37" s="51" t="n"/>
+      <c r="CC37" s="51" t="n"/>
+      <c r="CD37" s="51" t="n"/>
+      <c r="CE37" s="51" t="n"/>
+      <c r="CF37" s="51" t="n"/>
+      <c r="CG37" s="51" t="n"/>
+      <c r="CH37" s="51" t="n"/>
+      <c r="CI37" s="51" t="n"/>
+      <c r="CJ37" s="51" t="n"/>
+      <c r="CK37" s="51" t="n"/>
+      <c r="CL37" s="51" t="n"/>
+      <c r="CM37" s="51" t="n"/>
+      <c r="CN37" s="51" t="n"/>
+      <c r="CO37" s="51" t="n"/>
+      <c r="CP37" s="51" t="n"/>
+      <c r="CQ37" s="51" t="n"/>
+      <c r="CR37" s="51" t="n"/>
+      <c r="CS37" s="51" t="n"/>
+      <c r="CT37" s="51" t="n"/>
+      <c r="CU37" s="51" t="n"/>
+      <c r="CV37" s="51" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="37" t="inlineStr">
@@ -5118,22 +6890,22 @@
       <c r="H38" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="47" t="n">
         <v>1.4815</v>
       </c>
-      <c r="J38" s="12" t="n">
-        <v>-0.14154758695066</v>
-      </c>
-      <c r="K38" s="0" t="n">
+      <c r="J38" s="53" t="n">
+        <v>-0.1415475869506599</v>
+      </c>
+      <c r="K38" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L38" s="0" t="n">
-        <v>-0.14154758695066</v>
-      </c>
-      <c r="M38" s="0" t="n">
+      <c r="L38" s="47" t="n">
+        <v>-0.1415475869506599</v>
+      </c>
+      <c r="M38" s="47" t="n">
         <v>1.4815</v>
       </c>
-      <c r="N38" s="0" t="inlineStr">
+      <c r="N38" s="47" t="inlineStr">
         <is>
           <t>2020-01-03</t>
         </is>
@@ -5162,6 +6934,86 @@
           <t>20191225</t>
         </is>
       </c>
+      <c r="U38" s="51" t="n"/>
+      <c r="V38" s="51" t="n"/>
+      <c r="W38" s="51" t="n"/>
+      <c r="X38" s="51" t="n"/>
+      <c r="Y38" s="51" t="n"/>
+      <c r="Z38" s="51" t="n"/>
+      <c r="AA38" s="51" t="n"/>
+      <c r="AB38" s="51" t="n"/>
+      <c r="AC38" s="51" t="n"/>
+      <c r="AD38" s="51" t="n"/>
+      <c r="AE38" s="51" t="n"/>
+      <c r="AF38" s="51" t="n"/>
+      <c r="AG38" s="51" t="n"/>
+      <c r="AH38" s="51" t="n"/>
+      <c r="AI38" s="51" t="n"/>
+      <c r="AJ38" s="51" t="n"/>
+      <c r="AK38" s="51" t="n"/>
+      <c r="AL38" s="51" t="n"/>
+      <c r="AM38" s="51" t="n"/>
+      <c r="AN38" s="51" t="n"/>
+      <c r="AO38" s="51" t="n"/>
+      <c r="AP38" s="51" t="n"/>
+      <c r="AQ38" s="51" t="n"/>
+      <c r="AR38" s="51" t="n"/>
+      <c r="AS38" s="51" t="n"/>
+      <c r="AT38" s="51" t="n"/>
+      <c r="AU38" s="51" t="n"/>
+      <c r="AV38" s="51" t="n"/>
+      <c r="AW38" s="51" t="n"/>
+      <c r="AX38" s="51" t="n"/>
+      <c r="AY38" s="51" t="n"/>
+      <c r="AZ38" s="51" t="n"/>
+      <c r="BA38" s="51" t="n"/>
+      <c r="BB38" s="51" t="n"/>
+      <c r="BC38" s="51" t="n"/>
+      <c r="BD38" s="51" t="n"/>
+      <c r="BE38" s="51" t="n"/>
+      <c r="BF38" s="51" t="n"/>
+      <c r="BG38" s="51" t="n"/>
+      <c r="BH38" s="51" t="n"/>
+      <c r="BI38" s="51" t="n"/>
+      <c r="BJ38" s="51" t="n"/>
+      <c r="BK38" s="51" t="n"/>
+      <c r="BL38" s="51" t="n"/>
+      <c r="BM38" s="51" t="n"/>
+      <c r="BN38" s="51" t="n"/>
+      <c r="BO38" s="51" t="n"/>
+      <c r="BP38" s="51" t="n"/>
+      <c r="BQ38" s="51" t="n"/>
+      <c r="BR38" s="51" t="n"/>
+      <c r="BS38" s="51" t="n"/>
+      <c r="BT38" s="51" t="n"/>
+      <c r="BU38" s="51" t="n"/>
+      <c r="BV38" s="51" t="n"/>
+      <c r="BW38" s="51" t="n"/>
+      <c r="BX38" s="51" t="n"/>
+      <c r="BY38" s="51" t="n"/>
+      <c r="BZ38" s="51" t="n"/>
+      <c r="CA38" s="51" t="n"/>
+      <c r="CB38" s="51" t="n"/>
+      <c r="CC38" s="51" t="n"/>
+      <c r="CD38" s="51" t="n"/>
+      <c r="CE38" s="51" t="n"/>
+      <c r="CF38" s="51" t="n"/>
+      <c r="CG38" s="51" t="n"/>
+      <c r="CH38" s="51" t="n"/>
+      <c r="CI38" s="51" t="n"/>
+      <c r="CJ38" s="51" t="n"/>
+      <c r="CK38" s="51" t="n"/>
+      <c r="CL38" s="51" t="n"/>
+      <c r="CM38" s="51" t="n"/>
+      <c r="CN38" s="51" t="n"/>
+      <c r="CO38" s="51" t="n"/>
+      <c r="CP38" s="51" t="n"/>
+      <c r="CQ38" s="51" t="n"/>
+      <c r="CR38" s="51" t="n"/>
+      <c r="CS38" s="51" t="n"/>
+      <c r="CT38" s="51" t="n"/>
+      <c r="CU38" s="51" t="n"/>
+      <c r="CV38" s="51" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -5179,11 +7031,12 @@
         </is>
       </c>
       <c r="H39" s="0" t="inlineStr"/>
-      <c r="I39" s="0" t="inlineStr"/>
-      <c r="J39" s="0" t="inlineStr"/>
-      <c r="K39" s="0" t="inlineStr"/>
-      <c r="L39" s="0" t="inlineStr"/>
-      <c r="N39" s="0" t="inlineStr"/>
+      <c r="I39" s="47" t="inlineStr"/>
+      <c r="J39" s="47" t="inlineStr"/>
+      <c r="K39" s="47" t="inlineStr"/>
+      <c r="L39" s="47" t="inlineStr"/>
+      <c r="M39" s="51" t="n"/>
+      <c r="N39" s="47" t="inlineStr"/>
       <c r="O39" s="0">
         <f>(P39-I39)/I39*100</f>
         <v/>
@@ -5194,6 +7047,86 @@
         <v/>
       </c>
       <c r="T39" s="0" t="inlineStr"/>
+      <c r="U39" s="51" t="n"/>
+      <c r="V39" s="51" t="n"/>
+      <c r="W39" s="51" t="n"/>
+      <c r="X39" s="51" t="n"/>
+      <c r="Y39" s="51" t="n"/>
+      <c r="Z39" s="51" t="n"/>
+      <c r="AA39" s="51" t="n"/>
+      <c r="AB39" s="51" t="n"/>
+      <c r="AC39" s="51" t="n"/>
+      <c r="AD39" s="51" t="n"/>
+      <c r="AE39" s="51" t="n"/>
+      <c r="AF39" s="51" t="n"/>
+      <c r="AG39" s="51" t="n"/>
+      <c r="AH39" s="51" t="n"/>
+      <c r="AI39" s="51" t="n"/>
+      <c r="AJ39" s="51" t="n"/>
+      <c r="AK39" s="51" t="n"/>
+      <c r="AL39" s="51" t="n"/>
+      <c r="AM39" s="51" t="n"/>
+      <c r="AN39" s="51" t="n"/>
+      <c r="AO39" s="51" t="n"/>
+      <c r="AP39" s="51" t="n"/>
+      <c r="AQ39" s="51" t="n"/>
+      <c r="AR39" s="51" t="n"/>
+      <c r="AS39" s="51" t="n"/>
+      <c r="AT39" s="51" t="n"/>
+      <c r="AU39" s="51" t="n"/>
+      <c r="AV39" s="51" t="n"/>
+      <c r="AW39" s="51" t="n"/>
+      <c r="AX39" s="51" t="n"/>
+      <c r="AY39" s="51" t="n"/>
+      <c r="AZ39" s="51" t="n"/>
+      <c r="BA39" s="51" t="n"/>
+      <c r="BB39" s="51" t="n"/>
+      <c r="BC39" s="51" t="n"/>
+      <c r="BD39" s="51" t="n"/>
+      <c r="BE39" s="51" t="n"/>
+      <c r="BF39" s="51" t="n"/>
+      <c r="BG39" s="51" t="n"/>
+      <c r="BH39" s="51" t="n"/>
+      <c r="BI39" s="51" t="n"/>
+      <c r="BJ39" s="51" t="n"/>
+      <c r="BK39" s="51" t="n"/>
+      <c r="BL39" s="51" t="n"/>
+      <c r="BM39" s="51" t="n"/>
+      <c r="BN39" s="51" t="n"/>
+      <c r="BO39" s="51" t="n"/>
+      <c r="BP39" s="51" t="n"/>
+      <c r="BQ39" s="51" t="n"/>
+      <c r="BR39" s="51" t="n"/>
+      <c r="BS39" s="51" t="n"/>
+      <c r="BT39" s="51" t="n"/>
+      <c r="BU39" s="51" t="n"/>
+      <c r="BV39" s="51" t="n"/>
+      <c r="BW39" s="51" t="n"/>
+      <c r="BX39" s="51" t="n"/>
+      <c r="BY39" s="51" t="n"/>
+      <c r="BZ39" s="51" t="n"/>
+      <c r="CA39" s="51" t="n"/>
+      <c r="CB39" s="51" t="n"/>
+      <c r="CC39" s="51" t="n"/>
+      <c r="CD39" s="51" t="n"/>
+      <c r="CE39" s="51" t="n"/>
+      <c r="CF39" s="51" t="n"/>
+      <c r="CG39" s="51" t="n"/>
+      <c r="CH39" s="51" t="n"/>
+      <c r="CI39" s="51" t="n"/>
+      <c r="CJ39" s="51" t="n"/>
+      <c r="CK39" s="51" t="n"/>
+      <c r="CL39" s="51" t="n"/>
+      <c r="CM39" s="51" t="n"/>
+      <c r="CN39" s="51" t="n"/>
+      <c r="CO39" s="51" t="n"/>
+      <c r="CP39" s="51" t="n"/>
+      <c r="CQ39" s="51" t="n"/>
+      <c r="CR39" s="51" t="n"/>
+      <c r="CS39" s="51" t="n"/>
+      <c r="CT39" s="51" t="n"/>
+      <c r="CU39" s="51" t="n"/>
+      <c r="CV39" s="51" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H65536">
@@ -5263,43 +7196,43 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="广发双擎升级混合" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" display="诺安成长混合" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" display="银河创新成长混合" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" display="广发多元新兴股票" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" display="银华内需精选混合(LOF)" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" display="华宝中证医疗指数分级" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" display="汇添富创新医药混合" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" display="财通成长优选混合" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" display="华安智能生活混合" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" display="华宝科技ETF联接A" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" display="南方信息创新混合A" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" display="博时医疗保健行业混合A" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" display="易方达中小盘混合" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" display="招商中证白酒指数分级" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" display="中欧医疗健康混合C" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" display="广发医疗保健股票" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" display="农银医疗保健股票" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" display="招商中证银行指数分级" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" display="华安媒体互联网混合" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" display="南方中证全指证券ETF联接C" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" display="华安纳斯达克100指数" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" display="国泰中证申万证券行业指数" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" display="交银成长30混合" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" display="广发创新升级混合" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" display="信达澳银新能源产业股票" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" display="南方希元转债" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" display="招商中证全指证券公司分级B" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" display="富国中证新能源汽车指数分级" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" display="易方达上证50指数A" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" display="广发纳斯达克100指数A" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" display="海富通股票混合" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" display="广发小盘成长混合(LOF)" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" display="国联安中证半导体ETF联接A" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" display="融通创业板指数A" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" display="易标普信息科技人民币" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" display="富国中证智能汽车(LOF)" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" display="国联安中证半导体ETF联接C" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5708,25 +7641,27 @@
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" s="12" t="n">
         <v>3083.7858</v>
       </c>
       <c r="G2" s="12" t="n">
-        <v>-0.0457604401092448</v>
+        <v>-0.04576044010924479</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>-0.0457604401092448</v>
+        <v>-0.04576044010924479</v>
       </c>
       <c r="J2" s="12" t="n">
         <v>2.899917084</v>
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:19</t>
+          <t>20200104 23:08:59</t>
         </is>
       </c>
       <c r="L2" s="43">
@@ -5749,86 +7684,86 @@
         <v>3263</v>
       </c>
       <c r="Q2" s="0" t="inlineStr"/>
-      <c r="R2" s="39" t="n"/>
-      <c r="S2" s="3" t="n"/>
-      <c r="T2" s="3" t="n"/>
-      <c r="U2" s="39" t="n"/>
-      <c r="V2" s="3" t="n"/>
-      <c r="W2" s="3" t="n"/>
-      <c r="X2" s="39" t="n"/>
-      <c r="Y2" s="3" t="n"/>
-      <c r="Z2" s="3" t="n"/>
-      <c r="AA2" s="39" t="n"/>
-      <c r="AB2" s="3" t="n"/>
-      <c r="AC2" s="3" t="n"/>
-      <c r="AD2" s="39" t="n"/>
-      <c r="AE2" s="3" t="n"/>
-      <c r="AF2" s="3" t="n"/>
-      <c r="AG2" s="39" t="n"/>
-      <c r="AH2" s="3" t="n"/>
-      <c r="AI2" s="3" t="n"/>
-      <c r="AJ2" s="39" t="n"/>
-      <c r="AK2" s="3" t="n"/>
-      <c r="AL2" s="3" t="n"/>
-      <c r="AM2" s="39" t="n"/>
-      <c r="AN2" s="3" t="n"/>
-      <c r="AO2" s="3" t="n"/>
-      <c r="AP2" s="39" t="n"/>
-      <c r="AQ2" s="3" t="n"/>
-      <c r="AR2" s="3" t="n"/>
-      <c r="AS2" s="39" t="n"/>
-      <c r="AT2" s="3" t="n"/>
-      <c r="AU2" s="3" t="n"/>
-      <c r="AV2" s="39" t="n"/>
-      <c r="AW2" s="3" t="n"/>
-      <c r="AX2" s="3" t="n"/>
-      <c r="AY2" s="39" t="n"/>
-      <c r="AZ2" s="3" t="n"/>
-      <c r="BA2" s="3" t="n"/>
-      <c r="BB2" s="39" t="n"/>
-      <c r="BC2" s="3" t="n"/>
-      <c r="BD2" s="3" t="n"/>
-      <c r="BE2" s="39" t="n"/>
-      <c r="BF2" s="3" t="n"/>
-      <c r="BG2" s="3" t="n"/>
-      <c r="BH2" s="39" t="n"/>
-      <c r="BI2" s="3" t="n"/>
-      <c r="BJ2" s="3" t="n"/>
-      <c r="BK2" s="3" t="n"/>
-      <c r="BL2" s="3" t="n"/>
-      <c r="BM2" s="3" t="n"/>
-      <c r="BN2" s="3" t="n"/>
-      <c r="BO2" s="3" t="n"/>
-      <c r="BP2" s="3" t="n"/>
-      <c r="BQ2" s="3" t="n"/>
-      <c r="BR2" s="3" t="n"/>
-      <c r="BS2" s="3" t="n"/>
-      <c r="BT2" s="3" t="n"/>
-      <c r="BU2" s="3" t="n"/>
-      <c r="BV2" s="3" t="n"/>
-      <c r="BW2" s="3" t="n"/>
-      <c r="BX2" s="3" t="n"/>
-      <c r="BY2" s="3" t="n"/>
-      <c r="BZ2" s="3" t="n"/>
-      <c r="CA2" s="3" t="n"/>
-      <c r="CB2" s="3" t="n"/>
-      <c r="CC2" s="3" t="n"/>
-      <c r="CD2" s="3" t="n"/>
-      <c r="CE2" s="3" t="n"/>
-      <c r="CF2" s="3" t="n"/>
-      <c r="CG2" s="3" t="n"/>
-      <c r="CH2" s="3" t="n"/>
-      <c r="CI2" s="3" t="n"/>
-      <c r="CJ2" s="3" t="n"/>
-      <c r="CK2" s="3" t="n"/>
-      <c r="CL2" s="3" t="n"/>
-      <c r="CM2" s="3" t="n"/>
-      <c r="CN2" s="3" t="n"/>
-      <c r="CO2" s="3" t="n"/>
-      <c r="CP2" s="3" t="n"/>
-      <c r="CQ2" s="3" t="n"/>
-      <c r="CR2" s="3" t="n"/>
-      <c r="CS2" s="3" t="n"/>
+      <c r="R2" s="52" t="n"/>
+      <c r="S2" s="45" t="n"/>
+      <c r="T2" s="45" t="n"/>
+      <c r="U2" s="52" t="n"/>
+      <c r="V2" s="45" t="n"/>
+      <c r="W2" s="45" t="n"/>
+      <c r="X2" s="52" t="n"/>
+      <c r="Y2" s="45" t="n"/>
+      <c r="Z2" s="45" t="n"/>
+      <c r="AA2" s="52" t="n"/>
+      <c r="AB2" s="45" t="n"/>
+      <c r="AC2" s="45" t="n"/>
+      <c r="AD2" s="52" t="n"/>
+      <c r="AE2" s="45" t="n"/>
+      <c r="AF2" s="45" t="n"/>
+      <c r="AG2" s="52" t="n"/>
+      <c r="AH2" s="45" t="n"/>
+      <c r="AI2" s="45" t="n"/>
+      <c r="AJ2" s="52" t="n"/>
+      <c r="AK2" s="45" t="n"/>
+      <c r="AL2" s="45" t="n"/>
+      <c r="AM2" s="52" t="n"/>
+      <c r="AN2" s="45" t="n"/>
+      <c r="AO2" s="45" t="n"/>
+      <c r="AP2" s="52" t="n"/>
+      <c r="AQ2" s="45" t="n"/>
+      <c r="AR2" s="45" t="n"/>
+      <c r="AS2" s="52" t="n"/>
+      <c r="AT2" s="45" t="n"/>
+      <c r="AU2" s="45" t="n"/>
+      <c r="AV2" s="52" t="n"/>
+      <c r="AW2" s="45" t="n"/>
+      <c r="AX2" s="45" t="n"/>
+      <c r="AY2" s="52" t="n"/>
+      <c r="AZ2" s="45" t="n"/>
+      <c r="BA2" s="45" t="n"/>
+      <c r="BB2" s="52" t="n"/>
+      <c r="BC2" s="45" t="n"/>
+      <c r="BD2" s="45" t="n"/>
+      <c r="BE2" s="52" t="n"/>
+      <c r="BF2" s="45" t="n"/>
+      <c r="BG2" s="45" t="n"/>
+      <c r="BH2" s="52" t="n"/>
+      <c r="BI2" s="45" t="n"/>
+      <c r="BJ2" s="45" t="n"/>
+      <c r="BK2" s="45" t="n"/>
+      <c r="BL2" s="45" t="n"/>
+      <c r="BM2" s="45" t="n"/>
+      <c r="BN2" s="45" t="n"/>
+      <c r="BO2" s="45" t="n"/>
+      <c r="BP2" s="45" t="n"/>
+      <c r="BQ2" s="45" t="n"/>
+      <c r="BR2" s="45" t="n"/>
+      <c r="BS2" s="45" t="n"/>
+      <c r="BT2" s="45" t="n"/>
+      <c r="BU2" s="45" t="n"/>
+      <c r="BV2" s="45" t="n"/>
+      <c r="BW2" s="45" t="n"/>
+      <c r="BX2" s="45" t="n"/>
+      <c r="BY2" s="45" t="n"/>
+      <c r="BZ2" s="45" t="n"/>
+      <c r="CA2" s="45" t="n"/>
+      <c r="CB2" s="45" t="n"/>
+      <c r="CC2" s="45" t="n"/>
+      <c r="CD2" s="45" t="n"/>
+      <c r="CE2" s="45" t="n"/>
+      <c r="CF2" s="45" t="n"/>
+      <c r="CG2" s="45" t="n"/>
+      <c r="CH2" s="45" t="n"/>
+      <c r="CI2" s="45" t="n"/>
+      <c r="CJ2" s="45" t="n"/>
+      <c r="CK2" s="45" t="n"/>
+      <c r="CL2" s="45" t="n"/>
+      <c r="CM2" s="45" t="n"/>
+      <c r="CN2" s="45" t="n"/>
+      <c r="CO2" s="45" t="n"/>
+      <c r="CP2" s="45" t="n"/>
+      <c r="CQ2" s="45" t="n"/>
+      <c r="CR2" s="45" t="n"/>
+      <c r="CS2" s="45" t="n"/>
     </row>
     <row r="3" ht="15.15" customHeight="1" s="1">
       <c r="A3" s="0" t="inlineStr">
@@ -5841,26 +7776,28 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" s="12" t="n">
         <v>3078.2793</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>-0.406162338561719</v>
+        <v>-0.4061623385617193</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>-0.406162338561719</v>
+        <v>-0.4061623385617193</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>0.7234678919999999</v>
+        <v>0.7234678920000001</v>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:19</t>
+          <t>20200104 23:09:00</t>
         </is>
       </c>
       <c r="L3" s="43">
@@ -5879,86 +7816,86 @@
         <v>3042</v>
       </c>
       <c r="Q3" s="0" t="inlineStr"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="3" t="n"/>
-      <c r="W3" s="3" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="3" t="n"/>
-      <c r="Z3" s="3" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="3" t="n"/>
-      <c r="AC3" s="3" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="3" t="n"/>
-      <c r="AF3" s="3" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="3" t="n"/>
-      <c r="AI3" s="3" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="3" t="n"/>
-      <c r="AL3" s="3" t="n"/>
-      <c r="AM3" s="39" t="n"/>
-      <c r="AN3" s="3" t="n"/>
-      <c r="AO3" s="3" t="n"/>
-      <c r="AP3" s="39" t="n"/>
-      <c r="AQ3" s="3" t="n"/>
-      <c r="AR3" s="3" t="n"/>
-      <c r="AS3" s="39" t="n"/>
-      <c r="AT3" s="3" t="n"/>
-      <c r="AU3" s="3" t="n"/>
-      <c r="AV3" s="39" t="n"/>
-      <c r="AW3" s="3" t="n"/>
-      <c r="AX3" s="3" t="n"/>
-      <c r="AY3" s="39" t="n"/>
-      <c r="AZ3" s="3" t="n"/>
-      <c r="BA3" s="3" t="n"/>
-      <c r="BB3" s="39" t="n"/>
-      <c r="BC3" s="3" t="n"/>
-      <c r="BD3" s="3" t="n"/>
-      <c r="BE3" s="39" t="n"/>
-      <c r="BF3" s="3" t="n"/>
-      <c r="BG3" s="3" t="n"/>
-      <c r="BH3" s="39" t="n"/>
-      <c r="BI3" s="3" t="n"/>
-      <c r="BJ3" s="3" t="n"/>
-      <c r="BK3" s="3" t="n"/>
-      <c r="BL3" s="3" t="n"/>
-      <c r="BM3" s="3" t="n"/>
-      <c r="BN3" s="3" t="n"/>
-      <c r="BO3" s="3" t="n"/>
-      <c r="BP3" s="3" t="n"/>
-      <c r="BQ3" s="3" t="n"/>
-      <c r="BR3" s="3" t="n"/>
-      <c r="BS3" s="3" t="n"/>
-      <c r="BT3" s="3" t="n"/>
-      <c r="BU3" s="3" t="n"/>
-      <c r="BV3" s="3" t="n"/>
-      <c r="BW3" s="3" t="n"/>
-      <c r="BX3" s="3" t="n"/>
-      <c r="BY3" s="3" t="n"/>
-      <c r="BZ3" s="3" t="n"/>
-      <c r="CA3" s="3" t="n"/>
-      <c r="CB3" s="3" t="n"/>
-      <c r="CC3" s="3" t="n"/>
-      <c r="CD3" s="3" t="n"/>
-      <c r="CE3" s="3" t="n"/>
-      <c r="CF3" s="3" t="n"/>
-      <c r="CG3" s="3" t="n"/>
-      <c r="CH3" s="3" t="n"/>
-      <c r="CI3" s="3" t="n"/>
-      <c r="CJ3" s="3" t="n"/>
-      <c r="CK3" s="3" t="n"/>
-      <c r="CL3" s="3" t="n"/>
-      <c r="CM3" s="3" t="n"/>
-      <c r="CN3" s="3" t="n"/>
-      <c r="CO3" s="3" t="n"/>
-      <c r="CP3" s="3" t="n"/>
-      <c r="CQ3" s="3" t="n"/>
-      <c r="CR3" s="3" t="n"/>
-      <c r="CS3" s="3" t="n"/>
+      <c r="R3" s="52" t="n"/>
+      <c r="S3" s="45" t="n"/>
+      <c r="T3" s="45" t="n"/>
+      <c r="U3" s="52" t="n"/>
+      <c r="V3" s="45" t="n"/>
+      <c r="W3" s="45" t="n"/>
+      <c r="X3" s="52" t="n"/>
+      <c r="Y3" s="45" t="n"/>
+      <c r="Z3" s="45" t="n"/>
+      <c r="AA3" s="52" t="n"/>
+      <c r="AB3" s="45" t="n"/>
+      <c r="AC3" s="45" t="n"/>
+      <c r="AD3" s="52" t="n"/>
+      <c r="AE3" s="45" t="n"/>
+      <c r="AF3" s="45" t="n"/>
+      <c r="AG3" s="52" t="n"/>
+      <c r="AH3" s="45" t="n"/>
+      <c r="AI3" s="45" t="n"/>
+      <c r="AJ3" s="52" t="n"/>
+      <c r="AK3" s="45" t="n"/>
+      <c r="AL3" s="45" t="n"/>
+      <c r="AM3" s="52" t="n"/>
+      <c r="AN3" s="45" t="n"/>
+      <c r="AO3" s="45" t="n"/>
+      <c r="AP3" s="52" t="n"/>
+      <c r="AQ3" s="45" t="n"/>
+      <c r="AR3" s="45" t="n"/>
+      <c r="AS3" s="52" t="n"/>
+      <c r="AT3" s="45" t="n"/>
+      <c r="AU3" s="45" t="n"/>
+      <c r="AV3" s="52" t="n"/>
+      <c r="AW3" s="45" t="n"/>
+      <c r="AX3" s="45" t="n"/>
+      <c r="AY3" s="52" t="n"/>
+      <c r="AZ3" s="45" t="n"/>
+      <c r="BA3" s="45" t="n"/>
+      <c r="BB3" s="52" t="n"/>
+      <c r="BC3" s="45" t="n"/>
+      <c r="BD3" s="45" t="n"/>
+      <c r="BE3" s="52" t="n"/>
+      <c r="BF3" s="45" t="n"/>
+      <c r="BG3" s="45" t="n"/>
+      <c r="BH3" s="52" t="n"/>
+      <c r="BI3" s="45" t="n"/>
+      <c r="BJ3" s="45" t="n"/>
+      <c r="BK3" s="45" t="n"/>
+      <c r="BL3" s="45" t="n"/>
+      <c r="BM3" s="45" t="n"/>
+      <c r="BN3" s="45" t="n"/>
+      <c r="BO3" s="45" t="n"/>
+      <c r="BP3" s="45" t="n"/>
+      <c r="BQ3" s="45" t="n"/>
+      <c r="BR3" s="45" t="n"/>
+      <c r="BS3" s="45" t="n"/>
+      <c r="BT3" s="45" t="n"/>
+      <c r="BU3" s="45" t="n"/>
+      <c r="BV3" s="45" t="n"/>
+      <c r="BW3" s="45" t="n"/>
+      <c r="BX3" s="45" t="n"/>
+      <c r="BY3" s="45" t="n"/>
+      <c r="BZ3" s="45" t="n"/>
+      <c r="CA3" s="45" t="n"/>
+      <c r="CB3" s="45" t="n"/>
+      <c r="CC3" s="45" t="n"/>
+      <c r="CD3" s="45" t="n"/>
+      <c r="CE3" s="45" t="n"/>
+      <c r="CF3" s="45" t="n"/>
+      <c r="CG3" s="45" t="n"/>
+      <c r="CH3" s="45" t="n"/>
+      <c r="CI3" s="45" t="n"/>
+      <c r="CJ3" s="45" t="n"/>
+      <c r="CK3" s="45" t="n"/>
+      <c r="CL3" s="45" t="n"/>
+      <c r="CM3" s="45" t="n"/>
+      <c r="CN3" s="45" t="n"/>
+      <c r="CO3" s="45" t="n"/>
+      <c r="CP3" s="45" t="n"/>
+      <c r="CQ3" s="45" t="n"/>
+      <c r="CR3" s="45" t="n"/>
+      <c r="CS3" s="45" t="n"/>
     </row>
     <row r="4" ht="15.15" customHeight="1" s="1">
       <c r="A4" s="0" t="inlineStr">
@@ -5971,26 +7908,28 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="12" t="n">
         <v>4144.9649</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>-0.175228276741552</v>
+        <v>-0.1752282767415521</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>-0.175228276741552</v>
+        <v>-0.1752282767415521</v>
       </c>
       <c r="J4" s="12" t="n">
         <v>2.152162883</v>
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:19</t>
+          <t>20200104 23:09:00</t>
         </is>
       </c>
       <c r="L4" s="43">
@@ -6009,86 +7948,86 @@
         <v>4120</v>
       </c>
       <c r="Q4" s="0" t="inlineStr"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="3" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="3" t="n"/>
-      <c r="W4" s="3" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="3" t="n"/>
-      <c r="Z4" s="3" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="3" t="n"/>
-      <c r="AC4" s="3" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="3" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="3" t="n"/>
-      <c r="AI4" s="3" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="3" t="n"/>
-      <c r="AL4" s="3" t="n"/>
-      <c r="AM4" s="39" t="n"/>
-      <c r="AN4" s="3" t="n"/>
-      <c r="AO4" s="3" t="n"/>
-      <c r="AP4" s="39" t="n"/>
-      <c r="AQ4" s="3" t="n"/>
-      <c r="AR4" s="3" t="n"/>
-      <c r="AS4" s="39" t="n"/>
-      <c r="AT4" s="3" t="n"/>
-      <c r="AU4" s="3" t="n"/>
-      <c r="AV4" s="39" t="n"/>
-      <c r="AW4" s="3" t="n"/>
-      <c r="AX4" s="3" t="n"/>
-      <c r="AY4" s="39" t="n"/>
-      <c r="AZ4" s="3" t="n"/>
-      <c r="BA4" s="3" t="n"/>
-      <c r="BB4" s="39" t="n"/>
-      <c r="BC4" s="3" t="n"/>
-      <c r="BD4" s="3" t="n"/>
-      <c r="BE4" s="39" t="n"/>
-      <c r="BF4" s="3" t="n"/>
-      <c r="BG4" s="3" t="n"/>
-      <c r="BH4" s="39" t="n"/>
-      <c r="BI4" s="3" t="n"/>
-      <c r="BJ4" s="3" t="n"/>
-      <c r="BK4" s="3" t="n"/>
-      <c r="BL4" s="3" t="n"/>
-      <c r="BM4" s="3" t="n"/>
-      <c r="BN4" s="3" t="n"/>
-      <c r="BO4" s="3" t="n"/>
-      <c r="BP4" s="3" t="n"/>
-      <c r="BQ4" s="3" t="n"/>
-      <c r="BR4" s="3" t="n"/>
-      <c r="BS4" s="3" t="n"/>
-      <c r="BT4" s="3" t="n"/>
-      <c r="BU4" s="3" t="n"/>
-      <c r="BV4" s="3" t="n"/>
-      <c r="BW4" s="3" t="n"/>
-      <c r="BX4" s="3" t="n"/>
-      <c r="BY4" s="3" t="n"/>
-      <c r="BZ4" s="3" t="n"/>
-      <c r="CA4" s="3" t="n"/>
-      <c r="CB4" s="3" t="n"/>
-      <c r="CC4" s="3" t="n"/>
-      <c r="CD4" s="3" t="n"/>
-      <c r="CE4" s="3" t="n"/>
-      <c r="CF4" s="3" t="n"/>
-      <c r="CG4" s="3" t="n"/>
-      <c r="CH4" s="3" t="n"/>
-      <c r="CI4" s="3" t="n"/>
-      <c r="CJ4" s="3" t="n"/>
-      <c r="CK4" s="3" t="n"/>
-      <c r="CL4" s="3" t="n"/>
-      <c r="CM4" s="3" t="n"/>
-      <c r="CN4" s="3" t="n"/>
-      <c r="CO4" s="3" t="n"/>
-      <c r="CP4" s="3" t="n"/>
-      <c r="CQ4" s="3" t="n"/>
-      <c r="CR4" s="3" t="n"/>
-      <c r="CS4" s="3" t="n"/>
+      <c r="R4" s="52" t="n"/>
+      <c r="S4" s="45" t="n"/>
+      <c r="T4" s="45" t="n"/>
+      <c r="U4" s="52" t="n"/>
+      <c r="V4" s="45" t="n"/>
+      <c r="W4" s="45" t="n"/>
+      <c r="X4" s="52" t="n"/>
+      <c r="Y4" s="45" t="n"/>
+      <c r="Z4" s="45" t="n"/>
+      <c r="AA4" s="52" t="n"/>
+      <c r="AB4" s="45" t="n"/>
+      <c r="AC4" s="45" t="n"/>
+      <c r="AD4" s="52" t="n"/>
+      <c r="AE4" s="45" t="n"/>
+      <c r="AF4" s="45" t="n"/>
+      <c r="AG4" s="52" t="n"/>
+      <c r="AH4" s="45" t="n"/>
+      <c r="AI4" s="45" t="n"/>
+      <c r="AJ4" s="52" t="n"/>
+      <c r="AK4" s="45" t="n"/>
+      <c r="AL4" s="45" t="n"/>
+      <c r="AM4" s="52" t="n"/>
+      <c r="AN4" s="45" t="n"/>
+      <c r="AO4" s="45" t="n"/>
+      <c r="AP4" s="52" t="n"/>
+      <c r="AQ4" s="45" t="n"/>
+      <c r="AR4" s="45" t="n"/>
+      <c r="AS4" s="52" t="n"/>
+      <c r="AT4" s="45" t="n"/>
+      <c r="AU4" s="45" t="n"/>
+      <c r="AV4" s="52" t="n"/>
+      <c r="AW4" s="45" t="n"/>
+      <c r="AX4" s="45" t="n"/>
+      <c r="AY4" s="52" t="n"/>
+      <c r="AZ4" s="45" t="n"/>
+      <c r="BA4" s="45" t="n"/>
+      <c r="BB4" s="52" t="n"/>
+      <c r="BC4" s="45" t="n"/>
+      <c r="BD4" s="45" t="n"/>
+      <c r="BE4" s="52" t="n"/>
+      <c r="BF4" s="45" t="n"/>
+      <c r="BG4" s="45" t="n"/>
+      <c r="BH4" s="52" t="n"/>
+      <c r="BI4" s="45" t="n"/>
+      <c r="BJ4" s="45" t="n"/>
+      <c r="BK4" s="45" t="n"/>
+      <c r="BL4" s="45" t="n"/>
+      <c r="BM4" s="45" t="n"/>
+      <c r="BN4" s="45" t="n"/>
+      <c r="BO4" s="45" t="n"/>
+      <c r="BP4" s="45" t="n"/>
+      <c r="BQ4" s="45" t="n"/>
+      <c r="BR4" s="45" t="n"/>
+      <c r="BS4" s="45" t="n"/>
+      <c r="BT4" s="45" t="n"/>
+      <c r="BU4" s="45" t="n"/>
+      <c r="BV4" s="45" t="n"/>
+      <c r="BW4" s="45" t="n"/>
+      <c r="BX4" s="45" t="n"/>
+      <c r="BY4" s="45" t="n"/>
+      <c r="BZ4" s="45" t="n"/>
+      <c r="CA4" s="45" t="n"/>
+      <c r="CB4" s="45" t="n"/>
+      <c r="CC4" s="45" t="n"/>
+      <c r="CD4" s="45" t="n"/>
+      <c r="CE4" s="45" t="n"/>
+      <c r="CF4" s="45" t="n"/>
+      <c r="CG4" s="45" t="n"/>
+      <c r="CH4" s="45" t="n"/>
+      <c r="CI4" s="45" t="n"/>
+      <c r="CJ4" s="45" t="n"/>
+      <c r="CK4" s="45" t="n"/>
+      <c r="CL4" s="45" t="n"/>
+      <c r="CM4" s="45" t="n"/>
+      <c r="CN4" s="45" t="n"/>
+      <c r="CO4" s="45" t="n"/>
+      <c r="CP4" s="45" t="n"/>
+      <c r="CQ4" s="45" t="n"/>
+      <c r="CR4" s="45" t="n"/>
+      <c r="CS4" s="45" t="n"/>
     </row>
     <row r="5" ht="15.15" customHeight="1" s="1">
       <c r="A5" s="0" t="inlineStr">
@@ -6101,19 +8040,21 @@
           <t xml:space="preserve">中证红利 </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="12" t="n">
         <v>4501.637</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>-0.0322001329310477</v>
+        <v>-0.03220013293104769</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v>-0.0322001329310477</v>
+        <v>-0.03220013293104769</v>
       </c>
       <c r="J5" s="12" t="n">
         <v>0.342078255</v>
@@ -6139,86 +8080,86 @@
         <v>5080</v>
       </c>
       <c r="Q5" s="0" t="inlineStr"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="3" t="n"/>
-      <c r="T5" s="3" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="3" t="n"/>
-      <c r="W5" s="3" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="3" t="n"/>
-      <c r="Z5" s="3" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="3" t="n"/>
-      <c r="AC5" s="3" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="3" t="n"/>
-      <c r="AF5" s="3" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="3" t="n"/>
-      <c r="AI5" s="3" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="3" t="n"/>
-      <c r="AL5" s="3" t="n"/>
-      <c r="AM5" s="39" t="n"/>
-      <c r="AN5" s="3" t="n"/>
-      <c r="AO5" s="3" t="n"/>
-      <c r="AP5" s="39" t="n"/>
-      <c r="AQ5" s="3" t="n"/>
-      <c r="AR5" s="3" t="n"/>
-      <c r="AS5" s="39" t="n"/>
-      <c r="AT5" s="3" t="n"/>
-      <c r="AU5" s="3" t="n"/>
-      <c r="AV5" s="39" t="n"/>
-      <c r="AW5" s="3" t="n"/>
-      <c r="AX5" s="3" t="n"/>
-      <c r="AY5" s="39" t="n"/>
-      <c r="AZ5" s="3" t="n"/>
-      <c r="BA5" s="3" t="n"/>
-      <c r="BB5" s="39" t="n"/>
-      <c r="BC5" s="3" t="n"/>
-      <c r="BD5" s="3" t="n"/>
-      <c r="BE5" s="39" t="n"/>
-      <c r="BF5" s="3" t="n"/>
-      <c r="BG5" s="3" t="n"/>
-      <c r="BH5" s="39" t="n"/>
-      <c r="BI5" s="3" t="n"/>
-      <c r="BJ5" s="3" t="n"/>
-      <c r="BK5" s="3" t="n"/>
-      <c r="BL5" s="3" t="n"/>
-      <c r="BM5" s="3" t="n"/>
-      <c r="BN5" s="3" t="n"/>
-      <c r="BO5" s="3" t="n"/>
-      <c r="BP5" s="3" t="n"/>
-      <c r="BQ5" s="3" t="n"/>
-      <c r="BR5" s="3" t="n"/>
-      <c r="BS5" s="3" t="n"/>
-      <c r="BT5" s="3" t="n"/>
-      <c r="BU5" s="3" t="n"/>
-      <c r="BV5" s="3" t="n"/>
-      <c r="BW5" s="3" t="n"/>
-      <c r="BX5" s="3" t="n"/>
-      <c r="BY5" s="3" t="n"/>
-      <c r="BZ5" s="3" t="n"/>
-      <c r="CA5" s="3" t="n"/>
-      <c r="CB5" s="3" t="n"/>
-      <c r="CC5" s="3" t="n"/>
-      <c r="CD5" s="3" t="n"/>
-      <c r="CE5" s="3" t="n"/>
-      <c r="CF5" s="3" t="n"/>
-      <c r="CG5" s="3" t="n"/>
-      <c r="CH5" s="3" t="n"/>
-      <c r="CI5" s="3" t="n"/>
-      <c r="CJ5" s="3" t="n"/>
-      <c r="CK5" s="3" t="n"/>
-      <c r="CL5" s="3" t="n"/>
-      <c r="CM5" s="3" t="n"/>
-      <c r="CN5" s="3" t="n"/>
-      <c r="CO5" s="3" t="n"/>
-      <c r="CP5" s="3" t="n"/>
-      <c r="CQ5" s="3" t="n"/>
-      <c r="CR5" s="3" t="n"/>
-      <c r="CS5" s="3" t="n"/>
+      <c r="R5" s="52" t="n"/>
+      <c r="S5" s="45" t="n"/>
+      <c r="T5" s="45" t="n"/>
+      <c r="U5" s="52" t="n"/>
+      <c r="V5" s="45" t="n"/>
+      <c r="W5" s="45" t="n"/>
+      <c r="X5" s="52" t="n"/>
+      <c r="Y5" s="45" t="n"/>
+      <c r="Z5" s="45" t="n"/>
+      <c r="AA5" s="52" t="n"/>
+      <c r="AB5" s="45" t="n"/>
+      <c r="AC5" s="45" t="n"/>
+      <c r="AD5" s="52" t="n"/>
+      <c r="AE5" s="45" t="n"/>
+      <c r="AF5" s="45" t="n"/>
+      <c r="AG5" s="52" t="n"/>
+      <c r="AH5" s="45" t="n"/>
+      <c r="AI5" s="45" t="n"/>
+      <c r="AJ5" s="52" t="n"/>
+      <c r="AK5" s="45" t="n"/>
+      <c r="AL5" s="45" t="n"/>
+      <c r="AM5" s="52" t="n"/>
+      <c r="AN5" s="45" t="n"/>
+      <c r="AO5" s="45" t="n"/>
+      <c r="AP5" s="52" t="n"/>
+      <c r="AQ5" s="45" t="n"/>
+      <c r="AR5" s="45" t="n"/>
+      <c r="AS5" s="52" t="n"/>
+      <c r="AT5" s="45" t="n"/>
+      <c r="AU5" s="45" t="n"/>
+      <c r="AV5" s="52" t="n"/>
+      <c r="AW5" s="45" t="n"/>
+      <c r="AX5" s="45" t="n"/>
+      <c r="AY5" s="52" t="n"/>
+      <c r="AZ5" s="45" t="n"/>
+      <c r="BA5" s="45" t="n"/>
+      <c r="BB5" s="52" t="n"/>
+      <c r="BC5" s="45" t="n"/>
+      <c r="BD5" s="45" t="n"/>
+      <c r="BE5" s="52" t="n"/>
+      <c r="BF5" s="45" t="n"/>
+      <c r="BG5" s="45" t="n"/>
+      <c r="BH5" s="52" t="n"/>
+      <c r="BI5" s="45" t="n"/>
+      <c r="BJ5" s="45" t="n"/>
+      <c r="BK5" s="45" t="n"/>
+      <c r="BL5" s="45" t="n"/>
+      <c r="BM5" s="45" t="n"/>
+      <c r="BN5" s="45" t="n"/>
+      <c r="BO5" s="45" t="n"/>
+      <c r="BP5" s="45" t="n"/>
+      <c r="BQ5" s="45" t="n"/>
+      <c r="BR5" s="45" t="n"/>
+      <c r="BS5" s="45" t="n"/>
+      <c r="BT5" s="45" t="n"/>
+      <c r="BU5" s="45" t="n"/>
+      <c r="BV5" s="45" t="n"/>
+      <c r="BW5" s="45" t="n"/>
+      <c r="BX5" s="45" t="n"/>
+      <c r="BY5" s="45" t="n"/>
+      <c r="BZ5" s="45" t="n"/>
+      <c r="CA5" s="45" t="n"/>
+      <c r="CB5" s="45" t="n"/>
+      <c r="CC5" s="45" t="n"/>
+      <c r="CD5" s="45" t="n"/>
+      <c r="CE5" s="45" t="n"/>
+      <c r="CF5" s="45" t="n"/>
+      <c r="CG5" s="45" t="n"/>
+      <c r="CH5" s="45" t="n"/>
+      <c r="CI5" s="45" t="n"/>
+      <c r="CJ5" s="45" t="n"/>
+      <c r="CK5" s="45" t="n"/>
+      <c r="CL5" s="45" t="n"/>
+      <c r="CM5" s="45" t="n"/>
+      <c r="CN5" s="45" t="n"/>
+      <c r="CO5" s="45" t="n"/>
+      <c r="CP5" s="45" t="n"/>
+      <c r="CQ5" s="45" t="n"/>
+      <c r="CR5" s="45" t="n"/>
+      <c r="CS5" s="45" t="n"/>
     </row>
     <row r="6" ht="15.15" customHeight="1" s="1">
       <c r="A6" s="0" t="inlineStr">
@@ -6231,26 +8172,28 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="12" t="n">
         <v>5380.6372</v>
       </c>
       <c r="G6" s="12" t="n">
-        <v>0.270207388461445</v>
+        <v>0.2702073884614455</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>3.88949212530779</v>
+        <v>3.889492125307789</v>
       </c>
       <c r="J6" s="12" t="n">
         <v>1.221997255</v>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:20</t>
+          <t>20200104 23:09:00</t>
         </is>
       </c>
       <c r="L6" s="43">
@@ -6269,86 +8212,86 @@
         <v>5850</v>
       </c>
       <c r="Q6" s="0" t="inlineStr"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="3" t="n"/>
-      <c r="T6" s="3" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="3" t="n"/>
-      <c r="W6" s="3" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="3" t="n"/>
-      <c r="Z6" s="3" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="3" t="n"/>
-      <c r="AC6" s="3" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="3" t="n"/>
-      <c r="AF6" s="3" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="3" t="n"/>
-      <c r="AI6" s="3" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="3" t="n"/>
-      <c r="AL6" s="3" t="n"/>
-      <c r="AM6" s="39" t="n"/>
-      <c r="AN6" s="3" t="n"/>
-      <c r="AO6" s="3" t="n"/>
-      <c r="AP6" s="39" t="n"/>
-      <c r="AQ6" s="3" t="n"/>
-      <c r="AR6" s="3" t="n"/>
-      <c r="AS6" s="39" t="n"/>
-      <c r="AT6" s="3" t="n"/>
-      <c r="AU6" s="3" t="n"/>
-      <c r="AV6" s="39" t="n"/>
-      <c r="AW6" s="3" t="n"/>
-      <c r="AX6" s="3" t="n"/>
-      <c r="AY6" s="39" t="n"/>
-      <c r="AZ6" s="3" t="n"/>
-      <c r="BA6" s="3" t="n"/>
-      <c r="BB6" s="39" t="n"/>
-      <c r="BC6" s="3" t="n"/>
-      <c r="BD6" s="3" t="n"/>
-      <c r="BE6" s="39" t="n"/>
-      <c r="BF6" s="3" t="n"/>
-      <c r="BG6" s="3" t="n"/>
-      <c r="BH6" s="39" t="n"/>
-      <c r="BI6" s="3" t="n"/>
-      <c r="BJ6" s="3" t="n"/>
-      <c r="BK6" s="3" t="n"/>
-      <c r="BL6" s="3" t="n"/>
-      <c r="BM6" s="3" t="n"/>
-      <c r="BN6" s="3" t="n"/>
-      <c r="BO6" s="3" t="n"/>
-      <c r="BP6" s="3" t="n"/>
-      <c r="BQ6" s="3" t="n"/>
-      <c r="BR6" s="3" t="n"/>
-      <c r="BS6" s="3" t="n"/>
-      <c r="BT6" s="3" t="n"/>
-      <c r="BU6" s="3" t="n"/>
-      <c r="BV6" s="3" t="n"/>
-      <c r="BW6" s="3" t="n"/>
-      <c r="BX6" s="3" t="n"/>
-      <c r="BY6" s="3" t="n"/>
-      <c r="BZ6" s="3" t="n"/>
-      <c r="CA6" s="3" t="n"/>
-      <c r="CB6" s="3" t="n"/>
-      <c r="CC6" s="3" t="n"/>
-      <c r="CD6" s="3" t="n"/>
-      <c r="CE6" s="3" t="n"/>
-      <c r="CF6" s="3" t="n"/>
-      <c r="CG6" s="3" t="n"/>
-      <c r="CH6" s="3" t="n"/>
-      <c r="CI6" s="3" t="n"/>
-      <c r="CJ6" s="3" t="n"/>
-      <c r="CK6" s="3" t="n"/>
-      <c r="CL6" s="3" t="n"/>
-      <c r="CM6" s="3" t="n"/>
-      <c r="CN6" s="3" t="n"/>
-      <c r="CO6" s="3" t="n"/>
-      <c r="CP6" s="3" t="n"/>
-      <c r="CQ6" s="3" t="n"/>
-      <c r="CR6" s="3" t="n"/>
-      <c r="CS6" s="3" t="n"/>
+      <c r="R6" s="52" t="n"/>
+      <c r="S6" s="45" t="n"/>
+      <c r="T6" s="45" t="n"/>
+      <c r="U6" s="52" t="n"/>
+      <c r="V6" s="45" t="n"/>
+      <c r="W6" s="45" t="n"/>
+      <c r="X6" s="52" t="n"/>
+      <c r="Y6" s="45" t="n"/>
+      <c r="Z6" s="45" t="n"/>
+      <c r="AA6" s="52" t="n"/>
+      <c r="AB6" s="45" t="n"/>
+      <c r="AC6" s="45" t="n"/>
+      <c r="AD6" s="52" t="n"/>
+      <c r="AE6" s="45" t="n"/>
+      <c r="AF6" s="45" t="n"/>
+      <c r="AG6" s="52" t="n"/>
+      <c r="AH6" s="45" t="n"/>
+      <c r="AI6" s="45" t="n"/>
+      <c r="AJ6" s="52" t="n"/>
+      <c r="AK6" s="45" t="n"/>
+      <c r="AL6" s="45" t="n"/>
+      <c r="AM6" s="52" t="n"/>
+      <c r="AN6" s="45" t="n"/>
+      <c r="AO6" s="45" t="n"/>
+      <c r="AP6" s="52" t="n"/>
+      <c r="AQ6" s="45" t="n"/>
+      <c r="AR6" s="45" t="n"/>
+      <c r="AS6" s="52" t="n"/>
+      <c r="AT6" s="45" t="n"/>
+      <c r="AU6" s="45" t="n"/>
+      <c r="AV6" s="52" t="n"/>
+      <c r="AW6" s="45" t="n"/>
+      <c r="AX6" s="45" t="n"/>
+      <c r="AY6" s="52" t="n"/>
+      <c r="AZ6" s="45" t="n"/>
+      <c r="BA6" s="45" t="n"/>
+      <c r="BB6" s="52" t="n"/>
+      <c r="BC6" s="45" t="n"/>
+      <c r="BD6" s="45" t="n"/>
+      <c r="BE6" s="52" t="n"/>
+      <c r="BF6" s="45" t="n"/>
+      <c r="BG6" s="45" t="n"/>
+      <c r="BH6" s="52" t="n"/>
+      <c r="BI6" s="45" t="n"/>
+      <c r="BJ6" s="45" t="n"/>
+      <c r="BK6" s="45" t="n"/>
+      <c r="BL6" s="45" t="n"/>
+      <c r="BM6" s="45" t="n"/>
+      <c r="BN6" s="45" t="n"/>
+      <c r="BO6" s="45" t="n"/>
+      <c r="BP6" s="45" t="n"/>
+      <c r="BQ6" s="45" t="n"/>
+      <c r="BR6" s="45" t="n"/>
+      <c r="BS6" s="45" t="n"/>
+      <c r="BT6" s="45" t="n"/>
+      <c r="BU6" s="45" t="n"/>
+      <c r="BV6" s="45" t="n"/>
+      <c r="BW6" s="45" t="n"/>
+      <c r="BX6" s="45" t="n"/>
+      <c r="BY6" s="45" t="n"/>
+      <c r="BZ6" s="45" t="n"/>
+      <c r="CA6" s="45" t="n"/>
+      <c r="CB6" s="45" t="n"/>
+      <c r="CC6" s="45" t="n"/>
+      <c r="CD6" s="45" t="n"/>
+      <c r="CE6" s="45" t="n"/>
+      <c r="CF6" s="45" t="n"/>
+      <c r="CG6" s="45" t="n"/>
+      <c r="CH6" s="45" t="n"/>
+      <c r="CI6" s="45" t="n"/>
+      <c r="CJ6" s="45" t="n"/>
+      <c r="CK6" s="45" t="n"/>
+      <c r="CL6" s="45" t="n"/>
+      <c r="CM6" s="45" t="n"/>
+      <c r="CN6" s="45" t="n"/>
+      <c r="CO6" s="45" t="n"/>
+      <c r="CP6" s="45" t="n"/>
+      <c r="CQ6" s="45" t="n"/>
+      <c r="CR6" s="45" t="n"/>
+      <c r="CS6" s="45" t="n"/>
     </row>
     <row r="7" ht="15.15" customHeight="1" s="1">
       <c r="A7" s="0" t="inlineStr">
@@ -6361,19 +8304,21 @@
           <t>内地消费</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="12" t="n">
         <v>9749.194</v>
       </c>
       <c r="G7" s="12" t="n">
-        <v>-1.17155350380876</v>
+        <v>-1.171553503808757</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>-1.17155350380876</v>
+        <v>-1.171553503808757</v>
       </c>
       <c r="J7" s="12" t="n">
         <v>0.45526646</v>
@@ -6399,86 +8344,86 @@
         <v>9472</v>
       </c>
       <c r="Q7" s="0" t="inlineStr"/>
-      <c r="R7" s="39" t="n"/>
-      <c r="S7" s="3" t="n"/>
-      <c r="T7" s="3" t="n"/>
-      <c r="U7" s="39" t="n"/>
-      <c r="V7" s="3" t="n"/>
-      <c r="W7" s="3" t="n"/>
-      <c r="X7" s="39" t="n"/>
-      <c r="Y7" s="3" t="n"/>
-      <c r="Z7" s="3" t="n"/>
-      <c r="AA7" s="39" t="n"/>
-      <c r="AB7" s="3" t="n"/>
-      <c r="AC7" s="3" t="n"/>
-      <c r="AD7" s="39" t="n"/>
-      <c r="AE7" s="3" t="n"/>
-      <c r="AF7" s="3" t="n"/>
-      <c r="AG7" s="39" t="n"/>
-      <c r="AH7" s="3" t="n"/>
-      <c r="AI7" s="3" t="n"/>
-      <c r="AJ7" s="39" t="n"/>
-      <c r="AK7" s="3" t="n"/>
-      <c r="AL7" s="3" t="n"/>
-      <c r="AM7" s="39" t="n"/>
-      <c r="AN7" s="3" t="n"/>
-      <c r="AO7" s="3" t="n"/>
-      <c r="AP7" s="39" t="n"/>
-      <c r="AQ7" s="3" t="n"/>
-      <c r="AR7" s="3" t="n"/>
-      <c r="AS7" s="39" t="n"/>
-      <c r="AT7" s="3" t="n"/>
-      <c r="AU7" s="3" t="n"/>
-      <c r="AV7" s="39" t="n"/>
-      <c r="AW7" s="3" t="n"/>
-      <c r="AX7" s="3" t="n"/>
-      <c r="AY7" s="39" t="n"/>
-      <c r="AZ7" s="3" t="n"/>
-      <c r="BA7" s="3" t="n"/>
-      <c r="BB7" s="39" t="n"/>
-      <c r="BC7" s="3" t="n"/>
-      <c r="BD7" s="3" t="n"/>
-      <c r="BE7" s="39" t="n"/>
-      <c r="BF7" s="3" t="n"/>
-      <c r="BG7" s="3" t="n"/>
-      <c r="BH7" s="39" t="n"/>
-      <c r="BI7" s="3" t="n"/>
-      <c r="BJ7" s="3" t="n"/>
-      <c r="BK7" s="3" t="n"/>
-      <c r="BL7" s="3" t="n"/>
-      <c r="BM7" s="3" t="n"/>
-      <c r="BN7" s="3" t="n"/>
-      <c r="BO7" s="3" t="n"/>
-      <c r="BP7" s="3" t="n"/>
-      <c r="BQ7" s="3" t="n"/>
-      <c r="BR7" s="3" t="n"/>
-      <c r="BS7" s="3" t="n"/>
-      <c r="BT7" s="3" t="n"/>
-      <c r="BU7" s="3" t="n"/>
-      <c r="BV7" s="3" t="n"/>
-      <c r="BW7" s="3" t="n"/>
-      <c r="BX7" s="3" t="n"/>
-      <c r="BY7" s="3" t="n"/>
-      <c r="BZ7" s="3" t="n"/>
-      <c r="CA7" s="3" t="n"/>
-      <c r="CB7" s="3" t="n"/>
-      <c r="CC7" s="3" t="n"/>
-      <c r="CD7" s="3" t="n"/>
-      <c r="CE7" s="3" t="n"/>
-      <c r="CF7" s="3" t="n"/>
-      <c r="CG7" s="3" t="n"/>
-      <c r="CH7" s="3" t="n"/>
-      <c r="CI7" s="3" t="n"/>
-      <c r="CJ7" s="3" t="n"/>
-      <c r="CK7" s="3" t="n"/>
-      <c r="CL7" s="3" t="n"/>
-      <c r="CM7" s="3" t="n"/>
-      <c r="CN7" s="3" t="n"/>
-      <c r="CO7" s="3" t="n"/>
-      <c r="CP7" s="3" t="n"/>
-      <c r="CQ7" s="3" t="n"/>
-      <c r="CR7" s="3" t="n"/>
-      <c r="CS7" s="3" t="n"/>
+      <c r="R7" s="52" t="n"/>
+      <c r="S7" s="45" t="n"/>
+      <c r="T7" s="45" t="n"/>
+      <c r="U7" s="52" t="n"/>
+      <c r="V7" s="45" t="n"/>
+      <c r="W7" s="45" t="n"/>
+      <c r="X7" s="52" t="n"/>
+      <c r="Y7" s="45" t="n"/>
+      <c r="Z7" s="45" t="n"/>
+      <c r="AA7" s="52" t="n"/>
+      <c r="AB7" s="45" t="n"/>
+      <c r="AC7" s="45" t="n"/>
+      <c r="AD7" s="52" t="n"/>
+      <c r="AE7" s="45" t="n"/>
+      <c r="AF7" s="45" t="n"/>
+      <c r="AG7" s="52" t="n"/>
+      <c r="AH7" s="45" t="n"/>
+      <c r="AI7" s="45" t="n"/>
+      <c r="AJ7" s="52" t="n"/>
+      <c r="AK7" s="45" t="n"/>
+      <c r="AL7" s="45" t="n"/>
+      <c r="AM7" s="52" t="n"/>
+      <c r="AN7" s="45" t="n"/>
+      <c r="AO7" s="45" t="n"/>
+      <c r="AP7" s="52" t="n"/>
+      <c r="AQ7" s="45" t="n"/>
+      <c r="AR7" s="45" t="n"/>
+      <c r="AS7" s="52" t="n"/>
+      <c r="AT7" s="45" t="n"/>
+      <c r="AU7" s="45" t="n"/>
+      <c r="AV7" s="52" t="n"/>
+      <c r="AW7" s="45" t="n"/>
+      <c r="AX7" s="45" t="n"/>
+      <c r="AY7" s="52" t="n"/>
+      <c r="AZ7" s="45" t="n"/>
+      <c r="BA7" s="45" t="n"/>
+      <c r="BB7" s="52" t="n"/>
+      <c r="BC7" s="45" t="n"/>
+      <c r="BD7" s="45" t="n"/>
+      <c r="BE7" s="52" t="n"/>
+      <c r="BF7" s="45" t="n"/>
+      <c r="BG7" s="45" t="n"/>
+      <c r="BH7" s="52" t="n"/>
+      <c r="BI7" s="45" t="n"/>
+      <c r="BJ7" s="45" t="n"/>
+      <c r="BK7" s="45" t="n"/>
+      <c r="BL7" s="45" t="n"/>
+      <c r="BM7" s="45" t="n"/>
+      <c r="BN7" s="45" t="n"/>
+      <c r="BO7" s="45" t="n"/>
+      <c r="BP7" s="45" t="n"/>
+      <c r="BQ7" s="45" t="n"/>
+      <c r="BR7" s="45" t="n"/>
+      <c r="BS7" s="45" t="n"/>
+      <c r="BT7" s="45" t="n"/>
+      <c r="BU7" s="45" t="n"/>
+      <c r="BV7" s="45" t="n"/>
+      <c r="BW7" s="45" t="n"/>
+      <c r="BX7" s="45" t="n"/>
+      <c r="BY7" s="45" t="n"/>
+      <c r="BZ7" s="45" t="n"/>
+      <c r="CA7" s="45" t="n"/>
+      <c r="CB7" s="45" t="n"/>
+      <c r="CC7" s="45" t="n"/>
+      <c r="CD7" s="45" t="n"/>
+      <c r="CE7" s="45" t="n"/>
+      <c r="CF7" s="45" t="n"/>
+      <c r="CG7" s="45" t="n"/>
+      <c r="CH7" s="45" t="n"/>
+      <c r="CI7" s="45" t="n"/>
+      <c r="CJ7" s="45" t="n"/>
+      <c r="CK7" s="45" t="n"/>
+      <c r="CL7" s="45" t="n"/>
+      <c r="CM7" s="45" t="n"/>
+      <c r="CN7" s="45" t="n"/>
+      <c r="CO7" s="45" t="n"/>
+      <c r="CP7" s="45" t="n"/>
+      <c r="CQ7" s="45" t="n"/>
+      <c r="CR7" s="45" t="n"/>
+      <c r="CS7" s="45" t="n"/>
     </row>
     <row r="8" ht="15.15" customHeight="1" s="1">
       <c r="A8" s="0" t="inlineStr">
@@ -6491,26 +8436,28 @@
           <t>中证主要消费</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="12" t="n">
         <v>16071.9259</v>
       </c>
       <c r="G8" s="12" t="n">
-        <v>-0.8260484077743691</v>
+        <v>-0.8260484077743695</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>-0.8260484077743691</v>
+        <v>-0.8260484077743695</v>
       </c>
       <c r="J8" s="12" t="n">
         <v>0.316745542</v>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:20</t>
+          <t>20200104 23:09:01</t>
         </is>
       </c>
       <c r="L8" s="43">
@@ -6533,86 +8480,86 @@
       <c r="Q8" s="0" t="n">
         <v>20191105</v>
       </c>
-      <c r="R8" s="39" t="n"/>
-      <c r="S8" s="3" t="n"/>
-      <c r="T8" s="3" t="n"/>
-      <c r="U8" s="39" t="n"/>
-      <c r="V8" s="3" t="n"/>
-      <c r="W8" s="3" t="n"/>
-      <c r="X8" s="39" t="n"/>
-      <c r="Y8" s="3" t="n"/>
-      <c r="Z8" s="3" t="n"/>
-      <c r="AA8" s="39" t="n"/>
-      <c r="AB8" s="3" t="n"/>
-      <c r="AC8" s="3" t="n"/>
-      <c r="AD8" s="39" t="n"/>
-      <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="3" t="n"/>
-      <c r="AG8" s="39" t="n"/>
-      <c r="AH8" s="3" t="n"/>
-      <c r="AI8" s="3" t="n"/>
-      <c r="AJ8" s="39" t="n"/>
-      <c r="AK8" s="3" t="n"/>
-      <c r="AL8" s="3" t="n"/>
-      <c r="AM8" s="39" t="n"/>
-      <c r="AN8" s="3" t="n"/>
-      <c r="AO8" s="3" t="n"/>
-      <c r="AP8" s="39" t="n"/>
-      <c r="AQ8" s="3" t="n"/>
-      <c r="AR8" s="3" t="n"/>
-      <c r="AS8" s="39" t="n"/>
-      <c r="AT8" s="3" t="n"/>
-      <c r="AU8" s="3" t="n"/>
-      <c r="AV8" s="39" t="n"/>
-      <c r="AW8" s="3" t="n"/>
-      <c r="AX8" s="3" t="n"/>
-      <c r="AY8" s="39" t="n"/>
-      <c r="AZ8" s="3" t="n"/>
-      <c r="BA8" s="3" t="n"/>
-      <c r="BB8" s="39" t="n"/>
-      <c r="BC8" s="3" t="n"/>
-      <c r="BD8" s="3" t="n"/>
-      <c r="BE8" s="39" t="n"/>
-      <c r="BF8" s="3" t="n"/>
-      <c r="BG8" s="3" t="n"/>
-      <c r="BH8" s="39" t="n"/>
-      <c r="BI8" s="3" t="n"/>
-      <c r="BJ8" s="3" t="n"/>
-      <c r="BK8" s="3" t="n"/>
-      <c r="BL8" s="3" t="n"/>
-      <c r="BM8" s="3" t="n"/>
-      <c r="BN8" s="3" t="n"/>
-      <c r="BO8" s="3" t="n"/>
-      <c r="BP8" s="3" t="n"/>
-      <c r="BQ8" s="3" t="n"/>
-      <c r="BR8" s="3" t="n"/>
-      <c r="BS8" s="3" t="n"/>
-      <c r="BT8" s="3" t="n"/>
-      <c r="BU8" s="3" t="n"/>
-      <c r="BV8" s="3" t="n"/>
-      <c r="BW8" s="3" t="n"/>
-      <c r="BX8" s="3" t="n"/>
-      <c r="BY8" s="3" t="n"/>
-      <c r="BZ8" s="3" t="n"/>
-      <c r="CA8" s="3" t="n"/>
-      <c r="CB8" s="3" t="n"/>
-      <c r="CC8" s="3" t="n"/>
-      <c r="CD8" s="3" t="n"/>
-      <c r="CE8" s="3" t="n"/>
-      <c r="CF8" s="3" t="n"/>
-      <c r="CG8" s="3" t="n"/>
-      <c r="CH8" s="3" t="n"/>
-      <c r="CI8" s="3" t="n"/>
-      <c r="CJ8" s="3" t="n"/>
-      <c r="CK8" s="3" t="n"/>
-      <c r="CL8" s="3" t="n"/>
-      <c r="CM8" s="3" t="n"/>
-      <c r="CN8" s="3" t="n"/>
-      <c r="CO8" s="3" t="n"/>
-      <c r="CP8" s="3" t="n"/>
-      <c r="CQ8" s="3" t="n"/>
-      <c r="CR8" s="3" t="n"/>
-      <c r="CS8" s="3" t="n"/>
+      <c r="R8" s="52" t="n"/>
+      <c r="S8" s="45" t="n"/>
+      <c r="T8" s="45" t="n"/>
+      <c r="U8" s="52" t="n"/>
+      <c r="V8" s="45" t="n"/>
+      <c r="W8" s="45" t="n"/>
+      <c r="X8" s="52" t="n"/>
+      <c r="Y8" s="45" t="n"/>
+      <c r="Z8" s="45" t="n"/>
+      <c r="AA8" s="52" t="n"/>
+      <c r="AB8" s="45" t="n"/>
+      <c r="AC8" s="45" t="n"/>
+      <c r="AD8" s="52" t="n"/>
+      <c r="AE8" s="45" t="n"/>
+      <c r="AF8" s="45" t="n"/>
+      <c r="AG8" s="52" t="n"/>
+      <c r="AH8" s="45" t="n"/>
+      <c r="AI8" s="45" t="n"/>
+      <c r="AJ8" s="52" t="n"/>
+      <c r="AK8" s="45" t="n"/>
+      <c r="AL8" s="45" t="n"/>
+      <c r="AM8" s="52" t="n"/>
+      <c r="AN8" s="45" t="n"/>
+      <c r="AO8" s="45" t="n"/>
+      <c r="AP8" s="52" t="n"/>
+      <c r="AQ8" s="45" t="n"/>
+      <c r="AR8" s="45" t="n"/>
+      <c r="AS8" s="52" t="n"/>
+      <c r="AT8" s="45" t="n"/>
+      <c r="AU8" s="45" t="n"/>
+      <c r="AV8" s="52" t="n"/>
+      <c r="AW8" s="45" t="n"/>
+      <c r="AX8" s="45" t="n"/>
+      <c r="AY8" s="52" t="n"/>
+      <c r="AZ8" s="45" t="n"/>
+      <c r="BA8" s="45" t="n"/>
+      <c r="BB8" s="52" t="n"/>
+      <c r="BC8" s="45" t="n"/>
+      <c r="BD8" s="45" t="n"/>
+      <c r="BE8" s="52" t="n"/>
+      <c r="BF8" s="45" t="n"/>
+      <c r="BG8" s="45" t="n"/>
+      <c r="BH8" s="52" t="n"/>
+      <c r="BI8" s="45" t="n"/>
+      <c r="BJ8" s="45" t="n"/>
+      <c r="BK8" s="45" t="n"/>
+      <c r="BL8" s="45" t="n"/>
+      <c r="BM8" s="45" t="n"/>
+      <c r="BN8" s="45" t="n"/>
+      <c r="BO8" s="45" t="n"/>
+      <c r="BP8" s="45" t="n"/>
+      <c r="BQ8" s="45" t="n"/>
+      <c r="BR8" s="45" t="n"/>
+      <c r="BS8" s="45" t="n"/>
+      <c r="BT8" s="45" t="n"/>
+      <c r="BU8" s="45" t="n"/>
+      <c r="BV8" s="45" t="n"/>
+      <c r="BW8" s="45" t="n"/>
+      <c r="BX8" s="45" t="n"/>
+      <c r="BY8" s="45" t="n"/>
+      <c r="BZ8" s="45" t="n"/>
+      <c r="CA8" s="45" t="n"/>
+      <c r="CB8" s="45" t="n"/>
+      <c r="CC8" s="45" t="n"/>
+      <c r="CD8" s="45" t="n"/>
+      <c r="CE8" s="45" t="n"/>
+      <c r="CF8" s="45" t="n"/>
+      <c r="CG8" s="45" t="n"/>
+      <c r="CH8" s="45" t="n"/>
+      <c r="CI8" s="45" t="n"/>
+      <c r="CJ8" s="45" t="n"/>
+      <c r="CK8" s="45" t="n"/>
+      <c r="CL8" s="45" t="n"/>
+      <c r="CM8" s="45" t="n"/>
+      <c r="CN8" s="45" t="n"/>
+      <c r="CO8" s="45" t="n"/>
+      <c r="CP8" s="45" t="n"/>
+      <c r="CQ8" s="45" t="n"/>
+      <c r="CR8" s="45" t="n"/>
+      <c r="CS8" s="45" t="n"/>
     </row>
     <row r="9" ht="15.15" customHeight="1" s="1">
       <c r="A9" s="0" t="inlineStr">
@@ -6625,26 +8572,28 @@
           <t>全指医药卫生</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="12" t="n">
         <v>9985.6603</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>-0.260417462607819</v>
+        <v>-0.2604174626078189</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>-0.260417462607819</v>
+        <v>-0.2604174626078189</v>
       </c>
       <c r="J9" s="12" t="n">
         <v>0.41728385</v>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:21</t>
+          <t>20200104 23:09:01</t>
         </is>
       </c>
       <c r="L9" s="43">
@@ -6667,86 +8616,86 @@
       <c r="Q9" s="0" t="n">
         <v>20191119</v>
       </c>
-      <c r="R9" s="39" t="n"/>
-      <c r="S9" s="3" t="n"/>
-      <c r="T9" s="3" t="n"/>
-      <c r="U9" s="39" t="n"/>
-      <c r="V9" s="3" t="n"/>
-      <c r="W9" s="3" t="n"/>
-      <c r="X9" s="39" t="n"/>
-      <c r="Y9" s="3" t="n"/>
-      <c r="Z9" s="3" t="n"/>
-      <c r="AA9" s="39" t="n"/>
-      <c r="AB9" s="3" t="n"/>
-      <c r="AC9" s="3" t="n"/>
-      <c r="AD9" s="39" t="n"/>
-      <c r="AE9" s="3" t="n"/>
-      <c r="AF9" s="3" t="n"/>
-      <c r="AG9" s="39" t="n"/>
-      <c r="AH9" s="3" t="n"/>
-      <c r="AI9" s="3" t="n"/>
-      <c r="AJ9" s="39" t="n"/>
-      <c r="AK9" s="3" t="n"/>
-      <c r="AL9" s="3" t="n"/>
-      <c r="AM9" s="39" t="n"/>
-      <c r="AN9" s="3" t="n"/>
-      <c r="AO9" s="3" t="n"/>
-      <c r="AP9" s="39" t="n"/>
-      <c r="AQ9" s="3" t="n"/>
-      <c r="AR9" s="3" t="n"/>
-      <c r="AS9" s="39" t="n"/>
-      <c r="AT9" s="3" t="n"/>
-      <c r="AU9" s="3" t="n"/>
-      <c r="AV9" s="39" t="n"/>
-      <c r="AW9" s="3" t="n"/>
-      <c r="AX9" s="3" t="n"/>
-      <c r="AY9" s="39" t="n"/>
-      <c r="AZ9" s="3" t="n"/>
-      <c r="BA9" s="3" t="n"/>
-      <c r="BB9" s="39" t="n"/>
-      <c r="BC9" s="3" t="n"/>
-      <c r="BD9" s="3" t="n"/>
-      <c r="BE9" s="39" t="n"/>
-      <c r="BF9" s="3" t="n"/>
-      <c r="BG9" s="3" t="n"/>
-      <c r="BH9" s="39" t="n"/>
-      <c r="BI9" s="3" t="n"/>
-      <c r="BJ9" s="3" t="n"/>
-      <c r="BK9" s="3" t="n"/>
-      <c r="BL9" s="3" t="n"/>
-      <c r="BM9" s="3" t="n"/>
-      <c r="BN9" s="3" t="n"/>
-      <c r="BO9" s="3" t="n"/>
-      <c r="BP9" s="3" t="n"/>
-      <c r="BQ9" s="3" t="n"/>
-      <c r="BR9" s="3" t="n"/>
-      <c r="BS9" s="3" t="n"/>
-      <c r="BT9" s="3" t="n"/>
-      <c r="BU9" s="3" t="n"/>
-      <c r="BV9" s="3" t="n"/>
-      <c r="BW9" s="3" t="n"/>
-      <c r="BX9" s="3" t="n"/>
-      <c r="BY9" s="3" t="n"/>
-      <c r="BZ9" s="3" t="n"/>
-      <c r="CA9" s="3" t="n"/>
-      <c r="CB9" s="3" t="n"/>
-      <c r="CC9" s="3" t="n"/>
-      <c r="CD9" s="3" t="n"/>
-      <c r="CE9" s="3" t="n"/>
-      <c r="CF9" s="3" t="n"/>
-      <c r="CG9" s="3" t="n"/>
-      <c r="CH9" s="3" t="n"/>
-      <c r="CI9" s="3" t="n"/>
-      <c r="CJ9" s="3" t="n"/>
-      <c r="CK9" s="3" t="n"/>
-      <c r="CL9" s="3" t="n"/>
-      <c r="CM9" s="3" t="n"/>
-      <c r="CN9" s="3" t="n"/>
-      <c r="CO9" s="3" t="n"/>
-      <c r="CP9" s="3" t="n"/>
-      <c r="CQ9" s="3" t="n"/>
-      <c r="CR9" s="3" t="n"/>
-      <c r="CS9" s="3" t="n"/>
+      <c r="R9" s="52" t="n"/>
+      <c r="S9" s="45" t="n"/>
+      <c r="T9" s="45" t="n"/>
+      <c r="U9" s="52" t="n"/>
+      <c r="V9" s="45" t="n"/>
+      <c r="W9" s="45" t="n"/>
+      <c r="X9" s="52" t="n"/>
+      <c r="Y9" s="45" t="n"/>
+      <c r="Z9" s="45" t="n"/>
+      <c r="AA9" s="52" t="n"/>
+      <c r="AB9" s="45" t="n"/>
+      <c r="AC9" s="45" t="n"/>
+      <c r="AD9" s="52" t="n"/>
+      <c r="AE9" s="45" t="n"/>
+      <c r="AF9" s="45" t="n"/>
+      <c r="AG9" s="52" t="n"/>
+      <c r="AH9" s="45" t="n"/>
+      <c r="AI9" s="45" t="n"/>
+      <c r="AJ9" s="52" t="n"/>
+      <c r="AK9" s="45" t="n"/>
+      <c r="AL9" s="45" t="n"/>
+      <c r="AM9" s="52" t="n"/>
+      <c r="AN9" s="45" t="n"/>
+      <c r="AO9" s="45" t="n"/>
+      <c r="AP9" s="52" t="n"/>
+      <c r="AQ9" s="45" t="n"/>
+      <c r="AR9" s="45" t="n"/>
+      <c r="AS9" s="52" t="n"/>
+      <c r="AT9" s="45" t="n"/>
+      <c r="AU9" s="45" t="n"/>
+      <c r="AV9" s="52" t="n"/>
+      <c r="AW9" s="45" t="n"/>
+      <c r="AX9" s="45" t="n"/>
+      <c r="AY9" s="52" t="n"/>
+      <c r="AZ9" s="45" t="n"/>
+      <c r="BA9" s="45" t="n"/>
+      <c r="BB9" s="52" t="n"/>
+      <c r="BC9" s="45" t="n"/>
+      <c r="BD9" s="45" t="n"/>
+      <c r="BE9" s="52" t="n"/>
+      <c r="BF9" s="45" t="n"/>
+      <c r="BG9" s="45" t="n"/>
+      <c r="BH9" s="52" t="n"/>
+      <c r="BI9" s="45" t="n"/>
+      <c r="BJ9" s="45" t="n"/>
+      <c r="BK9" s="45" t="n"/>
+      <c r="BL9" s="45" t="n"/>
+      <c r="BM9" s="45" t="n"/>
+      <c r="BN9" s="45" t="n"/>
+      <c r="BO9" s="45" t="n"/>
+      <c r="BP9" s="45" t="n"/>
+      <c r="BQ9" s="45" t="n"/>
+      <c r="BR9" s="45" t="n"/>
+      <c r="BS9" s="45" t="n"/>
+      <c r="BT9" s="45" t="n"/>
+      <c r="BU9" s="45" t="n"/>
+      <c r="BV9" s="45" t="n"/>
+      <c r="BW9" s="45" t="n"/>
+      <c r="BX9" s="45" t="n"/>
+      <c r="BY9" s="45" t="n"/>
+      <c r="BZ9" s="45" t="n"/>
+      <c r="CA9" s="45" t="n"/>
+      <c r="CB9" s="45" t="n"/>
+      <c r="CC9" s="45" t="n"/>
+      <c r="CD9" s="45" t="n"/>
+      <c r="CE9" s="45" t="n"/>
+      <c r="CF9" s="45" t="n"/>
+      <c r="CG9" s="45" t="n"/>
+      <c r="CH9" s="45" t="n"/>
+      <c r="CI9" s="45" t="n"/>
+      <c r="CJ9" s="45" t="n"/>
+      <c r="CK9" s="45" t="n"/>
+      <c r="CL9" s="45" t="n"/>
+      <c r="CM9" s="45" t="n"/>
+      <c r="CN9" s="45" t="n"/>
+      <c r="CO9" s="45" t="n"/>
+      <c r="CP9" s="45" t="n"/>
+      <c r="CQ9" s="45" t="n"/>
+      <c r="CR9" s="45" t="n"/>
+      <c r="CS9" s="45" t="n"/>
     </row>
     <row r="10" ht="15.15" customHeight="1" s="1">
       <c r="A10" s="38" t="inlineStr">
@@ -6764,26 +8713,28 @@
           <t>类全指医药</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="12" t="n">
         <v>10868.8665</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>-0.331378166570571</v>
+        <v>-0.3313781665705706</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>-0.350099183537399</v>
+        <v>-0.3500991835373994</v>
       </c>
       <c r="J10" s="12" t="n">
         <v>0.15633092</v>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:21</t>
+          <t>20200104 23:09:01</t>
         </is>
       </c>
       <c r="L10" s="43">
@@ -6806,86 +8757,86 @@
       <c r="Q10" s="0" t="n">
         <v>20191119</v>
       </c>
-      <c r="R10" s="39" t="n"/>
-      <c r="S10" s="3" t="n"/>
-      <c r="T10" s="3" t="n"/>
-      <c r="U10" s="39" t="n"/>
-      <c r="V10" s="3" t="n"/>
-      <c r="W10" s="3" t="n"/>
-      <c r="X10" s="39" t="n"/>
-      <c r="Y10" s="3" t="n"/>
-      <c r="Z10" s="3" t="n"/>
-      <c r="AA10" s="39" t="n"/>
-      <c r="AB10" s="3" t="n"/>
-      <c r="AC10" s="3" t="n"/>
-      <c r="AD10" s="39" t="n"/>
-      <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="3" t="n"/>
-      <c r="AG10" s="39" t="n"/>
-      <c r="AH10" s="3" t="n"/>
-      <c r="AI10" s="3" t="n"/>
-      <c r="AJ10" s="39" t="n"/>
-      <c r="AK10" s="3" t="n"/>
-      <c r="AL10" s="3" t="n"/>
-      <c r="AM10" s="39" t="n"/>
-      <c r="AN10" s="3" t="n"/>
-      <c r="AO10" s="3" t="n"/>
-      <c r="AP10" s="39" t="n"/>
-      <c r="AQ10" s="3" t="n"/>
-      <c r="AR10" s="3" t="n"/>
-      <c r="AS10" s="39" t="n"/>
-      <c r="AT10" s="3" t="n"/>
-      <c r="AU10" s="3" t="n"/>
-      <c r="AV10" s="39" t="n"/>
-      <c r="AW10" s="3" t="n"/>
-      <c r="AX10" s="3" t="n"/>
-      <c r="AY10" s="39" t="n"/>
-      <c r="AZ10" s="3" t="n"/>
-      <c r="BA10" s="3" t="n"/>
-      <c r="BB10" s="39" t="n"/>
-      <c r="BC10" s="3" t="n"/>
-      <c r="BD10" s="3" t="n"/>
-      <c r="BE10" s="39" t="n"/>
-      <c r="BF10" s="3" t="n"/>
-      <c r="BG10" s="3" t="n"/>
-      <c r="BH10" s="39" t="n"/>
-      <c r="BI10" s="3" t="n"/>
-      <c r="BJ10" s="3" t="n"/>
-      <c r="BK10" s="3" t="n"/>
-      <c r="BL10" s="3" t="n"/>
-      <c r="BM10" s="3" t="n"/>
-      <c r="BN10" s="3" t="n"/>
-      <c r="BO10" s="3" t="n"/>
-      <c r="BP10" s="3" t="n"/>
-      <c r="BQ10" s="3" t="n"/>
-      <c r="BR10" s="3" t="n"/>
-      <c r="BS10" s="3" t="n"/>
-      <c r="BT10" s="3" t="n"/>
-      <c r="BU10" s="3" t="n"/>
-      <c r="BV10" s="3" t="n"/>
-      <c r="BW10" s="3" t="n"/>
-      <c r="BX10" s="3" t="n"/>
-      <c r="BY10" s="3" t="n"/>
-      <c r="BZ10" s="3" t="n"/>
-      <c r="CA10" s="3" t="n"/>
-      <c r="CB10" s="3" t="n"/>
-      <c r="CC10" s="3" t="n"/>
-      <c r="CD10" s="3" t="n"/>
-      <c r="CE10" s="3" t="n"/>
-      <c r="CF10" s="3" t="n"/>
-      <c r="CG10" s="3" t="n"/>
-      <c r="CH10" s="3" t="n"/>
-      <c r="CI10" s="3" t="n"/>
-      <c r="CJ10" s="3" t="n"/>
-      <c r="CK10" s="3" t="n"/>
-      <c r="CL10" s="3" t="n"/>
-      <c r="CM10" s="3" t="n"/>
-      <c r="CN10" s="3" t="n"/>
-      <c r="CO10" s="3" t="n"/>
-      <c r="CP10" s="3" t="n"/>
-      <c r="CQ10" s="3" t="n"/>
-      <c r="CR10" s="3" t="n"/>
-      <c r="CS10" s="3" t="n"/>
+      <c r="R10" s="52" t="n"/>
+      <c r="S10" s="45" t="n"/>
+      <c r="T10" s="45" t="n"/>
+      <c r="U10" s="52" t="n"/>
+      <c r="V10" s="45" t="n"/>
+      <c r="W10" s="45" t="n"/>
+      <c r="X10" s="52" t="n"/>
+      <c r="Y10" s="45" t="n"/>
+      <c r="Z10" s="45" t="n"/>
+      <c r="AA10" s="52" t="n"/>
+      <c r="AB10" s="45" t="n"/>
+      <c r="AC10" s="45" t="n"/>
+      <c r="AD10" s="52" t="n"/>
+      <c r="AE10" s="45" t="n"/>
+      <c r="AF10" s="45" t="n"/>
+      <c r="AG10" s="52" t="n"/>
+      <c r="AH10" s="45" t="n"/>
+      <c r="AI10" s="45" t="n"/>
+      <c r="AJ10" s="52" t="n"/>
+      <c r="AK10" s="45" t="n"/>
+      <c r="AL10" s="45" t="n"/>
+      <c r="AM10" s="52" t="n"/>
+      <c r="AN10" s="45" t="n"/>
+      <c r="AO10" s="45" t="n"/>
+      <c r="AP10" s="52" t="n"/>
+      <c r="AQ10" s="45" t="n"/>
+      <c r="AR10" s="45" t="n"/>
+      <c r="AS10" s="52" t="n"/>
+      <c r="AT10" s="45" t="n"/>
+      <c r="AU10" s="45" t="n"/>
+      <c r="AV10" s="52" t="n"/>
+      <c r="AW10" s="45" t="n"/>
+      <c r="AX10" s="45" t="n"/>
+      <c r="AY10" s="52" t="n"/>
+      <c r="AZ10" s="45" t="n"/>
+      <c r="BA10" s="45" t="n"/>
+      <c r="BB10" s="52" t="n"/>
+      <c r="BC10" s="45" t="n"/>
+      <c r="BD10" s="45" t="n"/>
+      <c r="BE10" s="52" t="n"/>
+      <c r="BF10" s="45" t="n"/>
+      <c r="BG10" s="45" t="n"/>
+      <c r="BH10" s="52" t="n"/>
+      <c r="BI10" s="45" t="n"/>
+      <c r="BJ10" s="45" t="n"/>
+      <c r="BK10" s="45" t="n"/>
+      <c r="BL10" s="45" t="n"/>
+      <c r="BM10" s="45" t="n"/>
+      <c r="BN10" s="45" t="n"/>
+      <c r="BO10" s="45" t="n"/>
+      <c r="BP10" s="45" t="n"/>
+      <c r="BQ10" s="45" t="n"/>
+      <c r="BR10" s="45" t="n"/>
+      <c r="BS10" s="45" t="n"/>
+      <c r="BT10" s="45" t="n"/>
+      <c r="BU10" s="45" t="n"/>
+      <c r="BV10" s="45" t="n"/>
+      <c r="BW10" s="45" t="n"/>
+      <c r="BX10" s="45" t="n"/>
+      <c r="BY10" s="45" t="n"/>
+      <c r="BZ10" s="45" t="n"/>
+      <c r="CA10" s="45" t="n"/>
+      <c r="CB10" s="45" t="n"/>
+      <c r="CC10" s="45" t="n"/>
+      <c r="CD10" s="45" t="n"/>
+      <c r="CE10" s="45" t="n"/>
+      <c r="CF10" s="45" t="n"/>
+      <c r="CG10" s="45" t="n"/>
+      <c r="CH10" s="45" t="n"/>
+      <c r="CI10" s="45" t="n"/>
+      <c r="CJ10" s="45" t="n"/>
+      <c r="CK10" s="45" t="n"/>
+      <c r="CL10" s="45" t="n"/>
+      <c r="CM10" s="45" t="n"/>
+      <c r="CN10" s="45" t="n"/>
+      <c r="CO10" s="45" t="n"/>
+      <c r="CP10" s="45" t="n"/>
+      <c r="CQ10" s="45" t="n"/>
+      <c r="CR10" s="45" t="n"/>
+      <c r="CS10" s="45" t="n"/>
     </row>
     <row r="11" ht="15.15" customHeight="1" s="1">
       <c r="A11" s="16" t="inlineStr">
@@ -6903,26 +8854,28 @@
           <t>招商中证银行，据说银行类涨势差</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="12" t="n">
         <v>792.174</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>-0.126831236289363</v>
+        <v>-0.1268312362893633</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>-0.126856419260092</v>
+        <v>-0.1268564192600919</v>
       </c>
       <c r="J11" s="12" t="n">
         <v>0.390446819</v>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:21</t>
+          <t>20200104 23:09:01</t>
         </is>
       </c>
       <c r="L11" s="43">
@@ -6945,86 +8898,86 @@
       <c r="Q11" s="0" t="n">
         <v>20190912</v>
       </c>
-      <c r="R11" s="39" t="n"/>
-      <c r="S11" s="3" t="n"/>
-      <c r="T11" s="3" t="n"/>
-      <c r="U11" s="39" t="n"/>
-      <c r="V11" s="3" t="n"/>
-      <c r="W11" s="3" t="n"/>
-      <c r="X11" s="39" t="n"/>
-      <c r="Y11" s="3" t="n"/>
-      <c r="Z11" s="3" t="n"/>
-      <c r="AA11" s="39" t="n"/>
-      <c r="AB11" s="3" t="n"/>
-      <c r="AC11" s="3" t="n"/>
-      <c r="AD11" s="39" t="n"/>
-      <c r="AE11" s="3" t="n"/>
-      <c r="AF11" s="3" t="n"/>
-      <c r="AG11" s="39" t="n"/>
-      <c r="AH11" s="3" t="n"/>
-      <c r="AI11" s="3" t="n"/>
-      <c r="AJ11" s="39" t="n"/>
-      <c r="AK11" s="3" t="n"/>
-      <c r="AL11" s="3" t="n"/>
-      <c r="AM11" s="39" t="n"/>
-      <c r="AN11" s="3" t="n"/>
-      <c r="AO11" s="3" t="n"/>
-      <c r="AP11" s="39" t="n"/>
-      <c r="AQ11" s="3" t="n"/>
-      <c r="AR11" s="3" t="n"/>
-      <c r="AS11" s="39" t="n"/>
-      <c r="AT11" s="3" t="n"/>
-      <c r="AU11" s="3" t="n"/>
-      <c r="AV11" s="39" t="n"/>
-      <c r="AW11" s="3" t="n"/>
-      <c r="AX11" s="3" t="n"/>
-      <c r="AY11" s="39" t="n"/>
-      <c r="AZ11" s="3" t="n"/>
-      <c r="BA11" s="3" t="n"/>
-      <c r="BB11" s="39" t="n"/>
-      <c r="BC11" s="3" t="n"/>
-      <c r="BD11" s="3" t="n"/>
-      <c r="BE11" s="39" t="n"/>
-      <c r="BF11" s="3" t="n"/>
-      <c r="BG11" s="3" t="n"/>
-      <c r="BH11" s="39" t="n"/>
-      <c r="BI11" s="3" t="n"/>
-      <c r="BJ11" s="3" t="n"/>
-      <c r="BK11" s="3" t="n"/>
-      <c r="BL11" s="3" t="n"/>
-      <c r="BM11" s="3" t="n"/>
-      <c r="BN11" s="3" t="n"/>
-      <c r="BO11" s="3" t="n"/>
-      <c r="BP11" s="3" t="n"/>
-      <c r="BQ11" s="3" t="n"/>
-      <c r="BR11" s="3" t="n"/>
-      <c r="BS11" s="3" t="n"/>
-      <c r="BT11" s="3" t="n"/>
-      <c r="BU11" s="3" t="n"/>
-      <c r="BV11" s="3" t="n"/>
-      <c r="BW11" s="3" t="n"/>
-      <c r="BX11" s="3" t="n"/>
-      <c r="BY11" s="3" t="n"/>
-      <c r="BZ11" s="3" t="n"/>
-      <c r="CA11" s="3" t="n"/>
-      <c r="CB11" s="3" t="n"/>
-      <c r="CC11" s="3" t="n"/>
-      <c r="CD11" s="3" t="n"/>
-      <c r="CE11" s="3" t="n"/>
-      <c r="CF11" s="3" t="n"/>
-      <c r="CG11" s="3" t="n"/>
-      <c r="CH11" s="3" t="n"/>
-      <c r="CI11" s="3" t="n"/>
-      <c r="CJ11" s="3" t="n"/>
-      <c r="CK11" s="3" t="n"/>
-      <c r="CL11" s="3" t="n"/>
-      <c r="CM11" s="3" t="n"/>
-      <c r="CN11" s="3" t="n"/>
-      <c r="CO11" s="3" t="n"/>
-      <c r="CP11" s="3" t="n"/>
-      <c r="CQ11" s="3" t="n"/>
-      <c r="CR11" s="3" t="n"/>
-      <c r="CS11" s="3" t="n"/>
+      <c r="R11" s="52" t="n"/>
+      <c r="S11" s="45" t="n"/>
+      <c r="T11" s="45" t="n"/>
+      <c r="U11" s="52" t="n"/>
+      <c r="V11" s="45" t="n"/>
+      <c r="W11" s="45" t="n"/>
+      <c r="X11" s="52" t="n"/>
+      <c r="Y11" s="45" t="n"/>
+      <c r="Z11" s="45" t="n"/>
+      <c r="AA11" s="52" t="n"/>
+      <c r="AB11" s="45" t="n"/>
+      <c r="AC11" s="45" t="n"/>
+      <c r="AD11" s="52" t="n"/>
+      <c r="AE11" s="45" t="n"/>
+      <c r="AF11" s="45" t="n"/>
+      <c r="AG11" s="52" t="n"/>
+      <c r="AH11" s="45" t="n"/>
+      <c r="AI11" s="45" t="n"/>
+      <c r="AJ11" s="52" t="n"/>
+      <c r="AK11" s="45" t="n"/>
+      <c r="AL11" s="45" t="n"/>
+      <c r="AM11" s="52" t="n"/>
+      <c r="AN11" s="45" t="n"/>
+      <c r="AO11" s="45" t="n"/>
+      <c r="AP11" s="52" t="n"/>
+      <c r="AQ11" s="45" t="n"/>
+      <c r="AR11" s="45" t="n"/>
+      <c r="AS11" s="52" t="n"/>
+      <c r="AT11" s="45" t="n"/>
+      <c r="AU11" s="45" t="n"/>
+      <c r="AV11" s="52" t="n"/>
+      <c r="AW11" s="45" t="n"/>
+      <c r="AX11" s="45" t="n"/>
+      <c r="AY11" s="52" t="n"/>
+      <c r="AZ11" s="45" t="n"/>
+      <c r="BA11" s="45" t="n"/>
+      <c r="BB11" s="52" t="n"/>
+      <c r="BC11" s="45" t="n"/>
+      <c r="BD11" s="45" t="n"/>
+      <c r="BE11" s="52" t="n"/>
+      <c r="BF11" s="45" t="n"/>
+      <c r="BG11" s="45" t="n"/>
+      <c r="BH11" s="52" t="n"/>
+      <c r="BI11" s="45" t="n"/>
+      <c r="BJ11" s="45" t="n"/>
+      <c r="BK11" s="45" t="n"/>
+      <c r="BL11" s="45" t="n"/>
+      <c r="BM11" s="45" t="n"/>
+      <c r="BN11" s="45" t="n"/>
+      <c r="BO11" s="45" t="n"/>
+      <c r="BP11" s="45" t="n"/>
+      <c r="BQ11" s="45" t="n"/>
+      <c r="BR11" s="45" t="n"/>
+      <c r="BS11" s="45" t="n"/>
+      <c r="BT11" s="45" t="n"/>
+      <c r="BU11" s="45" t="n"/>
+      <c r="BV11" s="45" t="n"/>
+      <c r="BW11" s="45" t="n"/>
+      <c r="BX11" s="45" t="n"/>
+      <c r="BY11" s="45" t="n"/>
+      <c r="BZ11" s="45" t="n"/>
+      <c r="CA11" s="45" t="n"/>
+      <c r="CB11" s="45" t="n"/>
+      <c r="CC11" s="45" t="n"/>
+      <c r="CD11" s="45" t="n"/>
+      <c r="CE11" s="45" t="n"/>
+      <c r="CF11" s="45" t="n"/>
+      <c r="CG11" s="45" t="n"/>
+      <c r="CH11" s="45" t="n"/>
+      <c r="CI11" s="45" t="n"/>
+      <c r="CJ11" s="45" t="n"/>
+      <c r="CK11" s="45" t="n"/>
+      <c r="CL11" s="45" t="n"/>
+      <c r="CM11" s="45" t="n"/>
+      <c r="CN11" s="45" t="n"/>
+      <c r="CO11" s="45" t="n"/>
+      <c r="CP11" s="45" t="n"/>
+      <c r="CQ11" s="45" t="n"/>
+      <c r="CR11" s="45" t="n"/>
+      <c r="CS11" s="45" t="n"/>
     </row>
     <row r="12" ht="15.15" customHeight="1" s="1">
       <c r="A12" s="0" t="inlineStr">
@@ -7037,26 +8990,28 @@
           <t>创业版指</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="12" t="n">
         <v>1836.012</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.17842118530595</v>
+        <v>0.1784211853059504</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>3.87140216085049</v>
+        <v>3.871402160850491</v>
       </c>
       <c r="J12" s="12" t="n">
         <v>1.391250909</v>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:22</t>
+          <t>20200104 23:09:02</t>
         </is>
       </c>
       <c r="L12" s="43">
@@ -7075,86 +9030,86 @@
         <v>1768</v>
       </c>
       <c r="Q12" s="0" t="inlineStr"/>
-      <c r="R12" s="39" t="n"/>
-      <c r="S12" s="3" t="n"/>
-      <c r="T12" s="3" t="n"/>
-      <c r="U12" s="39" t="n"/>
-      <c r="V12" s="3" t="n"/>
-      <c r="W12" s="3" t="n"/>
-      <c r="X12" s="39" t="n"/>
-      <c r="Y12" s="3" t="n"/>
-      <c r="Z12" s="3" t="n"/>
-      <c r="AA12" s="39" t="n"/>
-      <c r="AB12" s="3" t="n"/>
-      <c r="AC12" s="3" t="n"/>
-      <c r="AD12" s="39" t="n"/>
-      <c r="AE12" s="3" t="n"/>
-      <c r="AF12" s="3" t="n"/>
-      <c r="AG12" s="39" t="n"/>
-      <c r="AH12" s="3" t="n"/>
-      <c r="AI12" s="3" t="n"/>
-      <c r="AJ12" s="39" t="n"/>
-      <c r="AK12" s="3" t="n"/>
-      <c r="AL12" s="3" t="n"/>
-      <c r="AM12" s="39" t="n"/>
-      <c r="AN12" s="3" t="n"/>
-      <c r="AO12" s="3" t="n"/>
-      <c r="AP12" s="39" t="n"/>
-      <c r="AQ12" s="3" t="n"/>
-      <c r="AR12" s="3" t="n"/>
-      <c r="AS12" s="39" t="n"/>
-      <c r="AT12" s="3" t="n"/>
-      <c r="AU12" s="3" t="n"/>
-      <c r="AV12" s="39" t="n"/>
-      <c r="AW12" s="3" t="n"/>
-      <c r="AX12" s="3" t="n"/>
-      <c r="AY12" s="39" t="n"/>
-      <c r="AZ12" s="3" t="n"/>
-      <c r="BA12" s="3" t="n"/>
-      <c r="BB12" s="39" t="n"/>
-      <c r="BC12" s="3" t="n"/>
-      <c r="BD12" s="3" t="n"/>
-      <c r="BE12" s="39" t="n"/>
-      <c r="BF12" s="3" t="n"/>
-      <c r="BG12" s="3" t="n"/>
-      <c r="BH12" s="39" t="n"/>
-      <c r="BI12" s="3" t="n"/>
-      <c r="BJ12" s="3" t="n"/>
-      <c r="BK12" s="3" t="n"/>
-      <c r="BL12" s="3" t="n"/>
-      <c r="BM12" s="3" t="n"/>
-      <c r="BN12" s="3" t="n"/>
-      <c r="BO12" s="3" t="n"/>
-      <c r="BP12" s="3" t="n"/>
-      <c r="BQ12" s="3" t="n"/>
-      <c r="BR12" s="3" t="n"/>
-      <c r="BS12" s="3" t="n"/>
-      <c r="BT12" s="3" t="n"/>
-      <c r="BU12" s="3" t="n"/>
-      <c r="BV12" s="3" t="n"/>
-      <c r="BW12" s="3" t="n"/>
-      <c r="BX12" s="3" t="n"/>
-      <c r="BY12" s="3" t="n"/>
-      <c r="BZ12" s="3" t="n"/>
-      <c r="CA12" s="3" t="n"/>
-      <c r="CB12" s="3" t="n"/>
-      <c r="CC12" s="3" t="n"/>
-      <c r="CD12" s="3" t="n"/>
-      <c r="CE12" s="3" t="n"/>
-      <c r="CF12" s="3" t="n"/>
-      <c r="CG12" s="3" t="n"/>
-      <c r="CH12" s="3" t="n"/>
-      <c r="CI12" s="3" t="n"/>
-      <c r="CJ12" s="3" t="n"/>
-      <c r="CK12" s="3" t="n"/>
-      <c r="CL12" s="3" t="n"/>
-      <c r="CM12" s="3" t="n"/>
-      <c r="CN12" s="3" t="n"/>
-      <c r="CO12" s="3" t="n"/>
-      <c r="CP12" s="3" t="n"/>
-      <c r="CQ12" s="3" t="n"/>
-      <c r="CR12" s="3" t="n"/>
-      <c r="CS12" s="3" t="n"/>
+      <c r="R12" s="52" t="n"/>
+      <c r="S12" s="45" t="n"/>
+      <c r="T12" s="45" t="n"/>
+      <c r="U12" s="52" t="n"/>
+      <c r="V12" s="45" t="n"/>
+      <c r="W12" s="45" t="n"/>
+      <c r="X12" s="52" t="n"/>
+      <c r="Y12" s="45" t="n"/>
+      <c r="Z12" s="45" t="n"/>
+      <c r="AA12" s="52" t="n"/>
+      <c r="AB12" s="45" t="n"/>
+      <c r="AC12" s="45" t="n"/>
+      <c r="AD12" s="52" t="n"/>
+      <c r="AE12" s="45" t="n"/>
+      <c r="AF12" s="45" t="n"/>
+      <c r="AG12" s="52" t="n"/>
+      <c r="AH12" s="45" t="n"/>
+      <c r="AI12" s="45" t="n"/>
+      <c r="AJ12" s="52" t="n"/>
+      <c r="AK12" s="45" t="n"/>
+      <c r="AL12" s="45" t="n"/>
+      <c r="AM12" s="52" t="n"/>
+      <c r="AN12" s="45" t="n"/>
+      <c r="AO12" s="45" t="n"/>
+      <c r="AP12" s="52" t="n"/>
+      <c r="AQ12" s="45" t="n"/>
+      <c r="AR12" s="45" t="n"/>
+      <c r="AS12" s="52" t="n"/>
+      <c r="AT12" s="45" t="n"/>
+      <c r="AU12" s="45" t="n"/>
+      <c r="AV12" s="52" t="n"/>
+      <c r="AW12" s="45" t="n"/>
+      <c r="AX12" s="45" t="n"/>
+      <c r="AY12" s="52" t="n"/>
+      <c r="AZ12" s="45" t="n"/>
+      <c r="BA12" s="45" t="n"/>
+      <c r="BB12" s="52" t="n"/>
+      <c r="BC12" s="45" t="n"/>
+      <c r="BD12" s="45" t="n"/>
+      <c r="BE12" s="52" t="n"/>
+      <c r="BF12" s="45" t="n"/>
+      <c r="BG12" s="45" t="n"/>
+      <c r="BH12" s="52" t="n"/>
+      <c r="BI12" s="45" t="n"/>
+      <c r="BJ12" s="45" t="n"/>
+      <c r="BK12" s="45" t="n"/>
+      <c r="BL12" s="45" t="n"/>
+      <c r="BM12" s="45" t="n"/>
+      <c r="BN12" s="45" t="n"/>
+      <c r="BO12" s="45" t="n"/>
+      <c r="BP12" s="45" t="n"/>
+      <c r="BQ12" s="45" t="n"/>
+      <c r="BR12" s="45" t="n"/>
+      <c r="BS12" s="45" t="n"/>
+      <c r="BT12" s="45" t="n"/>
+      <c r="BU12" s="45" t="n"/>
+      <c r="BV12" s="45" t="n"/>
+      <c r="BW12" s="45" t="n"/>
+      <c r="BX12" s="45" t="n"/>
+      <c r="BY12" s="45" t="n"/>
+      <c r="BZ12" s="45" t="n"/>
+      <c r="CA12" s="45" t="n"/>
+      <c r="CB12" s="45" t="n"/>
+      <c r="CC12" s="45" t="n"/>
+      <c r="CD12" s="45" t="n"/>
+      <c r="CE12" s="45" t="n"/>
+      <c r="CF12" s="45" t="n"/>
+      <c r="CG12" s="45" t="n"/>
+      <c r="CH12" s="45" t="n"/>
+      <c r="CI12" s="45" t="n"/>
+      <c r="CJ12" s="45" t="n"/>
+      <c r="CK12" s="45" t="n"/>
+      <c r="CL12" s="45" t="n"/>
+      <c r="CM12" s="45" t="n"/>
+      <c r="CN12" s="45" t="n"/>
+      <c r="CO12" s="45" t="n"/>
+      <c r="CP12" s="45" t="n"/>
+      <c r="CQ12" s="45" t="n"/>
+      <c r="CR12" s="45" t="n"/>
+      <c r="CS12" s="45" t="n"/>
     </row>
     <row r="13" ht="15.15" customHeight="1" s="1">
       <c r="A13" s="0" t="inlineStr">
@@ -7167,26 +9122,28 @@
           <t>中证银行</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="12" t="n">
         <v>6951.823</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.251905188009566</v>
+        <v>0.2519051880095662</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>1.86552587658308</v>
+        <v>1.865525876583082</v>
       </c>
       <c r="J13" s="12" t="n">
         <v>0.136329929</v>
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:22</t>
+          <t>20200104 23:09:02</t>
         </is>
       </c>
       <c r="L13" s="43">
@@ -7209,86 +9166,86 @@
       <c r="Q13" s="0" t="n">
         <v>20191106</v>
       </c>
-      <c r="R13" s="39" t="n"/>
-      <c r="S13" s="3" t="n"/>
-      <c r="T13" s="3" t="n"/>
-      <c r="U13" s="39" t="n"/>
-      <c r="V13" s="3" t="n"/>
-      <c r="W13" s="3" t="n"/>
-      <c r="X13" s="39" t="n"/>
-      <c r="Y13" s="3" t="n"/>
-      <c r="Z13" s="3" t="n"/>
-      <c r="AA13" s="39" t="n"/>
-      <c r="AB13" s="3" t="n"/>
-      <c r="AC13" s="3" t="n"/>
-      <c r="AD13" s="39" t="n"/>
-      <c r="AE13" s="3" t="n"/>
-      <c r="AF13" s="3" t="n"/>
-      <c r="AG13" s="39" t="n"/>
-      <c r="AH13" s="3" t="n"/>
-      <c r="AI13" s="3" t="n"/>
-      <c r="AJ13" s="39" t="n"/>
-      <c r="AK13" s="3" t="n"/>
-      <c r="AL13" s="3" t="n"/>
-      <c r="AM13" s="39" t="n"/>
-      <c r="AN13" s="3" t="n"/>
-      <c r="AO13" s="3" t="n"/>
-      <c r="AP13" s="39" t="n"/>
-      <c r="AQ13" s="3" t="n"/>
-      <c r="AR13" s="3" t="n"/>
-      <c r="AS13" s="39" t="n"/>
-      <c r="AT13" s="3" t="n"/>
-      <c r="AU13" s="3" t="n"/>
-      <c r="AV13" s="39" t="n"/>
-      <c r="AW13" s="3" t="n"/>
-      <c r="AX13" s="3" t="n"/>
-      <c r="AY13" s="39" t="n"/>
-      <c r="AZ13" s="3" t="n"/>
-      <c r="BA13" s="3" t="n"/>
-      <c r="BB13" s="39" t="n"/>
-      <c r="BC13" s="3" t="n"/>
-      <c r="BD13" s="3" t="n"/>
-      <c r="BE13" s="39" t="n"/>
-      <c r="BF13" s="3" t="n"/>
-      <c r="BG13" s="3" t="n"/>
-      <c r="BH13" s="39" t="n"/>
-      <c r="BI13" s="3" t="n"/>
-      <c r="BJ13" s="3" t="n"/>
-      <c r="BK13" s="3" t="n"/>
-      <c r="BL13" s="3" t="n"/>
-      <c r="BM13" s="3" t="n"/>
-      <c r="BN13" s="3" t="n"/>
-      <c r="BO13" s="3" t="n"/>
-      <c r="BP13" s="3" t="n"/>
-      <c r="BQ13" s="3" t="n"/>
-      <c r="BR13" s="3" t="n"/>
-      <c r="BS13" s="3" t="n"/>
-      <c r="BT13" s="3" t="n"/>
-      <c r="BU13" s="3" t="n"/>
-      <c r="BV13" s="3" t="n"/>
-      <c r="BW13" s="3" t="n"/>
-      <c r="BX13" s="3" t="n"/>
-      <c r="BY13" s="3" t="n"/>
-      <c r="BZ13" s="3" t="n"/>
-      <c r="CA13" s="3" t="n"/>
-      <c r="CB13" s="3" t="n"/>
-      <c r="CC13" s="3" t="n"/>
-      <c r="CD13" s="3" t="n"/>
-      <c r="CE13" s="3" t="n"/>
-      <c r="CF13" s="3" t="n"/>
-      <c r="CG13" s="3" t="n"/>
-      <c r="CH13" s="3" t="n"/>
-      <c r="CI13" s="3" t="n"/>
-      <c r="CJ13" s="3" t="n"/>
-      <c r="CK13" s="3" t="n"/>
-      <c r="CL13" s="3" t="n"/>
-      <c r="CM13" s="3" t="n"/>
-      <c r="CN13" s="3" t="n"/>
-      <c r="CO13" s="3" t="n"/>
-      <c r="CP13" s="3" t="n"/>
-      <c r="CQ13" s="3" t="n"/>
-      <c r="CR13" s="3" t="n"/>
-      <c r="CS13" s="3" t="n"/>
+      <c r="R13" s="52" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="52" t="n"/>
+      <c r="V13" s="45" t="n"/>
+      <c r="W13" s="45" t="n"/>
+      <c r="X13" s="52" t="n"/>
+      <c r="Y13" s="45" t="n"/>
+      <c r="Z13" s="45" t="n"/>
+      <c r="AA13" s="52" t="n"/>
+      <c r="AB13" s="45" t="n"/>
+      <c r="AC13" s="45" t="n"/>
+      <c r="AD13" s="52" t="n"/>
+      <c r="AE13" s="45" t="n"/>
+      <c r="AF13" s="45" t="n"/>
+      <c r="AG13" s="52" t="n"/>
+      <c r="AH13" s="45" t="n"/>
+      <c r="AI13" s="45" t="n"/>
+      <c r="AJ13" s="52" t="n"/>
+      <c r="AK13" s="45" t="n"/>
+      <c r="AL13" s="45" t="n"/>
+      <c r="AM13" s="52" t="n"/>
+      <c r="AN13" s="45" t="n"/>
+      <c r="AO13" s="45" t="n"/>
+      <c r="AP13" s="52" t="n"/>
+      <c r="AQ13" s="45" t="n"/>
+      <c r="AR13" s="45" t="n"/>
+      <c r="AS13" s="52" t="n"/>
+      <c r="AT13" s="45" t="n"/>
+      <c r="AU13" s="45" t="n"/>
+      <c r="AV13" s="52" t="n"/>
+      <c r="AW13" s="45" t="n"/>
+      <c r="AX13" s="45" t="n"/>
+      <c r="AY13" s="52" t="n"/>
+      <c r="AZ13" s="45" t="n"/>
+      <c r="BA13" s="45" t="n"/>
+      <c r="BB13" s="52" t="n"/>
+      <c r="BC13" s="45" t="n"/>
+      <c r="BD13" s="45" t="n"/>
+      <c r="BE13" s="52" t="n"/>
+      <c r="BF13" s="45" t="n"/>
+      <c r="BG13" s="45" t="n"/>
+      <c r="BH13" s="52" t="n"/>
+      <c r="BI13" s="45" t="n"/>
+      <c r="BJ13" s="45" t="n"/>
+      <c r="BK13" s="45" t="n"/>
+      <c r="BL13" s="45" t="n"/>
+      <c r="BM13" s="45" t="n"/>
+      <c r="BN13" s="45" t="n"/>
+      <c r="BO13" s="45" t="n"/>
+      <c r="BP13" s="45" t="n"/>
+      <c r="BQ13" s="45" t="n"/>
+      <c r="BR13" s="45" t="n"/>
+      <c r="BS13" s="45" t="n"/>
+      <c r="BT13" s="45" t="n"/>
+      <c r="BU13" s="45" t="n"/>
+      <c r="BV13" s="45" t="n"/>
+      <c r="BW13" s="45" t="n"/>
+      <c r="BX13" s="45" t="n"/>
+      <c r="BY13" s="45" t="n"/>
+      <c r="BZ13" s="45" t="n"/>
+      <c r="CA13" s="45" t="n"/>
+      <c r="CB13" s="45" t="n"/>
+      <c r="CC13" s="45" t="n"/>
+      <c r="CD13" s="45" t="n"/>
+      <c r="CE13" s="45" t="n"/>
+      <c r="CF13" s="45" t="n"/>
+      <c r="CG13" s="45" t="n"/>
+      <c r="CH13" s="45" t="n"/>
+      <c r="CI13" s="45" t="n"/>
+      <c r="CJ13" s="45" t="n"/>
+      <c r="CK13" s="45" t="n"/>
+      <c r="CL13" s="45" t="n"/>
+      <c r="CM13" s="45" t="n"/>
+      <c r="CN13" s="45" t="n"/>
+      <c r="CO13" s="45" t="n"/>
+      <c r="CP13" s="45" t="n"/>
+      <c r="CQ13" s="45" t="n"/>
+      <c r="CR13" s="45" t="n"/>
+      <c r="CS13" s="45" t="n"/>
     </row>
     <row r="14" ht="15.15" customHeight="1" s="1">
       <c r="A14" s="16" t="inlineStr">
@@ -7302,18 +9259,20 @@
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F14" s="11" t="n">
         <v>9068.611000000001</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>-0.554087397944021</v>
+        <v>-0.5540873979440212</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="11" t="n">
-        <v>-0.554087397944021</v>
+        <v>-0.5540873979440212</v>
       </c>
       <c r="J14" s="11" t="n">
         <v>0.088669681</v>
@@ -7343,86 +9302,86 @@
       <c r="Q14" s="0" t="n">
         <v>20191119</v>
       </c>
-      <c r="R14" s="39" t="n"/>
-      <c r="S14" s="3" t="n"/>
-      <c r="T14" s="3" t="n"/>
-      <c r="U14" s="39" t="n"/>
-      <c r="V14" s="3" t="n"/>
-      <c r="W14" s="3" t="n"/>
-      <c r="X14" s="39" t="n"/>
-      <c r="Y14" s="3" t="n"/>
-      <c r="Z14" s="3" t="n"/>
-      <c r="AA14" s="39" t="n"/>
-      <c r="AB14" s="3" t="n"/>
-      <c r="AC14" s="3" t="n"/>
-      <c r="AD14" s="39" t="n"/>
-      <c r="AE14" s="3" t="n"/>
-      <c r="AF14" s="3" t="n"/>
-      <c r="AG14" s="39" t="n"/>
-      <c r="AH14" s="3" t="n"/>
-      <c r="AI14" s="3" t="n"/>
-      <c r="AJ14" s="39" t="n"/>
-      <c r="AK14" s="3" t="n"/>
-      <c r="AL14" s="3" t="n"/>
-      <c r="AM14" s="39" t="n"/>
-      <c r="AN14" s="3" t="n"/>
-      <c r="AO14" s="3" t="n"/>
-      <c r="AP14" s="39" t="n"/>
-      <c r="AQ14" s="3" t="n"/>
-      <c r="AR14" s="3" t="n"/>
-      <c r="AS14" s="39" t="n"/>
-      <c r="AT14" s="3" t="n"/>
-      <c r="AU14" s="3" t="n"/>
-      <c r="AV14" s="39" t="n"/>
-      <c r="AW14" s="3" t="n"/>
-      <c r="AX14" s="3" t="n"/>
-      <c r="AY14" s="39" t="n"/>
-      <c r="AZ14" s="3" t="n"/>
-      <c r="BA14" s="3" t="n"/>
-      <c r="BB14" s="39" t="n"/>
-      <c r="BC14" s="3" t="n"/>
-      <c r="BD14" s="3" t="n"/>
-      <c r="BE14" s="39" t="n"/>
-      <c r="BF14" s="3" t="n"/>
-      <c r="BG14" s="3" t="n"/>
-      <c r="BH14" s="39" t="n"/>
-      <c r="BI14" s="3" t="n"/>
-      <c r="BJ14" s="3" t="n"/>
-      <c r="BK14" s="3" t="n"/>
-      <c r="BL14" s="3" t="n"/>
-      <c r="BM14" s="3" t="n"/>
-      <c r="BN14" s="3" t="n"/>
-      <c r="BO14" s="3" t="n"/>
-      <c r="BP14" s="3" t="n"/>
-      <c r="BQ14" s="3" t="n"/>
-      <c r="BR14" s="3" t="n"/>
-      <c r="BS14" s="3" t="n"/>
-      <c r="BT14" s="3" t="n"/>
-      <c r="BU14" s="3" t="n"/>
-      <c r="BV14" s="3" t="n"/>
-      <c r="BW14" s="3" t="n"/>
-      <c r="BX14" s="3" t="n"/>
-      <c r="BY14" s="3" t="n"/>
-      <c r="BZ14" s="3" t="n"/>
-      <c r="CA14" s="3" t="n"/>
-      <c r="CB14" s="3" t="n"/>
-      <c r="CC14" s="3" t="n"/>
-      <c r="CD14" s="3" t="n"/>
-      <c r="CE14" s="3" t="n"/>
-      <c r="CF14" s="3" t="n"/>
-      <c r="CG14" s="3" t="n"/>
-      <c r="CH14" s="3" t="n"/>
-      <c r="CI14" s="3" t="n"/>
-      <c r="CJ14" s="3" t="n"/>
-      <c r="CK14" s="3" t="n"/>
-      <c r="CL14" s="3" t="n"/>
-      <c r="CM14" s="3" t="n"/>
-      <c r="CN14" s="3" t="n"/>
-      <c r="CO14" s="3" t="n"/>
-      <c r="CP14" s="3" t="n"/>
-      <c r="CQ14" s="3" t="n"/>
-      <c r="CR14" s="3" t="n"/>
-      <c r="CS14" s="3" t="n"/>
+      <c r="R14" s="52" t="n"/>
+      <c r="S14" s="45" t="n"/>
+      <c r="T14" s="45" t="n"/>
+      <c r="U14" s="52" t="n"/>
+      <c r="V14" s="45" t="n"/>
+      <c r="W14" s="45" t="n"/>
+      <c r="X14" s="52" t="n"/>
+      <c r="Y14" s="45" t="n"/>
+      <c r="Z14" s="45" t="n"/>
+      <c r="AA14" s="52" t="n"/>
+      <c r="AB14" s="45" t="n"/>
+      <c r="AC14" s="45" t="n"/>
+      <c r="AD14" s="52" t="n"/>
+      <c r="AE14" s="45" t="n"/>
+      <c r="AF14" s="45" t="n"/>
+      <c r="AG14" s="52" t="n"/>
+      <c r="AH14" s="45" t="n"/>
+      <c r="AI14" s="45" t="n"/>
+      <c r="AJ14" s="52" t="n"/>
+      <c r="AK14" s="45" t="n"/>
+      <c r="AL14" s="45" t="n"/>
+      <c r="AM14" s="52" t="n"/>
+      <c r="AN14" s="45" t="n"/>
+      <c r="AO14" s="45" t="n"/>
+      <c r="AP14" s="52" t="n"/>
+      <c r="AQ14" s="45" t="n"/>
+      <c r="AR14" s="45" t="n"/>
+      <c r="AS14" s="52" t="n"/>
+      <c r="AT14" s="45" t="n"/>
+      <c r="AU14" s="45" t="n"/>
+      <c r="AV14" s="52" t="n"/>
+      <c r="AW14" s="45" t="n"/>
+      <c r="AX14" s="45" t="n"/>
+      <c r="AY14" s="52" t="n"/>
+      <c r="AZ14" s="45" t="n"/>
+      <c r="BA14" s="45" t="n"/>
+      <c r="BB14" s="52" t="n"/>
+      <c r="BC14" s="45" t="n"/>
+      <c r="BD14" s="45" t="n"/>
+      <c r="BE14" s="52" t="n"/>
+      <c r="BF14" s="45" t="n"/>
+      <c r="BG14" s="45" t="n"/>
+      <c r="BH14" s="52" t="n"/>
+      <c r="BI14" s="45" t="n"/>
+      <c r="BJ14" s="45" t="n"/>
+      <c r="BK14" s="45" t="n"/>
+      <c r="BL14" s="45" t="n"/>
+      <c r="BM14" s="45" t="n"/>
+      <c r="BN14" s="45" t="n"/>
+      <c r="BO14" s="45" t="n"/>
+      <c r="BP14" s="45" t="n"/>
+      <c r="BQ14" s="45" t="n"/>
+      <c r="BR14" s="45" t="n"/>
+      <c r="BS14" s="45" t="n"/>
+      <c r="BT14" s="45" t="n"/>
+      <c r="BU14" s="45" t="n"/>
+      <c r="BV14" s="45" t="n"/>
+      <c r="BW14" s="45" t="n"/>
+      <c r="BX14" s="45" t="n"/>
+      <c r="BY14" s="45" t="n"/>
+      <c r="BZ14" s="45" t="n"/>
+      <c r="CA14" s="45" t="n"/>
+      <c r="CB14" s="45" t="n"/>
+      <c r="CC14" s="45" t="n"/>
+      <c r="CD14" s="45" t="n"/>
+      <c r="CE14" s="45" t="n"/>
+      <c r="CF14" s="45" t="n"/>
+      <c r="CG14" s="45" t="n"/>
+      <c r="CH14" s="45" t="n"/>
+      <c r="CI14" s="45" t="n"/>
+      <c r="CJ14" s="45" t="n"/>
+      <c r="CK14" s="45" t="n"/>
+      <c r="CL14" s="45" t="n"/>
+      <c r="CM14" s="45" t="n"/>
+      <c r="CN14" s="45" t="n"/>
+      <c r="CO14" s="45" t="n"/>
+      <c r="CP14" s="45" t="n"/>
+      <c r="CQ14" s="45" t="n"/>
+      <c r="CR14" s="45" t="n"/>
+      <c r="CS14" s="45" t="n"/>
     </row>
     <row r="15" ht="15.15" customHeight="1" s="1">
       <c r="A15" s="0" t="inlineStr">
@@ -7435,26 +9394,28 @@
           <t>50AH优选</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F15" s="12" t="n">
         <v>5776.5939</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>-0.385677829911278</v>
+        <v>-0.3856778299112776</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>-0.250722076160319</v>
+        <v>-0.2507220761603193</v>
       </c>
       <c r="J15" s="12" t="n">
         <v>0.459662051</v>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:22</t>
+          <t>20200104 23:09:02</t>
         </is>
       </c>
       <c r="L15" s="43">
@@ -7473,86 +9434,86 @@
         <v>5623</v>
       </c>
       <c r="Q15" s="0" t="inlineStr"/>
-      <c r="R15" s="39" t="n"/>
-      <c r="S15" s="3" t="n"/>
-      <c r="T15" s="3" t="n"/>
-      <c r="U15" s="39" t="n"/>
-      <c r="V15" s="3" t="n"/>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="39" t="n"/>
-      <c r="Y15" s="3" t="n"/>
-      <c r="Z15" s="3" t="n"/>
-      <c r="AA15" s="39" t="n"/>
-      <c r="AB15" s="3" t="n"/>
-      <c r="AC15" s="3" t="n"/>
-      <c r="AD15" s="39" t="n"/>
-      <c r="AE15" s="3" t="n"/>
-      <c r="AF15" s="3" t="n"/>
-      <c r="AG15" s="39" t="n"/>
-      <c r="AH15" s="3" t="n"/>
-      <c r="AI15" s="3" t="n"/>
-      <c r="AJ15" s="39" t="n"/>
-      <c r="AK15" s="3" t="n"/>
-      <c r="AL15" s="3" t="n"/>
-      <c r="AM15" s="39" t="n"/>
-      <c r="AN15" s="3" t="n"/>
-      <c r="AO15" s="3" t="n"/>
-      <c r="AP15" s="39" t="n"/>
-      <c r="AQ15" s="3" t="n"/>
-      <c r="AR15" s="3" t="n"/>
-      <c r="AS15" s="39" t="n"/>
-      <c r="AT15" s="3" t="n"/>
-      <c r="AU15" s="3" t="n"/>
-      <c r="AV15" s="39" t="n"/>
-      <c r="AW15" s="3" t="n"/>
-      <c r="AX15" s="3" t="n"/>
-      <c r="AY15" s="39" t="n"/>
-      <c r="AZ15" s="3" t="n"/>
-      <c r="BA15" s="3" t="n"/>
-      <c r="BB15" s="39" t="n"/>
-      <c r="BC15" s="3" t="n"/>
-      <c r="BD15" s="3" t="n"/>
-      <c r="BE15" s="39" t="n"/>
-      <c r="BF15" s="3" t="n"/>
-      <c r="BG15" s="3" t="n"/>
-      <c r="BH15" s="39" t="n"/>
-      <c r="BI15" s="3" t="n"/>
-      <c r="BJ15" s="3" t="n"/>
-      <c r="BK15" s="3" t="n"/>
-      <c r="BL15" s="3" t="n"/>
-      <c r="BM15" s="3" t="n"/>
-      <c r="BN15" s="3" t="n"/>
-      <c r="BO15" s="3" t="n"/>
-      <c r="BP15" s="3" t="n"/>
-      <c r="BQ15" s="3" t="n"/>
-      <c r="BR15" s="3" t="n"/>
-      <c r="BS15" s="3" t="n"/>
-      <c r="BT15" s="3" t="n"/>
-      <c r="BU15" s="3" t="n"/>
-      <c r="BV15" s="3" t="n"/>
-      <c r="BW15" s="3" t="n"/>
-      <c r="BX15" s="3" t="n"/>
-      <c r="BY15" s="3" t="n"/>
-      <c r="BZ15" s="3" t="n"/>
-      <c r="CA15" s="3" t="n"/>
-      <c r="CB15" s="3" t="n"/>
-      <c r="CC15" s="3" t="n"/>
-      <c r="CD15" s="3" t="n"/>
-      <c r="CE15" s="3" t="n"/>
-      <c r="CF15" s="3" t="n"/>
-      <c r="CG15" s="3" t="n"/>
-      <c r="CH15" s="3" t="n"/>
-      <c r="CI15" s="3" t="n"/>
-      <c r="CJ15" s="3" t="n"/>
-      <c r="CK15" s="3" t="n"/>
-      <c r="CL15" s="3" t="n"/>
-      <c r="CM15" s="3" t="n"/>
-      <c r="CN15" s="3" t="n"/>
-      <c r="CO15" s="3" t="n"/>
-      <c r="CP15" s="3" t="n"/>
-      <c r="CQ15" s="3" t="n"/>
-      <c r="CR15" s="3" t="n"/>
-      <c r="CS15" s="3" t="n"/>
+      <c r="R15" s="52" t="n"/>
+      <c r="S15" s="45" t="n"/>
+      <c r="T15" s="45" t="n"/>
+      <c r="U15" s="52" t="n"/>
+      <c r="V15" s="45" t="n"/>
+      <c r="W15" s="45" t="n"/>
+      <c r="X15" s="52" t="n"/>
+      <c r="Y15" s="45" t="n"/>
+      <c r="Z15" s="45" t="n"/>
+      <c r="AA15" s="52" t="n"/>
+      <c r="AB15" s="45" t="n"/>
+      <c r="AC15" s="45" t="n"/>
+      <c r="AD15" s="52" t="n"/>
+      <c r="AE15" s="45" t="n"/>
+      <c r="AF15" s="45" t="n"/>
+      <c r="AG15" s="52" t="n"/>
+      <c r="AH15" s="45" t="n"/>
+      <c r="AI15" s="45" t="n"/>
+      <c r="AJ15" s="52" t="n"/>
+      <c r="AK15" s="45" t="n"/>
+      <c r="AL15" s="45" t="n"/>
+      <c r="AM15" s="52" t="n"/>
+      <c r="AN15" s="45" t="n"/>
+      <c r="AO15" s="45" t="n"/>
+      <c r="AP15" s="52" t="n"/>
+      <c r="AQ15" s="45" t="n"/>
+      <c r="AR15" s="45" t="n"/>
+      <c r="AS15" s="52" t="n"/>
+      <c r="AT15" s="45" t="n"/>
+      <c r="AU15" s="45" t="n"/>
+      <c r="AV15" s="52" t="n"/>
+      <c r="AW15" s="45" t="n"/>
+      <c r="AX15" s="45" t="n"/>
+      <c r="AY15" s="52" t="n"/>
+      <c r="AZ15" s="45" t="n"/>
+      <c r="BA15" s="45" t="n"/>
+      <c r="BB15" s="52" t="n"/>
+      <c r="BC15" s="45" t="n"/>
+      <c r="BD15" s="45" t="n"/>
+      <c r="BE15" s="52" t="n"/>
+      <c r="BF15" s="45" t="n"/>
+      <c r="BG15" s="45" t="n"/>
+      <c r="BH15" s="52" t="n"/>
+      <c r="BI15" s="45" t="n"/>
+      <c r="BJ15" s="45" t="n"/>
+      <c r="BK15" s="45" t="n"/>
+      <c r="BL15" s="45" t="n"/>
+      <c r="BM15" s="45" t="n"/>
+      <c r="BN15" s="45" t="n"/>
+      <c r="BO15" s="45" t="n"/>
+      <c r="BP15" s="45" t="n"/>
+      <c r="BQ15" s="45" t="n"/>
+      <c r="BR15" s="45" t="n"/>
+      <c r="BS15" s="45" t="n"/>
+      <c r="BT15" s="45" t="n"/>
+      <c r="BU15" s="45" t="n"/>
+      <c r="BV15" s="45" t="n"/>
+      <c r="BW15" s="45" t="n"/>
+      <c r="BX15" s="45" t="n"/>
+      <c r="BY15" s="45" t="n"/>
+      <c r="BZ15" s="45" t="n"/>
+      <c r="CA15" s="45" t="n"/>
+      <c r="CB15" s="45" t="n"/>
+      <c r="CC15" s="45" t="n"/>
+      <c r="CD15" s="45" t="n"/>
+      <c r="CE15" s="45" t="n"/>
+      <c r="CF15" s="45" t="n"/>
+      <c r="CG15" s="45" t="n"/>
+      <c r="CH15" s="45" t="n"/>
+      <c r="CI15" s="45" t="n"/>
+      <c r="CJ15" s="45" t="n"/>
+      <c r="CK15" s="45" t="n"/>
+      <c r="CL15" s="45" t="n"/>
+      <c r="CM15" s="45" t="n"/>
+      <c r="CN15" s="45" t="n"/>
+      <c r="CO15" s="45" t="n"/>
+      <c r="CP15" s="45" t="n"/>
+      <c r="CQ15" s="45" t="n"/>
+      <c r="CR15" s="45" t="n"/>
+      <c r="CS15" s="45" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -7565,8 +9526,10 @@
           <t>恒生指数</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F16" s="12" t="n">
         <v>28451.5</v>
       </c>
@@ -7578,7 +9541,7 @@
       <c r="J16" s="11" t="inlineStr"/>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:23</t>
+          <t>20200104 23:09:03</t>
         </is>
       </c>
       <c r="L16" s="43">
@@ -7597,86 +9560,86 @@
         <v>30157</v>
       </c>
       <c r="Q16" s="0" t="inlineStr"/>
-      <c r="R16" s="39" t="n"/>
-      <c r="S16" s="3" t="n"/>
-      <c r="T16" s="3" t="n"/>
-      <c r="U16" s="39" t="n"/>
-      <c r="V16" s="3" t="n"/>
-      <c r="W16" s="3" t="n"/>
-      <c r="X16" s="39" t="n"/>
-      <c r="Y16" s="3" t="n"/>
-      <c r="Z16" s="3" t="n"/>
-      <c r="AA16" s="39" t="n"/>
-      <c r="AB16" s="3" t="n"/>
-      <c r="AC16" s="3" t="n"/>
-      <c r="AD16" s="39" t="n"/>
-      <c r="AE16" s="3" t="n"/>
-      <c r="AF16" s="3" t="n"/>
-      <c r="AG16" s="39" t="n"/>
-      <c r="AH16" s="3" t="n"/>
-      <c r="AI16" s="3" t="n"/>
-      <c r="AJ16" s="39" t="n"/>
-      <c r="AK16" s="3" t="n"/>
-      <c r="AL16" s="3" t="n"/>
-      <c r="AM16" s="39" t="n"/>
-      <c r="AN16" s="3" t="n"/>
-      <c r="AO16" s="3" t="n"/>
-      <c r="AP16" s="39" t="n"/>
-      <c r="AQ16" s="3" t="n"/>
-      <c r="AR16" s="3" t="n"/>
-      <c r="AS16" s="39" t="n"/>
-      <c r="AT16" s="3" t="n"/>
-      <c r="AU16" s="3" t="n"/>
-      <c r="AV16" s="39" t="n"/>
-      <c r="AW16" s="3" t="n"/>
-      <c r="AX16" s="3" t="n"/>
-      <c r="AY16" s="39" t="n"/>
-      <c r="AZ16" s="3" t="n"/>
-      <c r="BA16" s="3" t="n"/>
-      <c r="BB16" s="39" t="n"/>
-      <c r="BC16" s="3" t="n"/>
-      <c r="BD16" s="3" t="n"/>
-      <c r="BE16" s="39" t="n"/>
-      <c r="BF16" s="3" t="n"/>
-      <c r="BG16" s="3" t="n"/>
-      <c r="BH16" s="39" t="n"/>
-      <c r="BI16" s="3" t="n"/>
-      <c r="BJ16" s="3" t="n"/>
-      <c r="BK16" s="3" t="n"/>
-      <c r="BL16" s="3" t="n"/>
-      <c r="BM16" s="3" t="n"/>
-      <c r="BN16" s="3" t="n"/>
-      <c r="BO16" s="3" t="n"/>
-      <c r="BP16" s="3" t="n"/>
-      <c r="BQ16" s="3" t="n"/>
-      <c r="BR16" s="3" t="n"/>
-      <c r="BS16" s="3" t="n"/>
-      <c r="BT16" s="3" t="n"/>
-      <c r="BU16" s="3" t="n"/>
-      <c r="BV16" s="3" t="n"/>
-      <c r="BW16" s="3" t="n"/>
-      <c r="BX16" s="3" t="n"/>
-      <c r="BY16" s="3" t="n"/>
-      <c r="BZ16" s="3" t="n"/>
-      <c r="CA16" s="3" t="n"/>
-      <c r="CB16" s="3" t="n"/>
-      <c r="CC16" s="3" t="n"/>
-      <c r="CD16" s="3" t="n"/>
-      <c r="CE16" s="3" t="n"/>
-      <c r="CF16" s="3" t="n"/>
-      <c r="CG16" s="3" t="n"/>
-      <c r="CH16" s="3" t="n"/>
-      <c r="CI16" s="3" t="n"/>
-      <c r="CJ16" s="3" t="n"/>
-      <c r="CK16" s="3" t="n"/>
-      <c r="CL16" s="3" t="n"/>
-      <c r="CM16" s="3" t="n"/>
-      <c r="CN16" s="3" t="n"/>
-      <c r="CO16" s="3" t="n"/>
-      <c r="CP16" s="3" t="n"/>
-      <c r="CQ16" s="3" t="n"/>
-      <c r="CR16" s="3" t="n"/>
-      <c r="CS16" s="3" t="n"/>
+      <c r="R16" s="52" t="n"/>
+      <c r="S16" s="45" t="n"/>
+      <c r="T16" s="45" t="n"/>
+      <c r="U16" s="52" t="n"/>
+      <c r="V16" s="45" t="n"/>
+      <c r="W16" s="45" t="n"/>
+      <c r="X16" s="52" t="n"/>
+      <c r="Y16" s="45" t="n"/>
+      <c r="Z16" s="45" t="n"/>
+      <c r="AA16" s="52" t="n"/>
+      <c r="AB16" s="45" t="n"/>
+      <c r="AC16" s="45" t="n"/>
+      <c r="AD16" s="52" t="n"/>
+      <c r="AE16" s="45" t="n"/>
+      <c r="AF16" s="45" t="n"/>
+      <c r="AG16" s="52" t="n"/>
+      <c r="AH16" s="45" t="n"/>
+      <c r="AI16" s="45" t="n"/>
+      <c r="AJ16" s="52" t="n"/>
+      <c r="AK16" s="45" t="n"/>
+      <c r="AL16" s="45" t="n"/>
+      <c r="AM16" s="52" t="n"/>
+      <c r="AN16" s="45" t="n"/>
+      <c r="AO16" s="45" t="n"/>
+      <c r="AP16" s="52" t="n"/>
+      <c r="AQ16" s="45" t="n"/>
+      <c r="AR16" s="45" t="n"/>
+      <c r="AS16" s="52" t="n"/>
+      <c r="AT16" s="45" t="n"/>
+      <c r="AU16" s="45" t="n"/>
+      <c r="AV16" s="52" t="n"/>
+      <c r="AW16" s="45" t="n"/>
+      <c r="AX16" s="45" t="n"/>
+      <c r="AY16" s="52" t="n"/>
+      <c r="AZ16" s="45" t="n"/>
+      <c r="BA16" s="45" t="n"/>
+      <c r="BB16" s="52" t="n"/>
+      <c r="BC16" s="45" t="n"/>
+      <c r="BD16" s="45" t="n"/>
+      <c r="BE16" s="52" t="n"/>
+      <c r="BF16" s="45" t="n"/>
+      <c r="BG16" s="45" t="n"/>
+      <c r="BH16" s="52" t="n"/>
+      <c r="BI16" s="45" t="n"/>
+      <c r="BJ16" s="45" t="n"/>
+      <c r="BK16" s="45" t="n"/>
+      <c r="BL16" s="45" t="n"/>
+      <c r="BM16" s="45" t="n"/>
+      <c r="BN16" s="45" t="n"/>
+      <c r="BO16" s="45" t="n"/>
+      <c r="BP16" s="45" t="n"/>
+      <c r="BQ16" s="45" t="n"/>
+      <c r="BR16" s="45" t="n"/>
+      <c r="BS16" s="45" t="n"/>
+      <c r="BT16" s="45" t="n"/>
+      <c r="BU16" s="45" t="n"/>
+      <c r="BV16" s="45" t="n"/>
+      <c r="BW16" s="45" t="n"/>
+      <c r="BX16" s="45" t="n"/>
+      <c r="BY16" s="45" t="n"/>
+      <c r="BZ16" s="45" t="n"/>
+      <c r="CA16" s="45" t="n"/>
+      <c r="CB16" s="45" t="n"/>
+      <c r="CC16" s="45" t="n"/>
+      <c r="CD16" s="45" t="n"/>
+      <c r="CE16" s="45" t="n"/>
+      <c r="CF16" s="45" t="n"/>
+      <c r="CG16" s="45" t="n"/>
+      <c r="CH16" s="45" t="n"/>
+      <c r="CI16" s="45" t="n"/>
+      <c r="CJ16" s="45" t="n"/>
+      <c r="CK16" s="45" t="n"/>
+      <c r="CL16" s="45" t="n"/>
+      <c r="CM16" s="45" t="n"/>
+      <c r="CN16" s="45" t="n"/>
+      <c r="CO16" s="45" t="n"/>
+      <c r="CP16" s="45" t="n"/>
+      <c r="CQ16" s="45" t="n"/>
+      <c r="CR16" s="45" t="n"/>
+      <c r="CS16" s="45" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -7689,12 +9652,14 @@
           <t>纳斯达克100</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>040046</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F17" s="12" t="n">
         <v>8793.903899999999</v>
       </c>
@@ -7706,7 +9671,7 @@
       <c r="J17" s="11" t="inlineStr"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20200104 20:08:23</t>
+          <t>20200104 23:09:03</t>
         </is>
       </c>
       <c r="L17" s="43">
@@ -7725,86 +9690,86 @@
         <v>8010</v>
       </c>
       <c r="Q17" s="0" t="inlineStr"/>
-      <c r="R17" s="39" t="n"/>
-      <c r="S17" s="3" t="n"/>
-      <c r="T17" s="3" t="n"/>
-      <c r="U17" s="39" t="n"/>
-      <c r="V17" s="3" t="n"/>
-      <c r="W17" s="3" t="n"/>
-      <c r="X17" s="39" t="n"/>
-      <c r="Y17" s="3" t="n"/>
-      <c r="Z17" s="3" t="n"/>
-      <c r="AA17" s="39" t="n"/>
-      <c r="AB17" s="3" t="n"/>
-      <c r="AC17" s="3" t="n"/>
-      <c r="AD17" s="39" t="n"/>
-      <c r="AE17" s="3" t="n"/>
-      <c r="AF17" s="3" t="n"/>
-      <c r="AG17" s="39" t="n"/>
-      <c r="AH17" s="3" t="n"/>
-      <c r="AI17" s="3" t="n"/>
-      <c r="AJ17" s="39" t="n"/>
-      <c r="AK17" s="3" t="n"/>
-      <c r="AL17" s="3" t="n"/>
-      <c r="AM17" s="39" t="n"/>
-      <c r="AN17" s="3" t="n"/>
-      <c r="AO17" s="3" t="n"/>
-      <c r="AP17" s="39" t="n"/>
-      <c r="AQ17" s="3" t="n"/>
-      <c r="AR17" s="3" t="n"/>
-      <c r="AS17" s="39" t="n"/>
-      <c r="AT17" s="3" t="n"/>
-      <c r="AU17" s="3" t="n"/>
-      <c r="AV17" s="39" t="n"/>
-      <c r="AW17" s="3" t="n"/>
-      <c r="AX17" s="3" t="n"/>
-      <c r="AY17" s="39" t="n"/>
-      <c r="AZ17" s="3" t="n"/>
-      <c r="BA17" s="3" t="n"/>
-      <c r="BB17" s="39" t="n"/>
-      <c r="BC17" s="3" t="n"/>
-      <c r="BD17" s="3" t="n"/>
-      <c r="BE17" s="39" t="n"/>
-      <c r="BF17" s="3" t="n"/>
-      <c r="BG17" s="3" t="n"/>
-      <c r="BH17" s="39" t="n"/>
-      <c r="BI17" s="3" t="n"/>
-      <c r="BJ17" s="3" t="n"/>
-      <c r="BK17" s="3" t="n"/>
-      <c r="BL17" s="3" t="n"/>
-      <c r="BM17" s="3" t="n"/>
-      <c r="BN17" s="3" t="n"/>
-      <c r="BO17" s="3" t="n"/>
-      <c r="BP17" s="3" t="n"/>
-      <c r="BQ17" s="3" t="n"/>
-      <c r="BR17" s="3" t="n"/>
-      <c r="BS17" s="3" t="n"/>
-      <c r="BT17" s="3" t="n"/>
-      <c r="BU17" s="3" t="n"/>
-      <c r="BV17" s="3" t="n"/>
-      <c r="BW17" s="3" t="n"/>
-      <c r="BX17" s="3" t="n"/>
-      <c r="BY17" s="3" t="n"/>
-      <c r="BZ17" s="3" t="n"/>
-      <c r="CA17" s="3" t="n"/>
-      <c r="CB17" s="3" t="n"/>
-      <c r="CC17" s="3" t="n"/>
-      <c r="CD17" s="3" t="n"/>
-      <c r="CE17" s="3" t="n"/>
-      <c r="CF17" s="3" t="n"/>
-      <c r="CG17" s="3" t="n"/>
-      <c r="CH17" s="3" t="n"/>
-      <c r="CI17" s="3" t="n"/>
-      <c r="CJ17" s="3" t="n"/>
-      <c r="CK17" s="3" t="n"/>
-      <c r="CL17" s="3" t="n"/>
-      <c r="CM17" s="3" t="n"/>
-      <c r="CN17" s="3" t="n"/>
-      <c r="CO17" s="3" t="n"/>
-      <c r="CP17" s="3" t="n"/>
-      <c r="CQ17" s="3" t="n"/>
-      <c r="CR17" s="3" t="n"/>
-      <c r="CS17" s="3" t="n"/>
+      <c r="R17" s="52" t="n"/>
+      <c r="S17" s="45" t="n"/>
+      <c r="T17" s="45" t="n"/>
+      <c r="U17" s="52" t="n"/>
+      <c r="V17" s="45" t="n"/>
+      <c r="W17" s="45" t="n"/>
+      <c r="X17" s="52" t="n"/>
+      <c r="Y17" s="45" t="n"/>
+      <c r="Z17" s="45" t="n"/>
+      <c r="AA17" s="52" t="n"/>
+      <c r="AB17" s="45" t="n"/>
+      <c r="AC17" s="45" t="n"/>
+      <c r="AD17" s="52" t="n"/>
+      <c r="AE17" s="45" t="n"/>
+      <c r="AF17" s="45" t="n"/>
+      <c r="AG17" s="52" t="n"/>
+      <c r="AH17" s="45" t="n"/>
+      <c r="AI17" s="45" t="n"/>
+      <c r="AJ17" s="52" t="n"/>
+      <c r="AK17" s="45" t="n"/>
+      <c r="AL17" s="45" t="n"/>
+      <c r="AM17" s="52" t="n"/>
+      <c r="AN17" s="45" t="n"/>
+      <c r="AO17" s="45" t="n"/>
+      <c r="AP17" s="52" t="n"/>
+      <c r="AQ17" s="45" t="n"/>
+      <c r="AR17" s="45" t="n"/>
+      <c r="AS17" s="52" t="n"/>
+      <c r="AT17" s="45" t="n"/>
+      <c r="AU17" s="45" t="n"/>
+      <c r="AV17" s="52" t="n"/>
+      <c r="AW17" s="45" t="n"/>
+      <c r="AX17" s="45" t="n"/>
+      <c r="AY17" s="52" t="n"/>
+      <c r="AZ17" s="45" t="n"/>
+      <c r="BA17" s="45" t="n"/>
+      <c r="BB17" s="52" t="n"/>
+      <c r="BC17" s="45" t="n"/>
+      <c r="BD17" s="45" t="n"/>
+      <c r="BE17" s="52" t="n"/>
+      <c r="BF17" s="45" t="n"/>
+      <c r="BG17" s="45" t="n"/>
+      <c r="BH17" s="52" t="n"/>
+      <c r="BI17" s="45" t="n"/>
+      <c r="BJ17" s="45" t="n"/>
+      <c r="BK17" s="45" t="n"/>
+      <c r="BL17" s="45" t="n"/>
+      <c r="BM17" s="45" t="n"/>
+      <c r="BN17" s="45" t="n"/>
+      <c r="BO17" s="45" t="n"/>
+      <c r="BP17" s="45" t="n"/>
+      <c r="BQ17" s="45" t="n"/>
+      <c r="BR17" s="45" t="n"/>
+      <c r="BS17" s="45" t="n"/>
+      <c r="BT17" s="45" t="n"/>
+      <c r="BU17" s="45" t="n"/>
+      <c r="BV17" s="45" t="n"/>
+      <c r="BW17" s="45" t="n"/>
+      <c r="BX17" s="45" t="n"/>
+      <c r="BY17" s="45" t="n"/>
+      <c r="BZ17" s="45" t="n"/>
+      <c r="CA17" s="45" t="n"/>
+      <c r="CB17" s="45" t="n"/>
+      <c r="CC17" s="45" t="n"/>
+      <c r="CD17" s="45" t="n"/>
+      <c r="CE17" s="45" t="n"/>
+      <c r="CF17" s="45" t="n"/>
+      <c r="CG17" s="45" t="n"/>
+      <c r="CH17" s="45" t="n"/>
+      <c r="CI17" s="45" t="n"/>
+      <c r="CJ17" s="45" t="n"/>
+      <c r="CK17" s="45" t="n"/>
+      <c r="CL17" s="45" t="n"/>
+      <c r="CM17" s="45" t="n"/>
+      <c r="CN17" s="45" t="n"/>
+      <c r="CO17" s="45" t="n"/>
+      <c r="CP17" s="45" t="n"/>
+      <c r="CQ17" s="45" t="n"/>
+      <c r="CR17" s="45" t="n"/>
+      <c r="CS17" s="45" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
@@ -8246,7 +10211,7 @@
         <v>3000</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>2.7235</v>
+        <v>2.744</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>19308</v>
@@ -8270,10 +10235,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>130.459770114943</v>
+        <v>154.0229885057475</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>4.34865900383142</v>
+        <v>5.134099616858251</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>2049.08864954432</v>
@@ -8336,10 +10301,10 @@
         <v>0.523864959254955</v>
       </c>
       <c r="X4" s="12" t="n">
-        <v>130.459770114943</v>
+        <v>154.0229885057475</v>
       </c>
       <c r="Y4" s="12" t="n">
-        <v>4.34865900383142</v>
+        <v>5.134099616858251</v>
       </c>
       <c r="Z4" s="12" t="n">
         <v>1442.69205765272</v>
@@ -8363,10 +10328,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>-22.5</v>
+        <v>38.75968992248077</v>
       </c>
       <c r="C5" s="11" t="n">
-        <v>-0.75</v>
+        <v>1.291989664082692</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>85.45700135074129</v>
@@ -8429,10 +10394,10 @@
         <v>-0.346220427005194</v>
       </c>
       <c r="X5" s="12" t="n">
-        <v>-22.5</v>
+        <v>38.75968992248077</v>
       </c>
       <c r="Y5" s="12" t="n">
-        <v>-0.75</v>
+        <v>1.291989664082692</v>
       </c>
       <c r="Z5" s="12" t="n">
         <v>241.35</v>
@@ -9137,10 +11102,10 @@
       <c r="V19" s="0" t="inlineStr"/>
       <c r="W19" s="0" t="inlineStr"/>
       <c r="X19" s="11" t="n">
-        <v>130.459770114943</v>
+        <v>154.0229885057475</v>
       </c>
       <c r="Y19" s="11" t="n">
-        <v>4.34865900383142</v>
+        <v>5.134099616858251</v>
       </c>
       <c r="Z19" s="12" t="inlineStr"/>
       <c r="AA19" s="12" t="inlineStr"/>
@@ -9979,6 +11944,18 @@
     <cfRule type="cellIs" priority="6150" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6169" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6170" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6189" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6190" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="2045" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -10155,6 +12132,18 @@
     <cfRule type="cellIs" priority="6152" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6171" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6172" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6191" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6192" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="2203" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13371,6 +15360,18 @@
     <cfRule type="cellIs" priority="6142" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6161" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6162" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6181" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6182" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" priority="2009" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13547,6 +15548,18 @@
     <cfRule type="cellIs" priority="6144" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6163" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6164" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6183" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6184" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" priority="2023" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14331,6 +16344,18 @@
     <cfRule type="cellIs" priority="6154" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6173" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6174" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6193" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6194" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" priority="2049" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14507,6 +16532,18 @@
     <cfRule type="cellIs" priority="6156" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6175" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6176" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6195" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6196" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" priority="2205" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17723,6 +19760,18 @@
     <cfRule type="cellIs" priority="6146" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6165" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6166" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6185" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6186" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
     <cfRule type="cellIs" priority="2013" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17899,6 +19948,18 @@
     <cfRule type="cellIs" priority="6148" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6167" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6168" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6187" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6188" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
     <cfRule type="cellIs" priority="2027" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21385,6 +23446,18 @@
     <cfRule type="cellIs" priority="6138" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6157" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6158" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6177" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6178" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" priority="444" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21649,6 +23722,18 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6140" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6159" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6160" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6179" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6180" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fund/Jelly_model.xlsx
+++ b/fund/Jelly_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="507">
   <si>
     <t>编号</t>
   </si>
@@ -1125,9 +1125,6 @@
   </si>
   <si>
     <t>320007</t>
-  </si>
-  <si>
-    <t>100.HSI</t>
   </si>
   <si>
     <t>恒生指数组合</t>
@@ -7842,7 +7839,7 @@
   <sheetPr/>
   <dimension ref="A1:CS41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -10772,8 +10769,8 @@
   <sheetPr/>
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10975,28 +10972,28 @@
         <v>153</v>
       </c>
       <c r="Z2" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" t="s">
         <v>369</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>370</v>
       </c>
       <c r="AB2" s="10" t="s">
         <v>265</v>
       </c>
       <c r="AC2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AD2" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AE2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF2" s="10" t="s">
         <v>249</v>
       </c>
       <c r="AG2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -11310,7 +11307,7 @@
         <v>20190909</v>
       </c>
       <c r="C6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
         <v>185</v>
@@ -11512,7 +11509,7 @@
         <v>20191008</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
         <v>185</v>
@@ -11714,7 +11711,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10" t="s">
         <v>185</v>
@@ -11913,10 +11910,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
         <v>185</v>
@@ -12118,7 +12115,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D14">
         <v>13000</v>
@@ -12320,7 +12317,7 @@
         <v>253</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
         <v>185</v>
@@ -12519,10 +12516,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>378</v>
       </c>
       <c r="D18" t="s">
         <v>185</v>
@@ -12617,7 +12614,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>185</v>
@@ -12718,34 +12715,34 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" t="s">
         <v>380</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" t="s">
         <v>381</v>
-      </c>
-      <c r="C20" t="s">
-        <v>374</v>
-      </c>
-      <c r="D20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" t="s">
-        <v>382</v>
       </c>
       <c r="I20">
         <v>2.2221</v>
       </c>
       <c r="J20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K20">
         <v>2.184</v>
@@ -12819,7 +12816,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B21" t="s">
         <v>185</v>
@@ -12920,13 +12917,13 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B22" t="s">
         <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
         <v>185</v>
@@ -12959,19 +12956,19 @@
         <v>185</v>
       </c>
       <c r="N22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O22">
         <v>1.244</v>
       </c>
       <c r="P22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q22">
         <v>1.022</v>
       </c>
       <c r="R22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S22">
         <v>1.8156</v>
@@ -13021,7 +13018,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
         <v>185</v>
@@ -13122,13 +13119,13 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>389</v>
-      </c>
       <c r="C24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
         <v>185</v>
@@ -13155,7 +13152,7 @@
         <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M24">
         <v>1.282</v>
@@ -13324,85 +13321,85 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>185</v>
+      </c>
+      <c r="R26" t="s">
+        <v>185</v>
+      </c>
+      <c r="S26" t="s">
+        <v>185</v>
+      </c>
+      <c r="T26" t="s">
+        <v>185</v>
+      </c>
+      <c r="U26" t="s">
+        <v>185</v>
+      </c>
+      <c r="V26" t="s">
+        <v>185</v>
+      </c>
+      <c r="W26" t="s">
+        <v>185</v>
+      </c>
+      <c r="X26" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z26" t="s">
         <v>390</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C26" t="s">
-        <v>374</v>
-      </c>
-      <c r="D26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J26" t="s">
-        <v>185</v>
-      </c>
-      <c r="K26" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" t="s">
-        <v>185</v>
-      </c>
-      <c r="M26" t="s">
-        <v>185</v>
-      </c>
-      <c r="N26" t="s">
-        <v>185</v>
-      </c>
-      <c r="O26" t="s">
-        <v>185</v>
-      </c>
-      <c r="P26" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>185</v>
-      </c>
-      <c r="R26" t="s">
-        <v>185</v>
-      </c>
-      <c r="S26" t="s">
-        <v>185</v>
-      </c>
-      <c r="T26" t="s">
-        <v>185</v>
-      </c>
-      <c r="U26" t="s">
-        <v>185</v>
-      </c>
-      <c r="V26" t="s">
-        <v>185</v>
-      </c>
-      <c r="W26" t="s">
-        <v>185</v>
-      </c>
-      <c r="X26" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>391</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>392</v>
       </c>
       <c r="AB26" t="s">
         <v>185</v>
@@ -13425,7 +13422,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" t="s">
         <v>185</v>
@@ -13526,13 +13523,13 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" t="s">
         <v>394</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>395</v>
-      </c>
-      <c r="C28" t="s">
-        <v>396</v>
       </c>
       <c r="D28" s="13">
         <v>13000</v>
@@ -13627,25 +13624,25 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="D29">
         <v>2031.05</v>
       </c>
       <c r="E29" t="s">
+        <v>399</v>
+      </c>
+      <c r="F29" t="s">
         <v>400</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>401</v>
-      </c>
-      <c r="G29" t="s">
-        <v>402</v>
       </c>
       <c r="H29">
         <v>-19.41</v>
@@ -13657,7 +13654,7 @@
         <v>145.67</v>
       </c>
       <c r="K29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L29">
         <v>-34.76</v>
@@ -13669,7 +13666,7 @@
         <v>39.75</v>
       </c>
       <c r="O29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P29">
         <v>-139.32</v>
@@ -13681,34 +13678,34 @@
         <v>42.09</v>
       </c>
       <c r="S29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T29">
         <v>24.4</v>
       </c>
       <c r="U29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V29">
         <v>15.72</v>
       </c>
       <c r="W29" t="s">
+        <v>406</v>
+      </c>
+      <c r="X29" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z29" t="s">
         <v>407</v>
-      </c>
-      <c r="X29" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>408</v>
       </c>
       <c r="AA29">
         <v>3.44</v>
       </c>
       <c r="AB29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AC29">
         <v>4.79</v>
@@ -32683,28 +32680,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
         <v>410</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>411</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>412</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>413</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>414</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>415</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>416</v>
-      </c>
-      <c r="H1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -32715,13 +32712,13 @@
         <v>20191011</v>
       </c>
       <c r="C2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>419</v>
-      </c>
-      <c r="E2" t="s">
-        <v>420</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -32730,7 +32727,7 @@
         <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -32741,13 +32738,13 @@
         <v>20191211</v>
       </c>
       <c r="C3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" t="s">
         <v>422</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>423</v>
-      </c>
-      <c r="E3" t="s">
-        <v>424</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -32756,111 +32753,111 @@
         <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>165</v>
       </c>
       <c r="C4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" t="s">
         <v>427</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>428</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>429</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>430</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>431</v>
-      </c>
-      <c r="H4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
         <v>433</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>434</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" t="s">
         <v>435</v>
       </c>
-      <c r="E5" t="s">
-        <v>424</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>436</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>437</v>
-      </c>
-      <c r="H5" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" t="s">
         <v>439</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" t="s">
         <v>440</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" ht="201.6" customHeight="1" spans="1:8">
       <c r="A7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" t="s">
         <v>442</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>443</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>444</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="E7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="8" ht="43.2" customHeight="1" spans="1:8">
@@ -32871,13 +32868,13 @@
         <v>20191222</v>
       </c>
       <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" t="s">
         <v>444</v>
       </c>
-      <c r="D8" t="s">
-        <v>445</v>
-      </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F8" t="s">
         <v>185</v>
@@ -32886,137 +32883,137 @@
         <v>185</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" t="s">
         <v>448</v>
-      </c>
-      <c r="C9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" t="s">
         <v>450</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" t="s">
         <v>451</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" t="s">
         <v>453</v>
-      </c>
-      <c r="B11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" t="s">
         <v>455</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
         <v>456</v>
-      </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" t="s">
         <v>458</v>
-      </c>
-      <c r="B13" t="s">
-        <v>456</v>
-      </c>
-      <c r="C13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -33027,7 +33024,7 @@
         <v>20200105</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -33055,110 +33052,110 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" t="s">
         <v>467</v>
-      </c>
-      <c r="C11" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G24" s="5"/>
       <c r="J24" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -33166,7 +33163,7 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C25" s="7"/>
       <c r="F25" s="4"/>
@@ -33175,12 +33172,12 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1</v>
@@ -33189,106 +33186,106 @@
         <v>363</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="J26" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="J27" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>494</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="M28" t="s">
         <v>496</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="M28" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="M29" t="s">
         <v>499</v>
-      </c>
-      <c r="M29" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/fund/Jelly_model.xlsx
+++ b/fund/Jelly_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="514">
   <si>
     <t>编号</t>
   </si>
@@ -1146,9 +1146,6 @@
   </si>
   <si>
     <t>320007</t>
-  </si>
-  <si>
-    <t>HSI</t>
   </si>
   <si>
     <t>恒生指数组合</t>
@@ -1588,10 +1585,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
@@ -1631,13 +1628,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1645,61 +1635,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1714,7 +1650,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,7 +1673,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1744,23 +1718,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1805,13 +1802,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,31 +1916,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,67 +1970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,61 +1982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2018,60 +2015,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2094,11 +2037,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2106,8 +2077,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2119,10 +2116,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
@@ -2131,16 +2128,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2149,97 +2146,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="7">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
@@ -2248,16 +2242,19 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7857,7 +7854,7 @@
   <sheetPr/>
   <dimension ref="A1:CS41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -12884,8 +12881,8 @@
   <sheetPr/>
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -13087,28 +13084,28 @@
         <v>154</v>
       </c>
       <c r="Z2" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA2" t="s">
         <v>376</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>377</v>
       </c>
       <c r="AB2" s="10" t="s">
         <v>268</v>
       </c>
       <c r="AC2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AD2" s="10" t="s">
         <v>266</v>
       </c>
       <c r="AE2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF2" s="10" t="s">
         <v>252</v>
       </c>
       <c r="AG2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -13422,7 +13419,7 @@
         <v>20190909</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
         <v>70</v>
@@ -13624,7 +13621,7 @@
         <v>20191008</v>
       </c>
       <c r="C8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -13826,7 +13823,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -14025,10 +14022,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -14230,7 +14227,7 @@
         <v>179</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D14">
         <v>13000</v>
@@ -14432,7 +14429,7 @@
         <v>256</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -14631,10 +14628,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -14729,7 +14726,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -14830,34 +14827,34 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" t="s">
         <v>387</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
         <v>388</v>
-      </c>
-      <c r="C20" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>389</v>
       </c>
       <c r="I20">
         <v>2.2221</v>
       </c>
       <c r="J20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K20">
         <v>2.184</v>
@@ -14931,7 +14928,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -15032,13 +15029,13 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B22" t="s">
         <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -15071,19 +15068,19 @@
         <v>70</v>
       </c>
       <c r="N22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O22">
         <v>1.244</v>
       </c>
       <c r="P22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q22">
         <v>1.022</v>
       </c>
       <c r="R22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S22">
         <v>1.8156</v>
@@ -15133,7 +15130,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -15234,13 +15231,13 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>396</v>
-      </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -15267,7 +15264,7 @@
         <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M24">
         <v>1.282</v>
@@ -15436,85 +15433,85 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>70</v>
+      </c>
+      <c r="R26" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" t="s">
+        <v>70</v>
+      </c>
+      <c r="T26" t="s">
+        <v>70</v>
+      </c>
+      <c r="U26" t="s">
+        <v>70</v>
+      </c>
+      <c r="V26" t="s">
+        <v>70</v>
+      </c>
+      <c r="W26" t="s">
+        <v>70</v>
+      </c>
+      <c r="X26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z26" t="s">
         <v>397</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" t="s">
-        <v>70</v>
-      </c>
-      <c r="O26" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>70</v>
-      </c>
-      <c r="R26" t="s">
-        <v>70</v>
-      </c>
-      <c r="S26" t="s">
-        <v>70</v>
-      </c>
-      <c r="T26" t="s">
-        <v>70</v>
-      </c>
-      <c r="U26" t="s">
-        <v>70</v>
-      </c>
-      <c r="V26" t="s">
-        <v>70</v>
-      </c>
-      <c r="W26" t="s">
-        <v>70</v>
-      </c>
-      <c r="X26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>398</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>399</v>
       </c>
       <c r="AB26" t="s">
         <v>70</v>
@@ -15537,7 +15534,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
@@ -15638,13 +15635,13 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="s">
+        <v>400</v>
+      </c>
+      <c r="B28" t="s">
         <v>401</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>402</v>
-      </c>
-      <c r="C28" t="s">
-        <v>403</v>
       </c>
       <c r="D28" s="13">
         <v>13000</v>
@@ -15739,25 +15736,25 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>406</v>
       </c>
       <c r="D29">
         <v>2031.05</v>
       </c>
       <c r="E29" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" t="s">
         <v>407</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>408</v>
-      </c>
-      <c r="G29" t="s">
-        <v>409</v>
       </c>
       <c r="H29">
         <v>-19.41</v>
@@ -15769,7 +15766,7 @@
         <v>145.67</v>
       </c>
       <c r="K29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L29">
         <v>-34.76</v>
@@ -15781,7 +15778,7 @@
         <v>39.75</v>
       </c>
       <c r="O29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P29">
         <v>-139.32</v>
@@ -15793,34 +15790,34 @@
         <v>42.09</v>
       </c>
       <c r="S29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T29">
         <v>24.4</v>
       </c>
       <c r="U29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V29">
         <v>15.72</v>
       </c>
       <c r="W29" t="s">
+        <v>413</v>
+      </c>
+      <c r="X29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z29" t="s">
         <v>414</v>
-      </c>
-      <c r="X29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>415</v>
       </c>
       <c r="AA29">
         <v>3.44</v>
       </c>
       <c r="AB29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AC29">
         <v>4.79</v>
@@ -28050,16 +28047,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1864" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2019" stopIfTrue="1" operator="greaterThan">
@@ -28068,7 +28065,7 @@
     <cfRule type="cellIs" dxfId="7" priority="2020" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="2188" stopIfTrue="1" operator="lessThan">
@@ -28277,19 +28274,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1866" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2021" stopIfTrue="1" operator="greaterThan">
@@ -28988,22 +28985,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1796" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1919" stopIfTrue="1" operator="greaterThan">
@@ -29230,22 +29227,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1798" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1921" stopIfTrue="1" operator="greaterThan">
@@ -29466,22 +29463,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1812" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1943" stopIfTrue="1" operator="greaterThan">
@@ -30192,16 +30189,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1822" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1957" stopIfTrue="1" operator="greaterThan">
@@ -30434,16 +30431,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1828" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1967" stopIfTrue="1" operator="greaterThan">
@@ -30676,16 +30673,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1830" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1969" stopIfTrue="1" operator="greaterThan">
@@ -30915,19 +30912,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1836" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1979" stopIfTrue="1" operator="greaterThan">
@@ -31154,22 +31151,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1838" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1981" stopIfTrue="1" operator="greaterThan">
@@ -31396,22 +31393,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1804" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1931" stopIfTrue="1" operator="greaterThan">
@@ -31638,22 +31635,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1806" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1933" stopIfTrue="1" operator="greaterThan">
@@ -33172,10 +33169,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1808" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33374,16 +33371,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1816" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33493,13 +33490,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1818" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33588,10 +33585,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1824" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33683,7 +33680,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1826" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33769,13 +33766,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1832" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33861,13 +33858,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1834" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33950,16 +33947,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1840" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34039,19 +34036,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1842" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34692,10 +34689,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1876" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6217" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6218" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34787,7 +34784,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1878" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34855,28 +34852,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" t="s">
         <v>417</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>418</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>419</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>420</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>421</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>423</v>
-      </c>
-      <c r="H1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -34887,13 +34884,13 @@
         <v>20191011</v>
       </c>
       <c r="C2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" t="s">
         <v>425</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>426</v>
-      </c>
-      <c r="E2" t="s">
-        <v>427</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -34902,7 +34899,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -34913,13 +34910,13 @@
         <v>20191211</v>
       </c>
       <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
         <v>429</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>430</v>
-      </c>
-      <c r="E3" t="s">
-        <v>431</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -34928,111 +34925,111 @@
         <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>166</v>
       </c>
       <c r="C4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" t="s">
         <v>434</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>435</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>436</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>437</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>438</v>
-      </c>
-      <c r="H4" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" t="s">
         <v>440</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>441</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" t="s">
         <v>442</v>
       </c>
-      <c r="E5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>443</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>444</v>
-      </c>
-      <c r="H5" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" t="s">
         <v>446</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
         <v>447</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="7" ht="201.6" customHeight="1" spans="1:8">
       <c r="A7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" t="s">
         <v>449</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>450</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>451</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>452</v>
-      </c>
-      <c r="E7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="8" ht="43.2" customHeight="1" spans="1:8">
@@ -35043,13 +35040,13 @@
         <v>20191222</v>
       </c>
       <c r="C8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" t="s">
         <v>451</v>
       </c>
-      <c r="D8" t="s">
-        <v>452</v>
-      </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
         <v>70</v>
@@ -35058,137 +35055,137 @@
         <v>70</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
         <v>455</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" t="s">
         <v>457</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
         <v>458</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
         <v>460</v>
-      </c>
-      <c r="B11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" t="s">
         <v>462</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
         <v>463</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
         <v>465</v>
-      </c>
-      <c r="B13" t="s">
-        <v>463</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -35214,7 +35211,7 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -35242,110 +35239,110 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" t="s">
         <v>474</v>
-      </c>
-      <c r="C11" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G24" s="5"/>
       <c r="J24" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -35353,7 +35350,7 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C25" s="7"/>
       <c r="F25" s="4"/>
@@ -35362,12 +35359,12 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1</v>
@@ -35376,106 +35373,106 @@
         <v>370</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="J26" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>494</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="J27" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="M28" t="s">
         <v>503</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="M28" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="M29" t="s">
         <v>506</v>
-      </c>
-      <c r="M29" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/fund/Jelly_model.xlsx
+++ b/fund/Jelly_model.xlsx
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792, 2.2168, 2.203, 2.2107, 2.2143, 2.1871, 2.2483, 2.2799, 2.3195, 2.2982, 2.3311, 2.351, 2.3749, 2.4625, 2.44, 2.4958, 2.4445, 2.2939, 2.393, 2.4071, 2.4697, 2.5209, 2.5221, 2.5459, 2.5921, 2.6019, 2.6219</t>
+          <t>1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792, 2.2168, 2.203, 2.2107, 2.2143, 2.1871, 2.2483, 2.2799, 2.3195, 2.2982, 2.3311, 2.351, 2.3749, 2.4625, 2.44, 2.4958, 2.4445, 2.2939, 2.393, 2.4071, 2.4697, 2.5209, 2.5221, 2.5459, 2.5921, 2.6019, 2.6219, 2.6931, 2.7566</t>
         </is>
       </c>
       <c r="E2" s="24" t="inlineStr">
@@ -1759,23 +1759,23 @@
         <v>15</v>
       </c>
       <c r="I2" s="74" t="n">
-        <v>2.6219</v>
+        <v>2.7566</v>
       </c>
       <c r="J2" s="75" t="n">
-        <v>0.7686690495407209</v>
+        <v>2.357877538895709</v>
       </c>
       <c r="K2" s="76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2" s="76" t="n">
-        <v>14.2987924495401</v>
+        <v>20.17088800732379</v>
       </c>
       <c r="M2" s="76" t="n">
-        <v>2.6219</v>
+        <v>2.7566</v>
       </c>
       <c r="N2" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O2" s="30">
@@ -1892,30 +1892,30 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243, 1.275, 1.253, 1.249, 1.244, 1.235, 1.278, 1.313, 1.387, 1.354, 1.375, 1.376, 1.373, 1.43, 1.441, 1.487, 1.439, 1.317, 1.392, 1.393, 1.426, 1.471, 1.429, 1.457, 1.498, 1.548, 1.537</t>
+          <t>1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243, 1.275, 1.253, 1.249, 1.244, 1.235, 1.278, 1.313, 1.387, 1.354, 1.375, 1.376, 1.373, 1.43, 1.441, 1.487, 1.439, 1.317, 1.392, 1.393, 1.426, 1.471, 1.429, 1.457, 1.498, 1.548, 1.537, 1.572, 1.627</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
         <v>15</v>
       </c>
       <c r="I3" s="74" t="n">
-        <v>1.537</v>
+        <v>1.627</v>
       </c>
       <c r="J3" s="75" t="n">
-        <v>-0.7105943152454859</v>
+        <v>3.498727735368953</v>
       </c>
       <c r="K3" s="76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="76" t="n">
-        <v>-0.5519317611640804</v>
+        <v>4.540867810292638</v>
       </c>
       <c r="M3" s="76" t="n">
-        <v>1.982</v>
+        <v>2.072</v>
       </c>
       <c r="N3" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O3" s="30">
@@ -2034,30 +2034,30 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288, 4.2087, 4.2386, 4.2866, 4.2851, 4.174, 4.2587, 4.3341, 4.4817, 4.5077, 4.5983, 4.6206, 4.6398, 4.8649, 4.8899, 5.1199, 5.0136, 4.6553, 4.8895, 4.9414, 5.0837, 5.2218, 5.1426, 5.2235, 5.3354, 5.3753, 5.4243</t>
+          <t>3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288, 4.2087, 4.2386, 4.2866, 4.2851, 4.174, 4.2587, 4.3341, 4.4817, 4.5077, 4.5983, 4.6206, 4.6398, 4.8649, 4.8899, 5.1199, 5.0136, 4.6553, 4.8895, 4.9414, 5.0837, 5.2218, 5.1426, 5.2235, 5.3354, 5.3753, 5.4243, 5.6002, 5.8071</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
         <v>5</v>
       </c>
       <c r="I4" s="74" t="n">
-        <v>5.4243</v>
+        <v>5.8071</v>
       </c>
       <c r="J4" s="75" t="n">
-        <v>0.9115770282588783</v>
+        <v>3.694510910324632</v>
       </c>
       <c r="K4" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" s="76" t="n">
-        <v>5.477773888694432</v>
+        <v>12.9214794073037</v>
       </c>
       <c r="M4" s="76" t="n">
-        <v>5.4243</v>
+        <v>5.8071</v>
       </c>
       <c r="N4" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O4" s="30">
@@ -2178,30 +2178,30 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628, 1.592, 1.5822, 1.5893, 1.5914, 1.5712, 1.6147, 1.6356, 1.669, 1.6556, 1.6782, 1.6928, 1.7128, 1.7753, 1.758, 1.7993, 1.7584, 1.6472, 1.7278, 1.7458, 1.7983, 1.8437, 1.8405, 1.8513, 1.89, 1.8988, 1.9184</t>
+          <t>1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628, 1.592, 1.5822, 1.5893, 1.5914, 1.5712, 1.6147, 1.6356, 1.669, 1.6556, 1.6782, 1.6928, 1.7128, 1.7753, 1.758, 1.7993, 1.7584, 1.6472, 1.7278, 1.7458, 1.7983, 1.8437, 1.8405, 1.8513, 1.89, 1.8988, 1.9184, 1.9754, 2.035</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
         <v>5</v>
       </c>
       <c r="I5" s="74" t="n">
-        <v>1.9184</v>
+        <v>2.035</v>
       </c>
       <c r="J5" s="75" t="n">
-        <v>1.032230882662738</v>
+        <v>3.017110458641293</v>
       </c>
       <c r="K5" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" s="76" t="n">
-        <v>4.232545503939152</v>
+        <v>10.56778049443087</v>
       </c>
       <c r="M5" s="76" t="n">
-        <v>1.9184</v>
+        <v>2.035</v>
       </c>
       <c r="N5" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O5" s="30">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196, 2.251, 2.243, 2.262, 2.317, 2.289, 2.321, 2.305, 2.363, 2.358, 2.357, 2.343, 2.361, 2.407, 2.373, 2.395, 2.273, 2.087, 2.157, 2.222, 2.295, 2.372, 2.383, 2.362, 2.422, 2.42, 2.44</t>
+          <t>2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196, 2.251, 2.243, 2.262, 2.317, 2.289, 2.321, 2.305, 2.363, 2.358, 2.357, 2.343, 2.361, 2.407, 2.373, 2.395, 2.273, 2.087, 2.157, 2.222, 2.295, 2.372, 2.383, 2.362, 2.422, 2.42, 2.44, 2.522, 2.568</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -2332,23 +2332,23 @@
         <v>15</v>
       </c>
       <c r="I6" s="74" t="n">
-        <v>2.44</v>
+        <v>2.568</v>
       </c>
       <c r="J6" s="75" t="n">
-        <v>0.8264462809917362</v>
+        <v>1.82394924662967</v>
       </c>
       <c r="K6" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="76" t="n">
-        <v>0.8257279443719984</v>
+        <v>6.127770534550195</v>
       </c>
       <c r="M6" s="76" t="n">
-        <v>2.32</v>
+        <v>2.442</v>
       </c>
       <c r="N6" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O6" s="30">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022, 1.1038, 1.0981, 1.0917, 1.1144, 1.1055, 1.1465, 1.1473, 1.1566, 1.1466, 1.1548, 1.169, 1.1797, 1.1911, 1.2034, 1.1944, 1.1711, 1.136, 1.1782, 1.2051, 1.2481, 1.2379, 1.2328, 1.2365, 1.2609, 1.2546, 1.2483</t>
+          <t>1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022, 1.1038, 1.0981, 1.0917, 1.1144, 1.1055, 1.1465, 1.1473, 1.1566, 1.1466, 1.1548, 1.169, 1.1797, 1.1911, 1.2034, 1.1944, 1.1711, 1.136, 1.1782, 1.2051, 1.2481, 1.2379, 1.2328, 1.2365, 1.2609, 1.2546, 1.2483, 1.2871, 1.2944</t>
         </is>
       </c>
       <c r="E7" s="26" t="inlineStr">
@@ -2489,23 +2489,23 @@
         <v>5</v>
       </c>
       <c r="I7" s="74" t="n">
-        <v>1.2483</v>
+        <v>1.2944</v>
       </c>
       <c r="J7" s="75" t="n">
-        <v>-0.5021520803443307</v>
+        <v>0.5671664983295848</v>
       </c>
       <c r="K7" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L7" s="76" t="n">
-        <v>-1.000188714851874</v>
+        <v>3.698055661456364</v>
       </c>
       <c r="M7" s="76" t="n">
-        <v>0.5246</v>
+        <v>0.544</v>
       </c>
       <c r="N7" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O7" s="30">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971, 1.5973, 1.5803, 1.5686, 1.5998, 1.5972, 1.6535, 1.6539, 1.6725, 1.6581, 1.6817, 1.7073, 1.7254, 1.7513, 1.7561, 1.7484, 1.7006, 1.6286, 1.6837, 1.7158, 1.775, 1.7592, 1.7599, 1.7748, 1.7989, 1.7838, 1.7891</t>
+          <t>1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971, 1.5973, 1.5803, 1.5686, 1.5998, 1.5972, 1.6535, 1.6539, 1.6725, 1.6581, 1.6817, 1.7073, 1.7254, 1.7513, 1.7561, 1.7484, 1.7006, 1.6286, 1.6837, 1.7158, 1.775, 1.7592, 1.7599, 1.7748, 1.7989, 1.7838, 1.7891, 1.8337, 1.8309</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -2638,23 +2638,23 @@
         <v>5</v>
       </c>
       <c r="I8" s="74" t="n">
-        <v>1.7891</v>
+        <v>1.8309</v>
       </c>
       <c r="J8" s="75" t="n">
-        <v>0.2971185110438311</v>
+        <v>-0.152696733380604</v>
       </c>
       <c r="K8" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="76" t="n">
-        <v>0.2971185110438311</v>
+        <v>-0.152696733380604</v>
       </c>
       <c r="M8" s="76" t="n">
-        <v>1.7891</v>
+        <v>1.8309</v>
       </c>
       <c r="N8" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O8" s="30">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272, 1.238, 1.238, 1.252, 1.3, 1.313, 1.324, 1.329, 1.293, 1.342, 1.364, 1.418, 1.405, 1.412, 1.41, 1.405, 1.467, 1.482, 1.536, 1.483, 1.363, 1.398, 1.411, 1.445, 1.47, 1.458, 1.491, 1.514, 1.518, 1.532</t>
+          <t>1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272, 1.238, 1.238, 1.252, 1.3, 1.313, 1.324, 1.329, 1.293, 1.342, 1.364, 1.418, 1.405, 1.412, 1.41, 1.405, 1.467, 1.482, 1.536, 1.483, 1.363, 1.398, 1.411, 1.445, 1.47, 1.458, 1.491, 1.514, 1.518, 1.532, 1.603, 1.622</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -2787,23 +2787,23 @@
         <v>4</v>
       </c>
       <c r="I9" s="74" t="n">
-        <v>1.532</v>
+        <v>1.622</v>
       </c>
       <c r="J9" s="75" t="n">
-        <v>0.9222661396574449</v>
+        <v>1.185277604491586</v>
       </c>
       <c r="K9" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L9" s="76" t="n">
-        <v>5.075445816186561</v>
+        <v>11.24828532235941</v>
       </c>
       <c r="M9" s="76" t="n">
-        <v>1.532</v>
+        <v>1.622</v>
       </c>
       <c r="N9" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O9" s="30">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206, 1.6645, 1.6935, 1.7343, 1.7419, 1.7236, 1.74, 1.7302, 1.7444, 1.7512, 1.7344, 1.7254, 1.7181, 1.7239, 1.711, 1.7341, 1.7011, 1.6122, 1.6534, 1.6935, 1.7373, 1.7429, 1.7719, 1.7808, 1.8377, 1.8261, 1.821</t>
+          <t>1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206, 1.6645, 1.6935, 1.7343, 1.7419, 1.7236, 1.74, 1.7302, 1.7444, 1.7512, 1.7344, 1.7254, 1.7181, 1.7239, 1.711, 1.7341, 1.7011, 1.6122, 1.6534, 1.6935, 1.7373, 1.7429, 1.7719, 1.7808, 1.8377, 1.8261, 1.821, 1.8763, 1.8836</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -2941,23 +2941,23 @@
         <v>3</v>
       </c>
       <c r="I10" s="74" t="n">
-        <v>1.821</v>
+        <v>1.8836</v>
       </c>
       <c r="J10" s="75" t="n">
-        <v>-0.27928371940201</v>
+        <v>0.3890635825827353</v>
       </c>
       <c r="K10" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L10" s="76" t="n">
-        <v>-0.9087446264352145</v>
+        <v>3.43767160900604</v>
       </c>
       <c r="M10" s="76" t="n">
-        <v>1.821</v>
+        <v>1.8836</v>
       </c>
       <c r="N10" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O10" s="30">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035, 1.1274, 1.1289, 1.138, 1.1435, 1.1326, 1.1605, 1.1671, 1.1945, 1.1888, 1.205, 1.2073, 1.2112, 1.2423, 1.2315, 1.2639, 1.2241, 1.1368, 1.1893, 1.2077, 1.2392, 1.2451, 1.246, 1.2574, 1.2826, 1.2727, 1.2727</t>
+          <t>1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035, 1.1274, 1.1289, 1.138, 1.1435, 1.1326, 1.1605, 1.1671, 1.1945, 1.1888, 1.205, 1.2073, 1.2112, 1.2423, 1.2315, 1.2639, 1.2241, 1.1368, 1.1893, 1.2077, 1.2392, 1.2451, 1.246, 1.2574, 1.2826, 1.2727, 1.2727, 1.3147, 1.3253</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -3090,23 +3090,23 @@
         <v>3</v>
       </c>
       <c r="I11" s="74" t="n">
-        <v>1.2727</v>
+        <v>1.3253</v>
       </c>
       <c r="J11" s="75" t="n">
-        <v>0</v>
+        <v>0.8062675895641547</v>
       </c>
       <c r="K11" s="76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="76" t="n">
-        <v>-0.7718696397941697</v>
+        <v>4.132945705979413</v>
       </c>
       <c r="M11" s="76" t="n">
-        <v>1.2727</v>
+        <v>1.3253</v>
       </c>
       <c r="N11" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O11" s="30">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001, 1.544, 1.548, 1.5676, 1.5706, 1.5458, 1.5876, 1.5872, 1.6302, 1.6253, 1.6337, 1.6499, 1.6498, 1.7044, 1.683, 1.746, 1.6898, 1.5591, 1.6529, 1.6792, 1.7465, 1.7851, 1.7588, 1.7617, 1.7887, 1.7807, 1.7561</t>
+          <t>1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001, 1.544, 1.548, 1.5676, 1.5706, 1.5458, 1.5876, 1.5872, 1.6302, 1.6253, 1.6337, 1.6499, 1.6498, 1.7044, 1.683, 1.746, 1.6898, 1.5591, 1.6529, 1.6792, 1.7465, 1.7851, 1.7588, 1.7617, 1.7887, 1.7807, 1.7561, 1.8229, 1.8464</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -3239,23 +3239,23 @@
         <v>3</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>1.7561</v>
+        <v>1.8464</v>
       </c>
       <c r="J12" s="75" t="n">
-        <v>-1.381479193575558</v>
+        <v>1.289154643699604</v>
       </c>
       <c r="K12" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L12" s="76" t="n">
-        <v>-1.822552691899143</v>
+        <v>5.142076191560848</v>
       </c>
       <c r="M12" s="76" t="n">
-        <v>1.7561</v>
+        <v>1.8464</v>
       </c>
       <c r="N12" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O12" s="30">
@@ -3376,30 +3376,30 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281, 2.289, 2.288, 2.271, 2.307, 2.29, 2.349, 2.358, 2.378, 2.352, 2.373, 2.403, 2.425, 2.456, 2.474, 2.457, 2.389, 2.286, 2.36, 2.421, 2.498, 2.463, 2.474, 2.479, 2.518, 2.493, 2.508</t>
+          <t>2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281, 2.289, 2.288, 2.271, 2.307, 2.29, 2.349, 2.358, 2.378, 2.352, 2.373, 2.403, 2.425, 2.456, 2.474, 2.457, 2.389, 2.286, 2.36, 2.421, 2.498, 2.463, 2.474, 2.479, 2.518, 2.493, 2.508, 2.574, 2.576</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="74" t="n">
-        <v>2.508</v>
+        <v>2.576</v>
       </c>
       <c r="J13" s="75" t="n">
-        <v>0.6016847172081879</v>
+        <v>0.0777000777000864</v>
       </c>
       <c r="K13" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="76" t="n">
-        <v>0.5699088145896535</v>
+        <v>3.153495440729473</v>
       </c>
       <c r="M13" s="76" t="n">
-        <v>2.647</v>
+        <v>2.715</v>
       </c>
       <c r="N13" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O13" s="30">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552, 4.8483, 4.9114, 4.9607, 4.9348, 4.8767, 4.7873, 4.8272, 4.8134, 4.9049, 4.9685, 5.0368, 4.9983, 5.0017, 5.0181, 5.0197, 5.0262, 4.9916, 4.975, 4.8404, 4.5302, 4.5848, 4.7141, 4.838, 4.824, 4.861, 4.9281, 4.9444, 4.917, 4.9622</t>
+          <t>5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552, 4.8483, 4.9114, 4.9607, 4.9348, 4.8767, 4.7873, 4.8272, 4.8134, 4.9049, 4.9685, 5.0368, 4.9983, 5.0017, 5.0181, 5.0197, 5.0262, 4.9916, 4.975, 4.8404, 4.5302, 4.5848, 4.7141, 4.838, 4.824, 4.861, 4.9281, 4.9444, 4.917, 4.9622, 4.9751, 4.9235</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -3530,23 +3530,23 @@
         <v>14</v>
       </c>
       <c r="I14" s="74" t="n">
-        <v>4.9622</v>
+        <v>4.9235</v>
       </c>
       <c r="J14" s="75" t="n">
-        <v>0.9192597112060271</v>
+        <v>-1.037165082108913</v>
       </c>
       <c r="K14" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="76" t="n">
-        <v>0.7783709316342252</v>
+        <v>-0.8797803959011721</v>
       </c>
       <c r="M14" s="76" t="n">
-        <v>5.8522</v>
+        <v>5.8135</v>
       </c>
       <c r="N14" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O14" s="30">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073, 0.9966, 0.9857, 0.9779, 0.988, 0.9896, 1.01, 1.0337, 1.0486, 1.0332, 1.0381, 1.04, 1.0401, 1.0295, 1.0006, 1.0043, 0.9675, 0.8865, 0.8809, 0.8926, 0.9014, 0.9091, 0.9112, 0.9324, 0.935, 0.928, 0.9257</t>
+          <t>1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073, 0.9966, 0.9857, 0.9779, 0.988, 0.9896, 1.01, 1.0337, 1.0486, 1.0332, 1.0381, 1.04, 1.0401, 1.0295, 1.0006, 1.0043, 0.9675, 0.8865, 0.8809, 0.8926, 0.9014, 0.9091, 0.9112, 0.9324, 0.935, 0.928, 0.9257, 0.9331, 0.9283</t>
         </is>
       </c>
       <c r="E15" s="28" t="inlineStr">
@@ -3682,23 +3682,23 @@
         <v>3</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>0.9257</v>
+        <v>0.9283</v>
       </c>
       <c r="J15" s="75" t="n">
-        <v>-0.2478448275862155</v>
+        <v>-0.5144143178651834</v>
       </c>
       <c r="K15" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="76" t="n">
-        <v>-0.4512153704332679</v>
+        <v>-0.2331002331002505</v>
       </c>
       <c r="M15" s="76" t="n">
-        <v>2.0518</v>
+        <v>2.0544</v>
       </c>
       <c r="N15" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O15" s="30">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733, 1.727, 1.715, 1.699, 1.733, 1.727, 1.789, 1.798, 1.814, 1.794, 1.823, 1.853, 1.876, 1.915, 1.917, 1.919, 1.865, 1.774, 1.846, 1.87, 1.934, 1.912, 1.921, 1.935, 1.97, 1.953, 1.965</t>
+          <t>1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733, 1.727, 1.715, 1.699, 1.733, 1.727, 1.789, 1.798, 1.814, 1.794, 1.823, 1.853, 1.876, 1.915, 1.917, 1.919, 1.865, 1.774, 1.846, 1.87, 1.934, 1.912, 1.921, 1.935, 1.97, 1.953, 1.965, 2.016, 2.007</t>
         </is>
       </c>
       <c r="E16" s="24" t="inlineStr">
@@ -3836,23 +3836,23 @@
         <v>15</v>
       </c>
       <c r="I16" s="74" t="n">
-        <v>1.965</v>
+        <v>2.007</v>
       </c>
       <c r="J16" s="75" t="n">
-        <v>0.614439324116744</v>
+        <v>-0.4464285714285663</v>
       </c>
       <c r="K16" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="76" t="n">
-        <v>0.5917159763313614</v>
+        <v>-0.4304160688665873</v>
       </c>
       <c r="M16" s="76" t="n">
-        <v>2.04</v>
+        <v>2.082</v>
       </c>
       <c r="N16" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O16" s="30">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051, 1.7031, 1.6944, 1.6826, 1.7221, 1.7157, 1.7829, 1.7836, 1.8001, 1.7809, 1.8068, 1.8401, 1.8616, 1.888, 1.8958, 1.8887, 1.8384, 1.7604, 1.8216, 1.8625, 1.921, 1.9091, 1.9107, 1.9362, 1.9697, 1.9542, 1.9526</t>
+          <t>1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051, 1.7031, 1.6944, 1.6826, 1.7221, 1.7157, 1.7829, 1.7836, 1.8001, 1.7809, 1.8068, 1.8401, 1.8616, 1.888, 1.8958, 1.8887, 1.8384, 1.7604, 1.8216, 1.8625, 1.921, 1.9091, 1.9107, 1.9362, 1.9697, 1.9542, 1.9526, 1.9972, 1.9988</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -3990,23 +3990,23 @@
         <v>5</v>
       </c>
       <c r="I17" s="74" t="n">
-        <v>1.9526</v>
+        <v>1.9988</v>
       </c>
       <c r="J17" s="75" t="n">
-        <v>-0.08187493603520858</v>
+        <v>0.08011215701981894</v>
       </c>
       <c r="K17" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="76" t="n">
-        <v>-0.8681525105346051</v>
+        <v>2.366076001229132</v>
       </c>
       <c r="M17" s="76" t="n">
-        <v>1.9526</v>
+        <v>1.9988</v>
       </c>
       <c r="N17" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O17" s="30">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693, 1.5706, 1.5547, 1.5403, 1.566, 1.5558, 1.6241, 1.6349, 1.6584, 1.6409, 1.6638, 1.6859, 1.7106, 1.738, 1.7398, 1.7496, 1.7044, 1.6276, 1.6889, 1.7306, 1.7809, 1.7523, 1.7603, 1.7693, 1.7924, 1.7771, 1.7835</t>
+          <t>1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693, 1.5706, 1.5547, 1.5403, 1.566, 1.5558, 1.6241, 1.6349, 1.6584, 1.6409, 1.6638, 1.6859, 1.7106, 1.738, 1.7398, 1.7496, 1.7044, 1.6276, 1.6889, 1.7306, 1.7809, 1.7523, 1.7603, 1.7693, 1.7924, 1.7771, 1.7835, 1.8545, 1.8541</t>
         </is>
       </c>
       <c r="E18" s="24" t="inlineStr">
@@ -4144,23 +4144,23 @@
         <v>5</v>
       </c>
       <c r="I18" s="74" t="n">
-        <v>1.7835</v>
+        <v>1.8541</v>
       </c>
       <c r="J18" s="75" t="n">
-        <v>0.3601373023465299</v>
+        <v>-0.02156915610676495</v>
       </c>
       <c r="K18" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="76" t="n">
-        <v>0.3601373023465299</v>
+        <v>-0.02156915610676495</v>
       </c>
       <c r="M18" s="76" t="n">
-        <v>1.7835</v>
+        <v>1.8541</v>
       </c>
       <c r="N18" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O18" s="30">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261, 1.143, 1.1458, 1.1385, 1.1436, 1.1265, 1.1321, 1.1319, 1.1347, 1.1322, 1.1205, 1.114, 1.1149, 1.1214, 1.107, 1.1067, 1.0836, 1.0166, 1.0373, 1.0375, 1.0442, 1.0404, 1.0366, 1.047, 1.0493, 1.0424, 1.0507</t>
+          <t>1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261, 1.143, 1.1458, 1.1385, 1.1436, 1.1265, 1.1321, 1.1319, 1.1347, 1.1322, 1.1205, 1.114, 1.1149, 1.1214, 1.107, 1.1067, 1.0836, 1.0166, 1.0373, 1.0375, 1.0442, 1.0404, 1.0366, 1.047, 1.0493, 1.0424, 1.0507, 1.0686, 1.06</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -4291,23 +4291,23 @@
         <v>2</v>
       </c>
       <c r="I19" s="76" t="n">
-        <v>1.0507</v>
+        <v>1.06</v>
       </c>
       <c r="J19" s="78" t="n">
-        <v>0.7962394474290075</v>
+        <v>-0.8047913157402155</v>
       </c>
       <c r="K19" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="76" t="n">
-        <v>0.7232485186476101</v>
+        <v>-0.7326631453399166</v>
       </c>
       <c r="M19" s="76" t="n">
-        <v>1.1559</v>
+        <v>1.1652</v>
       </c>
       <c r="N19" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O19" s="30">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984, 1.987, 1.994, 2.002, 2.017, 2.072, 2.111, 2.164, 2.173, 2.149, 2.171, 2.159, 2.179, 2.189, 2.166, 2.153, 2.142, 2.152, 2.133, 2.166, 2.116, 1.984, 2.037, 2.092, 2.15, 2.156, 2.194, 2.206, 2.278, 2.263, 2.257</t>
+          <t>1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984, 1.987, 1.994, 2.002, 2.017, 2.072, 2.111, 2.164, 2.173, 2.149, 2.171, 2.159, 2.179, 2.189, 2.166, 2.153, 2.142, 2.152, 2.133, 2.166, 2.116, 1.984, 2.037, 2.092, 2.15, 2.156, 2.194, 2.206, 2.278, 2.263, 2.257, 2.328, 2.338</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -4440,23 +4440,23 @@
         <v>3</v>
       </c>
       <c r="I20" s="76" t="n">
-        <v>2.257</v>
+        <v>2.338</v>
       </c>
       <c r="J20" s="78" t="n">
-        <v>-0.2651347768448866</v>
+        <v>0.4295532646048209</v>
       </c>
       <c r="K20" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L20" s="76" t="n">
-        <v>-0.9218612818261593</v>
+        <v>3.588834736375718</v>
       </c>
       <c r="M20" s="76" t="n">
-        <v>2.257</v>
+        <v>2.338</v>
       </c>
       <c r="N20" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O20" s="30">
@@ -4577,30 +4577,30 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333, 1.0395, 1.0382, 1.0389, 1.0457, 1.0141, 1.0291, 1.0305, 1.0433, 1.0308, 1.0263, 1.0208, 1.0247, 1.0402, 1.0218, 1.0295, 0.9886, 0.8991, 0.8979, 0.9094, 0.9323, 0.9349, 0.9442, 0.9422, 0.9563, 0.941, 0.9581</t>
+          <t>0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333, 1.0395, 1.0382, 1.0389, 1.0457, 1.0141, 1.0291, 1.0305, 1.0433, 1.0308, 1.0263, 1.0208, 1.0247, 1.0402, 1.0218, 1.0295, 0.9886, 0.8991, 0.8979, 0.9094, 0.9323, 0.9349, 0.9442, 0.9422, 0.9563, 0.941, 0.9581, 1.0038, 0.9989</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
         <v>104</v>
       </c>
       <c r="I21" s="76" t="n">
-        <v>0.9581</v>
+        <v>0.9989</v>
       </c>
       <c r="J21" s="78" t="n">
-        <v>1.817215727948991</v>
+        <v>-0.4881450488145064</v>
       </c>
       <c r="K21" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="76" t="n">
-        <v>1.817215727948991</v>
+        <v>-0.4881450488145064</v>
       </c>
       <c r="M21" s="76" t="n">
-        <v>0.9581</v>
+        <v>0.9989</v>
       </c>
       <c r="N21" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O21" s="30">
@@ -4726,30 +4726,30 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709, 2.708, 2.722, 2.723, 2.703, 2.709, 2.744, 2.724, 2.74, 2.738, 2.748, 2.772, 2.76, 2.786, 2.764, 2.76, 2.784, 2.8, 2.792, 2.788, 2.802, 2.811, 2.8, 2.881, 2.893, 2.922, 2.902, 2.937, 2.938, 2.956, 2.955</t>
+          <t>2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709, 2.708, 2.722, 2.723, 2.703, 2.709, 2.744, 2.724, 2.74, 2.738, 2.748, 2.772, 2.76, 2.786, 2.764, 2.76, 2.784, 2.8, 2.792, 2.788, 2.802, 2.811, 2.8, 2.881, 2.893, 2.922, 2.902, 2.937, 2.938, 2.956, 2.955, 2.963, 2.961</t>
         </is>
       </c>
       <c r="H22" s="3" t="n">
         <v>113</v>
       </c>
       <c r="I22" s="76" t="n">
-        <v>2.955</v>
+        <v>2.961</v>
       </c>
       <c r="J22" s="78" t="n">
-        <v>-0.03382949932340629</v>
+        <v>-0.0674991562605543</v>
       </c>
       <c r="K22" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="76" t="n">
-        <v>-0.03382949932340629</v>
+        <v>-0.0674991562605543</v>
       </c>
       <c r="M22" s="76" t="n">
-        <v>2.955</v>
+        <v>2.961</v>
       </c>
       <c r="N22" s="76" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="O22" s="30">
@@ -4868,30 +4868,30 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105, 1.1178, 1.1158, 1.1159, 1.1234, 1.091, 1.1058, 1.107, 1.1219, 1.1091, 1.104, 1.0983, 1.1025, 1.1192, 1.0998, 1.1071, 1.0629, 0.9641, 0.963, 0.9756, 0.998, 1.0008, 1.0104, 1.0089, 1.0218, 1.0065, 1.0217</t>
+          <t>0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105, 1.1178, 1.1158, 1.1159, 1.1234, 1.091, 1.1058, 1.107, 1.1219, 1.1091, 1.104, 1.0983, 1.1025, 1.1192, 1.0998, 1.1071, 1.0629, 0.9641, 0.963, 0.9756, 0.998, 1.0008, 1.0104, 1.0089, 1.0218, 1.0065, 1.0217, 1.0705</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I23" s="76" t="n">
-        <v>1.0217</v>
+        <v>1.0705</v>
       </c>
       <c r="J23" s="78" t="n">
-        <v>1.510183805265783</v>
+        <v>4.776353136928644</v>
       </c>
       <c r="K23" s="76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="76" t="n">
-        <v>1.510183805265783</v>
+        <v>6.358668653750627</v>
       </c>
       <c r="M23" s="76" t="n">
-        <v>1.0217</v>
+        <v>1.0705</v>
       </c>
       <c r="N23" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="O23" s="30">
@@ -5012,30 +5012,30 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609, 1.642, 1.634, 1.65, 1.651, 1.632, 1.665, 1.67, 1.705, 1.709, 1.716, 1.715, 1.709, 1.755, 1.735, 1.784, 1.731, 1.604, 1.661, 1.67, 1.707, 1.699, 1.725, 1.743, 1.783, 1.775, 1.788</t>
+          <t>1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609, 1.642, 1.634, 1.65, 1.651, 1.632, 1.665, 1.67, 1.705, 1.709, 1.716, 1.715, 1.709, 1.755, 1.735, 1.784, 1.731, 1.604, 1.661, 1.67, 1.707, 1.699, 1.725, 1.743, 1.783, 1.775, 1.788, 1.857, 1.895</t>
         </is>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="76" t="n">
-        <v>1.788</v>
+        <v>1.895</v>
       </c>
       <c r="J24" s="78" t="n">
-        <v>0.73239436619719</v>
+        <v>2.046311254711903</v>
       </c>
       <c r="K24" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" s="76" t="n">
-        <v>0.5816554809843555</v>
+        <v>5.369127516778528</v>
       </c>
       <c r="M24" s="76" t="n">
-        <v>2.248</v>
+        <v>2.355</v>
       </c>
       <c r="N24" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O24" s="0">
@@ -5156,30 +5156,30 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454, 1.8824, 1.8705, 1.8822, 1.8826, 1.8552, 1.9101, 1.9396, 1.982, 1.9654, 1.9967, 2.0032, 2.0143, 2.0945, 2.0749, 2.129, 2.0843, 1.9474, 2.034, 2.0439, 2.1053, 2.1487, 2.1539, 2.1677, 2.2087, 2.2184, 2.2406</t>
+          <t>1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454, 1.8824, 1.8705, 1.8822, 1.8826, 1.8552, 1.9101, 1.9396, 1.982, 1.9654, 1.9967, 2.0032, 2.0143, 2.0945, 2.0749, 2.129, 2.0843, 1.9474, 2.034, 2.0439, 2.1053, 2.1487, 2.1539, 2.1677, 2.2087, 2.2184, 2.2406, 2.3069, 2.376</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="76" t="n">
-        <v>2.2406</v>
+        <v>2.376</v>
       </c>
       <c r="J25" s="78" t="n">
-        <v>1.000721240533728</v>
+        <v>2.995361740864351</v>
       </c>
       <c r="K25" s="76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L25" s="76" t="n">
-        <v>14.715920497892</v>
+        <v>21.51174462959244</v>
       </c>
       <c r="M25" s="76" t="n">
-        <v>2.2856</v>
+        <v>2.421</v>
       </c>
       <c r="N25" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O25" s="0">
@@ -5300,30 +5300,30 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35, 2.298, 2.312, 2.308, 2.383, 2.398, 2.434, 2.454, 2.414, 2.471, 2.484, 2.558, 2.546, 2.577, 2.586, 2.592, 2.674, 2.649, 2.739, 2.646, 2.435, 2.523, 2.564, 2.649, 2.714, 2.732, 2.736, 2.826, 2.817, 2.829</t>
+          <t>2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35, 2.298, 2.312, 2.308, 2.383, 2.398, 2.434, 2.454, 2.414, 2.471, 2.484, 2.558, 2.546, 2.577, 2.586, 2.592, 2.674, 2.649, 2.739, 2.646, 2.435, 2.523, 2.564, 2.649, 2.714, 2.732, 2.736, 2.826, 2.817, 2.829, 2.954, 3.028</t>
         </is>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="76" t="n">
-        <v>2.829</v>
+        <v>3.028</v>
       </c>
       <c r="J26" s="78" t="n">
-        <v>0.4259850905218321</v>
+        <v>2.505077860528092</v>
       </c>
       <c r="K26" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="76" t="n">
-        <v>0.4168113928447382</v>
+        <v>7.328933657519968</v>
       </c>
       <c r="M26" s="76" t="n">
-        <v>2.891</v>
+        <v>3.09</v>
       </c>
       <c r="N26" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O26" s="0">
@@ -5444,30 +5444,30 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982, 1.2174, 1.2225, 1.2272, 1.2349, 1.2271, 1.2388, 1.2347, 1.2452, 1.2487, 1.2422, 1.2368, 1.24, 1.26, 1.2557, 1.2639, 1.2383, 1.1689, 1.2131, 1.2282, 1.255, 1.2568, 1.2658, 1.2673, 1.2927, 1.2876, 1.2879</t>
+          <t>1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982, 1.2174, 1.2225, 1.2272, 1.2349, 1.2271, 1.2388, 1.2347, 1.2452, 1.2487, 1.2422, 1.2368, 1.24, 1.26, 1.2557, 1.2639, 1.2383, 1.1689, 1.2131, 1.2282, 1.255, 1.2568, 1.2658, 1.2673, 1.2927, 1.2876, 1.2879, 1.3212, 1.335</t>
         </is>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="76" t="n">
-        <v>1.2879</v>
+        <v>1.335</v>
       </c>
       <c r="J27" s="78" t="n">
-        <v>0.02329916123019314</v>
+        <v>1.044504995458676</v>
       </c>
       <c r="K27" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="76" t="n">
-        <v>0.02329916123019314</v>
+        <v>3.681267474370914</v>
       </c>
       <c r="M27" s="76" t="n">
-        <v>1.2879</v>
+        <v>1.335</v>
       </c>
       <c r="N27" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O27" s="0">
@@ -5588,30 +5588,30 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154, 1.2283, 1.2258, 1.2266, 1.2403, 1.1714, 1.2046, 1.2077, 1.2351, 1.208, 1.1977, 1.1858, 1.1941, 1.2261, 1.186, 1.2016, 1.1115, 0.9104, 0.9076, 0.9339, 0.983, 0.9885, 1.0069, 1.0022, 1.0312, 0.9983, 1.0348</t>
+          <t>0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154, 1.2283, 1.2258, 1.2266, 1.2403, 1.1714, 1.2046, 1.2077, 1.2351, 1.208, 1.1977, 1.1858, 1.1941, 1.2261, 1.186, 1.2016, 1.1115, 0.9104, 0.9076, 0.9339, 0.983, 0.9885, 1.0069, 1.0022, 1.0312, 0.9983, 1.0348, 1.1292, 1.1173</t>
         </is>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="76" t="n">
-        <v>1.0348</v>
+        <v>1.1173</v>
       </c>
       <c r="J28" s="78" t="n">
-        <v>3.656215566462985</v>
+        <v>-1.053843428976268</v>
       </c>
       <c r="K28" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L28" s="76" t="n">
-        <v>0.6130268199233679</v>
+        <v>-0.1502629601803198</v>
       </c>
       <c r="M28" s="76" t="n">
-        <v>0.1313</v>
+        <v>0.1329</v>
       </c>
       <c r="N28" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O28" s="0">
@@ -5732,30 +5732,30 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206, 1.219, 1.231, 1.278, 1.27, 1.274, 1.289, 1.285, 1.31, 1.332, 1.309, 1.309, 1.306, 1.34, 1.32, 1.375, 1.345, 1.251, 1.339, 1.385, 1.413, 1.372, 1.433, 1.426, 1.477, 1.464, 1.45</t>
+          <t>0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206, 1.219, 1.231, 1.278, 1.27, 1.274, 1.289, 1.285, 1.31, 1.332, 1.309, 1.309, 1.306, 1.34, 1.32, 1.375, 1.345, 1.251, 1.339, 1.385, 1.413, 1.372, 1.433, 1.426, 1.477, 1.464, 1.45, 1.496, 1.509</t>
         </is>
       </c>
       <c r="H29" s="0" t="n">
         <v>100</v>
       </c>
       <c r="I29" s="76" t="n">
-        <v>1.45</v>
+        <v>1.509</v>
       </c>
       <c r="J29" s="78" t="n">
-        <v>-0.9562841530054653</v>
+        <v>0.8689839572192447</v>
       </c>
       <c r="K29" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L29" s="76" t="n">
-        <v>-1.708542713567841</v>
+        <v>3.783231083844573</v>
       </c>
       <c r="M29" s="76" t="n">
-        <v>0.978</v>
+        <v>1.015</v>
       </c>
       <c r="N29" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O29" s="0">
@@ -5872,30 +5872,30 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778, 1.7856, 1.802, 1.808, 1.8266, 1.8226, 1.8043, 1.8185, 1.8006, 1.8201, 1.8233, 1.8414, 1.8286, 1.8242, 1.8186, 1.8235, 1.8314, 1.8017, 1.8043, 1.7538, 1.6446, 1.6912, 1.7048, 1.7352, 1.7306, 1.7254, 1.7459, 1.7522, 1.7386, 1.7487</t>
+          <t>1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778, 1.7856, 1.802, 1.808, 1.8266, 1.8226, 1.8043, 1.8185, 1.8006, 1.8201, 1.8233, 1.8414, 1.8286, 1.8242, 1.8186, 1.8235, 1.8314, 1.8017, 1.8043, 1.7538, 1.6446, 1.6912, 1.7048, 1.7352, 1.7306, 1.7254, 1.7459, 1.7522, 1.7386, 1.7487, 1.7698, 1.7532</t>
         </is>
       </c>
       <c r="H30" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I30" s="76" t="n">
-        <v>1.7487</v>
+        <v>1.7532</v>
       </c>
       <c r="J30" s="78" t="n">
-        <v>0.5809271827907512</v>
+        <v>-0.9379590914227567</v>
       </c>
       <c r="K30" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="76" t="n">
-        <v>0.2775792887374264</v>
+        <v>-0.4523407270150948</v>
       </c>
       <c r="M30" s="76" t="n">
-        <v>3.6487</v>
+        <v>3.6532</v>
       </c>
       <c r="N30" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O30" s="0">
@@ -6016,30 +6016,30 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424, 2.7479, 2.7864, 2.7642, 2.7818, 2.7804, 2.7923, 2.8172, 2.8047, 2.8335, 2.8115, 2.8078, 2.8327, 2.8494, 2.8418, 2.8371, 2.8507, 2.8592, 2.8425, 2.9278, 2.94, 2.9716, 2.9499, 2.9892, 2.9893, 3.0119, 3.0082</t>
+          <t>2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424, 2.7479, 2.7864, 2.7642, 2.7818, 2.7804, 2.7923, 2.8172, 2.8047, 2.8335, 2.8115, 2.8078, 2.8327, 2.8494, 2.8418, 2.8371, 2.8507, 2.8592, 2.8425, 2.9278, 2.94, 2.9716, 2.9499, 2.9892, 2.9893, 3.0119, 3.0082, 3.018, 3.0158</t>
         </is>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="76" t="n">
-        <v>3.0082</v>
+        <v>3.0158</v>
       </c>
       <c r="J31" s="78" t="n">
-        <v>-0.1228460440253599</v>
+        <v>-0.07289595758779847</v>
       </c>
       <c r="K31" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="76" t="n">
-        <v>-0.1127395715896223</v>
+        <v>-0.06690997566909239</v>
       </c>
       <c r="M31" s="76" t="n">
-        <v>3.2782</v>
+        <v>3.2858</v>
       </c>
       <c r="N31" s="76" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="O31" s="0">
@@ -6148,30 +6148,30 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988, 0.957, 0.96, 0.957, 0.976, 0.965, 0.968, 0.98, 0.962, 1.004, 1.016, 1.046, 1.05, 1.072, 1.093, 1.108, 1.136, 1.129, 1.179, 1.141, 1.04, 1.114, 1.143, 1.18, 1.213, 1.176, 1.181, 1.221, 1.219, 1.211</t>
+          <t>0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988, 0.957, 0.96, 0.957, 0.976, 0.965, 0.968, 0.98, 0.962, 1.004, 1.016, 1.046, 1.05, 1.072, 1.093, 1.108, 1.136, 1.129, 1.179, 1.141, 1.04, 1.114, 1.143, 1.18, 1.213, 1.176, 1.181, 1.221, 1.219, 1.211, 1.246, 1.292</t>
         </is>
       </c>
       <c r="H32" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I32" s="76" t="n">
-        <v>1.211</v>
+        <v>1.292</v>
       </c>
       <c r="J32" s="78" t="n">
-        <v>-0.6562756357670227</v>
+        <v>3.691813804173358</v>
       </c>
       <c r="K32" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L32" s="76" t="n">
-        <v>-0.3154574132492046</v>
+        <v>2.563291139240505</v>
       </c>
       <c r="M32" s="76" t="n">
-        <v>3.16</v>
+        <v>3.241</v>
       </c>
       <c r="N32" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O32" s="0">
@@ -6292,30 +6292,30 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031, 2.0743, 2.0578, 2.0787, 2.0751, 2.0351, 2.1002, 2.1392, 2.188, 2.1672, 2.2078, 2.2102, 2.2243, 2.3164, 2.294, 2.3611, 2.3208, 2.169, 2.2652, 2.2853, 2.3499, 2.3926, 2.3979, 2.4137, 2.4626, 2.4709, 2.4955</t>
+          <t>1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031, 2.0743, 2.0578, 2.0787, 2.0751, 2.0351, 2.1002, 2.1392, 2.188, 2.1672, 2.2078, 2.2102, 2.2243, 2.3164, 2.294, 2.3611, 2.3208, 2.169, 2.2652, 2.2853, 2.3499, 2.3926, 2.3979, 2.4137, 2.4626, 2.4709, 2.4955, 2.5689, 2.6463</t>
         </is>
       </c>
       <c r="H33" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I33" s="76" t="n">
-        <v>2.4955</v>
+        <v>2.6463</v>
       </c>
       <c r="J33" s="78" t="n">
-        <v>0.9955886519082099</v>
+        <v>3.012962746700919</v>
       </c>
       <c r="K33" s="76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L33" s="76" t="n">
-        <v>7.244286665187492</v>
+        <v>10.5901930330597</v>
       </c>
       <c r="M33" s="76" t="n">
-        <v>4.8335</v>
+        <v>4.9843</v>
       </c>
       <c r="N33" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O33" s="0">
@@ -6432,30 +6432,30 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379, 1.4891, 1.487, 1.4992, 1.4905, 1.4571, 1.4964, 1.5418, 1.6194, 1.6067, 1.6429, 1.6427, 1.6377, 1.7166, 1.718, 1.7997, 1.7785, 1.6634, 1.7211, 1.7295, 1.7679, 1.8224, 1.7854, 1.8022, 1.8508, 1.9104, 1.9366</t>
+          <t>1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379, 1.4891, 1.487, 1.4992, 1.4905, 1.4571, 1.4964, 1.5418, 1.6194, 1.6067, 1.6429, 1.6427, 1.6377, 1.7166, 1.718, 1.7997, 1.7785, 1.6634, 1.7211, 1.7295, 1.7679, 1.8224, 1.7854, 1.8022, 1.8508, 1.9104, 1.9366, 1.9868, 2.0561</t>
         </is>
       </c>
       <c r="H34" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I34" s="76" t="n">
-        <v>1.9366</v>
+        <v>2.0561</v>
       </c>
       <c r="J34" s="82" t="n">
-        <v>1.3714405360134</v>
+        <v>3.488020938192064</v>
       </c>
       <c r="K34" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L34" s="76" t="n">
-        <v>8.468690489526157</v>
+        <v>15.16186848885402</v>
       </c>
       <c r="M34" s="76" t="n">
-        <v>1.9366</v>
+        <v>2.0561</v>
       </c>
       <c r="N34" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O34" s="0">
@@ -6572,30 +6572,30 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869, 0.885, 0.885, 0.897, 0.912, 0.898, 0.922, 0.918, 0.933, 0.927, 0.928, 0.93, 0.931, 0.954, 0.948, 0.961, 0.93, 0.869, 0.912, 0.938, 0.972, 0.972, 0.985, 0.978, 1.004, 0.994, 0.996</t>
+          <t>0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869, 0.885, 0.885, 0.897, 0.912, 0.898, 0.922, 0.918, 0.933, 0.927, 0.928, 0.93, 0.931, 0.954, 0.948, 0.961, 0.93, 0.869, 0.912, 0.938, 0.972, 0.972, 0.985, 0.978, 1.004, 0.994, 0.996, 1.031, 1.043</t>
         </is>
       </c>
       <c r="H35" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I35" s="76" t="n">
-        <v>0.996</v>
+        <v>1.043</v>
       </c>
       <c r="J35" s="78" t="n">
-        <v>0.2012072434607648</v>
+        <v>1.163918525703202</v>
       </c>
       <c r="K35" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" s="76" t="n">
-        <v>0.08873114463175598</v>
+        <v>2.173913043478258</v>
       </c>
       <c r="M35" s="76" t="n">
-        <v>2.256</v>
+        <v>2.303</v>
       </c>
       <c r="N35" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O35" s="0">
@@ -6712,30 +6712,30 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837, 1.8425, 1.8447, 1.8326, 1.8375, 1.8636, 1.8466, 1.8522, 1.8497, 1.8619, 1.8831, 1.8759, 1.8971, 1.8787, 1.8771, 1.9006, 1.9153, 1.9095, 1.9062, 1.9186, 1.9279, 1.9119, 1.9736, 1.9855, 2.0068, 1.9844, 2.011, 2.0056, 2.0214, 2.0176</t>
+          <t>1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837, 1.8425, 1.8447, 1.8326, 1.8375, 1.8636, 1.8466, 1.8522, 1.8497, 1.8619, 1.8831, 1.8759, 1.8971, 1.8787, 1.8771, 1.9006, 1.9153, 1.9095, 1.9062, 1.9186, 1.9279, 1.9119, 1.9736, 1.9855, 2.0068, 1.9844, 2.011, 2.0056, 2.0214, 2.0176, 2.0275, 2.026</t>
         </is>
       </c>
       <c r="H36" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I36" s="76" t="n">
-        <v>2.0176</v>
+        <v>2.026</v>
       </c>
       <c r="J36" s="78" t="n">
-        <v>-0.1879885228059773</v>
+        <v>-0.07398273736128518</v>
       </c>
       <c r="K36" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="76" t="n">
-        <v>-0.1879885228059773</v>
+        <v>-0.07398273736128518</v>
       </c>
       <c r="M36" s="76" t="n">
-        <v>2.0176</v>
+        <v>2.026</v>
       </c>
       <c r="N36" s="76" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="O36" s="0">
@@ -6852,30 +6852,30 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24, 1.262, 1.262, 1.283, 1.283, 1.281, 1.31, 1.311, 1.351, 1.335, 1.345, 1.352, 1.35, 1.389, 1.375, 1.402, 1.347, 1.233, 1.299, 1.315, 1.341, 1.344, 1.364, 1.371, 1.383, 1.379, 1.377</t>
+          <t>1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24, 1.262, 1.262, 1.283, 1.283, 1.281, 1.31, 1.311, 1.351, 1.335, 1.345, 1.352, 1.35, 1.389, 1.375, 1.402, 1.347, 1.233, 1.299, 1.315, 1.341, 1.344, 1.364, 1.371, 1.383, 1.379, 1.377, 1.426, 1.445</t>
         </is>
       </c>
       <c r="H37" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I37" s="76" t="n">
-        <v>1.377</v>
+        <v>1.445</v>
       </c>
       <c r="J37" s="78" t="n">
-        <v>-0.1450326323422771</v>
+        <v>1.332398316970556</v>
       </c>
       <c r="K37" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L37" s="76" t="n">
-        <v>-0.4338394793926251</v>
+        <v>4.938271604938276</v>
       </c>
       <c r="M37" s="76" t="n">
-        <v>1.377</v>
+        <v>1.445</v>
       </c>
       <c r="N37" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O37" s="0">
@@ -6996,30 +6996,30 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>1.2768, 1.2664, 1.2711, 1.2911, 1.2738, 1.2717, 1.2449, 1.2015, 1.2146, 1.2514, 1.2488, 1.255, 1.2803, 1.3085, 1.317, 1.3394, 1.3687, 1.3842, 1.426, 1.4116, 1.4482, 1.4473, 1.4782, 1.4708, 1.4711, 1.4363, 1.4251, 1.3799, 1.4175, 1.4822, 1.47, 1.4293, 1.4365, 1.4326, 1.4836, 1.4815, 1.4936, 1.4849, 1.4517, 1.4908, 1.536, 1.6133, 1.6006, 1.6367, 1.6365, 1.6314, 1.7101, 1.7114, 1.7928, 1.7716, 1.6569, 1.7143, 1.7227, 1.7609, 1.8152, 1.7783, 1.7951, 1.8434, 1.9028, 1.9289</t>
+          <t>1.2711, 1.2911, 1.2738, 1.2717, 1.2449, 1.2015, 1.2146, 1.2514, 1.2488, 1.255, 1.2803, 1.3085, 1.317, 1.3394, 1.3687, 1.3842, 1.426, 1.4116, 1.4482, 1.4473, 1.4782, 1.4708, 1.4711, 1.4363, 1.4251, 1.3799, 1.4175, 1.4822, 1.47, 1.4293, 1.4365, 1.4326, 1.4836, 1.4815, 1.4936, 1.4849, 1.4517, 1.4908, 1.536, 1.6133, 1.6006, 1.6367, 1.6365, 1.6314, 1.7101, 1.7114, 1.7928, 1.7716, 1.6569, 1.7143, 1.7227, 1.7609, 1.8152, 1.7783, 1.7951, 1.8434, 1.9028, 1.9289, 1.9788, 2.0478</t>
         </is>
       </c>
       <c r="H38" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I38" s="76" t="n">
-        <v>1.9289</v>
+        <v>2.0478</v>
       </c>
       <c r="J38" s="82" t="n">
-        <v>1.371662812697079</v>
+        <v>3.486961795027298</v>
       </c>
       <c r="K38" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L38" s="76" t="n">
-        <v>8.468762301074063</v>
+        <v>15.15492324129787</v>
       </c>
       <c r="M38" s="76" t="n">
-        <v>1.9289</v>
+        <v>2.0478</v>
       </c>
       <c r="N38" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O38" s="0">
@@ -7253,30 +7253,30 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>1.2161, 1.2084, 1.2211, 1.2346, 1.2237, 1.2186, 1.2058, 1.2128, 1.2141, 1.2094, 1.2053, 1.1931, 1.1971, 1.2015, 1.2013, 1.2115, 1.2188, 1.2185, 1.222, 1.2239, 1.2197, 1.2441, 1.2484, 1.2631, 1.2592, 1.258, 1.2553, 1.2408, 1.2489, 1.2486, 1.2577, 1.2589, 1.277, 1.2824, 1.2999, 1.2971, 1.2906, 1.2992, 1.285, 1.3021, 1.3023, 1.3132, 1.3075, 1.3017, 1.2986, 1.3007, 1.3108, 1.2888, 1.2967, 1.2591, 1.1679, 1.2075, 1.2197, 1.2419, 1.2415, 1.2453, 1.257, 1.2682, 1.2643, 1.272</t>
+          <t>1.2211, 1.2346, 1.2237, 1.2186, 1.2058, 1.2128, 1.2141, 1.2094, 1.2053, 1.1931, 1.1971, 1.2015, 1.2013, 1.2115, 1.2188, 1.2185, 1.222, 1.2239, 1.2197, 1.2441, 1.2484, 1.2631, 1.2592, 1.258, 1.2553, 1.2408, 1.2489, 1.2486, 1.2577, 1.2589, 1.277, 1.2824, 1.2999, 1.2971, 1.2906, 1.2992, 1.285, 1.3021, 1.3023, 1.3132, 1.3075, 1.3017, 1.2986, 1.3007, 1.3108, 1.2888, 1.2967, 1.2591, 1.1679, 1.2075, 1.2197, 1.2419, 1.2415, 1.2453, 1.257, 1.2682, 1.2643, 1.272, 1.3008, 1.2964</t>
         </is>
       </c>
       <c r="H40" s="0" t="n">
         <v>115</v>
       </c>
       <c r="I40" s="76" t="n">
-        <v>1.272</v>
+        <v>1.2964</v>
       </c>
       <c r="J40" s="78" t="n">
-        <v>0.6090326662975591</v>
+        <v>-0.3382533825338223</v>
       </c>
       <c r="K40" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L40" s="76" t="n">
-        <v>0.6090326662975591</v>
+        <v>-0.3382533825338223</v>
       </c>
       <c r="M40" s="76" t="n">
-        <v>1.272</v>
+        <v>1.2964</v>
       </c>
       <c r="N40" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O40" s="0">
@@ -7393,30 +7393,30 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>1.4557, 1.4409, 1.4495, 1.4711, 1.4565, 1.4497, 1.4261, 1.4321, 1.4448, 1.4361, 1.4333, 1.4221, 1.4244, 1.4315, 1.4324, 1.4468, 1.4563, 1.4505, 1.4539, 1.446, 1.4437, 1.4724, 1.4886, 1.5122, 1.5088, 1.5095, 1.5056, 1.4836, 1.4949, 1.4982, 1.51, 1.5044, 1.5257, 1.5363, 1.5617, 1.5606, 1.5569, 1.5732, 1.5612, 1.5906, 1.5884, 1.6079, 1.5989, 1.5949, 1.5924, 1.5936, 1.6115, 1.5838, 1.5987, 1.5427, 1.4206, 1.474, 1.5008, 1.5356, 1.5263, 1.5417, 1.5576, 1.5714, 1.5623, 1.5737</t>
+          <t>1.4495, 1.4711, 1.4565, 1.4497, 1.4261, 1.4321, 1.4448, 1.4361, 1.4333, 1.4221, 1.4244, 1.4315, 1.4324, 1.4468, 1.4563, 1.4505, 1.4539, 1.446, 1.4437, 1.4724, 1.4886, 1.5122, 1.5088, 1.5095, 1.5056, 1.4836, 1.4949, 1.4982, 1.51, 1.5044, 1.5257, 1.5363, 1.5617, 1.5606, 1.5569, 1.5732, 1.5612, 1.5906, 1.5884, 1.6079, 1.5989, 1.5949, 1.5924, 1.5936, 1.6115, 1.5838, 1.5987, 1.5427, 1.4206, 1.474, 1.5008, 1.5356, 1.5263, 1.5417, 1.5576, 1.5714, 1.5623, 1.5737, 1.6104, 1.6061</t>
         </is>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="76" t="n">
-        <v>1.5737</v>
+        <v>1.6061</v>
       </c>
       <c r="J41" s="78" t="n">
-        <v>0.7296934007553016</v>
+        <v>-0.2670144063586668</v>
       </c>
       <c r="K41" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L41" s="76" t="n">
-        <v>0.7296934007553016</v>
+        <v>-0.2670144063586668</v>
       </c>
       <c r="M41" s="76" t="n">
-        <v>1.5737</v>
+        <v>1.6061</v>
       </c>
       <c r="N41" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O41" s="0">
@@ -7533,30 +7533,30 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>1.0973, 1.0896, 1.0974, 1.1075, 1.0979, 1.0941, 1.084, 1.0908, 1.0933, 1.0895, 1.0857, 1.0772, 1.0789, 1.0817, 1.08, 1.0888, 1.0963, 1.0951, 1.0971, 1.0974, 1.0943, 1.1139, 1.1209, 1.1347, 1.1321, 1.1307, 1.1271, 1.1135, 1.1217, 1.1225, 1.1314, 1.1298, 1.1457, 1.1501, 1.1636, 1.1615, 1.1593, 1.1681, 1.1546, 1.1699, 1.1696, 1.1816, 1.177, 1.1726, 1.1698, 1.1704, 1.1799, 1.1628, 1.1695, 1.1356, 1.0534, 1.0813, 1.0961, 1.1169, 1.1179, 1.1238, 1.1305, 1.1408, 1.1345, 1.1405</t>
+          <t>1.0974, 1.1075, 1.0979, 1.0941, 1.084, 1.0908, 1.0933, 1.0895, 1.0857, 1.0772, 1.0789, 1.0817, 1.08, 1.0888, 1.0963, 1.0951, 1.0971, 1.0974, 1.0943, 1.1139, 1.1209, 1.1347, 1.1321, 1.1307, 1.1271, 1.1135, 1.1217, 1.1225, 1.1314, 1.1298, 1.1457, 1.1501, 1.1636, 1.1615, 1.1593, 1.1681, 1.1546, 1.1699, 1.1696, 1.1816, 1.177, 1.1726, 1.1698, 1.1704, 1.1799, 1.1628, 1.1695, 1.1356, 1.0534, 1.0813, 1.0961, 1.1169, 1.1179, 1.1238, 1.1305, 1.1408, 1.1345, 1.1405, 1.1655, 1.1628</t>
         </is>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="76" t="n">
-        <v>1.1405</v>
+        <v>1.1628</v>
       </c>
       <c r="J42" s="82" t="n">
-        <v>0.5288673424416046</v>
+        <v>-0.2316602316602252</v>
       </c>
       <c r="K42" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L42" s="76" t="n">
-        <v>0.5288673424416046</v>
+        <v>-0.2316602316602252</v>
       </c>
       <c r="M42" s="76" t="n">
-        <v>1.1405</v>
+        <v>1.1628</v>
       </c>
       <c r="N42" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O42" s="0">
@@ -7673,30 +7673,30 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>2.109, 2.091, 2.109, 2.131, 2.11, 2.097, 2.07, 2.085, 2.093, 2.085, 2.079, 2.061, 2.069, 2.078, 2.078, 2.091, 2.102, 2.1, 2.095, 2.103, 2.095, 2.131, 2.136, 2.16, 2.153, 2.147, 2.142, 2.115, 2.126, 2.131, 2.147, 2.144, 2.174, 2.184, 2.218, 2.207, 2.199, 2.219, 2.187, 2.219, 2.226, 2.254, 2.247, 2.243, 2.236, 2.24, 2.26, 2.223, 2.236, 2.172, 2.001, 2.056, 2.071, 2.106, 2.107, 2.118, 2.14, 2.152, 2.143, 2.155</t>
+          <t>2.109, 2.131, 2.11, 2.097, 2.07, 2.085, 2.093, 2.085, 2.079, 2.061, 2.069, 2.078, 2.078, 2.091, 2.102, 2.1, 2.095, 2.103, 2.095, 2.131, 2.136, 2.16, 2.153, 2.147, 2.142, 2.115, 2.126, 2.131, 2.147, 2.144, 2.174, 2.184, 2.218, 2.207, 2.199, 2.219, 2.187, 2.219, 2.226, 2.254, 2.247, 2.243, 2.236, 2.24, 2.26, 2.223, 2.236, 2.172, 2.001, 2.056, 2.071, 2.106, 2.107, 2.118, 2.14, 2.152, 2.143, 2.155, 2.203, 2.188</t>
         </is>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="76" t="n">
-        <v>2.155</v>
+        <v>2.188</v>
       </c>
       <c r="J43" s="78" t="n">
-        <v>0.5599626691553902</v>
+        <v>-0.6808896958692547</v>
       </c>
       <c r="K43" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L43" s="76" t="n">
-        <v>0.4832863471606931</v>
+        <v>-0.589854502556041</v>
       </c>
       <c r="M43" s="76" t="n">
-        <v>2.495</v>
+        <v>2.528</v>
       </c>
       <c r="N43" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O43" s="0">
@@ -7813,30 +7813,30 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>1.606, 1.591, 1.607, 1.623, 1.611, 1.609, 1.603, 1.623, 1.62, 1.612, 1.607, 1.604, 1.609, 1.615, 1.608, 1.615, 1.617, 1.624, 1.623, 1.633, 1.635, 1.647, 1.655, 1.665, 1.66, 1.664, 1.658, 1.638, 1.647, 1.645, 1.662, 1.66, 1.68, 1.69, 1.712, 1.711, 1.706, 1.719, 1.7, 1.72, 1.714, 1.725, 1.727, 1.719, 1.71, 1.711, 1.713, 1.684, 1.689, 1.648, 1.512, 1.542, 1.558, 1.576, 1.581, 1.603, 1.609, 1.619, 1.61, 1.621</t>
+          <t>1.607, 1.623, 1.611, 1.609, 1.603, 1.623, 1.62, 1.612, 1.607, 1.604, 1.609, 1.615, 1.608, 1.615, 1.617, 1.624, 1.623, 1.633, 1.635, 1.647, 1.655, 1.665, 1.66, 1.664, 1.658, 1.638, 1.647, 1.645, 1.662, 1.66, 1.68, 1.69, 1.712, 1.711, 1.706, 1.719, 1.7, 1.72, 1.714, 1.725, 1.727, 1.719, 1.71, 1.711, 1.713, 1.684, 1.689, 1.648, 1.512, 1.542, 1.558, 1.576, 1.581, 1.603, 1.609, 1.619, 1.61, 1.621, 1.653, 1.657</t>
         </is>
       </c>
       <c r="H44" s="0" t="n">
         <v>100</v>
       </c>
       <c r="I44" s="80" t="n">
-        <v>1.621</v>
+        <v>1.657</v>
       </c>
       <c r="J44" s="78" t="n">
-        <v>0.6832298136645899</v>
+        <v>0.2419842710223837</v>
       </c>
       <c r="K44" s="80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44" s="80" t="n">
-        <v>0.6832298136645899</v>
+        <v>2.919254658385089</v>
       </c>
       <c r="M44" s="80" t="n">
-        <v>1.621</v>
+        <v>1.657</v>
       </c>
       <c r="N44" s="80" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O44" s="0">
@@ -8466,23 +8466,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>2917.0077</v>
+        <v>2984.9716</v>
       </c>
       <c r="G2" s="12" t="n">
-        <v>0.3762533879476946</v>
+        <v>0.04522019944613819</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>0.3762533879476946</v>
+        <v>2.714938214742328</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>3.080803687</v>
+        <v>3.749985626</v>
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:12</t>
+          <t>20200218 16:29:42</t>
         </is>
       </c>
       <c r="L2" s="45">
@@ -8607,23 +8607,23 @@
         <v>0</v>
       </c>
       <c r="F3" s="12" t="n">
-        <v>10916.3117</v>
+        <v>11306.4863</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>0.4785342246201026</v>
+        <v>0.5780990441372975</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>0.4785342246201026</v>
+        <v>4.06987285410221</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>5.048924645</v>
+        <v>6.249475121000001</v>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L3" s="0">
@@ -8743,23 +8743,23 @@
         <v>0</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>2069.219</v>
+        <v>2170.949</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.2239178996762586</v>
+        <v>1.154238443520732</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>0.2239373173128891</v>
+        <v>5.151294519856575</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>1.892438915</v>
+        <v>2.322640254</v>
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:13</t>
+          <t>20200218 16:29:42</t>
         </is>
       </c>
       <c r="L4" s="45">
@@ -8879,23 +8879,23 @@
         <v>3</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>2895.0644</v>
+        <v>2924.3981</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>0.6811038187232374</v>
+        <v>-0.8702098889250073</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v>0.6811038187232374</v>
+        <v>-0.8702098889250073</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>0.532705082</v>
+        <v>0.608750963</v>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:13</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L5" s="45">
@@ -9015,23 +9015,23 @@
         <v>103</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v>3987.7342</v>
+        <v>4057.5108</v>
       </c>
       <c r="G6" s="12" t="n">
-        <v>0.7024234941383131</v>
+        <v>-0.4883794158179465</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>0.7024234941383131</v>
+        <v>-0.4883794158179465</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>2.228950736</v>
+        <v>2.425525173</v>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:13</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L6" s="45">
@@ -9156,23 +9156,23 @@
         <v>3</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>4236.914</v>
+        <v>4333.747</v>
       </c>
       <c r="G7" s="12" t="n">
-        <v>0.7562699875770177</v>
+        <v>0.206899788868808</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>0.7562699875770177</v>
+        <v>3.059014837179134</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>0.296982909</v>
+        <v>0.344906732</v>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L7" s="45">
@@ -9288,23 +9288,23 @@
         <v>0</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>5420.8025</v>
+        <v>5660.8142</v>
       </c>
       <c r="G8" s="12" t="n">
-        <v>0.1470706200945986</v>
+        <v>1.186493024159033</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>0.1470706200945986</v>
+        <v>4.581186909988754</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>1.627420046</v>
+        <v>2.064285244</v>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:13</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L8" s="45">
@@ -9425,23 +9425,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>9479.105</v>
+        <v>9593.825000000001</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>0.3164499693783703</v>
+        <v>-0.366772034310005</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>0.3164499693783703</v>
+        <v>-0.366772034310005</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>0.338064596</v>
+        <v>0.376880436</v>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L9" s="45">
@@ -9557,23 +9557,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>15822.5993</v>
+        <v>15980.0738</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.8904362817496453</v>
+        <v>-0.469110335541926</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>0.8904362817496453</v>
+        <v>-0.469110335541926</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>0.263998935</v>
+        <v>0.245864055</v>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L10" s="45">
@@ -9693,23 +9693,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>10868.3803</v>
+        <v>11109.2214</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>0.08202331733778204</v>
+        <v>0.09106673003029472</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>0.08202331733778204</v>
+        <v>2.299820626654723</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>0.71984879</v>
+        <v>0.8404359850000001</v>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L11" s="45">
@@ -9829,23 +9829,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>11447.7785</v>
+        <v>11537.9981</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.1805393611774445</v>
+        <v>-0.6808852386980067</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>0.1805393611774445</v>
+        <v>-0.6808852386980067</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>0.204957588</v>
+        <v>0.207715513</v>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L12" s="45">
@@ -9969,23 +9969,23 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>721.913</v>
+        <v>753.551</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>1.845286548453591</v>
+        <v>-0.6031994766027693</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>1.845243444403642</v>
+        <v>-0.6031994766027693</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>0.362194751</v>
+        <v>0.357507294</v>
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L13" s="45">
@@ -10114,23 +10114,23 @@
         <v>2</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>6277.266</v>
+        <v>6324.635</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>0.8919161788769774</v>
+        <v>-1.007744536720815</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.8919161788769774</v>
+        <v>-1.007744536720815</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>0.102477621</v>
+        <v>0.119038156</v>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L14" s="45">
@@ -10255,23 +10255,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="11" t="n">
-        <v>10464.051</v>
+        <v>10857.294</v>
       </c>
       <c r="G15" s="11" t="n">
-        <v>-0.5330448450817437</v>
+        <v>0.4801203840851924</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>-1.051811095740889</v>
+        <v>3.758037876535583</v>
       </c>
       <c r="J15" s="11" t="n">
-        <v>0.149260195</v>
+        <v>0.171750425</v>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L15" s="45">
@@ -10393,23 +10393,23 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>5494.2777</v>
+        <v>5543.5332</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>0.610808955169261</v>
+        <v>-0.8059763634233925</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>0.5258752490469459</v>
+        <v>-0.8548838607812362</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v>0.305340939</v>
+        <v>0.392157644</v>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:15</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L16" s="45">
@@ -10534,17 +10534,17 @@
         <v>3</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>27815.6</v>
+        <v>27530.2</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>0.31</v>
+        <v>-1.54</v>
       </c>
       <c r="H17" s="0" t="inlineStr"/>
       <c r="I17" s="11" t="inlineStr"/>
       <c r="J17" s="11" t="inlineStr"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:15</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L17" s="45">
@@ -10792,17 +10792,17 @@
         <v>100</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>9623.5805</v>
+        <v>9583.4041</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>0.29</v>
+        <v>-0.42</v>
       </c>
       <c r="H19" s="0" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr"/>
       <c r="J19" s="11" t="inlineStr"/>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:16</t>
+          <t>20200218 16:29:46</t>
         </is>
       </c>
       <c r="L19" s="45">
@@ -11050,23 +11050,23 @@
         <v>100</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2466.959</v>
+        <v>2576.371</v>
       </c>
       <c r="G21" s="11" t="n">
-        <v>-1.003147325575845</v>
+        <v>0.9260670239049813</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="11" t="n">
-        <v>-1.936810003486137</v>
+        <v>4.43509600281157</v>
       </c>
       <c r="J21" s="11" t="n">
-        <v>0.347055938</v>
+        <v>0.320498249</v>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L21" s="0">
@@ -11195,23 +11195,23 @@
         <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>8893.598</v>
+        <v>9465.575999999999</v>
       </c>
       <c r="G22" s="11" t="n">
-        <v>-0.05892901570789319</v>
+        <v>2.225827897820552</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="11" t="n">
-        <v>-1.079741073917272</v>
+        <v>6.431345334025656</v>
       </c>
       <c r="J22" s="11" t="n">
-        <v>0.6154822010000001</v>
+        <v>0.760478558</v>
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L22" s="0">
@@ -11340,23 +11340,23 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3956.302</v>
+        <v>4132.834</v>
       </c>
       <c r="G23" s="11" t="n">
-        <v>0.0001769332165589736</v>
+        <v>0.8701344313885867</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="11" t="n">
-        <v>0.0001769332165589736</v>
+        <v>4.46223044540409</v>
       </c>
       <c r="J23" s="11" t="n">
-        <v>0.698085985</v>
+        <v>0.836122881</v>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L23" s="0">
@@ -11616,23 +11616,23 @@
         <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>4667.8054</v>
+        <v>4813.5505</v>
       </c>
       <c r="G25" s="11" t="n">
-        <v>0.5238960517184752</v>
+        <v>0.2619697913760661</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="11" t="n">
-        <v>0.5238960517184752</v>
+        <v>3.662601294753526</v>
       </c>
       <c r="J25" s="11" t="n">
-        <v>2.129033164</v>
+        <v>2.383757086</v>
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L25" s="0">
@@ -11756,23 +11756,23 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>6121.5241</v>
+        <v>6257.2438</v>
       </c>
       <c r="G26" s="11" t="n">
-        <v>0.7364950025251807</v>
+        <v>-0.2612568686465158</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="11" t="n">
-        <v>0.7364950025251807</v>
+        <v>-0.2612568686465158</v>
       </c>
       <c r="J26" s="11" t="n">
-        <v>1.108890995</v>
+        <v>1.14244656</v>
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L26" s="0">
@@ -12022,23 +12022,23 @@
         <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3456.762</v>
+        <v>3519.609</v>
       </c>
       <c r="G28" s="11" t="n">
-        <v>0.3687797631923483</v>
+        <v>-0.3571686401630697</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="11" t="n">
-        <v>0.3687797631923483</v>
+        <v>-0.3571686401630697</v>
       </c>
       <c r="J28" s="11" t="n">
-        <v>0.147586429</v>
+        <v>0.15584575</v>
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L28" s="0">
@@ -12159,23 +12159,23 @@
         <v>3</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3049.712</v>
+        <v>3217.884</v>
       </c>
       <c r="G29" s="11" t="n">
-        <v>0.1727403904740857</v>
+        <v>1.618245206275426</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.1727403904740857</v>
+        <v>5.696622677374229</v>
       </c>
       <c r="J29" s="11" t="n">
-        <v>1.187110204</v>
+        <v>1.357565852</v>
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L29" s="0">
@@ -12299,23 +12299,23 @@
         <v>3</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3149.4799</v>
+        <v>3363.1807</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>0.4642598068592196</v>
+        <v>2.718827068386564</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" s="11" t="n">
-        <v>0.4642598068592196</v>
+        <v>7.281033805681587</v>
       </c>
       <c r="J30" s="11" t="n">
-        <v>1.038171342</v>
+        <v>1.316447224</v>
       </c>
       <c r="K30" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L30" s="0">
@@ -12439,23 +12439,23 @@
         <v>3</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>6743.6724</v>
+        <v>7200.1705</v>
       </c>
       <c r="G31" s="11" t="n">
-        <v>0.5251921303554345</v>
+        <v>2.643451054553089</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="11" t="n">
-        <v>0.5251921303554345</v>
+        <v>7.330024347537602</v>
       </c>
       <c r="J31" s="11" t="n">
-        <v>2.263568372</v>
+        <v>2.77097012</v>
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L31" s="0">
@@ -12579,23 +12579,23 @@
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3463.4166</v>
+        <v>3506.4467</v>
       </c>
       <c r="G32" s="11" t="n">
-        <v>1.470732613478791</v>
+        <v>-0.6615730998159643</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="11" t="n">
-        <v>1.470732613478791</v>
+        <v>-0.6615730998159643</v>
       </c>
       <c r="J32" s="11" t="n">
-        <v>0.172679227</v>
+        <v>0.153679767</v>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L32" s="0">
@@ -12711,23 +12711,23 @@
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2287.1968</v>
+        <v>2425.2866</v>
       </c>
       <c r="G33" s="11" t="n">
-        <v>0.286139486411656</v>
+        <v>2.217197804541328</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" s="11" t="n">
-        <v>0.286139486411656</v>
+        <v>6.340928013769975</v>
       </c>
       <c r="J33" s="11" t="n">
-        <v>1.132505575</v>
+        <v>1.350950162</v>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L33" s="0">
@@ -12851,23 +12851,23 @@
         <v>5</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>9696.887699999999</v>
+        <v>9802.081200000001</v>
       </c>
       <c r="G34" s="11" t="n">
-        <v>0.8035289232396081</v>
+        <v>-0.7030956794433065</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="11" t="n">
-        <v>0.8035289232396081</v>
+        <v>-0.7030956794433065</v>
       </c>
       <c r="J34" s="11" t="n">
-        <v>0.286984785</v>
+        <v>0.322008653</v>
       </c>
       <c r="K34" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L34" s="0">
@@ -12991,23 +12991,23 @@
         <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>4769.0779</v>
+        <v>4874.8126</v>
       </c>
       <c r="G35" s="11" t="n">
-        <v>0.7364944699229503</v>
+        <v>-0.2612580315279783</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="11" t="n">
-        <v>0.7364944699229503</v>
+        <v>-0.2612580315279783</v>
       </c>
       <c r="J35" s="11" t="n">
-        <v>1.108890995</v>
+        <v>1.14244656</v>
       </c>
       <c r="K35" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L35" s="0">
@@ -13131,23 +13131,23 @@
         <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>3647.4363</v>
+        <v>3661.9615</v>
       </c>
       <c r="G36" s="11" t="n">
-        <v>2.221603603733874</v>
+        <v>-0.9463268702250989</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="11" t="n">
-        <v>2.221603603733874</v>
+        <v>-0.9463268702250989</v>
       </c>
       <c r="J36" s="11" t="n">
-        <v>0.187134834</v>
+        <v>0.149634025</v>
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L36" s="0">
@@ -13268,23 +13268,23 @@
         <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>14261.341</v>
+        <v>14380.319</v>
       </c>
       <c r="G37" s="11" t="n">
-        <v>-0.1160394004472174</v>
+        <v>-0.3845431551533169</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="11" t="n">
-        <v>-1.349503207257726</v>
+        <v>-0.3845431551533169</v>
       </c>
       <c r="J37" s="11" t="n">
-        <v>0.146185045</v>
+        <v>0.178084129</v>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L37" s="0">
@@ -13413,23 +13413,23 @@
         <v>3</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>3553.374</v>
+        <v>3761.859</v>
       </c>
       <c r="G38" s="11" t="n">
-        <v>0.3047215037406256</v>
+        <v>2.471530533138871</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" s="11" t="n">
-        <v>4.833177019611148</v>
+        <v>10.98399168503439</v>
       </c>
       <c r="J38" s="11" t="n">
-        <v>0.851997259</v>
+        <v>0.939355761</v>
       </c>
       <c r="K38" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L38" s="0">
@@ -13558,23 +13558,23 @@
         <v>2</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>8112.761</v>
+        <v>8149.542</v>
       </c>
       <c r="G39" s="11" t="n">
-        <v>0.5548465814807088</v>
+        <v>-0.9029043160730502</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I39" s="11" t="n">
-        <v>9.135295566538918</v>
+        <v>-0.9029043160730502</v>
       </c>
       <c r="J39" s="11" t="n">
-        <v>0.084218076</v>
+        <v>0.09677662699999999</v>
       </c>
       <c r="K39" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L39" s="0">
@@ -13821,23 +13821,23 @@
         <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>8131.3124</v>
+        <v>8940.4638</v>
       </c>
       <c r="G41" s="11" t="n">
-        <v>0.1647734063246235</v>
+        <v>3.650591993295832</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="11" t="n">
-        <v>0.1647734063246235</v>
+        <v>10.13222547868754</v>
       </c>
       <c r="J41" s="11" t="n">
-        <v>0.161857231</v>
+        <v>0.269721146</v>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L41" s="0">
@@ -14384,19 +14384,19 @@
         <v>10000</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.9581</v>
+        <v>0.9989</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1.272</v>
+        <v>1.2964</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1.621</v>
+        <v>1.657</v>
       </c>
       <c r="L3" s="0" t="inlineStr"/>
       <c r="M3" s="0" t="inlineStr"/>
@@ -14452,13 +14452,13 @@
         <v>3000</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>2.955</v>
+        <v>2.961</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>27815.6</v>
+        <v>27530.2</v>
       </c>
       <c r="AH3" s="0" t="n">
         <v>14000</v>
@@ -14476,10 +14476,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1585.28326198874</v>
+        <v>2348.161475440668</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>3.68670526043893</v>
+        <v>5.460840640559693</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>2049.08864954432</v>
@@ -14488,22 +14488,22 @@
         <v>15.7622203811102</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>276.7349565590468</v>
+        <v>714.3623297221924</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>2.767349565590468</v>
+        <v>7.143623297221923</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>242.3705612368147</v>
+        <v>438.8437072228037</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>2.423705612368147</v>
+        <v>4.388437072228037</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>285.5329949238574</v>
+        <v>513.9593908629439</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>2.855329949238574</v>
+        <v>5.139593908629439</v>
       </c>
       <c r="L4" s="11" t="inlineStr"/>
       <c r="M4" s="11" t="inlineStr"/>
@@ -14556,16 +14556,16 @@
         <v>0.523864959254955</v>
       </c>
       <c r="AD4" s="12" t="n">
-        <v>396.5517241379313</v>
+        <v>403.448275862069</v>
       </c>
       <c r="AE4" s="12" t="n">
-        <v>13.21839080459771</v>
+        <v>13.44827586206896</v>
       </c>
       <c r="AF4" s="12" t="n">
-        <v>384.0930251310898</v>
+        <v>277.5477717706593</v>
       </c>
       <c r="AG4" s="12" t="n">
-        <v>3.840930251310898</v>
+        <v>2.775477717706593</v>
       </c>
       <c r="AH4" s="0" t="n">
         <v>1053.2994269341</v>
@@ -14583,10 +14583,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>340.9329358114118</v>
+        <v>-214.4663907204111</v>
       </c>
       <c r="C5" s="11" t="n">
-        <v>0.7928672925846786</v>
+        <v>-0.4987590481870026</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>85.45700135074129</v>
@@ -14595,22 +14595,22 @@
         <v>0.657361548851856</v>
       </c>
       <c r="F5" s="11" t="n">
-        <v>181.7215727948991</v>
+        <v>-48.81450488145064</v>
       </c>
       <c r="G5" s="11" t="n">
-        <v>1.817215727948991</v>
+        <v>-0.4881450488145064</v>
       </c>
       <c r="H5" s="11" t="n">
-        <v>60.90326662975592</v>
+        <v>-33.82533825338223</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>0.6090326662975591</v>
+        <v>-0.3382533825338223</v>
       </c>
       <c r="J5" s="11" t="n">
-        <v>68.32298136645899</v>
+        <v>24.19842710223837</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>0.6832298136645899</v>
+        <v>0.2419842710223837</v>
       </c>
       <c r="L5" s="11" t="inlineStr"/>
       <c r="M5" s="11" t="inlineStr"/>
@@ -14663,16 +14663,16 @@
         <v>-0.346220427005194</v>
       </c>
       <c r="AD5" s="12" t="n">
-        <v>-1.014884979702189</v>
+        <v>-2.024974687816629</v>
       </c>
       <c r="AE5" s="12" t="n">
-        <v>-0.03382949932340629</v>
+        <v>-0.0674991562605543</v>
       </c>
       <c r="AF5" s="12" t="n">
-        <v>31</v>
+        <v>-154</v>
       </c>
       <c r="AG5" s="12" t="n">
-        <v>0.31</v>
+        <v>-1.54</v>
       </c>
       <c r="AH5" s="0" t="n">
         <v>197.030035634891</v>
@@ -15455,10 +15455,10 @@
       <c r="AB19" s="11" t="inlineStr"/>
       <c r="AC19" s="11" t="inlineStr"/>
       <c r="AD19" s="12" t="n">
-        <v>396.5517241379313</v>
+        <v>403.448275862069</v>
       </c>
       <c r="AE19" s="12" t="n">
-        <v>13.21839080459771</v>
+        <v>13.44827586206896</v>
       </c>
       <c r="AF19" s="0" t="inlineStr"/>
       <c r="AG19" s="0" t="inlineStr"/>
@@ -16213,22 +16213,22 @@
       <c r="D31" s="0" t="inlineStr"/>
       <c r="E31" s="0" t="inlineStr"/>
       <c r="F31" s="12" t="n">
-        <v>276.7349565590468</v>
+        <v>714.3623297221924</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>2.767349565590468</v>
+        <v>7.143623297221923</v>
       </c>
       <c r="H31" s="12" t="n">
-        <v>242.3705612368147</v>
+        <v>438.8437072228037</v>
       </c>
       <c r="I31" s="12" t="n">
-        <v>2.423705612368147</v>
+        <v>4.388437072228037</v>
       </c>
       <c r="J31" s="12" t="n">
-        <v>285.5329949238574</v>
+        <v>513.9593908629439</v>
       </c>
       <c r="K31" s="12" t="n">
-        <v>2.855329949238574</v>
+        <v>5.139593908629439</v>
       </c>
       <c r="L31" s="0" t="inlineStr"/>
       <c r="M31" s="0" t="inlineStr"/>
@@ -16251,10 +16251,10 @@
       <c r="AD31" s="12" t="inlineStr"/>
       <c r="AE31" s="12" t="inlineStr"/>
       <c r="AF31" s="12" t="n">
-        <v>384.0930251310898</v>
+        <v>277.5477717706593</v>
       </c>
       <c r="AG31" s="12" t="n">
-        <v>3.840930251310898</v>
+        <v>2.775477717706593</v>
       </c>
       <c r="AH31" s="0" t="inlineStr"/>
       <c r="AI31" s="0" t="inlineStr"/>
@@ -16671,6 +16671,12 @@
     <cfRule type="cellIs" priority="6622" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6689" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6690" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="2045" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16931,6 +16937,12 @@
     <cfRule type="cellIs" priority="6624" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6691" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6692" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="2203" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17411,6 +17423,12 @@
     <cfRule type="cellIs" priority="6566" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6633" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6634" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
     <cfRule type="cellIs" priority="1901" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -20667,6 +20685,12 @@
     <cfRule type="cellIs" priority="6602" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6669" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6670" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4">
     <cfRule type="cellIs" priority="2025" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -20843,6 +20867,12 @@
     <cfRule type="cellIs" priority="6604" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6671" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6672" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4">
     <cfRule type="cellIs" priority="2035" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21007,6 +21037,12 @@
     <cfRule type="cellIs" priority="6614" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6681" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6682" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
     <cfRule type="cellIs" priority="2037" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21171,6 +21207,12 @@
     <cfRule type="cellIs" priority="6616" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6683" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6684" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" priority="2047" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21431,6 +21473,12 @@
     <cfRule type="cellIs" priority="6626" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6693" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6694" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" priority="2049" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21691,6 +21739,12 @@
     <cfRule type="cellIs" priority="6628" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6695" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6696" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" priority="2205" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -22171,6 +22225,12 @@
     <cfRule type="cellIs" priority="6570" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6637" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6638" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:K5">
     <cfRule type="cellIs" priority="1905" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25427,6 +25487,12 @@
     <cfRule type="cellIs" priority="6606" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6673" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6674" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
     <cfRule type="cellIs" priority="2029" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25603,6 +25669,12 @@
     <cfRule type="cellIs" priority="6608" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6675" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6676" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5">
     <cfRule type="cellIs" priority="2039" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25767,6 +25839,12 @@
     <cfRule type="cellIs" priority="6618" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6685" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6686" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5">
     <cfRule type="cellIs" priority="2041" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25931,6 +26009,12 @@
     <cfRule type="cellIs" priority="6620" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6687" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6688" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AK7">
     <cfRule type="cellIs" priority="7" operator="lessThan" dxfId="2">
@@ -29461,6 +29545,12 @@
     <cfRule type="cellIs" priority="6598" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6665" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6666" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE19">
     <cfRule type="cellIs" priority="522" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -29703,6 +29793,12 @@
     <cfRule type="cellIs" priority="6600" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6667" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6668" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
     <cfRule type="cellIs" priority="491" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -36129,6 +36225,12 @@
     <cfRule type="cellIs" priority="6562" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6629" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6630" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" priority="6359" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36155,6 +36257,12 @@
     <cfRule type="cellIs" priority="6564" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6631" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6632" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" priority="6363" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36181,6 +36289,12 @@
     <cfRule type="cellIs" priority="6568" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6635" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6636" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" priority="6367" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36207,6 +36321,12 @@
     <cfRule type="cellIs" priority="6572" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6639" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6640" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" priority="6369" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36233,6 +36353,12 @@
     <cfRule type="cellIs" priority="6574" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6641" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6642" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" priority="6371" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36259,6 +36385,12 @@
     <cfRule type="cellIs" priority="6576" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6643" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6644" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" priority="6373" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36285,6 +36417,12 @@
     <cfRule type="cellIs" priority="6578" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6645" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6646" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="6375" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36311,6 +36449,12 @@
     <cfRule type="cellIs" priority="6580" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6647" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6648" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" priority="6377" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36337,6 +36481,12 @@
     <cfRule type="cellIs" priority="6582" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6649" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6650" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" priority="6379" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36363,6 +36513,12 @@
     <cfRule type="cellIs" priority="6584" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6651" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6652" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
     <cfRule type="cellIs" priority="6381" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36389,6 +36545,12 @@
     <cfRule type="cellIs" priority="6586" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6653" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6654" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
     <cfRule type="cellIs" priority="6383" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36415,6 +36577,12 @@
     <cfRule type="cellIs" priority="6588" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6655" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6656" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" priority="6385" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36441,6 +36609,12 @@
     <cfRule type="cellIs" priority="6590" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6657" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6658" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" priority="6387" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36467,6 +36641,12 @@
     <cfRule type="cellIs" priority="6592" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6659" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6660" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" priority="6389" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36493,6 +36673,12 @@
     <cfRule type="cellIs" priority="6594" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6661" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6662" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
     <cfRule type="cellIs" priority="6391" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36519,6 +36705,12 @@
     <cfRule type="cellIs" priority="6596" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6663" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6664" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD31">
     <cfRule type="cellIs" priority="6405" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36561,6 +36753,12 @@
     <cfRule type="cellIs" priority="6610" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6677" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6678" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG31">
     <cfRule type="cellIs" priority="6543" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36573,6 +36771,12 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6612" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6679" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6680" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
